--- a/Data.xlsx
+++ b/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="409">
   <si>
     <t>ID</t>
   </si>
@@ -67,6 +67,18 @@
     <t>Body</t>
   </si>
   <si>
+    <t>Milky Taste</t>
+  </si>
+  <si>
+    <t>Bitterness with Milk</t>
+  </si>
+  <si>
+    <t>Roastiness with Milk</t>
+  </si>
+  <si>
+    <t>Creamy Texture</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -94,22 +106,430 @@
     <t>OL2</t>
   </si>
   <si>
+    <t>OL3</t>
+  </si>
+  <si>
+    <t>OL4</t>
+  </si>
+  <si>
+    <t>OL5</t>
+  </si>
+  <si>
+    <t>OL6</t>
+  </si>
+  <si>
+    <t>OL7</t>
+  </si>
+  <si>
+    <t>OL8</t>
+  </si>
+  <si>
+    <t>OL9</t>
+  </si>
+  <si>
+    <t>OL10</t>
+  </si>
+  <si>
+    <t>OL11</t>
+  </si>
+  <si>
+    <t>OL12</t>
+  </si>
+  <si>
+    <t>OL13</t>
+  </si>
+  <si>
+    <t>OL14</t>
+  </si>
+  <si>
+    <t>OL15</t>
+  </si>
+  <si>
+    <t>OL16</t>
+  </si>
+  <si>
+    <t>OL17</t>
+  </si>
+  <si>
+    <t>OL18</t>
+  </si>
+  <si>
+    <t>OL19</t>
+  </si>
+  <si>
+    <t>OL20</t>
+  </si>
+  <si>
+    <t>OL21</t>
+  </si>
+  <si>
+    <t>OL22</t>
+  </si>
+  <si>
+    <t>OL23</t>
+  </si>
+  <si>
+    <t>OL24</t>
+  </si>
+  <si>
+    <t>OL25</t>
+  </si>
+  <si>
+    <t>OL26</t>
+  </si>
+  <si>
+    <t>OL27</t>
+  </si>
+  <si>
+    <t>OL28</t>
+  </si>
+  <si>
+    <t>OL29</t>
+  </si>
+  <si>
+    <t>OL30</t>
+  </si>
+  <si>
+    <t>OL31</t>
+  </si>
+  <si>
+    <t>OL32</t>
+  </si>
+  <si>
+    <t>OL33</t>
+  </si>
+  <si>
+    <t>OL34</t>
+  </si>
+  <si>
+    <t>OL35</t>
+  </si>
+  <si>
+    <t>OL36</t>
+  </si>
+  <si>
     <t>Ispirazione Napoli</t>
   </si>
   <si>
     <t>Kazaar</t>
   </si>
   <si>
-    <t>Images/OL1_Ispirazione Napoli_Original_Capsule.png</t>
-  </si>
-  <si>
-    <t>Images/OL2_Kazaar_Original_Capsule.png</t>
-  </si>
-  <si>
-    <t>Images/OL1_Ispirazione Napoli_Original_Sleeve.png</t>
-  </si>
-  <si>
-    <t>Images/OL2_Kazaar_Original_Sleeve.png</t>
+    <t>Ristretto</t>
+  </si>
+  <si>
+    <t>Ristretto Decaffeinato</t>
+  </si>
+  <si>
+    <t>Arpeggio</t>
+  </si>
+  <si>
+    <t>Arpeggio Decaffeinato</t>
+  </si>
+  <si>
+    <t>Inspirazione Venezia</t>
+  </si>
+  <si>
+    <t>Inspirazione Roma</t>
+  </si>
+  <si>
+    <t>Livanto</t>
+  </si>
+  <si>
+    <t>Cape Town Lungo</t>
+  </si>
+  <si>
+    <t>Miami Espresso</t>
+  </si>
+  <si>
+    <t>Rio De Janeiro Espresso</t>
+  </si>
+  <si>
+    <t>Istanbul Espresso</t>
+  </si>
+  <si>
+    <t>Stockholm Lungo</t>
+  </si>
+  <si>
+    <t>Paris Espresso</t>
+  </si>
+  <si>
+    <t>Vienna Lungo</t>
+  </si>
+  <si>
+    <t>Tokyo Lungo</t>
+  </si>
+  <si>
+    <t>Shanghai Lungo</t>
+  </si>
+  <si>
+    <t>Buenos Aires Lungo</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia - Fairtrade</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Peru Organic</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Cioccolatino</t>
+  </si>
+  <si>
+    <t>Vaniglia</t>
+  </si>
+  <si>
+    <t>Nocciola</t>
+  </si>
+  <si>
+    <t>Caramello</t>
+  </si>
+  <si>
+    <t>Corto</t>
+  </si>
+  <si>
+    <t>Scuro</t>
+  </si>
+  <si>
+    <t>Chiaro</t>
+  </si>
+  <si>
+    <t>Capriccio</t>
+  </si>
+  <si>
+    <t>Cosi</t>
+  </si>
+  <si>
+    <t>Volluto</t>
+  </si>
+  <si>
+    <t>Volluto Decaffeinato</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16709230690334/ispirazione-napoli-PLP.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16283547566110/Palermo-kazaar-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16217625559070/ispirazione-ristretto-italiano-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16262679461918/ristretto-italiano-decaffeinato-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15990477783070/firenze-arpeggio-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15942162972702/firenze-arpeggio-decaffeinato-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16708520280094/ispirazione-venezia-PLP.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441097035806/ispirazione-roma-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441097134110/ispirazione-genova-livanto-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441093136414/capetown-envivo-lungo-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15104178651166/before-PLP-318x318px.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15430408437790/C-0888-before-PLP-318x318px.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15414727049246/before-PLP-318x318px.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15906838806558/stockholm-fortissio-lungo-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16724971225118/paris-2x.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16454751682590/vienna-linizio-lungo-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15942164447262/ol-tokyo-vivalto-lungo-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16106997547038/shanghai-lungo-plp.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16454959497246/buenos-aires-lungo-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441091170334/india-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441091596318/indonesia-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441091694622/colombia-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15448290885662/7734.10-PLP-318x318.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441091792926/nicaragua-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441091891230/ethiopia-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/17431322361886/C-1060-Responsive-PLP.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/17432222531614/C-1062-Responsive-PLP.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/17432559943710/C-1063-Responsive-PLP.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/17431332945950/C-1061-Responsive-PLP.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14438025363486/corto-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16291413262366/scuro-OL-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16154719715358/chiaro-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15762782748702/capriccio.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15762785566750/cosi.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15762784452638/volluto-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15942161104926/volluto-decaffeinato-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/ispirazione-napoli_L.png</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51vv3BK5STL._AC_UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/ispirazione-ristretto_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/ispirazione-ristretto-decaffeinato_S.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/ispirazione-firenze-arpeggio_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/ispirazione-firenze-arpeggio-decaffeinato_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/ispirazione-venezia_S.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.si/files/thumbs/files/images/product/thumbs_600/7747-80_2_600_600px.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/ispirazione-genova-livanto_XL.png?impolicy=medium&amp;imwidth=824&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/cape-town-envivo-lungo_XL.png?impolicy=medium&amp;imwidth=824&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15143389757470/AT-B2C-2022-WEX-Miami-Image-Set-Mobile.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/B2C-enriched-pdp-wex-2022/rio-de-janeiro-espresso/main-image_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/B2C-enriched-pdp-wex-2022/istanbul-espresso/main-image_S.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15941486116894/ol-coffee-sleeves-stockholm-16-9.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/B2C-enriched-pdp-wex-2022/paris-espresso/main-image_S.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/vienna-linizio-lungo_L.png</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/g/cTQAAOSwjrpkAaJ9/s-l1200.webp</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/shangai-lungo_S.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.si/files/thumbs/files/images/product/thumbs_600/7757-80_2_600_600px.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/india_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/indonesia_S.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/colombia_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/peru_S.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/nicaragua_XL.png?impolicy=medium&amp;imwidth=824&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/ethiopia_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.si/files/thumbs/files/images/product/thumbs_600/cioccolatino-nespresso-capsules-sleeve_600_600px.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/global/coffees/ol/sku-main-info-product/vaniglia_2x.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/global/coffees/ol/sku-main-info-product/nocciola_2x.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/global/coffees/ol/sku-main-info-product/caramello_2x.png?impolicy=medium&amp;imwidth=824&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/corto_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/scuro_XL.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/chiaro_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/commons/img/coffees/OL/composition/ol_coffee-sleeves_capriccio_16-9_2x.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/global/coffees/ol/sku-main-info-product/cosi_2x.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/commons/img/coffees/OL/composition/ol_coffee-sleeves_volluto_2x.png</t>
+  </si>
+  <si>
+    <t>https://down-ph.img.susercontent.com/file/384c222616f53cf0a3676311b8b8a33d</t>
   </si>
   <si>
     <t>Original</t>
@@ -121,68 +541,714 @@
     <t>Italian Espressos</t>
   </si>
   <si>
+    <t>World Explorations</t>
+  </si>
+  <si>
+    <t>Master Origins</t>
+  </si>
+  <si>
+    <t>Barista Creations</t>
+  </si>
+  <si>
+    <t>Original Collection</t>
+  </si>
+  <si>
     <t>25 ml (Ristretto) &amp; 40 ml (Espresso)</t>
   </si>
   <si>
+    <t>40 ml (Espresso)</t>
+  </si>
+  <si>
+    <t>110 ml (Lungo)</t>
+  </si>
+  <si>
+    <t>40 ml (Espresso) &amp; 110 (Lungo)</t>
+  </si>
+  <si>
+    <t>110 ml (Lungo), Cappuccino &amp; Latte Macchiato</t>
+  </si>
+  <si>
+    <t>Cappuccino &amp; Latte Macchiato</t>
+  </si>
+  <si>
     <t>Dark &amp; Creamy</t>
   </si>
   <si>
     <t>Exceptionally Intense &amp; Syrupy</t>
   </si>
   <si>
+    <t>Powerful &amp; Contrasting</t>
+  </si>
+  <si>
+    <t>Intense &amp; Creamy</t>
+  </si>
+  <si>
+    <t>Balanced &amp; Thick Body</t>
+  </si>
+  <si>
+    <t>Full &amp; Balanced</t>
+  </si>
+  <si>
+    <t>Round &amp; Balanced</t>
+  </si>
+  <si>
+    <t>Potent &amp; Roasted</t>
+  </si>
+  <si>
+    <t>Roasted with a peppery note</t>
+  </si>
+  <si>
+    <t>Cereal &amp; Spicy</t>
+  </si>
+  <si>
+    <t>Roasted with a fruity note and a hint of almond</t>
+  </si>
+  <si>
+    <t>Rich &amp; Full-bodied</t>
+  </si>
+  <si>
+    <t>Cereal and biscuity, with a hint of citrus</t>
+  </si>
+  <si>
+    <t>Round &amp; Smooth</t>
+  </si>
+  <si>
+    <t>Floral &amp; Complex</t>
+  </si>
+  <si>
+    <t>Fruity with fine acidity</t>
+  </si>
+  <si>
+    <t>Sweet &amp; Cereal</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Wet hulled Arabica</t>
+  </si>
+  <si>
+    <t>Late Harvest Arabica</t>
+  </si>
+  <si>
+    <t>High up in the Andes</t>
+  </si>
+  <si>
+    <t>With "Black-Honey" Processed Arabica</t>
+  </si>
+  <si>
+    <t>Ethiopia with Dry Processed Arabica</t>
+  </si>
+  <si>
+    <t>Chocolate Flavoured</t>
+  </si>
+  <si>
+    <t>Vanilla Flavoured</t>
+  </si>
+  <si>
+    <t>Hazelnut Flavoured</t>
+  </si>
+  <si>
+    <t>Caramel Flavoured</t>
+  </si>
+  <si>
+    <t>Very spicy and slightly smoked</t>
+  </si>
+  <si>
+    <t>With balanced biscuit notes</t>
+  </si>
+  <si>
+    <t>With notes of caramel and sweet biscuits</t>
+  </si>
+  <si>
+    <t>Rich &amp; Distinctive</t>
+  </si>
+  <si>
+    <t>Mild &amp; Delicately roasted</t>
+  </si>
+  <si>
+    <t>Sweet &amp; Light</t>
+  </si>
+  <si>
     <t>Intense &amp; Roasted</t>
   </si>
   <si>
     <t>Woody &amp; Spicy</t>
   </si>
   <si>
+    <t>Dark Roast &amp; Hint of Fruity</t>
+  </si>
+  <si>
+    <t>Intense, Dark Roast, &amp; Cocoa</t>
+  </si>
+  <si>
+    <t>Dark Roast &amp; Cocoa</t>
+  </si>
+  <si>
+    <t>Woody &amp; Cereal</t>
+  </si>
+  <si>
+    <t>Caramel &amp; Balanced</t>
+  </si>
+  <si>
+    <t>Roasted &amp; Woody</t>
+  </si>
+  <si>
+    <t>Roasted &amp; Peppery Note</t>
+  </si>
+  <si>
+    <t>Spicy</t>
+  </si>
+  <si>
+    <t>Fruity &amp; Roasted</t>
+  </si>
+  <si>
+    <t>Roasted</t>
+  </si>
+  <si>
+    <t>Citrus, Biscuity &amp; Citrus</t>
+  </si>
+  <si>
+    <t>Berry</t>
+  </si>
+  <si>
+    <t>Cereal &amp; Caramel</t>
+  </si>
+  <si>
+    <t>Intense &amp; Spicy</t>
+  </si>
+  <si>
+    <t>Intense, Rich, Cereal &amp; Woody</t>
+  </si>
+  <si>
+    <t>Winey</t>
+  </si>
+  <si>
+    <t>Fruity</t>
+  </si>
+  <si>
+    <t>Sweet</t>
+  </si>
+  <si>
+    <t>Chocolate, Flavoured &amp; Biscuity</t>
+  </si>
+  <si>
+    <t>Flavoured &amp; Vanilla</t>
+  </si>
+  <si>
+    <t>Flavoured, Biscuity &amp; Hazelnut</t>
+  </si>
+  <si>
+    <t>Flavoured &amp; Caramel</t>
+  </si>
+  <si>
+    <t>Intense</t>
+  </si>
+  <si>
+    <t>Roasted &amp; Balanced</t>
+  </si>
+  <si>
+    <t>Balanced, Sweet &amp; Biscuity</t>
+  </si>
+  <si>
+    <t>Balanced &amp; Cereal</t>
+  </si>
+  <si>
+    <t>Fruity &amp; Cereal</t>
+  </si>
+  <si>
+    <t>Balanced, Fruity &amp; Cereal</t>
+  </si>
+  <si>
     <t>A velvety, creamy cup with an extremely thick body and pleasantly bitter cocoa notes.​</t>
   </si>
   <si>
-    <t xml:space="preserve">You’ll taste the audacious bitterness and peppery notes leaping out through the thick syrupy body. </t>
+    <t>You’ll taste the audacious bitterness and peppery notes leaping out through the thick syrupy body. Together the Arabica and Robusta balance each other out in this espresso. It reflects both the Palermo coastal lifestyle and its rich history. You can sit back in the sun and enjoy your Kazaar on the terrace, with everything from the food on your plate to the architecture surrounding you whispering the histories of all who’ve passed through Palermo.</t>
+  </si>
+  <si>
+    <t>Ristretto is a deliciously complex coffee, that displays roasty and intense notes in combination with fruity notes and a hint of acidity. Milk won’t hide Ristretto contrasted bouquet. You will love how it rounds out the blend and gives it a creamy texture.</t>
+  </si>
+  <si>
+    <t>Boldly roasty but balanced out by soft cocoa notes. You may catch some of the subtle acidity and fruity notes that make this Nespresso Decaf capsule so mysteriously complex.</t>
+  </si>
+  <si>
+    <t>Arpeggio is dense and creamy, combining bold roasty ​ and cocoa notes with an irresistible velvety texture.​ Arpeggio’s potent character can push through milk. It’s an intense coffee, but the sweet notes of Arabica mix well with milk froth.</t>
+  </si>
+  <si>
+    <t>Arpeggio Decaffeinato is as dense and creamy as the no decaffeinated version. Decaffeination doesn’t diminish the bold roasty and cocoa notes. The crema gives it a creamy, velvety texture that is irresistible. Perfectly pairs with milk.</t>
+  </si>
+  <si>
+    <t>Venezia is a mellow, rounded and delicately aromatic coffee that will remind you of coffee beans fresh out of the roaster.​</t>
+  </si>
+  <si>
+    <t>From the days of Ancient Rome, a great many cultures passed through this metropolis. Different layers of civilization towering up to the present day when Modern Rome adds its layer of elegance to the rich history of the city. Ispirazione Roma, too, is beautifully complex. There’s a subtle balance between the strength of the roastiness, the depth of the woodsy, cereal notes, and the finesse of the acidity and elegant aromatics.</t>
+  </si>
+  <si>
+    <t>Smooth, rounded and delicately aromatic coffee. Its lighter roast develops the smooth and full body and keeps the finer aromas present. Toasted cereal fragrance and sweet caramel notes. Pairs perfectly with milk.</t>
+  </si>
+  <si>
+    <t>This blend brings you Cape Town’s taste in coffee. With South Africa as a stopping point on the old trade routes, Asian coffees shaped local taste over time. World Explorations Cape Town Lungo reflects this preference with a blend of Indian Arabica and Robusta. It results in our most intense Lungo – full-bodied and with a punchy bitter note and woodsy aroma. Enjoy it like a local: Add a splash of milk to your long cup and experience the silky texture.</t>
+  </si>
+  <si>
+    <t>Short, dark split roasting and a fine grind help evoke every ventanita’s Cuban Cafecito. Always sweetened with a sprinkle of brown sugar, this coffee is as vibrant as the context in which it’s enjoyed. While Americans grab their tall coffees to-go, Miami reflects its strong Hispanic influence: coffee is short and shared. Intense, with thick crema, its strong roasted character begs for brown sugar to soften the bitter notes. Enjoy your Cafecito with brown sugar and people because in Miami, coffee is a way to be together.</t>
+  </si>
+  <si>
+    <t>A pleasantly bitter and velvety-textured cup with unexpected walnut, sandalwood and herbal notes reminiscent of thyme and rosemary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This thick and velvety blend displays wild spicy and fruity notes, with a hint of almond and a pleasant roasty aftertaste.
+</t>
+  </si>
+  <si>
+    <t>Stockholm Lungo is a coffee with sweet cereal and malty toasted notes that lies beneath a ​veil of acidity and lively bittereness.​ Paired with milk, this coffee reveals additional sweet biscuit and toffee notes.</t>
+  </si>
+  <si>
+    <t>Paris Espresso is a balanced coffee with light bitterness, cereal biscuity notes, pleasant acidity and a hint of citrus.​ Paired with milk, this coffee reveals a caramelic and biscuity note, with a bitter almond touch.</t>
+  </si>
+  <si>
+    <t>Vienna’s coffeehouse tradition shaped the coffee culture of this vibrant city, known for its many recipes and the smoothness of its coffee. World Explorations Vienna Lungo recreates this balanced and pleasant Viennese taste by pairing sweet Brazilian and Colombian Arabicas, lightly roasted by our experts to enhance the malty and aromatic notes in the cup. Enjoy it like a local: Top up your Lungo with hot water for a 150ml cup and pair it with a slice of cake.</t>
+  </si>
+  <si>
+    <t>Tokyo Lungo combines delicate, flowery notes with refined toasted cereal notes and a hint of fruit.​</t>
+  </si>
+  <si>
+    <t>WORLD EXPLORATIONS SHANGHAI LUNGO is an insight into the emerging Asian coffee culture. Crafted from Kenyan, Chinese and Indonesian Arabicas, this distinctive light-roast blend will please the palate with its berry notes and fine acidity. Enjoy it like a local: Lengthen this long cup of coffee with a splash of cream and take it on-the-go.</t>
+  </si>
+  <si>
+    <t>WORLD EXPLORATIONS BUENOS AIRES LUNGO blends a gently roasted Colombian Arabica with Ugandan Robusta to deliver distinct cereal and sweet popcorn notes. A tribute to the city’s love for smooth long cups. Drink it like a local: Add a generous drop of milk and sugar at will to your Lungo for an extra treat.</t>
+  </si>
+  <si>
+    <t>A monsooned coffee, unique to India’s southwest coast, offering a powerful cup with distinct intense, woody and spicy notes that come mostly from the Robusta part of the blend. Perfectly pairs with milk.</t>
+  </si>
+  <si>
+    <t>Master Origins Indonesia has a thick and velvety body, cured tobacco notes and a hint of tropical woody aromas.​Try Master Origins Indonesia wet-hulled Arabica with a dash of milk - nutty, woody and roasted notes emerge in this intense Master Origins coffee with milk.</t>
+  </si>
+  <si>
+    <t>Master Origins Colombia is a smooth and a fruity coffee with bright acidity and winey red fruit notes of blackcurrant and cranberry.​ Paired with milk, this coffee reveals additional sweet biscuit notes.</t>
+  </si>
+  <si>
+    <t>An elegant organic Arabica crafted by remote smallholder farmers in Peru’s remote Andes’ mountains, graced with smooth toasted cereal and fruit notes. After going to such great lengths to source the finest organic Peruvian coffee, it was only natural to take the same care in roasting this coffee. Peru Organic is a single origin coffee roasted in two parts to bring a nuanced complexity to the final cup. The two splits are lightly roasted and highlight the bright and smooth character of the blend while revealing the exotic fruity notes.</t>
+  </si>
+  <si>
+    <t>With ''Black-Honey'' processed Arabica, Master Origins Nicaragua is a nectarous coffee. It has a satiny smooth texture and warming sweet cereal notes. Its distinct sweetness comes from the rare Black-Honey process. If you like it with milk froth, Master Origins Nicaragua with ‘Black-Honey’ processed Arabica makes a rich latte macchiato. As a coffee with milk, it’s balanced and has nutty, roasted notes that surface.</t>
+  </si>
+  <si>
+    <t>It has an orange blossom aroma, but the rich fruit jam notes come from the sun-dried coffee in Master Origins Ethiopia with dry processed Arabica. Continually hand-turning the coffee cherry to ensure even drying calls for great care. And Ethiopian farmers have used this method for longer than anyone else. If you like milk and coffee, try Master Origins Ethiopia with dry processed Arabica with milk froth to make a cappuccino. You’ll find all the delicate floral notes still smoothly dancing through this cup of coffee with milk.</t>
+  </si>
+  <si>
+    <t>This flavoured blend delights with its elegant dark chocolate flavour, complemented by notes of biscuit cereal.</t>
+  </si>
+  <si>
+    <t>This flavoured blend delights with the classic vanilla flavour combined with sweet biscuit and cereal notes.</t>
+  </si>
+  <si>
+    <t>This flavoured blend delights with its classic hazelnut flavour, complemented by notes praline, biscuit, and cereals.</t>
+  </si>
+  <si>
+    <t>This flavoured blend delights with the classic caramel flavour combined with sweet biscuit and nutty notes.</t>
+  </si>
+  <si>
+    <t>For BARISTA CREATIONS Corto, we took our inspiration from the dark roasts and thick textures created by the expert baristas in Spain, that is why it is easily recognizable by its raw strength and intense, roasty character. Corto can punch through milk with its rich aftertaste, elegant bitterness, and a thick, textured body. With a dash of hot milk and milk froth crowning the cup, you’ll experience Corto in the traditional cortado recipe’s way.</t>
+  </si>
+  <si>
+    <t>An intense coffee that remains beautifully in balance with milk. It’s just roasty enough to push through milk, and its delicate sweetness tempers its intensity to make it a compelling Cappuccino.</t>
+  </si>
+  <si>
+    <t>BARISTA CREATIONS Chiaro has hardly a hint of roastiness, and almost no bitterness or acidity you can perceive. It’s all creamy caramel and sweet biscuit notes when you add milk. The baristas in Brooklyn inspired us in the way their light roast values the natural sweetness of coffee and lends a decadent smoothness to the cup when you add milk.</t>
+  </si>
+  <si>
+    <t>Capriccio rich profile combines fine acidity with delicious toasted cereal notes and a touch of bitterness.​ To be enjoyed as a cappuccino or latte macchiato for a pure moment of indulgence.</t>
+  </si>
+  <si>
+    <t>A delicate pairing of fruity flavors and toasted cereal notes. Cosi is low in bitterness, roastiness and body - it’s all about the classic aromatics and harmonious balance. ​Cosi with milk takes on an indulgent silky texture and sweet biscuit notes.</t>
+  </si>
+  <si>
+    <t>Like a fresh, oven-baked brioche, Volluto has an irresistible perfume and comforting sweet biscuit notes with a touch of winey fruitiness that enlivens the blend.​ Pairs perfectly with milk.</t>
+  </si>
+  <si>
+    <t>And Volluto Decaffeinato is faithful to form - Brazilian and Colombian coffees are carefully composed and now gently decaffeinated - for very sunny living. We decaffeinate naturally to make sure the coffee beans’ quality and taste is protected as much as possible. And just as with Volluto, in a Volluto Decaffeinato with milk you’ll taste the irresistible charm of those easy sweet biscuit and caramel notes with a splash of lively fruit aromas.</t>
   </si>
   <si>
     <t>Ispirazione Napoli pays tribute to the short, strong and dark espressos of this southern Italian coastal city. It’s a velvety, creamy cup with an extremely thick body and a kiss of pleasant bitterness in its aftertaste.</t>
   </si>
   <si>
-    <t xml:space="preserve">It reflects both the Palermo coastal lifestyle and its rich history. You can sit back in the sun and enjoy your Kazaar on the terrace, with everything from the food on your plate to the architecture surrounding you whispering the histories of all who’ve passed through Palermo. </t>
+    <t>A long, dark roast inspired by the union of Sicilian coffee artistry and African and Arabian heritage is guaranteed to spice things up.</t>
+  </si>
+  <si>
+    <t>You can't help but fall for Ristretto, a canadian best-seller. This medium dark roast embodies Italy’s iconic coffee culture in just a short, quick sip.</t>
+  </si>
+  <si>
+    <t>It’s a profile worthy of an ambassador – a coffee that explains Italians’ passion for coffee and makes sense of why it’s ingrained in daily life. Extracted to the classic 25 ml, you’ll soon see how right the Italians are – this drop of deliciousness shows how less can truly be more.</t>
+  </si>
+  <si>
+    <t>A Nespresso classic, Arpeggio's coffees are short and dark roasted masterpiece such as this, can only come from the heart. Or in this instance, the cultural and artistic heart of Italy.</t>
+  </si>
+  <si>
+    <t>This exquisite blend is a true reflection of Florence’s cultural significance: an intellectual hub in the heart of Italy, drawing influences from across the country. It's roasting style brings these influences together by combining fruity notes from the North of Italy with cocoa notes from the South, culminating in a velvety, dense and creamy cup.</t>
+  </si>
+  <si>
+    <t>Venezia celebrates the longest local coffee tradition of ​Italy with a roast that combines the intense notes of the Ottoman influence and the highly aromatic European coffee profiles. These influences arrived with the Venetian traders who led the way in importing coffee to Italy.</t>
+  </si>
+  <si>
+    <t>Combining the ancient character of Rome with a twist of modernity, this short roast balances intensity with elegant aromatics, reflecting the complexity of this great city. Thankfully, making one for yourself is less complex.</t>
+  </si>
+  <si>
+    <t>In honour of Genoa, the gateway to the world, we used some of the finest Latin American Arabicas to create this sweet, medium roast.</t>
+  </si>
+  <si>
+    <t>A deep-roasted, intense, and full-bodied cup with a woodsy aroma and punchy bitterness reminiscent of the Robusta cargo that shaped Cape Town’s taste in coffee.</t>
+  </si>
+  <si>
+    <t>Walk the streets of Miami and you’ll pass dozens of ventanitas. These ‘little windows’ are portholes to Cuba; miniature coffee shops dishing out small bites and coffee—the short Cafecito or the larger Colado to share. The city is a melting pot of traditions and World Explorations Miami Espresso is a bold blend of Arabica and Robusta coffees that echoes that. Caribbean Arabica joins Latin American coffees, sealing the authenticity of this archetypal Cuban-style cup. While Americans grab their tall coffees to-go, Miami reflects its strong Hispanic influence: coffee is short and shared.</t>
+  </si>
+  <si>
+    <t>Embodying the spirit of this lively and colourful city, this espresso reflects the country’s deeply rooted heritage of both growing and drinking coffee. Rio de Janeiro's unique touch of sandalwood and herbal notes will give you a glimpse into the Brazilian way of life. Drink it like a local: Double your espresso with hot water.</t>
+  </si>
+  <si>
+    <t>Istanbul Espresso takes you back in time to the original coffeehouses. This intense ambrosial brew bursts with boldness, wild ripe fruits, and a delicate almond touch. Thick and velvety in homage to Turkish coffee, its Ethiopian Arabica and Indian Robusta remind us of this city at the crossroads of the ancient coffee trade routes.</t>
+  </si>
+  <si>
+    <t>Swedes are among the world’s biggest coffee consumers. Wander around Stockholm, and you’ll often find intense black coffees with a malty savoury note coming from the distinctive Monsoon Arabica. Stockholm Lungo recreates the aromatic profile of a Swedish coffee by coupling Monsooned Malabar with Colombian Arabica.</t>
+  </si>
+  <si>
+    <t>Live up to the authentic Parisian café experience — where people enjoy philosophizing over a coffee. World Explorations Paris Espresso transports you to these terraces with a balanced blend of Arabicas emboldened by Vietnamese Robusta. A delicately bitter cup with cereal and citrus notes.</t>
+  </si>
+  <si>
+    <t>From coffeehouse to home coffee gathering, this balanced blend of smooth and silky South American Arabicas pairs perfectly with your viennoiserie.</t>
+  </si>
+  <si>
+    <t>Known for tea, the Japanese also have a real affinity for coffee. Striving for sophistication and natural sweetness, they love both a rich coffee and a balance of elegant aromas. Tokyo Lungo captures the essence of these preferences with refined Ethiopian and Mexican Arabicas.</t>
+  </si>
+  <si>
+    <t>Venice has a long history of importing the world’s coffees and expertly roasting these diverse coffees into harmony. Their expertise inspired the beautifully balanced roast of Ispirazione Venezia. Worthy of a noble dessert, the classic caramel and cereal notes of this coffee marry elegantly with the decadent ingredients of this rich tiramisu.</t>
+  </si>
+  <si>
+    <t>A destination for true foodies, Buenos Aires is a highlight of Argentina’s vibrant food scene. Sweetness prevails, and coffee is no exception: they love it sweet and milky!</t>
+  </si>
+  <si>
+    <t>India’s distinctive Robusta monsooning process exposes the coffee beans to monsoonal ocean winds, causing them to swell and dry and transform in flavour. Local craftsmen spend months attending to the drying coffee beans as they develop the renowned spicy flavor and syrupy body you’ll taste in this Indian coffee blend.</t>
+  </si>
+  <si>
+    <t>Sumatran farmers wet-hull their coffee because of the humid climate. They remove the parchment when the coffee is soft and moist because exposed beans dry faster. The method is unique to them and produces the classic Indonesian taste - velvety thick, wildly aromatic, notes of cured tobacco.</t>
+  </si>
+  <si>
+    <t>Master Origins Colombia with Late Harvest uses only high-grown, washed processed Colombian Arabica. Can you taste the lively acidity and the burst of winey red fruit aromas? That comes from those coffee farmers who dared to wait longer before harvesting their crop.</t>
+  </si>
+  <si>
+    <t>We traveled across remote Peruvian regions in search of some of the finest organic Arabica beans. High up above 1000 meters, tucked into the slopes of the Andes, we found them. Blessed with the meticulous care of smallholder farmers, Peru Organic is an elegant, fruity coffee accented by a smooth toasted cereal note.</t>
+  </si>
+  <si>
+    <t>If Black Honey processing were the easy road to a nectarous coffee, they’d all do it. But only a few farmers dare. It’s a rare process because it calls for meticulous monitoring. Master Origins Nicaragua with ‘Black-Honey’ processed Arabica contains this coffee. It gives this Nicaraguan Arabica its smooth honeyed texture and sweet cereal notes.</t>
+  </si>
+  <si>
+    <t>This is Ethiopian Arabica at its finest - decadently aromatic.</t>
+  </si>
+  <si>
+    <t>We have made name changes to our Barista Creations flavoured range for Original to better reflect the various changes made, from the recipe to the flavouring extracts and recommended cup size. Barista Creations Flavoured Cioccolato brings together the exquisite flavour of dark chocolate with the signature taste of roasted coffee. When our smooth Latin American Arabica blend meets the timeless rich chocolate flavour, deep layers of flavour emerge, ready for you to create a coffee moment you’ll keep coming back to. Up the decadence and make yours a cappuccino—an elegant nutty note unfolds as a finishing touch to that chocolate flavour.</t>
+  </si>
+  <si>
+    <t>We have made name changes to our Barista Creations flavoured range for Original to better reflect the various changes made, from the recipe to the flavouring extracts and recommended cup size. To craft Barista Creations Flavoured Vaniglia we brought a custardy vanilla flavour into a smooth base blend of Arabica beans from Brazil and Colombia. The combination of the Brazilian Bourbon variety’s sweetness with the lively character of the washed Colombian coffee is the perfect landing for the complex, warming nature of the beloved vanilla flavour. The coffee blend’s mellow, malted cereal notes bring a rounded, silky taste that elegantly complements classic vanilla. Try it as a cappuccino— it may remind you of your favourite vanilla cake.</t>
+  </si>
+  <si>
+    <t>We have made name changes to our Barista Creations flavoured range for Original to better reflect the various changes made, from the recipe to the flavouring extracts and recommended cup size. Nothing beats a classic. And Barista Creations Flavoured Nocciola delivers. The rich roasted hazelnut flavour cascades through a smooth Latin American Arabica blend. Through the coffee’s malted cereal character comes this caramelized nutty note—your cue to slow down and savour your coffee moment. Stretch out the moment—make it a cappuccino. It’s a milky delight with the hazelnut flavour taking on a delicious praline character for you to linger over.</t>
+  </si>
+  <si>
+    <t>We have made name changes to our Barista Creations flavoured range for Original to better reflect the various changes made, from the recipe to the flavouring extracts and recommended cup size.When the nutty sweetness of the classically decadent caramel flavour meets our base blend of South American Arabicas in Barista Creations Flavoured Caramello, it’s an irresistible invitation to treat yourself. Caramel’s creamy nuttiness has a way of rounding out the coffee’s delicious biscuit note while effortlessly complementing its smooth taste. Our light roasting of the Brazilian and Colombian beans ensures the texture, tastes and aromas of the coffee are just right for carrying the unmistakable caramel flavour. Make it a cappuccino moment—milk brings out caramel biscuit notes.</t>
+  </si>
+  <si>
+    <t>Inspired by the dark roasted tastes and thick textures created by the expert baristas of Spain, we selected a blend of African Arabicas and Robusta, and roasted them long and dark to create a powerful, full-bodied taste, which becomes smoother and creamier with a splash of milk.</t>
+  </si>
+  <si>
+    <t>Taking our inspiration from Melbourne baristas - the masters of robust, but perfectly balanced tastes.</t>
+  </si>
+  <si>
+    <t>Inspired by the baristas of Brooklyn, who value the natural sweetness of coffee and apply a light roast to protect it.</t>
+  </si>
+  <si>
+    <t>Capriccio is the rich, unique espresso that is ready to astonish with its complex and balanced bouquet. Its distinct cereal notes are characteristic of the Brazilian Arabica and touch of Robusta we use. But then Capriccio surprises you with a fine acidity that gleams through, coming from the high-grown South American Arabicas and the light roast.</t>
+  </si>
+  <si>
+    <t>One of Nespresso's OG, Cosi's light roasted classic coffees keeps their distinguished aromatics alive. It meets your palate with a smile.</t>
+  </si>
+  <si>
+    <t>Volluto is sunny living. The natural Brazilian Arabica mellows out in its pre-shipment resting time. The medium roast softens the Brazil’s cereal notes and turns them to sweet biscuit. And the washed Arabica from Colombia brings delightful fresh red fruit notes to the blend.</t>
+  </si>
+  <si>
+    <t>Sweet and light. Delightfully balanced cereal and fruity notes. Volluto has an easy way about it.</t>
   </si>
   <si>
     <t>This intense blend is created mostly using Robustas from Uganda and India, combined with Arabicas for an intense coffee with a cocoa touch.</t>
   </si>
   <si>
-    <t>Together the Arabica and Robusta balance each other out in this espresso.</t>
+    <t>This complex blend is created using Arabicas from Brazil and Colombia, in combination with Robustas from other sources including East Africa.</t>
+  </si>
+  <si>
+    <t>This 100% Arabica blend is created using beans from Brazil, Guatemala and other fine origins.​</t>
+  </si>
+  <si>
+    <t>This 100% Arabica blend is created using beans from Brazil, Guatemala and other fine origins.</t>
+  </si>
+  <si>
+    <t>This majority Arabica blend has most of its coffee coming from Colombia and Brazil.</t>
+  </si>
+  <si>
+    <t>Livanto is a 100% Arabica blend, with most of its beans coming from Brazil, Guatemala and Colombia.​</t>
+  </si>
+  <si>
+    <t>This 100% arabica is created using beans from two distinct Brazilian regions: Cerrado - well-known for its quality - and Espirito Santo, which brings in the herbal notes that define this coffee.</t>
+  </si>
+  <si>
+    <t>A blend composed mostly of Ethiopian Arabica beans and Indian Robustas. These coffees come together to bring a complex profile of both bitterness and acidity, wild fruitiness and roasted notes.</t>
+  </si>
+  <si>
+    <t>A rich combination of beans coming from Colombia, Costa Rica and India, with the later undergoing a particular monsooning process that defines this coffee’s sensorial profile.</t>
+  </si>
+  <si>
+    <t>A blend of Arabicas from Brazil and Colombia combined with a touch of top-grade Robusta beans from Vietnam, which adds a pleasant bitter note to this coffee.</t>
+  </si>
+  <si>
+    <t>Floral notes and delicate acidity coming from the lightly roasted Ethiopian Arabica contrast beautifully with the rich flavours of Mexican washed Arabica.</t>
+  </si>
+  <si>
+    <t>This Arabica and Robusta blend is exclusively created with beans from India.</t>
+  </si>
+  <si>
+    <t>This coffee is exclusively created with Fairtrade beans from Indonesia.</t>
+  </si>
+  <si>
+    <t>Made with Late harvest Arabica. A harvesting technique that leaves the cherry in the plant for slightly longer to amplify acidity and winey notes.</t>
+  </si>
+  <si>
+    <t>This 100% Arabica, single-origin Nicaraguan coffee contains ‘Black-Honey’ processed beans, which give it a smooth texture and sweet cereal notes.</t>
+  </si>
+  <si>
+    <t>We orchestrated this ideal marriage by using a meticulous combination of top-grade Colombian and Ethiopian Arabicas.​</t>
+  </si>
+  <si>
+    <t>One of our first four coffees launched in 1986, Capriccio is carefully created by combining fine light-roasted Arabicas from Brazil and Colombia with a touch top-quality Robusta.</t>
+  </si>
+  <si>
+    <t>A rich combination of Arabicas from Costa Rica, Kenya and other South American countries. The Kenyan Arabicas provide the zesty acidity present in Cosi.</t>
+  </si>
+  <si>
+    <t>Volluto’s delicious profile is created combining the sweet mellowness of Brazilian Arabicas with the winey fruitiness of Colombian Arabicas.</t>
   </si>
   <si>
     <t>A dark and intense roast, done with carefully selected beans that can withstand the process and develop delicious bitter notes without completely burning away.</t>
   </si>
   <si>
-    <t>A long, dark roast inspired by the union of Sicilian coffee artistry and African and Arabian heritage is guaranteed to spice things up.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 capsules of roast and ground coffee for the Nespresso system.  </t>
+    <t>The Robustas in Ristretto go through a long roast to develop a pleasantly bitter cocoa note. The Arabicas go though a quicker roast to keep the bright acidity and fruity notes alive.</t>
+  </si>
+  <si>
+    <t>An intense roast of the coffee beans develops the distinct characteristics of each of Arpeggio’s coffees. The malty aroma turns into the cocoa notes that give this espresso its gravitas​.</t>
+  </si>
+  <si>
+    <t>An intense roast of the coffee beans develops the distinct characteristics of Arpeggio’s coffees. The malty aroma turns into the cocoa notes that give this espresso its gravitas.</t>
+  </si>
+  <si>
+    <t>A fairly dark roast that gives Venezia that rounded mouthfeel and mellowed acidity with just a hint of bitterness.</t>
+  </si>
+  <si>
+    <t>We gave the coffees in Livanto a medium roast that is still dark enough to develop caramel and toasted cereal notes and a rounded mouthfeel while preserving its delicate acidity.​</t>
+  </si>
+  <si>
+    <t>Espirito Santo beans are roasted separately to preserve the herbal notes. The other beans are roasted together in a dark roasting mode to enhance body, intensity and bitter notes.</t>
+  </si>
+  <si>
+    <t>This is a classic split-roast with high intensity and an average roasting time. The batches are separated in Arabicas and Robustas for a more precise roast.</t>
+  </si>
+  <si>
+    <t>The Monsooned Arabica gets a darker roast to enhance its body and cereal notes. A lighter roast of the washed Colombian coffee means all the classic finer aromatics stay in balance.</t>
+  </si>
+  <si>
+    <t>A classic split roast, with average roasting intensity and time. Arabicas and Robustas are separated in batches. The Robusta part is lightly roasted to allow the delicate Arabica notes to stand out.</t>
+  </si>
+  <si>
+    <t>Ethiopian beans go through a fast roast that preserves acidity and the flowery notes, while Mexican beans are roasted longer to develop its intensity.</t>
+  </si>
+  <si>
+    <t>We split roast this blend with a medium and slightly short roast, separating Arabicas from Robustas to keep their distinct characteristics alive.</t>
+  </si>
+  <si>
+    <t>We split roast this single origin coffee, with a medium and slightly short average roast. Split roasting this Sumatra coffee brings great aromatic complexity to the cup.​</t>
+  </si>
+  <si>
+    <t>An average short roast and medium temperatures keeps the deep and delicate aromatics of Master Origins Colombia in balance.</t>
+  </si>
+  <si>
+    <t>Scuro has a contrasting roasting profile, with part of the coffee getting a long and dark roast and the other part roasted much faster and lighter.</t>
+  </si>
+  <si>
+    <t>Capriccio gets a light roast to preserve the fine acidity that shimmers through the rich cereal notes. Light roasting also develops that rich profile unique to Capriccio.</t>
+  </si>
+  <si>
+    <t>Our coffee roasters give a light roast to these Latin American and East African coffees, ensuring that all that heart and soul shines through in the cup.​</t>
+  </si>
+  <si>
+    <t>Lightly roasted and given a medium grind to keep it all in harmony. This roast turns the Brazil’s cereal notes to sweet biscuit and keeps the fruity notes of the Colombian beans alive.</t>
+  </si>
+  <si>
+    <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
+  </si>
+  <si>
+    <t>10 capsules of roast and ground coffee for the Nespresso system. Artificially flavoured hazelnut.</t>
+  </si>
+  <si>
+    <t>10 capsules of artificially flavoured caramel roast and ground coffee for the Nespresso system.</t>
   </si>
   <si>
     <t>Roast and ground coffee</t>
   </si>
   <si>
-    <t>57 g – 2.01 oz for 10 capsules</t>
-  </si>
-  <si>
-    <t>60 g – 2.11 oz for 10 capsules</t>
+    <t>Decaffeinated roast and ground coffee.</t>
+  </si>
+  <si>
+    <t>Roast and ground coffee, natural flavour</t>
+  </si>
+  <si>
+    <t>Roast and ground coffee, artificial flavour</t>
+  </si>
+  <si>
+    <t>Natural flavouring, roast and ground coffee.</t>
+  </si>
+  <si>
+    <t>57 g - 2.01 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>60 g - 2.11 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>53 g - 1.86 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>55 g - 1.94 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>56 g - 1.97 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>50 g - 1.76 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>58 g - 2.04 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>48 g - 1.68 oz for 10 capsules</t>
   </si>
   <si>
     <t>Charts/OL1_Ispirazione Napoli_Original_Taste Profile.png</t>
   </si>
   <si>
     <t>Charts/OL2_Kazaar_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL3_Ristretto_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL4_Ristretto Decaffeinato_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL5_Arpeggio_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL6_Arpeggio Decaffeinato_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL7_Inspirazione Venezia_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL8_Inspirazione Roma_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL9_Livanto_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL10_Cape Town Lungo_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL11_Miami Espresso_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL12_Rio De Janeiro Espresso_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL13_Istanbul Espresso_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL14_Stockholm Lungo_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL15_Paris Espresso_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL16_Vienna Lungo_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL17_Tokyo Lungo_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL18_Shanghai Lungo_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL19_Buenos Aires Lungo_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL20_India_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL21_Indonesia - Fairtrade_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL22_Colombia_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL23_Peru Organic_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL24_Nicaragua_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL25_Ethiopia_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL26_Cioccolatino_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL27_Vaniglia_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL28_Nocciola_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL29_Caramello_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL30_Corto_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL31_Scuro_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL32_Chiaro_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL33_Capriccio_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL34_Cosi_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL35_Volluto_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/OL36_Volluto Decaffeinato_Original_Taste Profile.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +1263,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,16 +1304,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -533,13 +1612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,34 +1691,46 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="J2">
         <v>13</v>
@@ -648,10 +1739,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -665,55 +1756,55 @@
       <c r="Q2">
         <v>5</v>
       </c>
-      <c r="R2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" t="s">
-        <v>48</v>
-      </c>
       <c r="V2" t="s">
-        <v>49</v>
+        <v>284</v>
       </c>
       <c r="W2" t="s">
-        <v>50</v>
+        <v>320</v>
       </c>
       <c r="X2" t="s">
-        <v>52</v>
+        <v>339</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="J3">
         <v>12</v>
@@ -722,16 +1813,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>5</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
       </c>
       <c r="P3">
         <v>5</v>
@@ -739,29 +1830,2490 @@
       <c r="Q3">
         <v>5</v>
       </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L4" t="s">
+        <v>220</v>
+      </c>
+      <c r="M4" t="s">
+        <v>250</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="V4" t="s">
+        <v>286</v>
+      </c>
+      <c r="W4" t="s">
+        <v>321</v>
+      </c>
+      <c r="X4" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M5" t="s">
+        <v>251</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="V5" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L6" t="s">
+        <v>221</v>
+      </c>
+      <c r="M6" t="s">
+        <v>252</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="V6" t="s">
+        <v>288</v>
+      </c>
+      <c r="W6" t="s">
+        <v>322</v>
+      </c>
+      <c r="X6" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" t="s">
+        <v>188</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M7" t="s">
+        <v>253</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="V7" t="s">
+        <v>289</v>
+      </c>
+      <c r="W7" t="s">
+        <v>323</v>
+      </c>
+      <c r="X7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L8" t="s">
+        <v>202</v>
+      </c>
+      <c r="M8" t="s">
+        <v>254</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="V8" t="s">
+        <v>290</v>
+      </c>
+      <c r="W8" t="s">
+        <v>324</v>
+      </c>
+      <c r="X8" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" t="s">
+        <v>190</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L9" t="s">
+        <v>223</v>
+      </c>
+      <c r="M9" t="s">
+        <v>255</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="V9" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L10" t="s">
+        <v>224</v>
+      </c>
+      <c r="M10" t="s">
+        <v>256</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="V10" t="s">
+        <v>292</v>
+      </c>
+      <c r="W10" t="s">
+        <v>325</v>
+      </c>
+      <c r="X10" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L11" t="s">
+        <v>225</v>
+      </c>
+      <c r="M11" t="s">
+        <v>257</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="V11" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" t="s">
+        <v>193</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L12" t="s">
+        <v>226</v>
+      </c>
+      <c r="M12" t="s">
+        <v>258</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="V12" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L13" t="s">
+        <v>227</v>
+      </c>
+      <c r="M13" t="s">
+        <v>259</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="V13" t="s">
+        <v>295</v>
+      </c>
+      <c r="W13" t="s">
+        <v>326</v>
+      </c>
+      <c r="X13" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" t="s">
+        <v>195</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L14" t="s">
+        <v>228</v>
+      </c>
+      <c r="M14" t="s">
+        <v>260</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="V14" t="s">
+        <v>296</v>
+      </c>
+      <c r="W14" t="s">
+        <v>327</v>
+      </c>
+      <c r="X14" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L15" t="s">
+        <v>229</v>
+      </c>
+      <c r="M15" t="s">
+        <v>261</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="V15" t="s">
+        <v>297</v>
+      </c>
+      <c r="W15" t="s">
+        <v>328</v>
+      </c>
+      <c r="X15" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" t="s">
+        <v>197</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L16" t="s">
+        <v>230</v>
+      </c>
+      <c r="M16" t="s">
+        <v>262</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="V16" t="s">
+        <v>298</v>
+      </c>
+      <c r="W16" t="s">
+        <v>329</v>
+      </c>
+      <c r="X16" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="S3" t="s">
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="M17" t="s">
+        <v>263</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="V17" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" t="s">
+        <v>181</v>
+      </c>
+      <c r="I18" t="s">
+        <v>199</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L18" t="s">
+        <v>229</v>
+      </c>
+      <c r="M18" t="s">
+        <v>264</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="V18" t="s">
+        <v>300</v>
+      </c>
+      <c r="W18" t="s">
+        <v>330</v>
+      </c>
+      <c r="X18" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="T3" t="s">
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H19" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" t="s">
+        <v>200</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L19" t="s">
+        <v>231</v>
+      </c>
+      <c r="M19" t="s">
+        <v>265</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="V19" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" t="s">
+        <v>181</v>
+      </c>
+      <c r="I20" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L20" t="s">
+        <v>232</v>
+      </c>
+      <c r="M20" t="s">
+        <v>266</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="V20" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" t="s">
         <v>47</v>
       </c>
-      <c r="U3" t="s">
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21" t="s">
+        <v>182</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L21" t="s">
+        <v>233</v>
+      </c>
+      <c r="M21" t="s">
+        <v>267</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>4</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="V21" t="s">
+        <v>303</v>
+      </c>
+      <c r="W21" t="s">
+        <v>331</v>
+      </c>
+      <c r="X21" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="V3" t="s">
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L22" t="s">
+        <v>234</v>
+      </c>
+      <c r="M22" t="s">
+        <v>268</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="V22" t="s">
+        <v>304</v>
+      </c>
+      <c r="W22" t="s">
+        <v>332</v>
+      </c>
+      <c r="X22" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" t="s">
         <v>49</v>
       </c>
-      <c r="W3" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" t="s">
+        <v>182</v>
+      </c>
+      <c r="I23" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L23" t="s">
+        <v>235</v>
+      </c>
+      <c r="M23" t="s">
+        <v>269</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="V23" t="s">
+        <v>305</v>
+      </c>
+      <c r="W23" t="s">
+        <v>333</v>
+      </c>
+      <c r="X23" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" t="s">
+        <v>182</v>
+      </c>
+      <c r="I24" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L24" t="s">
+        <v>236</v>
+      </c>
+      <c r="M24" t="s">
+        <v>270</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="V24" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="X3" t="s">
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L25" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" t="s">
+        <v>271</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
+        <v>307</v>
+      </c>
+      <c r="W25" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L26" t="s">
+        <v>236</v>
+      </c>
+      <c r="M26" t="s">
+        <v>272</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" t="s">
         <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" t="s">
+        <v>183</v>
+      </c>
+      <c r="I27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="s">
+        <v>273</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="V27" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" t="s">
+        <v>183</v>
+      </c>
+      <c r="I28" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L28" t="s">
+        <v>239</v>
+      </c>
+      <c r="M28" t="s">
+        <v>274</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="V28" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" t="s">
+        <v>183</v>
+      </c>
+      <c r="I29" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L29" t="s">
+        <v>240</v>
+      </c>
+      <c r="M29" t="s">
+        <v>275</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="V29" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" t="s">
+        <v>183</v>
+      </c>
+      <c r="I30" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L30" t="s">
+        <v>241</v>
+      </c>
+      <c r="M30" t="s">
+        <v>276</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="V30" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" t="s">
+        <v>184</v>
+      </c>
+      <c r="I31" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L31" t="s">
+        <v>242</v>
+      </c>
+      <c r="M31" t="s">
+        <v>277</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>5</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" t="s">
+        <v>177</v>
+      </c>
+      <c r="H32" t="s">
+        <v>184</v>
+      </c>
+      <c r="I32" t="s">
+        <v>213</v>
+      </c>
+      <c r="K32">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L32" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" t="s">
+        <v>278</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+      <c r="V32" t="s">
+        <v>314</v>
+      </c>
+      <c r="W32" t="s">
+        <v>335</v>
+      </c>
+      <c r="X32" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" t="s">
+        <v>184</v>
+      </c>
+      <c r="I33" t="s">
+        <v>214</v>
+      </c>
+      <c r="K33">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L33" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" t="s">
+        <v>279</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>4</v>
+      </c>
+      <c r="V33" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I34" t="s">
+        <v>215</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L34" t="s">
+        <v>245</v>
+      </c>
+      <c r="M34" t="s">
+        <v>280</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <v>2</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="V34" t="s">
+        <v>316</v>
+      </c>
+      <c r="W34" t="s">
+        <v>336</v>
+      </c>
+      <c r="X34" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H35" t="s">
+        <v>180</v>
+      </c>
+      <c r="I35" t="s">
+        <v>216</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L35" t="s">
+        <v>246</v>
+      </c>
+      <c r="M35" t="s">
+        <v>281</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="V35" t="s">
+        <v>317</v>
+      </c>
+      <c r="W35" t="s">
+        <v>337</v>
+      </c>
+      <c r="X35" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" t="s">
+        <v>178</v>
+      </c>
+      <c r="H36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I36" t="s">
+        <v>217</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L36" t="s">
+        <v>247</v>
+      </c>
+      <c r="M36" t="s">
+        <v>282</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>2</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="V36" t="s">
+        <v>318</v>
+      </c>
+      <c r="W36" t="s">
+        <v>338</v>
+      </c>
+      <c r="X36" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G37" t="s">
+        <v>178</v>
+      </c>
+      <c r="H37" t="s">
+        <v>180</v>
+      </c>
+      <c r="I37" t="s">
+        <v>217</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L37" t="s">
+        <v>247</v>
+      </c>
+      <c r="M37" t="s">
+        <v>283</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+      <c r="V37" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="D5" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId12"/>
+    <hyperlink ref="C8" r:id="rId13"/>
+    <hyperlink ref="D8" r:id="rId14"/>
+    <hyperlink ref="C9" r:id="rId15"/>
+    <hyperlink ref="D9" r:id="rId16"/>
+    <hyperlink ref="C10" r:id="rId17"/>
+    <hyperlink ref="D10" r:id="rId18"/>
+    <hyperlink ref="C11" r:id="rId19"/>
+    <hyperlink ref="D11" r:id="rId20"/>
+    <hyperlink ref="C12" r:id="rId21"/>
+    <hyperlink ref="D12" r:id="rId22"/>
+    <hyperlink ref="C13" r:id="rId23"/>
+    <hyperlink ref="D13" r:id="rId24"/>
+    <hyperlink ref="C14" r:id="rId25"/>
+    <hyperlink ref="D14" r:id="rId26"/>
+    <hyperlink ref="C15" r:id="rId27"/>
+    <hyperlink ref="D15" r:id="rId28"/>
+    <hyperlink ref="C16" r:id="rId29"/>
+    <hyperlink ref="D16" r:id="rId30"/>
+    <hyperlink ref="C17" r:id="rId31"/>
+    <hyperlink ref="D17" r:id="rId32"/>
+    <hyperlink ref="C18" r:id="rId33"/>
+    <hyperlink ref="D18" r:id="rId34"/>
+    <hyperlink ref="C19" r:id="rId35"/>
+    <hyperlink ref="D19" r:id="rId36"/>
+    <hyperlink ref="C20" r:id="rId37"/>
+    <hyperlink ref="D20" r:id="rId38"/>
+    <hyperlink ref="C21" r:id="rId39"/>
+    <hyperlink ref="D21" r:id="rId40"/>
+    <hyperlink ref="C22" r:id="rId41"/>
+    <hyperlink ref="D22" r:id="rId42"/>
+    <hyperlink ref="C23" r:id="rId43"/>
+    <hyperlink ref="D23" r:id="rId44"/>
+    <hyperlink ref="C24" r:id="rId45"/>
+    <hyperlink ref="D24" r:id="rId46"/>
+    <hyperlink ref="C25" r:id="rId47"/>
+    <hyperlink ref="D25" r:id="rId48"/>
+    <hyperlink ref="C26" r:id="rId49"/>
+    <hyperlink ref="D26" r:id="rId50"/>
+    <hyperlink ref="C27" r:id="rId51"/>
+    <hyperlink ref="D27" r:id="rId52"/>
+    <hyperlink ref="C28" r:id="rId53"/>
+    <hyperlink ref="D28" r:id="rId54"/>
+    <hyperlink ref="C29" r:id="rId55"/>
+    <hyperlink ref="D29" r:id="rId56"/>
+    <hyperlink ref="C30" r:id="rId57"/>
+    <hyperlink ref="D30" r:id="rId58"/>
+    <hyperlink ref="C31" r:id="rId59"/>
+    <hyperlink ref="D31" r:id="rId60"/>
+    <hyperlink ref="C32" r:id="rId61"/>
+    <hyperlink ref="D32" r:id="rId62"/>
+    <hyperlink ref="C33" r:id="rId63"/>
+    <hyperlink ref="D33" r:id="rId64"/>
+    <hyperlink ref="C34" r:id="rId65"/>
+    <hyperlink ref="D34" r:id="rId66"/>
+    <hyperlink ref="C35" r:id="rId67"/>
+    <hyperlink ref="D35" r:id="rId68"/>
+    <hyperlink ref="C36" r:id="rId69"/>
+    <hyperlink ref="D36" r:id="rId70"/>
+    <hyperlink ref="C37" r:id="rId71"/>
+    <hyperlink ref="D37" r:id="rId72"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -316,112 +316,112 @@
     <t>Volluto Decaffeinato</t>
   </si>
   <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16709230690334/ispirazione-napoli-PLP.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16283547566110/Palermo-kazaar-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16217625559070/ispirazione-ristretto-italiano-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16262679461918/ristretto-italiano-decaffeinato-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15990477783070/firenze-arpeggio-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15942162972702/firenze-arpeggio-decaffeinato-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16708520280094/ispirazione-venezia-PLP.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441097035806/ispirazione-roma-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441097134110/ispirazione-genova-livanto-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441093136414/capetown-envivo-lungo-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15104178651166/before-PLP-318x318px.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15430408437790/C-0888-before-PLP-318x318px.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15414727049246/before-PLP-318x318px.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15906838806558/stockholm-fortissio-lungo-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16724971225118/paris-2x.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16454751682590/vienna-linizio-lungo-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15942164447262/ol-tokyo-vivalto-lungo-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16106997547038/shanghai-lungo-plp.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16454959497246/buenos-aires-lungo-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441091170334/india-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441091596318/indonesia-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441091694622/colombia-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15448290885662/7734.10-PLP-318x318.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441091792926/nicaragua-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14441091891230/ethiopia-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/17431322361886/C-1060-Responsive-PLP.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/17432222531614/C-1062-Responsive-PLP.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/17432559943710/C-1063-Responsive-PLP.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/17431332945950/C-1061-Responsive-PLP.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14438025363486/corto-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16291413262366/scuro-OL-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/16154719715358/chiaro-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15762782748702/capriccio.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15762785566750/cosi.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15762784452638/volluto-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
-  </si>
-  <si>
-    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15942161104926/volluto-decaffeinato-XL.png?impolicy=small&amp;imwidth=284&amp;imdensity=1</t>
+    <t>Images/OL1_Ispirazione Napoli_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL2_Kazaar_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL3_Ristretto_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL4_Ristretto Decaffeinato_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL5_Arpeggio_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL6_Arpeggio Decaffeinato_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL7_Inspirazione Venezia_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL8_Inspirazione Roma_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL9_Livanto_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL10_Cape Town Lungo_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL11_Miami Espresso_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL12_Rio De Janeiro Espresso_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL13_Istanbul Espresso_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL14_Stockholm Lungo_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL15_Paris Espresso_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL16_Vienna Lungo_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL17_Tokyo Lungo_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL18_Shanghai Lungo_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL19_Buenos Aires Lungo_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL20_India_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL21_Indonesia - Fairtrade_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL22_Colombia_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL23_Peru Organic_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL24_Nicaragua_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL25_Ethiopia_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL26_Cioccolatino_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL27_Vaniglia_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL28_Nocciola_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL29_Caramello_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL30_Corto_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL31_Scuro_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL32_Chiaro_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL33_Capriccio_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL34_Cosi_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL35_Volluto_Original_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/OL36_Volluto Decaffeinato_Original_Capsule.png</t>
   </si>
   <si>
     <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/ispirazione-napoli_L.png</t>
@@ -1711,7 +1711,7 @@
       <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1785,7 +1785,7 @@
       <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1853,7 +1853,7 @@
       <c r="B4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1927,7 +1927,7 @@
       <c r="B5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1995,7 +1995,7 @@
       <c r="B6" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2069,7 +2069,7 @@
       <c r="B7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2143,7 +2143,7 @@
       <c r="B8" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2217,7 +2217,7 @@
       <c r="B9" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>107</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2285,7 +2285,7 @@
       <c r="B10" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>108</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2359,7 +2359,7 @@
       <c r="B11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>109</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2427,7 +2427,7 @@
       <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>110</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2495,7 +2495,7 @@
       <c r="B13" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>111</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2569,7 +2569,7 @@
       <c r="B14" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>112</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2643,7 +2643,7 @@
       <c r="B15" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>113</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2717,7 +2717,7 @@
       <c r="B16" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>114</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2791,7 +2791,7 @@
       <c r="B17" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>115</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2856,7 +2856,7 @@
       <c r="B18" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>116</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2930,7 +2930,7 @@
       <c r="B19" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>117</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2998,7 +2998,7 @@
       <c r="B20" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>118</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -3066,7 +3066,7 @@
       <c r="B21" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>119</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -3140,7 +3140,7 @@
       <c r="B22" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>120</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -3214,7 +3214,7 @@
       <c r="B23" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>121</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -3288,7 +3288,7 @@
       <c r="B24" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>122</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -3356,7 +3356,7 @@
       <c r="B25" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>123</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -3427,7 +3427,7 @@
       <c r="B26" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>124</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -3495,7 +3495,7 @@
       <c r="B27" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>125</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -3560,7 +3560,7 @@
       <c r="B28" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>126</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -3625,7 +3625,7 @@
       <c r="B29" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>127</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -3690,7 +3690,7 @@
       <c r="B30" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>128</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -3755,7 +3755,7 @@
       <c r="B31" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>129</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -3820,7 +3820,7 @@
       <c r="B32" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>130</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -3891,7 +3891,7 @@
       <c r="B33" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>131</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -3956,7 +3956,7 @@
       <c r="B34" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>132</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -4030,7 +4030,7 @@
       <c r="B35" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>133</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -4104,7 +4104,7 @@
       <c r="B36" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>134</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -4178,7 +4178,7 @@
       <c r="B37" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>135</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -4241,78 +4241,42 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="C4" r:id="rId5"/>
-    <hyperlink ref="D4" r:id="rId6"/>
-    <hyperlink ref="C5" r:id="rId7"/>
-    <hyperlink ref="D5" r:id="rId8"/>
-    <hyperlink ref="C6" r:id="rId9"/>
-    <hyperlink ref="D6" r:id="rId10"/>
-    <hyperlink ref="C7" r:id="rId11"/>
-    <hyperlink ref="D7" r:id="rId12"/>
-    <hyperlink ref="C8" r:id="rId13"/>
-    <hyperlink ref="D8" r:id="rId14"/>
-    <hyperlink ref="C9" r:id="rId15"/>
-    <hyperlink ref="D9" r:id="rId16"/>
-    <hyperlink ref="C10" r:id="rId17"/>
-    <hyperlink ref="D10" r:id="rId18"/>
-    <hyperlink ref="C11" r:id="rId19"/>
-    <hyperlink ref="D11" r:id="rId20"/>
-    <hyperlink ref="C12" r:id="rId21"/>
-    <hyperlink ref="D12" r:id="rId22"/>
-    <hyperlink ref="C13" r:id="rId23"/>
-    <hyperlink ref="D13" r:id="rId24"/>
-    <hyperlink ref="C14" r:id="rId25"/>
-    <hyperlink ref="D14" r:id="rId26"/>
-    <hyperlink ref="C15" r:id="rId27"/>
-    <hyperlink ref="D15" r:id="rId28"/>
-    <hyperlink ref="C16" r:id="rId29"/>
-    <hyperlink ref="D16" r:id="rId30"/>
-    <hyperlink ref="C17" r:id="rId31"/>
-    <hyperlink ref="D17" r:id="rId32"/>
-    <hyperlink ref="C18" r:id="rId33"/>
-    <hyperlink ref="D18" r:id="rId34"/>
-    <hyperlink ref="C19" r:id="rId35"/>
-    <hyperlink ref="D19" r:id="rId36"/>
-    <hyperlink ref="C20" r:id="rId37"/>
-    <hyperlink ref="D20" r:id="rId38"/>
-    <hyperlink ref="C21" r:id="rId39"/>
-    <hyperlink ref="D21" r:id="rId40"/>
-    <hyperlink ref="C22" r:id="rId41"/>
-    <hyperlink ref="D22" r:id="rId42"/>
-    <hyperlink ref="C23" r:id="rId43"/>
-    <hyperlink ref="D23" r:id="rId44"/>
-    <hyperlink ref="C24" r:id="rId45"/>
-    <hyperlink ref="D24" r:id="rId46"/>
-    <hyperlink ref="C25" r:id="rId47"/>
-    <hyperlink ref="D25" r:id="rId48"/>
-    <hyperlink ref="C26" r:id="rId49"/>
-    <hyperlink ref="D26" r:id="rId50"/>
-    <hyperlink ref="C27" r:id="rId51"/>
-    <hyperlink ref="D27" r:id="rId52"/>
-    <hyperlink ref="C28" r:id="rId53"/>
-    <hyperlink ref="D28" r:id="rId54"/>
-    <hyperlink ref="C29" r:id="rId55"/>
-    <hyperlink ref="D29" r:id="rId56"/>
-    <hyperlink ref="C30" r:id="rId57"/>
-    <hyperlink ref="D30" r:id="rId58"/>
-    <hyperlink ref="C31" r:id="rId59"/>
-    <hyperlink ref="D31" r:id="rId60"/>
-    <hyperlink ref="C32" r:id="rId61"/>
-    <hyperlink ref="D32" r:id="rId62"/>
-    <hyperlink ref="C33" r:id="rId63"/>
-    <hyperlink ref="D33" r:id="rId64"/>
-    <hyperlink ref="C34" r:id="rId65"/>
-    <hyperlink ref="D34" r:id="rId66"/>
-    <hyperlink ref="C35" r:id="rId67"/>
-    <hyperlink ref="D35" r:id="rId68"/>
-    <hyperlink ref="C36" r:id="rId69"/>
-    <hyperlink ref="D36" r:id="rId70"/>
-    <hyperlink ref="C37" r:id="rId71"/>
-    <hyperlink ref="D37" r:id="rId72"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="805">
   <si>
     <t>ID</t>
   </si>
@@ -208,6 +208,123 @@
     <t>OL36</t>
   </si>
   <si>
+    <t>VL1</t>
+  </si>
+  <si>
+    <t>VL2</t>
+  </si>
+  <si>
+    <t>VL3</t>
+  </si>
+  <si>
+    <t>VL4</t>
+  </si>
+  <si>
+    <t>VL5</t>
+  </si>
+  <si>
+    <t>VL6</t>
+  </si>
+  <si>
+    <t>VL7</t>
+  </si>
+  <si>
+    <t>VL8</t>
+  </si>
+  <si>
+    <t>VL9</t>
+  </si>
+  <si>
+    <t>VL10</t>
+  </si>
+  <si>
+    <t>VL11</t>
+  </si>
+  <si>
+    <t>VL12</t>
+  </si>
+  <si>
+    <t>VL13</t>
+  </si>
+  <si>
+    <t>VL14</t>
+  </si>
+  <si>
+    <t>VL15</t>
+  </si>
+  <si>
+    <t>VL16</t>
+  </si>
+  <si>
+    <t>VL17</t>
+  </si>
+  <si>
+    <t>VL18</t>
+  </si>
+  <si>
+    <t>VL19</t>
+  </si>
+  <si>
+    <t>VL20</t>
+  </si>
+  <si>
+    <t>VL21</t>
+  </si>
+  <si>
+    <t>VL22</t>
+  </si>
+  <si>
+    <t>VL23</t>
+  </si>
+  <si>
+    <t>VL24</t>
+  </si>
+  <si>
+    <t>VL25</t>
+  </si>
+  <si>
+    <t>VL26</t>
+  </si>
+  <si>
+    <t>VL27</t>
+  </si>
+  <si>
+    <t>VL28</t>
+  </si>
+  <si>
+    <t>VL29</t>
+  </si>
+  <si>
+    <t>VL30</t>
+  </si>
+  <si>
+    <t>VL31</t>
+  </si>
+  <si>
+    <t>VL32</t>
+  </si>
+  <si>
+    <t>VL33</t>
+  </si>
+  <si>
+    <t>VL34</t>
+  </si>
+  <si>
+    <t>VL35</t>
+  </si>
+  <si>
+    <t>VL36</t>
+  </si>
+  <si>
+    <t>VL37</t>
+  </si>
+  <si>
+    <t>VL38</t>
+  </si>
+  <si>
+    <t>VL39</t>
+  </si>
+  <si>
     <t>Ispirazione Napoli</t>
   </si>
   <si>
@@ -316,6 +433,117 @@
     <t>Volluto Decaffeinato</t>
   </si>
   <si>
+    <t>Intenso</t>
+  </si>
+  <si>
+    <t>Stormio</t>
+  </si>
+  <si>
+    <t>Odacio</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Melozio</t>
+  </si>
+  <si>
+    <t>Melozio Decaffeinato</t>
+  </si>
+  <si>
+    <t>Half Caffeinato</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Colombia - Fairtrade</t>
+  </si>
+  <si>
+    <t>Solelio</t>
+  </si>
+  <si>
+    <t>Alto Onice</t>
+  </si>
+  <si>
+    <t>Alto Ambrato</t>
+  </si>
+  <si>
+    <t>Cold Brew Style Intense</t>
+  </si>
+  <si>
+    <t>Carafe Pour-Over Style</t>
+  </si>
+  <si>
+    <t>Carafe Pour-Over Style Mild</t>
+  </si>
+  <si>
+    <t>Fortado</t>
+  </si>
+  <si>
+    <t>Fortado Decaffeinato</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Arondio</t>
+  </si>
+  <si>
+    <t>Inizio</t>
+  </si>
+  <si>
+    <t>Il Caffe</t>
+  </si>
+  <si>
+    <t>Diavolitto</t>
+  </si>
+  <si>
+    <t>Altissio Decaffeinato</t>
+  </si>
+  <si>
+    <t>Altissio</t>
+  </si>
+  <si>
+    <t>Orafio</t>
+  </si>
+  <si>
+    <t>Toccanto</t>
+  </si>
+  <si>
+    <t>Voltesso</t>
+  </si>
+  <si>
+    <t>Double Espresso Scuro</t>
+  </si>
+  <si>
+    <t>Double Espresso Chiaro</t>
+  </si>
+  <si>
+    <t>Double Espresso Dolce</t>
+  </si>
+  <si>
+    <t>Roasted Hazelnut</t>
+  </si>
+  <si>
+    <t>Golden Caramel</t>
+  </si>
+  <si>
+    <t>Sweet Vanilla</t>
+  </si>
+  <si>
+    <t>Rich Chocolate</t>
+  </si>
+  <si>
+    <t>Bianco Piccolo</t>
+  </si>
+  <si>
+    <t>Bianco Doppio</t>
+  </si>
+  <si>
+    <t>Bianco Forte</t>
+  </si>
+  <si>
     <t>Images/OL1_Ispirazione Napoli_Original_Capsule.png</t>
   </si>
   <si>
@@ -424,6 +652,123 @@
     <t>Images/OL36_Volluto Decaffeinato_Original_Capsule.png</t>
   </si>
   <si>
+    <t>Images/VL1_Intenso_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL2_Stormio_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL3_Odacio_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL4_Mexico_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL5_Melozio_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL6_Melozio Decaffeinato_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL7_Half Caffeinato_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL8_El Salvador_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL9_Colombia - Fairtrade_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL10_Solelio_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL11_Alto Onice_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL12_Alto Ambrato_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL13_Cold Brew Style Intense_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL14_Carafe Pour-Over Style_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL15_Carafe Pour-Over Style Mild_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL16_Fortado_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL17_Fortado Decaffeinato_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL18_Costa Rica_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL19_Arondio_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL20_Inizio_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL21_Ethiopia_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL22_Il Caffe_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL23_Diavolitto_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL24_Altissio Decaffeinato_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL25_Altissio_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL26_Peru Organic_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL27_Orafio_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL28_Toccanto_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL29_Voltesso_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL30_Double Espresso Scuro_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL31_Double Espresso Chiaro_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL32_Double Espresso Dolce_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL33_Roasted Hazelnut_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL34_Golden Caramel_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL35_Sweet Vanilla_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL36_Rich Chocolate_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL37_Bianco Piccolo_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL38_Bianco Doppio_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL39_Bianco Forte_Vertuo_Capsule.png</t>
+  </si>
+  <si>
     <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/ispirazione-napoli_L.png</t>
   </si>
   <si>
@@ -532,9 +877,126 @@
     <t>https://down-ph.img.susercontent.com/file/384c222616f53cf0a3676311b8b8a33d</t>
   </si>
   <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/intenso_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/stormio_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/odacio_XL.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/mexico_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/melozio_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/melozio-decaffeinato_XL.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/half-caffeinato_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/global/coffees/vl/sku-main-info-product/el-salvador_2x.png?impolicy=medium&amp;imwidth=824&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/13252876304414/C-0369-Main-PDP-MasterOrigin-Colombia-VL.jpg?impolicy=productPdpSafeZone&amp;imwidth=1238</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/solelio_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/global/coffees/vl/sku-main-info-product/alto-onice_2x.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/global/coffees/vl/sku-main-info-product/alto-ambrato_2x.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/global/coffees/vl/sku-main-info-product/cold-brew-intense.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/carafe-pour-over-style_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15890435342366/Untitled-11.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/fortado_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/fortado-decaffeinato_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/costa-rica_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/arondio_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/inizio_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/ethiopia_XL.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15537109106718/il-caffe-XL.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/diavolitto_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/altissio-decaffeinato_XL.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/altissio_XL.png?impolicy=medium&amp;imwidth=824&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/15536827269150/peru-oranic-vl-L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/orafio_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/toccanto_XL.png?impolicy=medium&amp;imwidth=824&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/double-espresso-scuro_XL.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/double-espresso-chiaro_XL.png?impolicy=medium&amp;imwidth=824&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/double-espresso-dolce_L.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/global/coffees/vl/sku-main-info-product/roasted-hazelnut_2x.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/global/coffees/vl/sku-main-info-product/golden-caramel.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/global/coffees/vl/sku-main-info-product/sweet-vanilla_2x.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/global/coffees/vl/sku-main-info-product/rich-chocolate_2x.png?impolicy=medium&amp;imwidth=824&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/bianco-piccolo/bianco-piccolo.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/bianco-doppio/bianco-doppio.png</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/bianco-forte/bianco-forte.png</t>
+  </si>
+  <si>
     <t>Original</t>
   </si>
   <si>
+    <t>Vertuo</t>
+  </si>
+  <si>
     <t>Current</t>
   </si>
   <si>
@@ -553,6 +1015,21 @@
     <t>Original Collection</t>
   </si>
   <si>
+    <t>Long Coffee</t>
+  </si>
+  <si>
+    <t>Long Coffee — Exclusively for use with Vertuo Next, Vertuo Pop+, Vertuo Lattissima and Vertuo Creatista machines</t>
+  </si>
+  <si>
+    <t>Long Coffee — Exclusively for use with Vertuo Next, Vertuo Lattissima and Vertuo Creatista machines</t>
+  </si>
+  <si>
+    <t>Gran Lungo</t>
+  </si>
+  <si>
+    <t>Espresso</t>
+  </si>
+  <si>
     <t>25 ml (Ristretto) &amp; 40 ml (Espresso)</t>
   </si>
   <si>
@@ -571,6 +1048,33 @@
     <t>Cappuccino &amp; Latte Macchiato</t>
   </si>
   <si>
+    <t>230 ml (Coffee)</t>
+  </si>
+  <si>
+    <t>355 ml (Alto)</t>
+  </si>
+  <si>
+    <t>355 ml (Cold Brew)</t>
+  </si>
+  <si>
+    <t>535 ml (Carafe)</t>
+  </si>
+  <si>
+    <t>150 ml (Gran Lungo)</t>
+  </si>
+  <si>
+    <t>80 ml (Double Espresso)</t>
+  </si>
+  <si>
+    <t>230 ml (Coffee), Cappucino and Latte Macchiato</t>
+  </si>
+  <si>
+    <t>40 ml (Espresso) &amp; Milk Recipes</t>
+  </si>
+  <si>
+    <t>80 ml (Double Espresso) &amp; Milk Recipes</t>
+  </si>
+  <si>
     <t>Dark &amp; Creamy</t>
   </si>
   <si>
@@ -670,6 +1174,102 @@
     <t>Sweet &amp; Light</t>
   </si>
   <si>
+    <t>Smooth &amp; Strong</t>
+  </si>
+  <si>
+    <t>Rich &amp; Strong</t>
+  </si>
+  <si>
+    <t>Bold &amp; Lively</t>
+  </si>
+  <si>
+    <t>Intense &amp; Spiced</t>
+  </si>
+  <si>
+    <t>Smooth &amp; Balanced</t>
+  </si>
+  <si>
+    <t>Sweet &amp; Velvety</t>
+  </si>
+  <si>
+    <t>Sweet &amp; Jam</t>
+  </si>
+  <si>
+    <t>Red fruit notes</t>
+  </si>
+  <si>
+    <t>Fruity &amp; Lightly-bodied</t>
+  </si>
+  <si>
+    <t>Roasted &amp; Woody</t>
+  </si>
+  <si>
+    <t>Honeyed &amp; Delicate</t>
+  </si>
+  <si>
+    <t>Sweet Caramel &amp; Roasted Cereal</t>
+  </si>
+  <si>
+    <t>Roasted &amp; Smokey</t>
+  </si>
+  <si>
+    <t>Toasted Cereal &amp; Malted</t>
+  </si>
+  <si>
+    <t>Intense &amp; Full-bodied</t>
+  </si>
+  <si>
+    <t>Malty &amp; Cereal Notes</t>
+  </si>
+  <si>
+    <t>Cereal &amp; Mild</t>
+  </si>
+  <si>
+    <t>Floral &amp; Cereal</t>
+  </si>
+  <si>
+    <t>Floral &amp; Delicate</t>
+  </si>
+  <si>
+    <t>Exceptionally Intense &amp; Velvety</t>
+  </si>
+  <si>
+    <t>Highly Intense &amp; Powerful</t>
+  </si>
+  <si>
+    <t>Full-bodied &amp; Creamy</t>
+  </si>
+  <si>
+    <t>Full-Bodied &amp; Creamy</t>
+  </si>
+  <si>
+    <t>Caramel &amp; Roasted</t>
+  </si>
+  <si>
+    <t>Berry &amp; Winey</t>
+  </si>
+  <si>
+    <t>Light &amp; Sweet</t>
+  </si>
+  <si>
+    <t>Dark &amp; Bold</t>
+  </si>
+  <si>
+    <t>Dense &amp; Wild</t>
+  </si>
+  <si>
+    <t>Cereal &amp; Malted</t>
+  </si>
+  <si>
+    <t>Dark Chocolate Flavoured</t>
+  </si>
+  <si>
+    <t>Sweet &amp; Smooth</t>
+  </si>
+  <si>
+    <t>Sweet &amp; Milky</t>
+  </si>
+  <si>
     <t>Intense &amp; Roasted</t>
   </si>
   <si>
@@ -691,9 +1291,6 @@
     <t>Caramel &amp; Balanced</t>
   </si>
   <si>
-    <t>Roasted &amp; Woody</t>
-  </si>
-  <si>
     <t>Roasted &amp; Peppery Note</t>
   </si>
   <si>
@@ -758,6 +1355,63 @@
   </si>
   <si>
     <t>Balanced, Fruity &amp; Cereal</t>
+  </si>
+  <si>
+    <t>Spicy &amp; Woody</t>
+  </si>
+  <si>
+    <t>Cereal</t>
+  </si>
+  <si>
+    <t>Biscuity &amp; Winey</t>
+  </si>
+  <si>
+    <t>Cereal &amp; Fruity</t>
+  </si>
+  <si>
+    <t>Roasted, Woody &amp; Spicy</t>
+  </si>
+  <si>
+    <t>Cereal &amp; Honey</t>
+  </si>
+  <si>
+    <t>Caramel &amp; Roasted Cereal</t>
+  </si>
+  <si>
+    <t>Cocoa</t>
+  </si>
+  <si>
+    <t>Woody</t>
+  </si>
+  <si>
+    <t>Floral</t>
+  </si>
+  <si>
+    <t>Cereal, Woody &amp; Cocoa</t>
+  </si>
+  <si>
+    <t>Intense &amp; Woody</t>
+  </si>
+  <si>
+    <t>Caramel</t>
+  </si>
+  <si>
+    <t>Hazelnut &amp; Flavoured</t>
+  </si>
+  <si>
+    <t>Caramel &amp; Flavoured</t>
+  </si>
+  <si>
+    <t>Vanilla &amp; Flavoured</t>
+  </si>
+  <si>
+    <t>Chocolate &amp; Flavoured</t>
+  </si>
+  <si>
+    <t>Smooth &amp; Sweet</t>
+  </si>
+  <si>
+    <t>Balanced &amp; Intense</t>
   </si>
   <si>
     <t>A velvety, creamy cup with an extremely thick body and pleasantly bitter cocoa notes.​</t>
@@ -869,6 +1523,123 @@
     <t>And Volluto Decaffeinato is faithful to form - Brazilian and Colombian coffees are carefully composed and now gently decaffeinated - for very sunny living. We decaffeinate naturally to make sure the coffee beans’ quality and taste is protected as much as possible. And just as with Volluto, in a Volluto Decaffeinato with milk you’ll taste the irresistible charm of those easy sweet biscuit and caramel notes with a splash of lively fruit aromas.</t>
   </si>
   <si>
+    <t>An intense long black coffee with a distinctly lingering aftertaste with roasted notes and a thick coffee crema. Pairs perfectly with milk that enriches the blend with brown caramel notes.</t>
+  </si>
+  <si>
+    <t>A long, slow roast intensifies the Nicaraguan and Guatemalan cereal aromatics to notes of spice and wood. They’re all high-grown Arabica coffees that we give that deep roast to build the rich intensity. But this Vertuo coffee pod remains smooth and full-bodied. Milk may mellow out Stormio - but you’ll still taste the powerful roasted notes that blow you away with a gathering storm.</t>
+  </si>
+  <si>
+    <t>The Nicaraguan Arabica gives Odacio its soft and solid cereal note. We daringly blended in a touch of Ethiopian Arabica - it adds a splash of acidity and delicate fruitiness. We split roast the coffees in this Vertuo coffee pod. A long and light roast for both coffees develops the body and structure and keeps the acidity and aromatics intact. Odacio brings a fullbodied cereal note and then dares to surprise you with its flourish of fruitiness and delicate acidity at the end. It’s bold and it’s lively and it hits your palate with great elegance.</t>
+  </si>
+  <si>
+    <t>An intense coffee with roasted woody and spicy notes, thick texture and low acidity. Pairs perfectly with milk.</t>
+  </si>
+  <si>
+    <t>A harmonious blend of Latin American Arabicas that sing with smooth cereal notes and a honeyed sweetness. Pairs perfectly with milk that enhances its softness and biscuity notes.</t>
+  </si>
+  <si>
+    <t>We split roast this Vertuo coffee capsule's Arabica coffees. It allows the Brazilian Bourbon to develop its cereal note to become a sweet and smooth coffee. Lightly roasting the other Arabicas rounds out Melozio. Melozio Decaffeinato delights twice. Its Latin American Arabicas still sing with smooth cereal and honeyed sweetness even after decaffeination.</t>
+  </si>
+  <si>
+    <t>This Vertuo coffee capsule blends decaffeinated and regular Arabica coffees from Brazil and Ethiopia. After decaffeination of half the coffee, a light and quick roast of a Brazilian Arabica coffee gives this Vertuo coffee pod a roundness and a sweetness. We chose to blend in an Ethiopian coffee so its delicate aromatics would add finesse. Half the coffee is Nespresso decaffeinated, but the taste is full.</t>
+  </si>
+  <si>
+    <t>This coffee displays sweet, biscuity, fruity jam, and cereal notes, with a mild, low bitterness.</t>
+  </si>
+  <si>
+    <t>The longer fermentation of high-grown Colombian Arabica delivers a particularly juicy and fruity, sweet cup. Pairs perfectly with milk.</t>
+  </si>
+  <si>
+    <t>This Vertuo coffee capsule is an Arabica blend of two renowned washed coffees - both loved for their lively acidity and their distinct fruity notes. We split roast and blended high-grown Colombian coffee and Kenyan coffee to create a light roast coffee with a light body and a lovable character. A juicy acidity shines through Solelio’s toasted cereal note. It’s hard to miss the classic fruitiness of the Colombian and Kenyan coffees. You can really ease into morning with this Vertuo coffee.</t>
+  </si>
+  <si>
+    <t>An intense coffee with roasted, woody and spicy notes.</t>
+  </si>
+  <si>
+    <t>Ambrato is a delicate blend with light toasted bread and honey notes and a light body.</t>
+  </si>
+  <si>
+    <t>A smooth and silky-textured coffee, with roasted caramel notes, low bitterness and a pleasant acidity that is typical of cold brew extractions.</t>
+  </si>
+  <si>
+    <t>CARAFE POUR-OVER STYLE is the coffee that opens up possibilities for sharing with others or simply extending the pleasure of your Nespresso moment. But creating our longest cup was by no means our shortest journey. Delivering not just the right intensity in the 535 ml, but also optimum crema and a distinct flavour profile, is something that didn’t happen overnight. After years of development, we were able to refine &amp; perfect the product to our desire, welcoming our largest ever coffee into the family. Elevate your drinking experience with the CARAFE accessory set, specifically designed to reveal the coffee's unique aromatics and inspire a new Nespresso coffee ritual.</t>
+  </si>
+  <si>
+    <t>Round and easy to drink, Carafe Pour-Over Style Mild has a balanced sensorial profile with toasted cereal notes and pleasant sweetness. This blend was roasted using the split roast technique (60/40). The first split includes all origins and is roasted to a light degree and average roasting time, while their second split includes only Colombian coffees and is roasted to a slightly darker degree, creating a mild roast overall. A classic Vertuo roast.</t>
+  </si>
+  <si>
+    <t>The most intense coffee in its Gran Lungo size comes thick-bodied and full of cocoa and oak notes. Pairs perfectly with milk.</t>
+  </si>
+  <si>
+    <t>The thick-bodied character with cocoa and oak notes of Fortado, in a decaffeinated recipe. Pairs perfectly with milk.</t>
+  </si>
+  <si>
+    <t>The one-of-a-kind process of fermentation in hot-spring waters brings about a remarkably balanced and clean taste in the cup. Master Origins Costa Rica is full-bodied but mellow. A malty sweet cereal note runs through it with crystal clarity.</t>
+  </si>
+  <si>
+    <t>A mild Gran Lungo - but don’t be fooled - there’s an inner strength behind the cereal note - a subtle acidity and a hint of Robusta oomph. The addition of milk softens the cereal notes while keeping an enchanting character.</t>
+  </si>
+  <si>
+    <t>We split roast this medium roast coffee. The Ethiopian Arabicas get a lighter, shorter roast to keep those floral notes alive. A longer, darker roast of the Kenyan coffee adds body to this Vertuo coffee capsule. The brewing is also designed to bring out great crema while keeping the floral aromatics intact. A juicy coffee with that combines subtle floral and cereal notes.</t>
+  </si>
+  <si>
+    <t>Ethiopia is a naturally flowery coffee that gains fruitiness and complexity from its signature drying method, revealing ripe blueberry notes and a hint of musk.</t>
+  </si>
+  <si>
+    <t>We split roast the coffees to give the Robustas a darker roast. A lighter but slightly longer roast of the Colombian Arabica beans keeps the acidity intact and develops a hint of a nutty note. Il Caffè goes down like a dream, its classic aroma promises to delight, and its familiar flavour is one to remember. We crafted Il Caffè to be your traditional black coffee experience, but if you want to soften this one’s intensity, why not add milk to make a Cappuccino?</t>
+  </si>
+  <si>
+    <t>No harshness in Diavolitto - just fine oak wood and leather notes and a smooth, creamy texture. The addition of milk complements its natural full body.</t>
+  </si>
+  <si>
+    <t>The full-bodied, bold espresso taste comes from blending South American Arabicas with Robusta. A Costa Rican Arabica adds its soft cereal note. All decaffeinated, the taste of the highly roasted Altissio Decaffeinato is true to the original – still cloaked in creamy royal robes.</t>
+  </si>
+  <si>
+    <t>A bold espresso cloaked in a creamy and roasty cereal note. Pairs perfectly with milk that complements its natural full body.</t>
+  </si>
+  <si>
+    <t>High up above 1000 meters – even up to 2100 meters – and, tucked into the slopes of the Andes, we found them. The organic processes passed down from generation to generation, this coffee is blessed with the meticulous care of smallholder farmers. Peru Organic is split roast to reveal both the bright, juicy acidity and the elegant fruity notes accented by a smooth toasted cereal note.</t>
+  </si>
+  <si>
+    <t>We crafted Orafio with a light and long roasted Ugandan Robusta. That roast keeps this coffee’s typical body and bitterness in check while still delivering the liquorice and spice notes that are hallmarks of this origin’s naturally processed Robusta. A short dark roast of the Brazilian and Costa Rican Arabicas balances the blend. Orafio is a complex coffee carrying a delicious caramel note and lingering with a long finish. Its beautiful roasted notes graced by a hint of acidity make this a luxurious coffee worth its weight in gold.</t>
+  </si>
+  <si>
+    <t>Fill your cup with the wildly aromatic Toccanto - a juicy coffee whose Latin American Arabicas bring candied and winey fruit notes to your palate.</t>
+  </si>
+  <si>
+    <t>A sweet, mild and harmonious blend with delicate biscuity aromas. Perfectly pairs with a dash of milk if you are looking for an even smoother taste.</t>
+  </si>
+  <si>
+    <t>A highly roasted blend of both Arabica and Robusta, that gives to Double Espresso Scuro a smoky character with dark cocoa and subtle vanilla notes. Pairs perfectly with milk.</t>
+  </si>
+  <si>
+    <t>An intense yet balanced Double Espresso, with woody, earthy and roasted cereal notes. Pairs perfectly with milk that enriches the blend with surprisingly prominent notes of caramel.</t>
+  </si>
+  <si>
+    <t>An exceptionally smooth double espresso that gets its sweetness and malty toasted cereal notes from a fine blend of Arabica and Robusta. Pairs perfectly with milk.</t>
+  </si>
+  <si>
+    <t>This flavoured blend delights with its classic grilled hazelnut flavour, complemented by notes of biscuits and caramel.</t>
+  </si>
+  <si>
+    <t>This flavoured blend delights with the classic caramel flavour combined with sweet biscuit notes.</t>
+  </si>
+  <si>
+    <t>This flavoured blend delights with the classic vanilla flavour combined with sweet biscuit, candied and cereal notes coming from its delicate arabica base.</t>
+  </si>
+  <si>
+    <t>This flavoured blend delights with its elegant dark chocolate flavour, complemented by notes of caramel, almond and cereal.</t>
+  </si>
+  <si>
+    <t>Soft and smooth, creamy texture, sweet, notes of caramel, nuts and biscuit. Especially crafted for your recipes with milk.</t>
+  </si>
+  <si>
+    <t>A smooth and caramelly light-roast Arabica blend crafted specifically for your larger milky coffees.</t>
+  </si>
+  <si>
+    <t>A full-bodied, intense and dark-roasted coffee, rich in cereal notes. Especially crafted for your recipes, it remains powerful in combination with milk.</t>
+  </si>
+  <si>
     <t>Ispirazione Napoli pays tribute to the short, strong and dark espressos of this southern Italian coastal city. It’s a velvety, creamy cup with an extremely thick body and a kiss of pleasant bitterness in its aftertaste.</t>
   </si>
   <si>
@@ -977,6 +1748,114 @@
     <t>Sweet and light. Delightfully balanced cereal and fruity notes. Volluto has an easy way about it.</t>
   </si>
   <si>
+    <t>A blend of Nicaraguans washed Robusta coffee beans and Latin American Arabica. Thick with roasted notes and a lingering finish. The Arabicas get a darker roast to lower the acidity and bring out that brown sugar aroma. While the Nicaraguan coffee gets a longer roast to develop the Robusta coffee beans’ bold and bitter notes.</t>
+  </si>
+  <si>
+    <t>Why we love it: Stormio’s a darkly roasted blend that rushes in with this myriad of aromas. But that all that strength could come from pure Arabica coffees?</t>
+  </si>
+  <si>
+    <t>Why we love it: Odacio’s a lively and intense Vertuo coffee.</t>
+  </si>
+  <si>
+    <t>You’ll do a double take with Master Origins Mexico with double washed Robusta -because selective hand-picking and thoroughly washing was once only for Arabica.</t>
+  </si>
+  <si>
+    <t>You can’t help but fall for Melozio, a Canadian best-seller. A harmonious blend of fine quality Brazilian and Central American Arabicas, roasted to create a rounded coffee that is smooth and perfectly balanced.</t>
+  </si>
+  <si>
+    <t>Why we love it: You’ll love Half Caffeinato - its smooth, velvety texture and its sweet biscuit note.</t>
+  </si>
+  <si>
+    <t>Grown under shade-trees, these treasured coffee varieties find their ideal terroir nestled beside active volcanoes, delivering a mild cup with sweet biscuit and fruity jam notes. The "red honey process" involves carefully adjusting the amount of sweet pulp left on the drying cherry which complements this Arabica blend’s washed processed beans with sweet aromatics.</t>
+  </si>
+  <si>
+    <t>The cooler climate of the high-altitude Colombia Aguadas mountains means the coffee takes longer to ferment. The classic washed coffee processing method is complex and time-consuming, but up here it calls for even more skill.</t>
+  </si>
+  <si>
+    <t>Why we love it: Solelio is our gentlest start to the day.</t>
+  </si>
+  <si>
+    <t>Alto Onice delivers a full palate of strong cereal and deep woody notes for a longer cup to savour at home or on-the-go. Through the bold aromatics of beautiful bitter cocoa, spice and roasted notes comes a golden caramel note and a faint shimmer of acidity to balance this deep-roasted blend of coffees from Colombia, India, and beyond.</t>
+  </si>
+  <si>
+    <t>Taste Alto Ambrato's honeyed cereal, toasted notes and caramel sweetness. A fruity touch sparkles through this lightly roasted blend of fine Latin American Arabicas and Robusta. At home or on the go, it’s your longer cup warm in rich, golden aromatics.</t>
+  </si>
+  <si>
+    <t>Inspired by the “hot bloom” method, Cold Brew Style Intense, reimagined by Nespresso, begins brewing hot to draw the best of the beans &amp; continues with cool water to leave the bitterness behind and brewed in minutes. Taste the roasted Arabicas’ &amp; caramel notes in a smooth, silky-textured coffee. For the best experience, use cool water (below 10°C / 50F) in your Vertuo water tank &amp; add 3-4 ice cubes to your coffee. 12 fl oz (355 ml) = 2 servings of 6 fl oz (172.5 ml).</t>
+  </si>
+  <si>
+    <t>CARAFE POUR-OVER SYLE is a coffee like none other in the range. It’s an easy-to-drink blend of Peruvian and Colombian washed Arabicas, which complement each other with their contrasting qualities to create a unique aromatic profile.</t>
+  </si>
+  <si>
+    <t>Smooth, toasted cereal and malted notes grace every last drop of this subtly sweet Latin American Arabica blend coffee inspired by the pour-over method.</t>
+  </si>
+  <si>
+    <t>Here’s the most intense Vertuo coffee in its Gran Lungo size - Fortado. Its Indian Robusta comes at you in full force, and cocoa and oak wood notes emerge from the Latin American Arabicas.</t>
+  </si>
+  <si>
+    <t>The most intense Gran Lungo VERTUO coffee, decaffeinated. FORTADO DECAFFEINATO’s Indian Robusta comes at you in full force, with cocoa and oak wood notes still strong in the decaffeinated Latin American Arabicas.</t>
+  </si>
+  <si>
+    <t>High in Costa Rica’s mountains, only a small selection of Arabica coffee beans is soaked in rainforest hot spring waters. Costa Rica contains this scarce coffee whose rare process highlights the malty sweet cereal character of this craftsman’s coffee.</t>
+  </si>
+  <si>
+    <t>Inizio is the helping hand easing you into your every day. The velvety, smooth body of this Kenyan and Ethiopian Arabica blend comes with a warmth and strength from its rich toasted cereal note. Its wild florals give you that laid-back Sunday feeling.</t>
+  </si>
+  <si>
+    <t>Ethiopia with dry processed Arabica involves sun-drying some of the coffee cherry. This continual hand-turning to ensure even drying calls for great care. And Ethiopian farmers have used this method for longer than anyone else.</t>
+  </si>
+  <si>
+    <t>This short devil of a coffee capsule is an intense, powerful espresso, definitely packed with character. Oak and leather aromas punch through the creamy texture of Diavolitto's blend of Robustas, including washed Guatemalan Robusta, and Latin American Arabicas.</t>
+  </si>
+  <si>
+    <t>When Altissio Decaffeinato walks in, you'll notice.</t>
+  </si>
+  <si>
+    <t>The South American Arabicas and a touch of Brazilian Robusta give it that full-bodied, bold espresso taste. We balanced these coffees out with a Costa Rican Arabica that adds its soft cereal note. In royal robes, Altissio is a Vertuo espresso coffee cloaked in a thick, velvety crema - full of roasty notes and a soft and creamy cereal note.</t>
+  </si>
+  <si>
+    <t>Why we love it: We traveled across remote Peruvian regions in search of the finest organic certified Arabica coffee beans.</t>
+  </si>
+  <si>
+    <t>What makes Orafio glow in your cup is a combination of masterful blending, bringing together both high quality Arabica and Robusta coffees from a diversity of origins, and skilful split roasting. Sounds a bit like the level of craftmanship that goes into this coffee’s namesake, doesn’t it? The Italians among us will recognize the link to their word for goldsmith.</t>
+  </si>
+  <si>
+    <t>A barrel of fine South and Central American coffee origins gather together in Toccanto to bring you a wild, juicy coffee with candied and ripe fruity notes. This all Arabica blend beautifully balances acidity and body in an aromatic cup.</t>
+  </si>
+  <si>
+    <t>Our light and sweet espresso that comes with a biscuity aroma from its fine South American Arabicas and that you might just make your golden standard.</t>
+  </si>
+  <si>
+    <t>Double Espresso Scuro is a highly roasted blend of Robusta and Arabica - all Central American coffees. The Robusta is from Guatemala and the Arabica is Costa Rican. And it’s the Robusta in this Nespresso Vertuoline double shot that helps it pack a double enjoyment.</t>
+  </si>
+  <si>
+    <t>This Nespresso Vertuoline double shot’s the last course - go ahead and finish off your meal with a bang.</t>
+  </si>
+  <si>
+    <t>The masterful blending and split roasting of different Arabica and Robusta beans is the secret behind this mild and smooth double espresso. Latin American Arabicas deliver that delicious malty toasted cereal note that sings above this beautifully balanced cup.</t>
+  </si>
+  <si>
+    <t>We have made name changes to our Barista Creations flavoured range for Vertuo to better reflect the various changes made, from the recipe to the flavouring extracts and recommended cup size. Bringing you the rich caramelized flavour of roasted hazelnuts in a coffee called for perfectly roasting some of our smoothest Arabica beans from Latin America and Africa. When this sweet, velvety blend with its delicate biscuit note meets the bittersweet complexity of the hazelnut flavour in Barista Creations Flavoured Roasted Hazelnut it’s all smiles. It makes a milky treat with a rush of grilled hazelnut, praline, and caramel biscuit notes.</t>
+  </si>
+  <si>
+    <t>We have made name changes to our Barista Creations flavoured range for Vertuo to better reflect the various changes made, from the recipe to the flavouring extracts and recommended cup size. Barista Creations Flavoured Golden Caramel brings the weekend mood any day. Into our sweet and velvety base blend of Latin American and African Arabicas comes the comforting caramel flavour. Its biscuity sweetness is an echo of the coffee blend itself, this one’s got layers of indulgence irresistibly inviting you to cozy up any time the moment calls for it. Insider Tip: With a dash of milk, the caramel and biscuit notes can’t be missed.</t>
+  </si>
+  <si>
+    <t>We have made name changes to our Barista Creations flavoured range for Vertuo to better reflect the various changes made, from the recipe to the flavouring extracts and recommended cup size.Tuck into Barista Creations Flavoured Sweet Vanilla - the dreamy taste of vanilla dances through delicious coffee. When we add vanilla flavour to our light-roasted Arabicas from Latin America and Africa, you’ll discover much more in the cup. It takes on a swirl of flavours. Notes of caramel and vanilla cake are all the excuse you need to pause and enjoy a little me-time. Just for you or to share with loved ones. Insider tip: A dash of milk highlights the vanilla flavour all the more.</t>
+  </si>
+  <si>
+    <t>Satisfy your chocolate craving with BARISTA CREATIONS FLAVOURED RICH CHOCOLATE. Our velvety-smooth blend of Latin American and African Arabicas meets an authentic chocolate flavour, inviting you to make an occasion of your coffee moment. Like all good dark chocolate—rich and complex—this coffee unfolds layers of flavour. The sweetness elevates it to dessert status. Insider tip: With a dash of milk, a rush of nuts and biscuit notes emerges to accompany the chocolate flavour.</t>
+  </si>
+  <si>
+    <t>Intense yet smooth in taste, this espresso is specially designed for making cappuccinos, latte macchiatos or flat whites. An expertly crafted blend of Arabicas from China, Colombia, Brazil &amp; Ethiopia creates this world of rich roasted notes to land in harmony with the creamy sweetness of milk.</t>
+  </si>
+  <si>
+    <t>We crafted this coffee as the match for your longer milky treats. An aromatic blend of light roasted Arabicas from Kenya, Colombia and Nicaragua, our signature split roast develops delicious caramelly notes and a smooth texture in BIANCO DOPPIO for milk. It’s the coffee that pairs beautifully with milk in your larger cappuccinos and flat whites.</t>
+  </si>
+  <si>
+    <t>A long cup coffee, big in powerful roasted notes. Add a generous dash of milk and you’ll find its sweetness sits in a dynamic balance with this carefully crafted blend of fine Colombian and Kenyan Arabicas. We give the beans a dark split roast to highlight the coffees' rich roasted and cereal notes.</t>
+  </si>
+  <si>
     <t>This intense blend is created mostly using Robustas from Uganda and India, combined with Arabicas for an intense coffee with a cocoa touch.</t>
   </si>
   <si>
@@ -1034,6 +1913,63 @@
     <t>Volluto’s delicious profile is created combining the sweet mellowness of Brazilian Arabicas with the winey fruitiness of Colombian Arabicas.</t>
   </si>
   <si>
+    <t>Intenso is created by combining Latin American Arabicas with Nicaraguan Robustas.</t>
+  </si>
+  <si>
+    <t>Both the Arabicas and Robustas from this coffee come from Mexico.</t>
+  </si>
+  <si>
+    <t>A harmonious blend of Latin American Arabicas, mostly from Brazil and Guatemala, rich in smooth cereal notes and honeyed sweetness.</t>
+  </si>
+  <si>
+    <t>This is an all-Arabica blend sourced from the Apaneca Ilamatepec Mountain Range in El Salvador. A selection of red honey processed beans complements the washed Arabica beans with distinctive sweetness.</t>
+  </si>
+  <si>
+    <t>This fully-washed coffee is sourced in the high-altitude region of Aguadas, in Colombia.</t>
+  </si>
+  <si>
+    <t>A complex blend of several origins: through its Indian beans’ cocoa and spice notes comes the Colombian arabica’s shimmer of acidity in our longest cup size.</t>
+  </si>
+  <si>
+    <t>Arabica and robusta coffees from Latin America give rich warmth to this light-roast long cup. Taste toasted cereal and sweet caramel notes balanced by a fruity touch.</t>
+  </si>
+  <si>
+    <t>This 100% Arabica blend mostly uses Brazilian Bourbons and other Guatemalan Arabicas.</t>
+  </si>
+  <si>
+    <t>We chose high quality washed Latin American Arabicas and blended it with a naturally processed Indian Robusta for its high-end quality, intensity and full body.</t>
+  </si>
+  <si>
+    <t>This 100% Arabica, fully washed coffee is sourced high up in the Costa Rican mountains.</t>
+  </si>
+  <si>
+    <t>A blend of Robustas and Arabicas from Latin America and a rare Robusta from Guatemala which gives to this coffee its soft and creamy texture.</t>
+  </si>
+  <si>
+    <t>A combination of Arabicas from Latin America and Costa Rica, with a little touch of Brazilian Robusta for a full-bodied cup.</t>
+  </si>
+  <si>
+    <t>Voltesso gets its light, biscuity note from Brazilian Bourbon coffee, while Colombian Arabicas add a hint of acidity.</t>
+  </si>
+  <si>
+    <t>This intense blend is created using Robustas from Guatemala and other origins, in combination with Arabicas from Costa Rica.</t>
+  </si>
+  <si>
+    <t>A blend of Latin American Arabica coffees, mainly coming from Brazil and Colombia.</t>
+  </si>
+  <si>
+    <t>Double Espresso Dolce is created by combining Latin American Arabicas and Ugandan Robustas.</t>
+  </si>
+  <si>
+    <t>This 100% Arabica blend is sourced from Brazil and Ethiopia and another Latin American Country.</t>
+  </si>
+  <si>
+    <t>For this 100% Arabica blend, we sourced beans from a diversity of origins stretching from China to Colombia, and Brazil to Ethiopia.</t>
+  </si>
+  <si>
+    <t>This 100% Arabica blend combines coffees from Kenya, Colombia and Costa Rica.</t>
+  </si>
+  <si>
     <t>A dark and intense roast, done with carefully selected beans that can withstand the process and develop delicious bitter notes without completely burning away.</t>
   </si>
   <si>
@@ -1088,6 +2024,63 @@
     <t>Lightly roasted and given a medium grind to keep it all in harmony. This roast turns the Brazil’s cereal notes to sweet biscuit and keeps the fruity notes of the Colombian beans alive.</t>
   </si>
   <si>
+    <t>The Arabicas get a darker roast to lower the acidity and bring out that brown sugar aroma. The Robustas get a longer roast to develop bitter notes and a lingering aftertaste.</t>
+  </si>
+  <si>
+    <t>The Arabica coffee beans are given a medium roast and the uncommon Double Washed Robusta coffee beans get a long and deep roast.</t>
+  </si>
+  <si>
+    <t>The Brazilian Arabicas are roasted separately to develop sweet and cereal notes. The other Arabicas get are lightly roasted to round out Melozio.</t>
+  </si>
+  <si>
+    <t>Overall light roast - The red honey is roasted separately from the rest to make the most of the unique processing method. The other portion washed is slightly longer and darker.</t>
+  </si>
+  <si>
+    <t>We separate this coffee in 2 batches for roasting. Most of it is given a fast and light roast, and a smaller portion is roasted a little longer and deeper to add complexity to the cup.</t>
+  </si>
+  <si>
+    <t>Arabicas and robustas are roasted together in the first split. The second split is composed exclusively from decaffeinated arabica, and is roasted for a slightly shorter time.</t>
+  </si>
+  <si>
+    <t>This Vertuo coffee gets a split roast. It allows the Brazilian Bourbon to develop its cereal note to become a sweet and smooth coffee. Lightly roasting the other Arabicas rounds out the blend.</t>
+  </si>
+  <si>
+    <t>First, a long roast at medium temperatures brings out the intensity in the Indian Robusta, without any harshness. The Arabicas then get dark developing rich cocoa and wood notes.</t>
+  </si>
+  <si>
+    <t>First batch is roasted in medium temperatures to reach a medium-dark colour and develop sweet malty notes. Second batch is roasted more intensively to reach a darker color and the desired intensity.</t>
+  </si>
+  <si>
+    <t>A highly roasted Robusta and Arabica coffee blend. We split roast so that each coffee’s origin characteristics stay at play.</t>
+  </si>
+  <si>
+    <t>Altissio gets an intense and short roast to bring out the full-bodied character of this bold Vertuo espresso coffee.</t>
+  </si>
+  <si>
+    <t>The Colombian coffee is roasted light and short to preserve its acidity, while the Brazilian Bourbon is roasted for a longer time to reveal its biscuity notes.</t>
+  </si>
+  <si>
+    <t>We separate Robustas and Arabicas but give them both a full roast to develop the intense cocoa notes and the smoky character of this coffee.</t>
+  </si>
+  <si>
+    <t>Washed and Natural Arabicas are roasted separately, although both get an intense and short roast. This is done to bring the best out of each part of the blend.</t>
+  </si>
+  <si>
+    <t>A batch of Arabicas are roasted light and short, while another combination of Arabica and Robusta get a slightly longer and darker roast.</t>
+  </si>
+  <si>
+    <t>Latin American beans are roasted medium dark and quickly to develop sweetness. The other coffees are roasted a bit longer to develop a velvety texture.</t>
+  </si>
+  <si>
+    <t>Roasted in two splits : 1. Medium-dark for the majority of the coffee. 2. Light to very light to balance out the overall roast, aiming for the best combination to work well with milk.</t>
+  </si>
+  <si>
+    <t>The majority of the coffee goes on a very light first split, while the second split is pushed a bit further. A very clear and light roast overall.</t>
+  </si>
+  <si>
+    <t>One part of the blend gets a long and dark roast, while the second part is roasted a little faster and to a slightly lighter degree.</t>
+  </si>
+  <si>
     <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
   </si>
   <si>
@@ -1097,6 +2090,27 @@
     <t>10 capsules of artificially flavoured caramel roast and ground coffee for the Nespresso system.</t>
   </si>
   <si>
+    <t>10 capsules of roast and ground coffee for the Nespresso system</t>
+  </si>
+  <si>
+    <t>7 capsules of roast and ground coffee for the Nespresso system.</t>
+  </si>
+  <si>
+    <t>7 Cold Brew Style Intense capsules of roast and ground coffee for the Nespresso system.</t>
+  </si>
+  <si>
+    <t>7 capsules of roast and ground coffee for the Vertuo Next Machine.</t>
+  </si>
+  <si>
+    <t>10 capsules of artificially flavoured hazelnut roast and ground coffee for the Nespresso system.</t>
+  </si>
+  <si>
+    <t>10 capsules of roast and ground coffee for the Nespresso system. Vanilla flavour with other natural flavours.</t>
+  </si>
+  <si>
+    <t>10 capsules of flavoured roast and ground coffee for the Nespresso system.</t>
+  </si>
+  <si>
     <t>Roast and ground coffee</t>
   </si>
   <si>
@@ -1112,6 +2126,24 @@
     <t>Natural flavouring, roast and ground coffee.</t>
   </si>
   <si>
+    <t>Decaffeinated Roast and ground coffee.</t>
+  </si>
+  <si>
+    <t>Roast and ground coffee, decaffeinated roast and ground coffee.</t>
+  </si>
+  <si>
+    <t>Roast and ground coffee.</t>
+  </si>
+  <si>
+    <t>Roast and ground coffee, natural flavour.</t>
+  </si>
+  <si>
+    <t>Roast and ground coffee. Cocoa flavour with other natural flavours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roast and ground coffee </t>
+  </si>
+  <si>
     <t>57 g - 2.01 oz for 10 capsules</t>
   </si>
   <si>
@@ -1136,6 +2168,45 @@
     <t>48 g - 1.68 oz for 10 capsules</t>
   </si>
   <si>
+    <t>125 g - 4.41 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>125 g - 4.40 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>120 g - 4.23 oz for 7 capsules</t>
+  </si>
+  <si>
+    <t>100 g - 3.53 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>105 g - 3.70 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>95 g - 3.35 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>70 g - 2.47 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>70 g - 2.46 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>62 g - 2.18 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>52 g - 1.83 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>100 g - 3.52 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>62 g - 2.19 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>102 g - 3.59 oz for 10 capsules</t>
+  </si>
+  <si>
     <t>Charts/OL1_Ispirazione Napoli_Original_Taste Profile.png</t>
   </si>
   <si>
@@ -1242,6 +2313,123 @@
   </si>
   <si>
     <t>Charts/OL36_Volluto Decaffeinato_Original_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL1_Intenso_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL2_Stormio_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL3_Odacio_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL4_Mexico_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL5_Melozio_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL6_Melozio Decaffeinato_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL7_Half Caffeinato_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL8_El Salvador_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL9_Colombia - Fairtrade_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL10_Solelio_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL11_Alto Onice_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL12_Alto Ambrato_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL13_Cold Brew Style Intense_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL14_Carafe Pour-Over Style_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL15_Carafe Pour-Over Style Mild_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL16_Fortado_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL17_Fortado Decaffeinato_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL18_Costa Rica_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL19_Arondio_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL20_Inizio_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL21_Ethiopia_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL22_Il Caffe_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL23_Diavolitto_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL24_Altissio Decaffeinato_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL25_Altissio_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL26_Peru Organic_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL27_Orafio_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL28_Toccanto_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL29_Voltesso_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL30_Double Espresso Scuro_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL31_Double Espresso Chiaro_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL32_Double Espresso Dolce_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL33_Roasted Hazelnut_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL34_Golden Caramel_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL35_Sweet Vanilla_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL36_Rich Chocolate_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL37_Bianco Piccolo_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL38_Bianco Doppio_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL39_Bianco Forte_Vertuo_Taste Profile.png</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +2800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:AB76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1709,28 +2897,28 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>328</v>
       </c>
       <c r="H2" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
       <c r="I2" t="s">
-        <v>185</v>
+        <v>353</v>
       </c>
       <c r="J2">
         <v>13</v>
@@ -1739,10 +2927,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L2" t="s">
-        <v>218</v>
+        <v>418</v>
       </c>
       <c r="M2" t="s">
-        <v>248</v>
+        <v>466</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -1757,25 +2945,25 @@
         <v>5</v>
       </c>
       <c r="V2" t="s">
-        <v>284</v>
+        <v>541</v>
       </c>
       <c r="W2" t="s">
-        <v>320</v>
+        <v>613</v>
       </c>
       <c r="X2" t="s">
-        <v>339</v>
+        <v>651</v>
       </c>
       <c r="Y2" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z2" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA2" t="s">
-        <v>365</v>
+        <v>709</v>
       </c>
       <c r="AB2" t="s">
-        <v>373</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -1783,28 +2971,28 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>328</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
       <c r="I3" t="s">
-        <v>186</v>
+        <v>354</v>
       </c>
       <c r="J3">
         <v>12</v>
@@ -1813,10 +3001,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L3" t="s">
-        <v>219</v>
+        <v>419</v>
       </c>
       <c r="M3" t="s">
-        <v>249</v>
+        <v>467</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1831,19 +3019,19 @@
         <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>285</v>
+        <v>542</v>
       </c>
       <c r="Y3" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z3" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA3" t="s">
-        <v>366</v>
+        <v>710</v>
       </c>
       <c r="AB3" t="s">
-        <v>374</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1851,28 +3039,28 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>138</v>
+        <v>253</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>328</v>
       </c>
       <c r="H4" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
       <c r="I4" t="s">
-        <v>187</v>
+        <v>355</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -1881,10 +3069,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L4" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="M4" t="s">
-        <v>250</v>
+        <v>468</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -1899,25 +3087,25 @@
         <v>4</v>
       </c>
       <c r="V4" t="s">
-        <v>286</v>
+        <v>543</v>
       </c>
       <c r="W4" t="s">
-        <v>321</v>
+        <v>614</v>
       </c>
       <c r="X4" t="s">
-        <v>340</v>
+        <v>652</v>
       </c>
       <c r="Y4" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z4" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA4" t="s">
-        <v>365</v>
+        <v>709</v>
       </c>
       <c r="AB4" t="s">
-        <v>375</v>
+        <v>732</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1925,28 +3113,28 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F5" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G5" t="s">
-        <v>174</v>
+        <v>328</v>
       </c>
       <c r="H5" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
       <c r="I5" t="s">
-        <v>187</v>
+        <v>355</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -1955,10 +3143,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L5" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="M5" t="s">
-        <v>251</v>
+        <v>469</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -1973,19 +3161,19 @@
         <v>4</v>
       </c>
       <c r="V5" t="s">
-        <v>287</v>
+        <v>544</v>
       </c>
       <c r="Y5" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z5" t="s">
-        <v>361</v>
+        <v>699</v>
       </c>
       <c r="AA5" t="s">
-        <v>365</v>
+        <v>709</v>
       </c>
       <c r="AB5" t="s">
-        <v>376</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1993,28 +3181,28 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F6" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G6" t="s">
-        <v>174</v>
+        <v>328</v>
       </c>
       <c r="H6" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
       <c r="I6" t="s">
-        <v>188</v>
+        <v>356</v>
       </c>
       <c r="J6">
         <v>9</v>
@@ -2023,10 +3211,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L6" t="s">
-        <v>221</v>
+        <v>421</v>
       </c>
       <c r="M6" t="s">
-        <v>252</v>
+        <v>470</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -2041,25 +3229,25 @@
         <v>4</v>
       </c>
       <c r="V6" t="s">
-        <v>288</v>
+        <v>545</v>
       </c>
       <c r="W6" t="s">
-        <v>322</v>
+        <v>615</v>
       </c>
       <c r="X6" t="s">
-        <v>341</v>
+        <v>653</v>
       </c>
       <c r="Y6" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z6" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA6" t="s">
-        <v>367</v>
+        <v>711</v>
       </c>
       <c r="AB6" t="s">
-        <v>377</v>
+        <v>734</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -2067,28 +3255,28 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>328</v>
       </c>
       <c r="H7" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
       <c r="I7" t="s">
-        <v>188</v>
+        <v>356</v>
       </c>
       <c r="J7">
         <v>9</v>
@@ -2097,10 +3285,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L7" t="s">
-        <v>222</v>
+        <v>422</v>
       </c>
       <c r="M7" t="s">
-        <v>253</v>
+        <v>471</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -2115,25 +3303,25 @@
         <v>4</v>
       </c>
       <c r="V7" t="s">
-        <v>289</v>
+        <v>546</v>
       </c>
       <c r="W7" t="s">
-        <v>323</v>
+        <v>616</v>
       </c>
       <c r="X7" t="s">
-        <v>342</v>
+        <v>654</v>
       </c>
       <c r="Y7" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z7" t="s">
-        <v>361</v>
+        <v>699</v>
       </c>
       <c r="AA7" t="s">
-        <v>368</v>
+        <v>712</v>
       </c>
       <c r="AB7" t="s">
-        <v>378</v>
+        <v>735</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -2141,28 +3329,28 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>328</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
       <c r="I8" t="s">
-        <v>189</v>
+        <v>357</v>
       </c>
       <c r="J8">
         <v>8</v>
@@ -2171,10 +3359,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L8" t="s">
-        <v>202</v>
+        <v>370</v>
       </c>
       <c r="M8" t="s">
-        <v>254</v>
+        <v>472</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2189,25 +3377,25 @@
         <v>4</v>
       </c>
       <c r="V8" t="s">
-        <v>290</v>
+        <v>547</v>
       </c>
       <c r="W8" t="s">
-        <v>324</v>
+        <v>617</v>
       </c>
       <c r="X8" t="s">
-        <v>343</v>
+        <v>655</v>
       </c>
       <c r="Y8" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z8" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA8" t="s">
-        <v>369</v>
+        <v>713</v>
       </c>
       <c r="AB8" t="s">
-        <v>379</v>
+        <v>736</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -2215,28 +3403,28 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>328</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
       <c r="I9" t="s">
-        <v>190</v>
+        <v>358</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -2245,10 +3433,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L9" t="s">
-        <v>223</v>
+        <v>423</v>
       </c>
       <c r="M9" t="s">
-        <v>255</v>
+        <v>473</v>
       </c>
       <c r="N9">
         <v>4</v>
@@ -2263,19 +3451,19 @@
         <v>3</v>
       </c>
       <c r="V9" t="s">
-        <v>291</v>
+        <v>548</v>
       </c>
       <c r="Y9" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z9" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA9" t="s">
-        <v>370</v>
+        <v>714</v>
       </c>
       <c r="AB9" t="s">
-        <v>380</v>
+        <v>737</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -2283,28 +3471,28 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G10" t="s">
-        <v>174</v>
+        <v>328</v>
       </c>
       <c r="H10" t="s">
-        <v>180</v>
+        <v>339</v>
       </c>
       <c r="I10" t="s">
-        <v>191</v>
+        <v>359</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -2313,10 +3501,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L10" t="s">
-        <v>224</v>
+        <v>424</v>
       </c>
       <c r="M10" t="s">
-        <v>256</v>
+        <v>474</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -2331,25 +3519,25 @@
         <v>3</v>
       </c>
       <c r="V10" t="s">
-        <v>292</v>
+        <v>549</v>
       </c>
       <c r="W10" t="s">
-        <v>325</v>
+        <v>618</v>
       </c>
       <c r="X10" t="s">
-        <v>344</v>
+        <v>656</v>
       </c>
       <c r="Y10" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z10" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA10" t="s">
-        <v>367</v>
+        <v>711</v>
       </c>
       <c r="AB10" t="s">
-        <v>381</v>
+        <v>738</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -2357,28 +3545,28 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G11" t="s">
-        <v>175</v>
+        <v>329</v>
       </c>
       <c r="H11" t="s">
-        <v>181</v>
+        <v>340</v>
       </c>
       <c r="I11" t="s">
-        <v>192</v>
+        <v>360</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -2387,10 +3575,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L11" t="s">
-        <v>225</v>
+        <v>395</v>
       </c>
       <c r="M11" t="s">
-        <v>257</v>
+        <v>475</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2405,19 +3593,19 @@
         <v>4</v>
       </c>
       <c r="V11" t="s">
-        <v>293</v>
+        <v>550</v>
       </c>
       <c r="Y11" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z11" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA11" t="s">
-        <v>368</v>
+        <v>712</v>
       </c>
       <c r="AB11" t="s">
-        <v>382</v>
+        <v>739</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -2425,28 +3613,28 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G12" t="s">
-        <v>175</v>
+        <v>329</v>
       </c>
       <c r="H12" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
       <c r="I12" t="s">
-        <v>193</v>
+        <v>361</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -2455,10 +3643,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L12" t="s">
-        <v>226</v>
+        <v>425</v>
       </c>
       <c r="M12" t="s">
-        <v>258</v>
+        <v>476</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2473,19 +3661,19 @@
         <v>4</v>
       </c>
       <c r="V12" t="s">
-        <v>294</v>
+        <v>551</v>
       </c>
       <c r="Y12" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z12" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA12" t="s">
-        <v>202</v>
+        <v>370</v>
       </c>
       <c r="AB12" t="s">
-        <v>383</v>
+        <v>740</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -2493,28 +3681,28 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F13" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G13" t="s">
-        <v>175</v>
+        <v>329</v>
       </c>
       <c r="H13" t="s">
-        <v>180</v>
+        <v>339</v>
       </c>
       <c r="I13" t="s">
-        <v>194</v>
+        <v>362</v>
       </c>
       <c r="J13">
         <v>9</v>
@@ -2523,10 +3711,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L13" t="s">
-        <v>227</v>
+        <v>426</v>
       </c>
       <c r="M13" t="s">
-        <v>259</v>
+        <v>477</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2541,25 +3729,25 @@
         <v>4</v>
       </c>
       <c r="V13" t="s">
-        <v>295</v>
+        <v>552</v>
       </c>
       <c r="W13" t="s">
-        <v>326</v>
+        <v>619</v>
       </c>
       <c r="X13" t="s">
-        <v>345</v>
+        <v>657</v>
       </c>
       <c r="Y13" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z13" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA13" t="s">
-        <v>368</v>
+        <v>712</v>
       </c>
       <c r="AB13" t="s">
-        <v>384</v>
+        <v>741</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -2567,28 +3755,28 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G14" t="s">
-        <v>175</v>
+        <v>329</v>
       </c>
       <c r="H14" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
       <c r="I14" t="s">
-        <v>195</v>
+        <v>363</v>
       </c>
       <c r="J14">
         <v>8</v>
@@ -2597,10 +3785,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L14" t="s">
-        <v>228</v>
+        <v>427</v>
       </c>
       <c r="M14" t="s">
-        <v>260</v>
+        <v>478</v>
       </c>
       <c r="N14">
         <v>4</v>
@@ -2615,25 +3803,25 @@
         <v>3</v>
       </c>
       <c r="V14" t="s">
-        <v>296</v>
+        <v>553</v>
       </c>
       <c r="W14" t="s">
-        <v>327</v>
+        <v>620</v>
       </c>
       <c r="X14" t="s">
-        <v>346</v>
+        <v>658</v>
       </c>
       <c r="Y14" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z14" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA14" t="s">
-        <v>369</v>
+        <v>713</v>
       </c>
       <c r="AB14" t="s">
-        <v>385</v>
+        <v>742</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2641,28 +3829,28 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>149</v>
+        <v>264</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>329</v>
       </c>
       <c r="H15" t="s">
-        <v>181</v>
+        <v>340</v>
       </c>
       <c r="I15" t="s">
-        <v>196</v>
+        <v>364</v>
       </c>
       <c r="J15">
         <v>8</v>
@@ -2671,10 +3859,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L15" t="s">
-        <v>229</v>
+        <v>428</v>
       </c>
       <c r="M15" t="s">
-        <v>261</v>
+        <v>479</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -2689,25 +3877,25 @@
         <v>3</v>
       </c>
       <c r="V15" t="s">
-        <v>297</v>
+        <v>554</v>
       </c>
       <c r="W15" t="s">
-        <v>328</v>
+        <v>621</v>
       </c>
       <c r="X15" t="s">
-        <v>347</v>
+        <v>659</v>
       </c>
       <c r="Y15" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z15" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA15" t="s">
-        <v>366</v>
+        <v>710</v>
       </c>
       <c r="AB15" t="s">
-        <v>386</v>
+        <v>743</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2715,28 +3903,28 @@
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G16" t="s">
-        <v>175</v>
+        <v>329</v>
       </c>
       <c r="H16" t="s">
-        <v>180</v>
+        <v>339</v>
       </c>
       <c r="I16" t="s">
-        <v>197</v>
+        <v>365</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -2745,10 +3933,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L16" t="s">
-        <v>230</v>
+        <v>429</v>
       </c>
       <c r="M16" t="s">
-        <v>262</v>
+        <v>480</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -2763,25 +3951,25 @@
         <v>3</v>
       </c>
       <c r="V16" t="s">
-        <v>298</v>
+        <v>555</v>
       </c>
       <c r="W16" t="s">
-        <v>329</v>
+        <v>622</v>
       </c>
       <c r="X16" t="s">
-        <v>348</v>
+        <v>660</v>
       </c>
       <c r="Y16" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z16" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA16" t="s">
-        <v>370</v>
+        <v>714</v>
       </c>
       <c r="AB16" t="s">
-        <v>387</v>
+        <v>744</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2789,28 +3977,28 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>151</v>
+        <v>266</v>
       </c>
       <c r="E17" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G17" t="s">
-        <v>175</v>
+        <v>329</v>
       </c>
       <c r="H17" t="s">
-        <v>181</v>
+        <v>340</v>
       </c>
       <c r="I17" t="s">
-        <v>198</v>
+        <v>366</v>
       </c>
       <c r="J17">
         <v>6</v>
@@ -2819,7 +4007,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M17" t="s">
-        <v>263</v>
+        <v>481</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -2834,19 +4022,19 @@
         <v>2</v>
       </c>
       <c r="V17" t="s">
-        <v>299</v>
+        <v>556</v>
       </c>
       <c r="Y17" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z17" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA17" t="s">
-        <v>368</v>
+        <v>712</v>
       </c>
       <c r="AB17" t="s">
-        <v>388</v>
+        <v>745</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2854,28 +4042,28 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>152</v>
+        <v>267</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G18" t="s">
-        <v>175</v>
+        <v>329</v>
       </c>
       <c r="H18" t="s">
-        <v>181</v>
+        <v>340</v>
       </c>
       <c r="I18" t="s">
-        <v>199</v>
+        <v>367</v>
       </c>
       <c r="J18">
         <v>6</v>
@@ -2884,10 +4072,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L18" t="s">
-        <v>229</v>
+        <v>428</v>
       </c>
       <c r="M18" t="s">
-        <v>264</v>
+        <v>482</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -2902,25 +4090,25 @@
         <v>3</v>
       </c>
       <c r="V18" t="s">
-        <v>300</v>
+        <v>557</v>
       </c>
       <c r="W18" t="s">
-        <v>330</v>
+        <v>623</v>
       </c>
       <c r="X18" t="s">
-        <v>349</v>
+        <v>661</v>
       </c>
       <c r="Y18" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z18" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA18" t="s">
-        <v>371</v>
+        <v>715</v>
       </c>
       <c r="AB18" t="s">
-        <v>389</v>
+        <v>746</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2928,28 +4116,28 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>153</v>
+        <v>268</v>
       </c>
       <c r="E19" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G19" t="s">
-        <v>175</v>
+        <v>329</v>
       </c>
       <c r="H19" t="s">
-        <v>181</v>
+        <v>340</v>
       </c>
       <c r="I19" t="s">
-        <v>200</v>
+        <v>368</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -2958,10 +4146,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L19" t="s">
-        <v>231</v>
+        <v>430</v>
       </c>
       <c r="M19" t="s">
-        <v>265</v>
+        <v>483</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -2976,19 +4164,19 @@
         <v>2</v>
       </c>
       <c r="V19" t="s">
-        <v>301</v>
+        <v>558</v>
       </c>
       <c r="Y19" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z19" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA19" t="s">
-        <v>369</v>
+        <v>713</v>
       </c>
       <c r="AB19" t="s">
-        <v>390</v>
+        <v>747</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2996,28 +4184,28 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="E20" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G20" t="s">
-        <v>175</v>
+        <v>329</v>
       </c>
       <c r="H20" t="s">
-        <v>181</v>
+        <v>340</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>369</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -3026,10 +4214,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L20" t="s">
-        <v>232</v>
+        <v>431</v>
       </c>
       <c r="M20" t="s">
-        <v>266</v>
+        <v>484</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -3044,19 +4232,19 @@
         <v>3</v>
       </c>
       <c r="V20" t="s">
-        <v>302</v>
+        <v>559</v>
       </c>
       <c r="Y20" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z20" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA20" t="s">
-        <v>369</v>
+        <v>713</v>
       </c>
       <c r="AB20" t="s">
-        <v>391</v>
+        <v>748</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -3064,28 +4252,28 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>330</v>
       </c>
       <c r="H21" t="s">
-        <v>182</v>
+        <v>341</v>
       </c>
       <c r="I21" t="s">
-        <v>202</v>
+        <v>370</v>
       </c>
       <c r="J21">
         <v>11</v>
@@ -3094,10 +4282,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L21" t="s">
-        <v>233</v>
+        <v>432</v>
       </c>
       <c r="M21" t="s">
-        <v>267</v>
+        <v>485</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -3112,25 +4300,25 @@
         <v>3</v>
       </c>
       <c r="V21" t="s">
-        <v>303</v>
+        <v>560</v>
       </c>
       <c r="W21" t="s">
-        <v>331</v>
+        <v>624</v>
       </c>
       <c r="X21" t="s">
-        <v>350</v>
+        <v>662</v>
       </c>
       <c r="Y21" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z21" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA21" t="s">
-        <v>368</v>
+        <v>712</v>
       </c>
       <c r="AB21" t="s">
-        <v>392</v>
+        <v>749</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -3138,28 +4326,28 @@
         <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>156</v>
+        <v>271</v>
       </c>
       <c r="E22" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G22" t="s">
-        <v>176</v>
+        <v>330</v>
       </c>
       <c r="H22" t="s">
-        <v>182</v>
+        <v>341</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>371</v>
       </c>
       <c r="J22">
         <v>8</v>
@@ -3168,10 +4356,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L22" t="s">
-        <v>234</v>
+        <v>433</v>
       </c>
       <c r="M22" t="s">
-        <v>268</v>
+        <v>486</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -3186,25 +4374,25 @@
         <v>3</v>
       </c>
       <c r="V22" t="s">
-        <v>304</v>
+        <v>561</v>
       </c>
       <c r="W22" t="s">
-        <v>332</v>
+        <v>625</v>
       </c>
       <c r="X22" t="s">
-        <v>351</v>
+        <v>663</v>
       </c>
       <c r="Y22" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z22" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA22" t="s">
-        <v>369</v>
+        <v>713</v>
       </c>
       <c r="AB22" t="s">
-        <v>393</v>
+        <v>750</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -3212,28 +4400,28 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>157</v>
+        <v>272</v>
       </c>
       <c r="E23" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G23" t="s">
-        <v>176</v>
+        <v>330</v>
       </c>
       <c r="H23" t="s">
-        <v>182</v>
+        <v>341</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>372</v>
       </c>
       <c r="J23">
         <v>6</v>
@@ -3242,10 +4430,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L23" t="s">
-        <v>235</v>
+        <v>434</v>
       </c>
       <c r="M23" t="s">
-        <v>269</v>
+        <v>487</v>
       </c>
       <c r="N23">
         <v>4</v>
@@ -3260,25 +4448,25 @@
         <v>2</v>
       </c>
       <c r="V23" t="s">
-        <v>305</v>
+        <v>562</v>
       </c>
       <c r="W23" t="s">
-        <v>333</v>
+        <v>626</v>
       </c>
       <c r="X23" t="s">
-        <v>352</v>
+        <v>664</v>
       </c>
       <c r="Y23" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z23" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA23" t="s">
-        <v>365</v>
+        <v>709</v>
       </c>
       <c r="AB23" t="s">
-        <v>394</v>
+        <v>751</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -3286,28 +4474,28 @@
         <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>158</v>
+        <v>273</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F24" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G24" t="s">
-        <v>176</v>
+        <v>330</v>
       </c>
       <c r="H24" t="s">
-        <v>182</v>
+        <v>341</v>
       </c>
       <c r="I24" t="s">
-        <v>205</v>
+        <v>373</v>
       </c>
       <c r="J24">
         <v>6</v>
@@ -3316,10 +4504,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L24" t="s">
-        <v>236</v>
+        <v>435</v>
       </c>
       <c r="M24" t="s">
-        <v>270</v>
+        <v>488</v>
       </c>
       <c r="N24">
         <v>4</v>
@@ -3334,19 +4522,19 @@
         <v>3</v>
       </c>
       <c r="V24" t="s">
-        <v>306</v>
+        <v>563</v>
       </c>
       <c r="Y24" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z24" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA24" t="s">
-        <v>371</v>
+        <v>715</v>
       </c>
       <c r="AB24" t="s">
-        <v>395</v>
+        <v>752</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -3354,28 +4542,28 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="E25" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>330</v>
       </c>
       <c r="H25" t="s">
-        <v>182</v>
+        <v>341</v>
       </c>
       <c r="I25" t="s">
-        <v>206</v>
+        <v>374</v>
       </c>
       <c r="J25">
         <v>5</v>
@@ -3384,10 +4572,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L25" t="s">
-        <v>237</v>
+        <v>436</v>
       </c>
       <c r="M25" t="s">
-        <v>271</v>
+        <v>489</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -3402,22 +4590,22 @@
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>307</v>
+        <v>564</v>
       </c>
       <c r="W25" t="s">
-        <v>334</v>
+        <v>627</v>
       </c>
       <c r="Y25" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z25" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA25" t="s">
-        <v>370</v>
+        <v>714</v>
       </c>
       <c r="AB25" t="s">
-        <v>396</v>
+        <v>753</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -3425,28 +4613,28 @@
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="E26" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F26" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G26" t="s">
-        <v>176</v>
+        <v>330</v>
       </c>
       <c r="H26" t="s">
-        <v>182</v>
+        <v>341</v>
       </c>
       <c r="I26" t="s">
-        <v>207</v>
+        <v>375</v>
       </c>
       <c r="J26">
         <v>4</v>
@@ -3455,10 +4643,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L26" t="s">
-        <v>236</v>
+        <v>435</v>
       </c>
       <c r="M26" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
       <c r="N26">
         <v>4</v>
@@ -3473,19 +4661,19 @@
         <v>1</v>
       </c>
       <c r="V26" t="s">
-        <v>308</v>
+        <v>565</v>
       </c>
       <c r="Y26" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z26" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA26" t="s">
-        <v>369</v>
+        <v>713</v>
       </c>
       <c r="AB26" t="s">
-        <v>397</v>
+        <v>754</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -3493,37 +4681,37 @@
         <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F27" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G27" t="s">
-        <v>177</v>
+        <v>331</v>
       </c>
       <c r="H27" t="s">
-        <v>183</v>
+        <v>342</v>
       </c>
       <c r="I27" t="s">
-        <v>208</v>
+        <v>376</v>
       </c>
       <c r="K27">
         <v>9.699999999999999</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>437</v>
       </c>
       <c r="M27" t="s">
-        <v>273</v>
+        <v>491</v>
       </c>
       <c r="N27">
         <v>3</v>
@@ -3538,19 +4726,19 @@
         <v>2</v>
       </c>
       <c r="V27" t="s">
-        <v>309</v>
+        <v>566</v>
       </c>
       <c r="Y27" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z27" t="s">
-        <v>362</v>
+        <v>700</v>
       </c>
       <c r="AA27" t="s">
-        <v>370</v>
+        <v>714</v>
       </c>
       <c r="AB27" t="s">
-        <v>398</v>
+        <v>755</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3558,37 +4746,37 @@
         <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>162</v>
+        <v>277</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F28" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G28" t="s">
-        <v>177</v>
+        <v>331</v>
       </c>
       <c r="H28" t="s">
-        <v>183</v>
+        <v>342</v>
       </c>
       <c r="I28" t="s">
-        <v>209</v>
+        <v>377</v>
       </c>
       <c r="K28">
         <v>9.699999999999999</v>
       </c>
       <c r="L28" t="s">
-        <v>239</v>
+        <v>438</v>
       </c>
       <c r="M28" t="s">
-        <v>274</v>
+        <v>492</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -3603,19 +4791,19 @@
         <v>2</v>
       </c>
       <c r="V28" t="s">
-        <v>310</v>
+        <v>567</v>
       </c>
       <c r="Y28" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z28" t="s">
-        <v>362</v>
+        <v>700</v>
       </c>
       <c r="AA28" t="s">
-        <v>370</v>
+        <v>714</v>
       </c>
       <c r="AB28" t="s">
-        <v>399</v>
+        <v>756</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3623,37 +4811,37 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="E29" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G29" t="s">
-        <v>177</v>
+        <v>331</v>
       </c>
       <c r="H29" t="s">
-        <v>183</v>
+        <v>342</v>
       </c>
       <c r="I29" t="s">
-        <v>210</v>
+        <v>378</v>
       </c>
       <c r="K29">
         <v>9.699999999999999</v>
       </c>
       <c r="L29" t="s">
-        <v>240</v>
+        <v>439</v>
       </c>
       <c r="M29" t="s">
-        <v>275</v>
+        <v>493</v>
       </c>
       <c r="N29">
         <v>3</v>
@@ -3668,19 +4856,19 @@
         <v>2</v>
       </c>
       <c r="V29" t="s">
-        <v>311</v>
+        <v>568</v>
       </c>
       <c r="Y29" t="s">
-        <v>358</v>
+        <v>689</v>
       </c>
       <c r="Z29" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA29" t="s">
-        <v>202</v>
+        <v>370</v>
       </c>
       <c r="AB29" t="s">
-        <v>400</v>
+        <v>757</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3688,37 +4876,37 @@
         <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>164</v>
+        <v>279</v>
       </c>
       <c r="E30" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F30" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G30" t="s">
-        <v>177</v>
+        <v>331</v>
       </c>
       <c r="H30" t="s">
-        <v>183</v>
+        <v>342</v>
       </c>
       <c r="I30" t="s">
-        <v>211</v>
+        <v>379</v>
       </c>
       <c r="K30">
         <v>9.699999999999999</v>
       </c>
       <c r="L30" t="s">
-        <v>241</v>
+        <v>440</v>
       </c>
       <c r="M30" t="s">
-        <v>276</v>
+        <v>494</v>
       </c>
       <c r="N30">
         <v>3</v>
@@ -3733,19 +4921,19 @@
         <v>2</v>
       </c>
       <c r="V30" t="s">
-        <v>312</v>
+        <v>569</v>
       </c>
       <c r="Y30" t="s">
-        <v>359</v>
+        <v>690</v>
       </c>
       <c r="Z30" t="s">
-        <v>363</v>
+        <v>701</v>
       </c>
       <c r="AA30" t="s">
-        <v>370</v>
+        <v>714</v>
       </c>
       <c r="AB30" t="s">
-        <v>401</v>
+        <v>758</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3753,37 +4941,37 @@
         <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="E31" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
+        <v>331</v>
       </c>
       <c r="H31" t="s">
-        <v>184</v>
+        <v>343</v>
       </c>
       <c r="I31" t="s">
-        <v>212</v>
+        <v>380</v>
       </c>
       <c r="K31">
         <v>9.699999999999999</v>
       </c>
       <c r="L31" t="s">
-        <v>242</v>
+        <v>441</v>
       </c>
       <c r="M31" t="s">
-        <v>277</v>
+        <v>495</v>
       </c>
       <c r="R31">
         <v>1</v>
@@ -3798,19 +4986,19 @@
         <v>1</v>
       </c>
       <c r="V31" t="s">
-        <v>313</v>
+        <v>570</v>
       </c>
       <c r="Y31" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z31" t="s">
-        <v>364</v>
+        <v>702</v>
       </c>
       <c r="AA31" t="s">
-        <v>371</v>
+        <v>715</v>
       </c>
       <c r="AB31" t="s">
-        <v>402</v>
+        <v>759</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3818,37 +5006,37 @@
         <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
       <c r="E32" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F32" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G32" t="s">
-        <v>177</v>
+        <v>331</v>
       </c>
       <c r="H32" t="s">
-        <v>184</v>
+        <v>343</v>
       </c>
       <c r="I32" t="s">
-        <v>213</v>
+        <v>381</v>
       </c>
       <c r="K32">
         <v>9.699999999999999</v>
       </c>
       <c r="L32" t="s">
-        <v>243</v>
+        <v>442</v>
       </c>
       <c r="M32" t="s">
-        <v>278</v>
+        <v>496</v>
       </c>
       <c r="R32">
         <v>3</v>
@@ -3863,25 +5051,25 @@
         <v>3</v>
       </c>
       <c r="V32" t="s">
-        <v>314</v>
+        <v>571</v>
       </c>
       <c r="W32" t="s">
-        <v>335</v>
+        <v>628</v>
       </c>
       <c r="X32" t="s">
-        <v>353</v>
+        <v>665</v>
       </c>
       <c r="Y32" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z32" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA32" t="s">
-        <v>370</v>
+        <v>714</v>
       </c>
       <c r="AB32" t="s">
-        <v>403</v>
+        <v>760</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3889,37 +5077,37 @@
         <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>167</v>
+        <v>282</v>
       </c>
       <c r="E33" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F33" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G33" t="s">
-        <v>177</v>
+        <v>331</v>
       </c>
       <c r="H33" t="s">
-        <v>184</v>
+        <v>343</v>
       </c>
       <c r="I33" t="s">
-        <v>214</v>
+        <v>382</v>
       </c>
       <c r="K33">
         <v>9.699999999999999</v>
       </c>
       <c r="L33" t="s">
-        <v>244</v>
+        <v>443</v>
       </c>
       <c r="M33" t="s">
-        <v>279</v>
+        <v>497</v>
       </c>
       <c r="R33">
         <v>5</v>
@@ -3934,19 +5122,19 @@
         <v>4</v>
       </c>
       <c r="V33" t="s">
-        <v>315</v>
+        <v>572</v>
       </c>
       <c r="Y33" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z33" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA33" t="s">
-        <v>372</v>
+        <v>716</v>
       </c>
       <c r="AB33" t="s">
-        <v>404</v>
+        <v>761</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3954,28 +5142,28 @@
         <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="E34" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F34" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G34" t="s">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="H34" t="s">
-        <v>180</v>
+        <v>339</v>
       </c>
       <c r="I34" t="s">
-        <v>215</v>
+        <v>383</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -3984,10 +5172,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>245</v>
+        <v>444</v>
       </c>
       <c r="M34" t="s">
-        <v>280</v>
+        <v>498</v>
       </c>
       <c r="N34">
         <v>3</v>
@@ -4002,25 +5190,25 @@
         <v>2</v>
       </c>
       <c r="V34" t="s">
-        <v>316</v>
+        <v>573</v>
       </c>
       <c r="W34" t="s">
-        <v>336</v>
+        <v>629</v>
       </c>
       <c r="X34" t="s">
-        <v>354</v>
+        <v>666</v>
       </c>
       <c r="Y34" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z34" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA34" t="s">
-        <v>370</v>
+        <v>714</v>
       </c>
       <c r="AB34" t="s">
-        <v>405</v>
+        <v>762</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -4028,28 +5216,28 @@
         <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>169</v>
+        <v>284</v>
       </c>
       <c r="E35" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G35" t="s">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="H35" t="s">
-        <v>180</v>
+        <v>339</v>
       </c>
       <c r="I35" t="s">
-        <v>216</v>
+        <v>384</v>
       </c>
       <c r="J35">
         <v>4</v>
@@ -4058,10 +5246,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L35" t="s">
-        <v>246</v>
+        <v>445</v>
       </c>
       <c r="M35" t="s">
-        <v>281</v>
+        <v>499</v>
       </c>
       <c r="N35">
         <v>3</v>
@@ -4076,25 +5264,25 @@
         <v>2</v>
       </c>
       <c r="V35" t="s">
-        <v>317</v>
+        <v>574</v>
       </c>
       <c r="W35" t="s">
-        <v>337</v>
+        <v>630</v>
       </c>
       <c r="X35" t="s">
-        <v>355</v>
+        <v>667</v>
       </c>
       <c r="Y35" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z35" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA35" t="s">
-        <v>370</v>
+        <v>714</v>
       </c>
       <c r="AB35" t="s">
-        <v>406</v>
+        <v>763</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -4102,28 +5290,28 @@
         <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>170</v>
+        <v>285</v>
       </c>
       <c r="E36" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F36" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G36" t="s">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="H36" t="s">
-        <v>180</v>
+        <v>339</v>
       </c>
       <c r="I36" t="s">
-        <v>217</v>
+        <v>385</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -4132,10 +5320,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L36" t="s">
-        <v>247</v>
+        <v>446</v>
       </c>
       <c r="M36" t="s">
-        <v>282</v>
+        <v>500</v>
       </c>
       <c r="N36">
         <v>3</v>
@@ -4150,25 +5338,25 @@
         <v>3</v>
       </c>
       <c r="V36" t="s">
-        <v>318</v>
+        <v>575</v>
       </c>
       <c r="W36" t="s">
-        <v>338</v>
+        <v>631</v>
       </c>
       <c r="X36" t="s">
-        <v>356</v>
+        <v>668</v>
       </c>
       <c r="Y36" t="s">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="Z36" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
       <c r="AA36" t="s">
-        <v>370</v>
+        <v>714</v>
       </c>
       <c r="AB36" t="s">
-        <v>407</v>
+        <v>764</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -4176,28 +5364,28 @@
         <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="E37" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="F37" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="G37" t="s">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="H37" t="s">
-        <v>180</v>
+        <v>339</v>
       </c>
       <c r="I37" t="s">
-        <v>217</v>
+        <v>385</v>
       </c>
       <c r="J37">
         <v>4</v>
@@ -4206,10 +5394,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L37" t="s">
-        <v>247</v>
+        <v>446</v>
       </c>
       <c r="M37" t="s">
-        <v>283</v>
+        <v>501</v>
       </c>
       <c r="N37">
         <v>3</v>
@@ -4224,19 +5412,2746 @@
         <v>2</v>
       </c>
       <c r="V37" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>714</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E38" t="s">
+        <v>326</v>
+      </c>
+      <c r="F38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G38" t="s">
+        <v>333</v>
+      </c>
+      <c r="H38" t="s">
+        <v>344</v>
+      </c>
+      <c r="I38" t="s">
+        <v>386</v>
+      </c>
+      <c r="J38">
+        <v>9</v>
+      </c>
+      <c r="K38">
+        <v>12.6</v>
+      </c>
+      <c r="L38" t="s">
+        <v>441</v>
+      </c>
+      <c r="M38" t="s">
+        <v>502</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <v>5</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="V38" t="s">
+        <v>577</v>
+      </c>
+      <c r="W38" t="s">
+        <v>632</v>
+      </c>
+      <c r="X38" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>691</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>717</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E39" t="s">
+        <v>326</v>
+      </c>
+      <c r="F39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G39" t="s">
+        <v>333</v>
+      </c>
+      <c r="H39" t="s">
+        <v>344</v>
+      </c>
+      <c r="I39" t="s">
+        <v>387</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <v>12.6</v>
+      </c>
+      <c r="L39" t="s">
+        <v>441</v>
+      </c>
+      <c r="M39" t="s">
+        <v>503</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>4</v>
+      </c>
+      <c r="P39">
+        <v>4</v>
+      </c>
+      <c r="Q39">
+        <v>4</v>
+      </c>
+      <c r="V39" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E40" t="s">
+        <v>326</v>
+      </c>
+      <c r="F40" t="s">
+        <v>327</v>
+      </c>
+      <c r="G40" t="s">
+        <v>333</v>
+      </c>
+      <c r="H40" t="s">
+        <v>344</v>
+      </c>
+      <c r="I40" t="s">
+        <v>388</v>
+      </c>
+      <c r="J40">
+        <v>7</v>
+      </c>
+      <c r="K40">
+        <v>12.6</v>
+      </c>
+      <c r="L40" t="s">
+        <v>441</v>
+      </c>
+      <c r="M40" t="s">
+        <v>504</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40">
+        <v>4</v>
+      </c>
+      <c r="Q40">
+        <v>4</v>
+      </c>
+      <c r="V40" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E41" t="s">
+        <v>326</v>
+      </c>
+      <c r="F41" t="s">
+        <v>327</v>
+      </c>
+      <c r="G41" t="s">
+        <v>333</v>
+      </c>
+      <c r="H41" t="s">
+        <v>344</v>
+      </c>
+      <c r="I41" t="s">
+        <v>389</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+      <c r="K41">
+        <v>13.7</v>
+      </c>
+      <c r="L41" t="s">
+        <v>447</v>
+      </c>
+      <c r="M41" t="s">
+        <v>505</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+      <c r="P41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+      <c r="V41" t="s">
+        <v>580</v>
+      </c>
+      <c r="W41" t="s">
+        <v>633</v>
+      </c>
+      <c r="X41" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E42" t="s">
+        <v>326</v>
+      </c>
+      <c r="F42" t="s">
+        <v>327</v>
+      </c>
+      <c r="G42" t="s">
+        <v>333</v>
+      </c>
+      <c r="H42" t="s">
+        <v>344</v>
+      </c>
+      <c r="I42" t="s">
+        <v>390</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>12.6</v>
+      </c>
+      <c r="L42" t="s">
+        <v>370</v>
+      </c>
+      <c r="M42" t="s">
+        <v>506</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>3</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="V42" t="s">
+        <v>581</v>
+      </c>
+      <c r="W42" t="s">
+        <v>634</v>
+      </c>
+      <c r="X42" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E43" t="s">
+        <v>326</v>
+      </c>
+      <c r="F43" t="s">
+        <v>327</v>
+      </c>
+      <c r="G43" t="s">
+        <v>333</v>
+      </c>
+      <c r="H43" t="s">
+        <v>344</v>
+      </c>
+      <c r="I43" t="s">
+        <v>390</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>12.6</v>
+      </c>
+      <c r="L43" t="s">
+        <v>448</v>
+      </c>
+      <c r="M43" t="s">
+        <v>507</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>703</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E44" t="s">
+        <v>326</v>
+      </c>
+      <c r="F44" t="s">
+        <v>327</v>
+      </c>
+      <c r="G44" t="s">
+        <v>333</v>
+      </c>
+      <c r="H44" t="s">
+        <v>344</v>
+      </c>
+      <c r="I44" t="s">
+        <v>391</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>12.6</v>
+      </c>
+      <c r="L44" t="s">
+        <v>370</v>
+      </c>
+      <c r="M44" t="s">
+        <v>508</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>2</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="V44" t="s">
+        <v>582</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E45" t="s">
+        <v>326</v>
+      </c>
+      <c r="F45" t="s">
+        <v>327</v>
+      </c>
+      <c r="G45" t="s">
+        <v>333</v>
+      </c>
+      <c r="H45" t="s">
+        <v>344</v>
+      </c>
+      <c r="I45" t="s">
+        <v>392</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+      <c r="K45">
+        <v>13.7</v>
+      </c>
+      <c r="L45" t="s">
+        <v>449</v>
+      </c>
+      <c r="M45" t="s">
+        <v>509</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="V45" t="s">
+        <v>583</v>
+      </c>
+      <c r="W45" t="s">
+        <v>635</v>
+      </c>
+      <c r="X45" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E46" t="s">
+        <v>326</v>
+      </c>
+      <c r="F46" t="s">
+        <v>327</v>
+      </c>
+      <c r="G46" t="s">
+        <v>333</v>
+      </c>
+      <c r="H46" t="s">
+        <v>344</v>
+      </c>
+      <c r="I46" t="s">
+        <v>393</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>13.7</v>
+      </c>
+      <c r="L46" t="s">
+        <v>370</v>
+      </c>
+      <c r="M46" t="s">
+        <v>510</v>
+      </c>
+      <c r="N46">
+        <v>5</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="V46" t="s">
+        <v>584</v>
+      </c>
+      <c r="W46" t="s">
+        <v>636</v>
+      </c>
+      <c r="X46" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E47" t="s">
+        <v>326</v>
+      </c>
+      <c r="F47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G47" t="s">
+        <v>333</v>
+      </c>
+      <c r="H47" t="s">
+        <v>344</v>
+      </c>
+      <c r="I47" t="s">
+        <v>394</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>12.6</v>
+      </c>
+      <c r="L47" t="s">
+        <v>450</v>
+      </c>
+      <c r="M47" t="s">
+        <v>511</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="V47" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E48" t="s">
+        <v>326</v>
+      </c>
+      <c r="F48" t="s">
+        <v>327</v>
+      </c>
+      <c r="G48" t="s">
+        <v>334</v>
+      </c>
+      <c r="H48" t="s">
+        <v>345</v>
+      </c>
+      <c r="I48" t="s">
+        <v>395</v>
+      </c>
+      <c r="J48">
+        <v>7</v>
+      </c>
+      <c r="K48">
+        <v>10.5</v>
+      </c>
+      <c r="L48" t="s">
+        <v>451</v>
+      </c>
+      <c r="M48" t="s">
+        <v>512</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <v>3</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="V48" t="s">
+        <v>586</v>
+      </c>
+      <c r="W48" t="s">
+        <v>637</v>
+      </c>
+      <c r="X48" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>692</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>704</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E49" t="s">
+        <v>326</v>
+      </c>
+      <c r="F49" t="s">
+        <v>327</v>
+      </c>
+      <c r="G49" t="s">
+        <v>334</v>
+      </c>
+      <c r="H49" t="s">
+        <v>345</v>
+      </c>
+      <c r="I49" t="s">
+        <v>396</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>10.5</v>
+      </c>
+      <c r="L49" t="s">
+        <v>452</v>
+      </c>
+      <c r="M49" t="s">
+        <v>513</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
+      </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
+      <c r="V49" t="s">
+        <v>587</v>
+      </c>
+      <c r="W49" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>692</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>704</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" t="s">
+        <v>224</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E50" t="s">
+        <v>326</v>
+      </c>
+      <c r="F50" t="s">
+        <v>327</v>
+      </c>
+      <c r="G50" t="s">
+        <v>334</v>
+      </c>
+      <c r="H50" t="s">
+        <v>346</v>
+      </c>
+      <c r="I50" t="s">
+        <v>397</v>
+      </c>
+      <c r="K50">
+        <v>10.85</v>
+      </c>
+      <c r="L50" t="s">
+        <v>453</v>
+      </c>
+      <c r="M50" t="s">
+        <v>514</v>
+      </c>
+      <c r="V50" t="s">
+        <v>588</v>
+      </c>
+      <c r="W50" t="s">
+        <v>639</v>
+      </c>
+      <c r="X50" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>693</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>704</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E51" t="s">
+        <v>326</v>
+      </c>
+      <c r="F51" t="s">
+        <v>327</v>
+      </c>
+      <c r="G51" t="s">
+        <v>335</v>
+      </c>
+      <c r="H51" t="s">
+        <v>347</v>
+      </c>
+      <c r="I51" t="s">
+        <v>398</v>
+      </c>
+      <c r="K51">
+        <v>11.2</v>
+      </c>
+      <c r="L51" t="s">
+        <v>370</v>
+      </c>
+      <c r="M51" t="s">
+        <v>515</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>3</v>
+      </c>
+      <c r="P51">
+        <v>3</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="V51" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>694</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E52" t="s">
+        <v>326</v>
+      </c>
+      <c r="F52" t="s">
+        <v>327</v>
+      </c>
+      <c r="G52" t="s">
+        <v>335</v>
+      </c>
+      <c r="H52" t="s">
+        <v>347</v>
+      </c>
+      <c r="I52" t="s">
+        <v>399</v>
+      </c>
+      <c r="K52">
+        <v>11.2</v>
+      </c>
+      <c r="L52" t="s">
+        <v>370</v>
+      </c>
+      <c r="M52" t="s">
+        <v>516</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>2</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="V52" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>694</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E53" t="s">
+        <v>326</v>
+      </c>
+      <c r="F53" t="s">
+        <v>327</v>
+      </c>
+      <c r="G53" t="s">
+        <v>336</v>
+      </c>
+      <c r="H53" t="s">
+        <v>348</v>
+      </c>
+      <c r="I53" t="s">
+        <v>400</v>
+      </c>
+      <c r="J53">
+        <v>8</v>
+      </c>
+      <c r="K53">
+        <v>11</v>
+      </c>
+      <c r="L53" t="s">
+        <v>454</v>
+      </c>
+      <c r="M53" t="s">
+        <v>517</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>4</v>
+      </c>
+      <c r="P53">
+        <v>4</v>
+      </c>
+      <c r="Q53">
+        <v>4</v>
+      </c>
+      <c r="V53" t="s">
+        <v>591</v>
+      </c>
+      <c r="W53" t="s">
+        <v>640</v>
+      </c>
+      <c r="X53" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>720</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" t="s">
+        <v>228</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E54" t="s">
+        <v>326</v>
+      </c>
+      <c r="F54" t="s">
+        <v>327</v>
+      </c>
+      <c r="G54" t="s">
+        <v>336</v>
+      </c>
+      <c r="H54" t="s">
+        <v>348</v>
+      </c>
+      <c r="I54" t="s">
+        <v>400</v>
+      </c>
+      <c r="J54">
+        <v>8</v>
+      </c>
+      <c r="K54">
+        <v>11</v>
+      </c>
+      <c r="L54" t="s">
+        <v>455</v>
+      </c>
+      <c r="M54" t="s">
+        <v>518</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
+      </c>
+      <c r="P54">
+        <v>4</v>
+      </c>
+      <c r="Q54">
+        <v>4</v>
+      </c>
+      <c r="V54" t="s">
+        <v>592</v>
+      </c>
+      <c r="W54" t="s">
+        <v>640</v>
+      </c>
+      <c r="X54" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>703</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>720</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" t="s">
+        <v>229</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E55" t="s">
+        <v>326</v>
+      </c>
+      <c r="F55" t="s">
+        <v>327</v>
+      </c>
+      <c r="G55" t="s">
+        <v>336</v>
+      </c>
+      <c r="H55" t="s">
+        <v>348</v>
+      </c>
+      <c r="I55" t="s">
+        <v>401</v>
+      </c>
+      <c r="J55">
+        <v>7</v>
+      </c>
+      <c r="K55">
+        <v>12.1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>370</v>
+      </c>
+      <c r="M55" t="s">
+        <v>519</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>3</v>
+      </c>
+      <c r="P55">
+        <v>4</v>
+      </c>
+      <c r="Q55">
+        <v>3</v>
+      </c>
+      <c r="V55" t="s">
+        <v>593</v>
+      </c>
+      <c r="W55" t="s">
+        <v>641</v>
+      </c>
+      <c r="X55" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>721</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E56" t="s">
+        <v>326</v>
+      </c>
+      <c r="F56" t="s">
+        <v>327</v>
+      </c>
+      <c r="G56" t="s">
+        <v>336</v>
+      </c>
+      <c r="H56" t="s">
+        <v>348</v>
+      </c>
+      <c r="I56" t="s">
+        <v>402</v>
+      </c>
+      <c r="J56">
+        <v>6</v>
+      </c>
+      <c r="K56">
+        <v>11</v>
+      </c>
+      <c r="L56" t="s">
+        <v>370</v>
+      </c>
+      <c r="M56" t="s">
+        <v>520</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56">
+        <v>4</v>
+      </c>
+      <c r="P56">
+        <v>3</v>
+      </c>
+      <c r="Q56">
+        <v>3</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>720</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E57" t="s">
+        <v>326</v>
+      </c>
+      <c r="F57" t="s">
+        <v>327</v>
+      </c>
+      <c r="G57" t="s">
+        <v>336</v>
+      </c>
+      <c r="H57" t="s">
+        <v>348</v>
+      </c>
+      <c r="I57" t="s">
+        <v>403</v>
+      </c>
+      <c r="J57">
+        <v>4</v>
+      </c>
+      <c r="K57">
+        <v>11</v>
+      </c>
+      <c r="L57" t="s">
+        <v>456</v>
+      </c>
+      <c r="M57" t="s">
+        <v>521</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>2</v>
+      </c>
+      <c r="Q57">
+        <v>4</v>
+      </c>
+      <c r="V57" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>720</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E58" t="s">
+        <v>326</v>
+      </c>
+      <c r="F58" t="s">
+        <v>327</v>
+      </c>
+      <c r="G58" t="s">
+        <v>336</v>
+      </c>
+      <c r="H58" t="s">
+        <v>348</v>
+      </c>
+      <c r="I58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <v>12.1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>370</v>
+      </c>
+      <c r="M58" t="s">
+        <v>522</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>2</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="V58" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E59" t="s">
+        <v>326</v>
+      </c>
+      <c r="F59" t="s">
+        <v>327</v>
+      </c>
+      <c r="G59" t="s">
+        <v>337</v>
+      </c>
+      <c r="H59" t="s">
+        <v>339</v>
+      </c>
+      <c r="I59" t="s">
+        <v>405</v>
+      </c>
+      <c r="J59">
+        <v>11</v>
+      </c>
+      <c r="K59">
+        <v>9.9</v>
+      </c>
+      <c r="L59" t="s">
+        <v>457</v>
+      </c>
+      <c r="M59" t="s">
+        <v>523</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>4</v>
+      </c>
+      <c r="P59">
+        <v>5</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="V59" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>723</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E60" t="s">
+        <v>326</v>
+      </c>
+      <c r="F60" t="s">
+        <v>327</v>
+      </c>
+      <c r="G60" t="s">
+        <v>337</v>
+      </c>
+      <c r="H60" t="s">
+        <v>339</v>
+      </c>
+      <c r="I60" t="s">
+        <v>406</v>
+      </c>
+      <c r="J60">
+        <v>11</v>
+      </c>
+      <c r="K60">
+        <v>9.9</v>
+      </c>
+      <c r="L60" t="s">
+        <v>458</v>
+      </c>
+      <c r="M60" t="s">
+        <v>524</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>4</v>
+      </c>
+      <c r="P60">
+        <v>4</v>
+      </c>
+      <c r="Q60">
+        <v>4</v>
+      </c>
+      <c r="V60" t="s">
+        <v>596</v>
+      </c>
+      <c r="W60" t="s">
+        <v>642</v>
+      </c>
+      <c r="X60" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>723</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" t="s">
+        <v>235</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E61" t="s">
+        <v>326</v>
+      </c>
+      <c r="F61" t="s">
+        <v>327</v>
+      </c>
+      <c r="G61" t="s">
+        <v>337</v>
+      </c>
+      <c r="H61" t="s">
+        <v>339</v>
+      </c>
+      <c r="I61" t="s">
+        <v>407</v>
+      </c>
+      <c r="J61">
+        <v>9</v>
+      </c>
+      <c r="K61">
+        <v>9.9</v>
+      </c>
+      <c r="L61" t="s">
+        <v>454</v>
+      </c>
+      <c r="M61" t="s">
+        <v>525</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>3</v>
+      </c>
+      <c r="P61">
+        <v>3</v>
+      </c>
+      <c r="Q61">
+        <v>3</v>
+      </c>
+      <c r="V61" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>724</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E62" t="s">
+        <v>326</v>
+      </c>
+      <c r="F62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G62" t="s">
+        <v>337</v>
+      </c>
+      <c r="H62" t="s">
+        <v>339</v>
+      </c>
+      <c r="I62" t="s">
+        <v>408</v>
+      </c>
+      <c r="J62">
+        <v>9</v>
+      </c>
+      <c r="K62">
+        <v>9.9</v>
+      </c>
+      <c r="L62" t="s">
+        <v>441</v>
+      </c>
+      <c r="M62" t="s">
+        <v>526</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>3</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>3</v>
+      </c>
+      <c r="V62" t="s">
+        <v>598</v>
+      </c>
+      <c r="W62" t="s">
+        <v>643</v>
+      </c>
+      <c r="X62" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>724</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>237</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E63" t="s">
+        <v>326</v>
+      </c>
+      <c r="F63" t="s">
+        <v>327</v>
+      </c>
+      <c r="G63" t="s">
+        <v>337</v>
+      </c>
+      <c r="H63" t="s">
+        <v>339</v>
+      </c>
+      <c r="I63" t="s">
+        <v>373</v>
+      </c>
+      <c r="J63">
+        <v>6</v>
+      </c>
+      <c r="K63">
+        <v>10.8</v>
+      </c>
+      <c r="L63" t="s">
+        <v>435</v>
+      </c>
+      <c r="M63" t="s">
+        <v>527</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63">
+        <v>3</v>
+      </c>
+      <c r="P63">
+        <v>3</v>
+      </c>
+      <c r="Q63">
+        <v>3</v>
+      </c>
+      <c r="V63" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>724</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
+      <c r="A64" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" t="s">
+        <v>238</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E64" t="s">
+        <v>326</v>
+      </c>
+      <c r="F64" t="s">
+        <v>327</v>
+      </c>
+      <c r="G64" t="s">
+        <v>337</v>
+      </c>
+      <c r="H64" t="s">
+        <v>339</v>
+      </c>
+      <c r="I64" t="s">
+        <v>409</v>
+      </c>
+      <c r="J64">
+        <v>6</v>
+      </c>
+      <c r="K64">
+        <v>9.9</v>
+      </c>
+      <c r="L64" t="s">
+        <v>459</v>
+      </c>
+      <c r="M64" t="s">
+        <v>528</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>3</v>
+      </c>
+      <c r="P64">
+        <v>3</v>
+      </c>
+      <c r="Q64">
+        <v>2</v>
+      </c>
+      <c r="V64" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>725</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" t="s">
+        <v>239</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E65" t="s">
+        <v>326</v>
+      </c>
+      <c r="F65" t="s">
+        <v>327</v>
+      </c>
+      <c r="G65" t="s">
+        <v>337</v>
+      </c>
+      <c r="H65" t="s">
+        <v>339</v>
+      </c>
+      <c r="I65" t="s">
+        <v>410</v>
+      </c>
+      <c r="J65">
+        <v>5</v>
+      </c>
+      <c r="K65">
+        <v>9.9</v>
+      </c>
+      <c r="L65" t="s">
+        <v>430</v>
+      </c>
+      <c r="M65" t="s">
+        <v>529</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65">
+        <v>2</v>
+      </c>
+      <c r="P65">
+        <v>2</v>
+      </c>
+      <c r="Q65">
+        <v>2</v>
+      </c>
+      <c r="V65" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>725</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" t="s">
+        <v>240</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E66" t="s">
+        <v>326</v>
+      </c>
+      <c r="F66" t="s">
+        <v>327</v>
+      </c>
+      <c r="G66" t="s">
+        <v>337</v>
+      </c>
+      <c r="H66" t="s">
+        <v>339</v>
+      </c>
+      <c r="I66" t="s">
+        <v>411</v>
+      </c>
+      <c r="J66">
+        <v>4</v>
+      </c>
+      <c r="K66">
+        <v>9.9</v>
+      </c>
+      <c r="L66" t="s">
+        <v>370</v>
+      </c>
+      <c r="M66" t="s">
+        <v>530</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66">
+        <v>2</v>
+      </c>
+      <c r="P66">
+        <v>2</v>
+      </c>
+      <c r="Q66">
+        <v>2</v>
+      </c>
+      <c r="V66" t="s">
+        <v>602</v>
+      </c>
+      <c r="W66" t="s">
+        <v>644</v>
+      </c>
+      <c r="X66" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>726</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
+      <c r="A67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E67" t="s">
+        <v>326</v>
+      </c>
+      <c r="F67" t="s">
+        <v>327</v>
+      </c>
+      <c r="G67" t="s">
+        <v>337</v>
+      </c>
+      <c r="H67" t="s">
+        <v>349</v>
+      </c>
+      <c r="I67" t="s">
+        <v>412</v>
+      </c>
+      <c r="J67">
+        <v>11</v>
+      </c>
+      <c r="K67">
+        <v>11</v>
+      </c>
+      <c r="L67" t="s">
+        <v>370</v>
+      </c>
+      <c r="M67" t="s">
+        <v>531</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>3</v>
+      </c>
+      <c r="P67">
+        <v>3</v>
+      </c>
+      <c r="Q67">
+        <v>3</v>
+      </c>
+      <c r="V67" t="s">
+        <v>603</v>
+      </c>
+      <c r="W67" t="s">
+        <v>645</v>
+      </c>
+      <c r="X67" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>727</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" t="s">
+        <v>242</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E68" t="s">
+        <v>326</v>
+      </c>
+      <c r="F68" t="s">
+        <v>327</v>
+      </c>
+      <c r="G68" t="s">
+        <v>337</v>
+      </c>
+      <c r="H68" t="s">
+        <v>349</v>
+      </c>
+      <c r="I68" t="s">
+        <v>413</v>
+      </c>
+      <c r="J68">
+        <v>8</v>
+      </c>
+      <c r="K68">
+        <v>11</v>
+      </c>
+      <c r="L68" t="s">
+        <v>370</v>
+      </c>
+      <c r="M68" t="s">
+        <v>532</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>3</v>
+      </c>
+      <c r="P68">
+        <v>3</v>
+      </c>
+      <c r="Q68">
+        <v>2</v>
+      </c>
+      <c r="V68" t="s">
+        <v>604</v>
+      </c>
+      <c r="W68" t="s">
+        <v>646</v>
+      </c>
+      <c r="X68" t="s">
+        <v>682</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>727</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
+      <c r="A69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E69" t="s">
+        <v>326</v>
+      </c>
+      <c r="F69" t="s">
+        <v>327</v>
+      </c>
+      <c r="G69" t="s">
+        <v>337</v>
+      </c>
+      <c r="H69" t="s">
+        <v>349</v>
+      </c>
+      <c r="I69" t="s">
+        <v>414</v>
+      </c>
+      <c r="J69">
+        <v>5</v>
+      </c>
+      <c r="K69">
+        <v>11</v>
+      </c>
+      <c r="L69" t="s">
+        <v>448</v>
+      </c>
+      <c r="M69" t="s">
+        <v>533</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69">
+        <v>2</v>
+      </c>
+      <c r="P69">
+        <v>3</v>
+      </c>
+      <c r="Q69">
+        <v>5</v>
+      </c>
+      <c r="V69" t="s">
+        <v>605</v>
+      </c>
+      <c r="W69" t="s">
+        <v>647</v>
+      </c>
+      <c r="X69" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" t="s">
+        <v>244</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E70" t="s">
+        <v>326</v>
+      </c>
+      <c r="F70" t="s">
+        <v>327</v>
+      </c>
+      <c r="G70" t="s">
+        <v>331</v>
+      </c>
+      <c r="H70" t="s">
+        <v>350</v>
+      </c>
+      <c r="I70" t="s">
+        <v>378</v>
+      </c>
+      <c r="K70">
+        <v>12.6</v>
+      </c>
+      <c r="L70" t="s">
+        <v>460</v>
+      </c>
+      <c r="M70" t="s">
+        <v>534</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>2</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="V70" t="s">
+        <v>606</v>
+      </c>
+      <c r="W70" t="s">
+        <v>648</v>
+      </c>
+      <c r="X70" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>695</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" t="s">
+        <v>245</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="Y37" t="s">
-        <v>357</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>408</v>
+      <c r="E71" t="s">
+        <v>326</v>
+      </c>
+      <c r="F71" t="s">
+        <v>327</v>
+      </c>
+      <c r="G71" t="s">
+        <v>331</v>
+      </c>
+      <c r="H71" t="s">
+        <v>350</v>
+      </c>
+      <c r="I71" t="s">
+        <v>379</v>
+      </c>
+      <c r="K71">
+        <v>12.6</v>
+      </c>
+      <c r="L71" t="s">
+        <v>461</v>
+      </c>
+      <c r="M71" t="s">
+        <v>535</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>2</v>
+      </c>
+      <c r="Q71">
+        <v>2</v>
+      </c>
+      <c r="V71" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>690</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" t="s">
+        <v>246</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E72" t="s">
+        <v>326</v>
+      </c>
+      <c r="F72" t="s">
+        <v>327</v>
+      </c>
+      <c r="G72" t="s">
+        <v>331</v>
+      </c>
+      <c r="H72" t="s">
+        <v>350</v>
+      </c>
+      <c r="I72" t="s">
+        <v>377</v>
+      </c>
+      <c r="K72">
+        <v>12.6</v>
+      </c>
+      <c r="L72" t="s">
+        <v>462</v>
+      </c>
+      <c r="M72" t="s">
+        <v>536</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>2</v>
+      </c>
+      <c r="Q72">
+        <v>2</v>
+      </c>
+      <c r="V72" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>696</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="A73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" t="s">
+        <v>247</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E73" t="s">
+        <v>326</v>
+      </c>
+      <c r="F73" t="s">
+        <v>327</v>
+      </c>
+      <c r="G73" t="s">
+        <v>331</v>
+      </c>
+      <c r="H73" t="s">
+        <v>350</v>
+      </c>
+      <c r="I73" t="s">
+        <v>415</v>
+      </c>
+      <c r="K73">
+        <v>12.6</v>
+      </c>
+      <c r="L73" t="s">
+        <v>463</v>
+      </c>
+      <c r="M73" t="s">
+        <v>537</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>2</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="V73" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>697</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>707</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
+      <c r="A74" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" t="s">
+        <v>248</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E74" t="s">
+        <v>326</v>
+      </c>
+      <c r="F74" t="s">
+        <v>327</v>
+      </c>
+      <c r="G74" t="s">
+        <v>331</v>
+      </c>
+      <c r="H74" t="s">
+        <v>351</v>
+      </c>
+      <c r="I74" t="s">
+        <v>416</v>
+      </c>
+      <c r="K74">
+        <v>9.9</v>
+      </c>
+      <c r="L74" t="s">
+        <v>464</v>
+      </c>
+      <c r="M74" t="s">
+        <v>538</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>2</v>
+      </c>
+      <c r="P74">
+        <v>3</v>
+      </c>
+      <c r="Q74">
+        <v>3</v>
+      </c>
+      <c r="V74" t="s">
+        <v>610</v>
+      </c>
+      <c r="W74" t="s">
+        <v>649</v>
+      </c>
+      <c r="X74" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>708</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>728</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
+      <c r="A75" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E75" t="s">
+        <v>326</v>
+      </c>
+      <c r="F75" t="s">
+        <v>327</v>
+      </c>
+      <c r="G75" t="s">
+        <v>331</v>
+      </c>
+      <c r="H75" t="s">
+        <v>352</v>
+      </c>
+      <c r="I75" t="s">
+        <v>417</v>
+      </c>
+      <c r="K75">
+        <v>11</v>
+      </c>
+      <c r="L75" t="s">
+        <v>436</v>
+      </c>
+      <c r="M75" t="s">
+        <v>539</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>3</v>
+      </c>
+      <c r="V75" t="s">
+        <v>611</v>
+      </c>
+      <c r="W75" t="s">
+        <v>649</v>
+      </c>
+      <c r="X75" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>708</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>729</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
+      <c r="A76" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" t="s">
+        <v>250</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E76" t="s">
+        <v>326</v>
+      </c>
+      <c r="F76" t="s">
+        <v>327</v>
+      </c>
+      <c r="G76" t="s">
+        <v>331</v>
+      </c>
+      <c r="H76" t="s">
+        <v>350</v>
+      </c>
+      <c r="I76" t="s">
+        <v>400</v>
+      </c>
+      <c r="K76">
+        <v>12.6</v>
+      </c>
+      <c r="L76" t="s">
+        <v>465</v>
+      </c>
+      <c r="M76" t="s">
+        <v>540</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>3</v>
+      </c>
+      <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
+        <v>3</v>
+      </c>
+      <c r="V76" t="s">
+        <v>612</v>
+      </c>
+      <c r="W76" t="s">
+        <v>650</v>
+      </c>
+      <c r="X76" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>804</v>
       </c>
     </row>
   </sheetData>
@@ -4277,6 +8192,45 @@
     <hyperlink ref="D35" r:id="rId34"/>
     <hyperlink ref="D36" r:id="rId35"/>
     <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="896">
   <si>
     <t>ID</t>
   </si>
@@ -97,7 +97,40 @@
     <t>Net Weight</t>
   </si>
   <si>
+    <t>Estimated Intensity</t>
+  </si>
+  <si>
+    <t>Intensity Classification</t>
+  </si>
+  <si>
+    <t>Acidity Classification</t>
+  </si>
+  <si>
+    <t>Bitterness Classification</t>
+  </si>
+  <si>
+    <t>Roastiness Classification</t>
+  </si>
+  <si>
+    <t>Body Classification</t>
+  </si>
+  <si>
+    <t>Milky Taste Classification</t>
+  </si>
+  <si>
+    <t>Bitterness with Milk Classification</t>
+  </si>
+  <si>
+    <t>Roastiness with Milk Classification</t>
+  </si>
+  <si>
+    <t>Creamy Texture Classification</t>
+  </si>
+  <si>
     <t>Taste Profile Chart</t>
+  </si>
+  <si>
+    <t>Textual Info</t>
   </si>
   <si>
     <t>OL1</t>
@@ -2207,6 +2240,21 @@
     <t>102 g - 3.59 oz for 10 capsules</t>
   </si>
   <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Blonde</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
     <t>Charts/OL1_Ispirazione Napoli_Original_Taste Profile.png</t>
   </si>
   <si>
@@ -2430,6 +2478,231 @@
   </si>
   <si>
     <t>Charts/VL39_Bianco Forte_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>original current italian espressos 25 ml ristretto 40 ml espresso dark creamy 130 87 intense roasted velvety creamy cup extremely thick body pleasantly bitter cocoa notes 10 50 50 50 nan nan nan nan ispirazione napoli pays tribute short strong dark espressos southern italian coastal city velvety creamy cup extremely thick body kiss pleasant bitterness aftertaste intense blend created mostly using robustas uganda india combined arabicas intense coffee cocoa touch dark intense roast done carefully selected beans withstand process develop delicious bitter notes without completely burning away 10 capsules roast ground coffee nespresso system roast ground coffee 57 g 201 oz 10 capsules 130 dark low high high high medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current italian espressos 25 ml ristretto 40 ml espresso exceptionally intense syrupy 120 87 woody spicy taste audacious bitterness peppery notes leaping thick syrupy body together arabica robusta balance espresso reflects palermo coastal lifestyle rich history sit back sun enjoy kazaar terrace everything food plate architecture surrounding whispering histories passed palermo 10 50 50 50 nan nan nan nan long dark roast inspired union sicilian coffee artistry african arabian heritage guaranteed spice things nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 60 g 211 oz 10 capsules 120 dark low high high high medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current italian espressos 25 ml ristretto 40 ml espresso powerful contrasting 100 87 dark roast hint fruity ristretto deliciously complex coffee displays roasty intense notes combination fruity notes hint acidity milk hide ristretto contrasted bouquet love rounds blend gives creamy texture 30 40 40 40 nan nan nan nan ca nt help fall ristretto canadian bestseller medium dark roast embodies italy iconic coffee culture short quick sip complex blend created using arabicas brazil colombia combination robustas sources including east africa robustas ristretto go long roast develop pleasantly bitter cocoa note arabicas go though quick roast keep bright acidity fruity notes alive 10 capsules roast ground coffee nespresso system roast ground coffee 57 g 201 oz 10 capsules 100 dark medium high high high medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current italian espressos 25 ml ristretto 40 ml espresso powerful contrasting 100 92 dark roast hint fruity boldly roasty balanced soft cocoa notes may catch subtle acidity fruity notes make nespresso decaf capsule mysteriously complex 30 40 40 40 nan nan nan nan profile worthy ambassador coffee explains italians passion coffee makes sense ingrained daily life extracted classic 25 ml soon see right italians drop deliciousness shows less truly nan nan 10 capsules roast ground coffee nespresso system decaffeinated roast ground coffee 57 g 201 oz 10 capsules 100 dark medium high high high medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current italian espressos 25 ml ristretto 40 ml espresso intense creamy 90 87 intense dark roast cocoa arpeggio dense creamy combining bold roasty cocoa notes irresistible velvety texture arpeggio potent character push milk intense coffee sweet notes arabica mix well milk froth 20 40 40 40 nan nan nan nan nespresso classic arpeggio s coffees short dark roasted masterpiece come heart instance cultural artistic heart italy 100 arabica blend created using beans brazil guatemala fine origins intense roast coffee beans develops distinct characteristics arpeggio coffees malty aroma turns cocoa notes give espresso gravitas 10 capsules roast ground coffee nespresso system roast ground coffee 53 g 186 oz 10 capsules 90 dark low high high high medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current italian espressos 25 ml ristretto 40 ml espresso intense creamy 90 92 dark roast cocoa arpeggio decaffeinato dense creamy decaffeinated version decaffeination diminish bold roasty cocoa notes crema gives creamy velvety texture irresistible perfectly pairs milk 20 40 40 40 nan nan nan nan exquisite blend true reflection florence cultural significance intellectual hub heart italy drawing influences across country s roasting style brings influences together combining fruity notes north italy cocoa notes south culminating velvety dense creamy cup 100 arabica blend created using beans brazil guatemala fine origins intense roast coffee beans develops distinct characteristics arpeggio coffees malty aroma turns cocoa notes give espresso gravitas 10 capsules roast ground coffee nespresso system decaffeinated roast ground coffee 55 g 194 oz 10 capsules 90 dark low high high high medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current italian espressos 25 ml ristretto 40 ml espresso balanced thick body 80 87 unknown venezia mellow rounded delicately aromatic coffee remind coffee beans fresh roaster 10 30 40 40 nan nan nan nan venezia celebrates long local coffee tradition italy roast combines intense notes ottoman influence highly aromatic european coffee profiles influences arrived venetian traders led way importing coffee italy majority arabica blend coffee coming colombia brazil fairly dark roast gives venezia rounded mouthfeel mellowed acidity hint bitterness 10 capsules roast ground coffee nespresso system roast ground coffee 56 g 197 oz 10 capsules 80 dark low medium high high medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current italian espressos 25 ml ristretto 40 ml espresso full balanced 80 87 woody cereal days ancient rome great many cultures passed metropolis different layers civilization towering present day modern rome adds layer elegance rich history city ispirazione roma beautifully complex subtle balance strength roastiness depth woodsy cereal notes finesse acidity elegant aromatics 40 40 30 30 nan nan nan nan combining ancient character rome twist modernity short roast balances intensity elegant aromatics reflecting complexity great city thankfully making one less complex nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 50 g 176 oz 10 capsules 80 dark high high medium medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current italian espressos 40 ml espresso round balanced 60 87 caramel balanced smooth rounded delicately aromatic coffee light roast develops smooth full body keeps fine aromas present toasted cereal fragrance sweet caramel notes pairs perfectly milk 30 30 30 30 nan nan nan nan honour genoa gateway world used fine latin american arabicas create sweet medium roast livanto 100 arabica blend beans coming brazil guatemala colombia gave coffees livanto medium roast still dark enough develop caramel toasted cereal notes rounded mouthfeel preserving delicate acidity 10 capsules roast ground coffee nespresso system roast ground coffee 53 g 186 oz 10 capsules 60 medium medium medium medium medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current world explorations 110 ml lungo potent roasted 100 92 roasted woody blend brings cape town taste coffee south africa stopping point old trade routes asian coffees shaped local taste time world explorations cape town lungo reflects preference blend indian arabica robusta results intense lungo fullbodied punchy bitter note woodsy aroma enjoy like local add splash milk long cup experience silky texture 10 40 50 40 nan nan nan nan deeproasted intense fullbodied cup woodsy aroma punchy bitterness reminiscent robusta cargo shaped cape town taste coffee nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 55 g 194 oz 10 capsules 100 dark low high high high medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current world explorations 25 ml ristretto 40 ml espresso roasted peppery note 90 87 roasted peppery note short dark split roasting fine grind help evoke every ventanita cuban cafecito always sweetened sprinkle brown sugar coffee vibrant context enjoyed americans grab tall coffees togo miami reflects strong hispanic influence coffee short shared intense thick crema strong roasted character begs brown sugar soften bitter notes enjoy cafecito brown sugar people miami coffee way together 10 40 50 40 nan nan nan nan walk streets miami pass dozens ventanitas little windows portholes cuba miniature coffee shops dishing small bites coffeethe short cafecito large colado share city melting pot traditions world explorations miami espresso bold blend arabica robusta coffees echoes caribbean arabica joins latin american coffees sealing authenticity archetypal cubanstyle cup americans grab tall coffees togo miami reflects strong hispanic influence coffee short shared nan nan 10 capsules roast ground coffee nespresso system roast ground coffee unknown 90 dark low high high high medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current world explorations 40 ml espresso cereal spicy 90 87 spicy pleasantly bitter velvetytextured cup unexpected walnut sandalwood herbal notes reminiscent thyme rosemary 10 40 40 40 nan nan nan nan embodying spirit lively colourful city espresso reflects country deeply rooted heritage growing drinking coffee rio de janeiro s unique touch sandalwood herbal notes give glimpse brazilian way life drink like local double espresso hot water 100 arabica created using beans two distinct brazilian regions cerrado wellknown quality espirito santo brings herbal notes define coffee espirito santo beans roasted separately preserve herbal notes beans roasted together dark roasting mode enhance body intensity bitter notes 10 capsules roast ground coffee nespresso system roast ground coffee 55 g 194 oz 10 capsules 90 dark low high high high medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current world explorations 25 ml ristretto 40 ml espresso roasted fruity note hint almond 80 87 fruity roasted thick velvety blend displays wild spicy fruity notes hint almond pleasant roasty aftertaste 40 30 30 30 nan nan nan nan istanbul espresso takes back time original coffeehouses intense ambrosial brew bursts boldness wild ripe fruits delicate almond touch thick velvety homage turkish coffee ethiopian arabica indian robusta remind us city crossroads ancient coffee trade routes blend composed mostly ethiopian arabica beans indian robustas coffees come together bring complex profile bitterness acidity wild fruitiness roasted notes classic splitroast high intensity average roasting time batches separated arabicas robustas precise roast 10 capsules roast ground coffee nespresso system roast ground coffee 56 g 197 oz 10 capsules 80 dark high medium medium medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current world explorations 110 ml lungo rich fullbodied 80 92 roasted stockholm lungo coffee sweet cereal malty toasted notes lies beneath veil acidity lively bittereness paired milk coffee reveals additional sweet biscuit toffee notes 20 30 40 30 nan nan nan nan swedes among world big coffee consumers wander around stockholm often find intense black coffees malty savoury note coming distinctive monsoon arabica stockholm lungo recreates aromatic profile swedish coffee coupling monsooned malabar colombian arabica rich combination beans coming colombia costa rica india late undergoing particular monsooning process defines coffee sensorial profile monsooned arabica gets dark roast enhance body cereal notes light roast washed colombian coffee means classic fine aromatics stay balance 10 capsules roast ground coffee nespresso system roast ground coffee 60 g 211 oz 10 capsules 80 dark low medium high medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current world explorations 40 ml espresso cereal biscuity hint citrus 60 87 citrus biscuity citrus paris espresso balanced coffee light bitterness cereal biscuity notes pleasant acidity hint citrus paired milk coffee reveals caramelic biscuity note bitter almond touch 20 30 30 30 nan nan nan nan live authentic parisian café experience people enjoy philosophizing coffee world explorations paris espresso transports terraces balanced blend arabicas emboldened vietnamese robusta delicately bitter cup cereal citrus notes blend arabicas brazil colombia combined touch topgrade robusta beans vietnam adds pleasant bitter note coffee classic split roast average roasting intensity time arabicas robustas separated batches robusta part lightly roasted allow delicate arabica notes stand 10 capsules roast ground coffee nespresso system roast ground coffee 50 g 176 oz 10 capsules 60 medium low medium medium medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current world explorations 110 ml lungo round smooth 60 92 nan vienna coffeehouse tradition shaped coffee culture vibrant city known many recipes smoothness coffee world explorations vienna lungo recreates balanced pleasant viennese taste pairing sweet brazilian colombian arabicas lightly roasted experts enhance malty aromatic notes cup enjoy like local top lungo hot water 150ml cup pair slice cake 10 20 30 20 nan nan nan nan coffeehouse home coffee gathering balanced blend smooth silky south american arabicas pairs perfectly viennoiserie nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 55 g 194 oz 10 capsules 60 medium low low medium low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current world explorations 110 ml lungo floral complex 60 92 roasted tokyo lungo combines delicate flowery notes refined toasted cereal notes hint fruit 10 20 30 30 nan nan nan nan known tea japanese also real affinity coffee striving sophistication natural sweetness love rich coffee balance elegant aromas tokyo lungo captures essence preferences refined ethiopian mexican arabicas floral notes delicate acidity coming lightly roasted ethiopian arabica contrast beautifully rich flavours mexican washed arabica ethiopian beans go fast roast preserves acidity flowery notes mexican beans roasted long develop intensity 10 capsules roast ground coffee nespresso system roast ground coffee 58 g 204 oz 10 capsules 60 medium low low medium medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current world explorations 110 ml lungo fruity fine acidity 50 92 berry world explorations shanghai lungo insight emerging asian coffee culture crafted kenyan chinese indonesian arabicas distinctive lightroast blend please palate berry notes fine acidity enjoy like local lengthen long cup coffee splash cream take onthego 20 10 20 20 nan nan nan nan venice long history importing world coffees expertly roasting diverse coffees harmony expertise inspired beautifully balanced roast ispirazione venezia worthy noble dessert classic caramel cereal notes coffee marry elegantly decadent ingredients rich tiramisu nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 56 g 197 oz 10 capsules 50 medium low low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current world explorations 110 ml lungo sweet cereal 40 92 cereal caramel world explorations buenos aires lungo blends gently roasted colombian arabica ugandan robusta deliver distinct cereal sweet popcorn notes tribute city love smooth long cups drink like local add generous drop milk sugar lungo extra treat 20 10 10 30 nan nan nan nan destination true foodies buenos aires highlight argentina vibrant food scene sweetness prevails coffee exception love sweet milky nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 56 g 197 oz 10 capsules 40 blonde low low low medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current master origins 40 ml espresso 110 lungo unknown 110 97 intense spicy monsooned coffee unique india southwest coast offering powerful cup distinct intense woody spicy notes come mostly robusta part blend perfectly pairs milk 10 40 40 30 nan nan nan nan india distinctive robusta monsooning process exposes coffee beans monsoonal ocean winds causing swell dry transform flavour local craftsmen spend months attending drying coffee beans develop renowned spicy flavor syrupy body taste indian coffee blend arabica robusta blend exclusively created beans india split roast blend medium slightly short roast separating arabicas robustas keep distinct characteristics alive 10 capsules roast ground coffee nespresso system roast ground coffee 55 g 194 oz 10 capsules 110 dark low high high medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current master origins 40 ml espresso 110 lungo wet hulled arabica 80 97 intense rich cereal woody master origins indonesia thick velvety body cured tobacco notes hint tropical woody aromastry master origins indonesia wethulled arabica dash milk nutty woody roasted notes emerge intense master origins coffee milk 20 30 40 30 nan nan nan nan sumatran farmers wethull coffee humid climate remove parchment coffee soft moist exposed beans dry fast method unique produces classic indonesian taste velvety thick wildly aromatic notes cured tobacco coffee exclusively created fairtrade beans indonesia split roast single origin coffee medium slightly short average roast split roasting sumatra coffee brings great aromatic complexity cup 10 capsules roast ground coffee nespresso system roast ground coffee 56 g 197 oz 10 capsules 80 dark low medium high medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current master origins 40 ml espresso 110 lungo late harvest arabica 60 97 winey master origins colombia smooth fruity coffee bright acidity winey red fruit notes blackcurrant cranberry paired milk coffee reveals additional sweet biscuit notes 40 30 30 20 nan nan nan nan master origins colombia late harvest uses highgrown washed processed colombian arabica taste lively acidity burst winey red fruit aromas comes coffee farmers dared wait long harvesting crop made late harvest arabica harvesting technique leaves cherry plant slightly long amplify acidity winey notes average short roast medium temperatures keeps deep delicate aromatics master origins colombia balance 10 capsules roast ground coffee nespresso system roast ground coffee 57 g 201 oz 10 capsules 60 medium high medium medium low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current master origins 40 ml espresso 110 lungo high andes 60 97 fruity elegant organic arabica crafted remote smallholder farmers peru remote andes mountains graced smooth toasted cereal fruit notes going great lengths source fine organic peruvian coffee natural take care roasting coffee peru organic single origin coffee roasted two parts bring nuanced complexity final cup two splits lightly roasted highlight bright smooth character blend revealing exotic fruity notes 40 30 30 30 nan nan nan nan traveled across remote peruvian regions search fine organic arabica beans high 1000 meters tucked slopes andes found blessed meticulous care smallholder farmers peru organic elegant fruity coffee accented smooth toasted cereal note nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 58 g 204 oz 10 capsules 60 medium high medium medium medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current master origins 40 ml espresso 110 lungo blackhoney processed arabica 50 97 sweet blackhoney processed arabica master origins nicaragua nectarous coffee satiny smooth texture warming sweet cereal notes distinct sweetness comes rare blackhoney process like milk froth master origins nicaragua blackhoney processed arabica makes rich latte macchiato coffee milk balanced nutty roasted notes surface 20 20 20 10 nan nan nan nan black honey processing easy road nectarous coffee farmers dare rare process calls meticulous monitoring master origins nicaragua blackhoney processed arabica contains coffee gives nicaraguan arabica smooth honeyed texture sweet cereal notes 100 arabica singleorigin nicaraguan coffee contains blackhoney processed beans give smooth texture sweet cereal notes nan 10 capsules roast ground coffee nespresso system roast ground coffee 50 g 176 oz 10 capsules 50 medium low low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current master origins 40 ml espresso 110 lungo ethiopia dry processed arabica 40 97 fruity orange blossom aroma rich fruit jam notes come sundried coffee master origins ethiopia dry processed arabica continually handturning coffee cherry ensure even drying calls great care ethiopian farmers used method long anyone else like milk coffee try master origins ethiopia dry processed arabica milk froth make cappuccino find delicate floral notes still smoothly dancing cup coffee milk 40 20 20 10 nan nan nan nan ethiopian arabica fine decadently aromatic nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 56 g 197 oz 10 capsules 40 blonde high low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current barista creations 110 ml lungo cappuccino latte macchiato chocolate flavoured nan 97 chocolate flavoured biscuity flavoured blend delights elegant dark chocolate flavour complemented notes biscuit cereal 30 20 20 20 nan nan nan nan made name changes barista creations flavoured range original good reflect various changes made recipe flavouring extracts recommended cup size barista creations flavoured cioccolato brings together exquisite flavour dark chocolate signature taste roasted coffee smooth latin american arabica blend meets timeless rich chocolate flavour deep layers flavour emerge ready create coffee moment keep coming back decadence make cappuccinoan elegant nutty note unfolds finishing touch chocolate flavour nan nan 10 capsules roast ground coffee nespresso system roast ground coffee natural flavour 50 g 176 oz 10 capsules 60 medium medium low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current barista creations 110 ml lungo cappuccino latte macchiato vanilla flavoured nan 97 flavoured vanilla flavoured blend delights classic vanilla flavour combined sweet biscuit cereal notes 30 20 20 20 nan nan nan nan made name changes barista creations flavoured range original good reflect various changes made recipe flavouring extracts recommended cup size craft barista creations flavoured vaniglia brought custardy vanilla flavour smooth base blend arabica beans brazil colombia combination brazilian bourbon variety sweetness lively character washed colombian coffee perfect landing complex warming nature beloved vanilla flavour coffee blend mellow malted cereal notes bring rounded silky taste elegantly complements classic vanilla try cappuccino may remind favourite vanilla cake nan nan 10 capsules roast ground coffee nespresso system roast ground coffee natural flavour 50 g 176 oz 10 capsules 60 medium medium low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current barista creations 110 ml lungo cappuccino latte macchiato hazelnut flavoured nan 97 flavoured biscuity hazelnut flavoured blend delights classic hazelnut flavour complemented notes praline biscuit cereals 30 20 20 20 nan nan nan nan made name changes barista creations flavoured range original good reflect various changes made recipe flavouring extracts recommended cup size nothing beats classic barista creations flavoured nocciola delivers rich roasted hazelnut flavour cascades smooth latin american arabica blend coffee malted cereal character comes caramelized nutty noteyour cue slow savour coffee moment stretch momentmake cappuccino milky delight hazelnut flavour taking delicious praline character linger nan nan 10 capsules roast ground coffee nespresso system artificially flavoured hazelnut roast ground coffee unknown 60 medium medium low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current barista creations 110 ml lungo cappuccino latte macchiato caramel flavoured nan 97 flavoured caramel flavoured blend delights classic caramel flavour combined sweet biscuit nutty notes 30 20 20 20 nan nan nan nan made name changes barista creations flavoured range original good reflect various changes made recipe flavouring extracts recommended cup sizewhen nutty sweetness classically decadent caramel flavour meets base blend south american arabicas barista creations flavoured caramello irresistible invitation treat caramel creamy nuttiness way rounding coffee delicious biscuit note effortlessly complementing smooth taste light roasting brazilian colombian beans ensures texture tastes aromas coffee right carrying unmistakable caramel flavour make cappuccino momentmilk brings caramel biscuit notes nan nan 10 capsules artificially flavoured caramel roast ground coffee nespresso system roast ground coffee artificial flavour 50 g 176 oz 10 capsules 60 medium medium low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current barista creations cappuccino latte macchiato spicy slightly smoked nan 97 intense barista creations corto took inspiration dark roasts thick textures created expert baristas spain easily recognizable raw strength intense roasty character corto punch milk rich aftertaste elegant bitterness thick textured body dash hot milk milk froth crowning cup experience corto traditional cortado recipe way nan nan nan nan 10 50 50 10 inspired dark roasted tastes thick textures created expert baristas spain selected blend african arabicas robusta roasted long dark create powerful fullbodied taste becomes smooth creamy splash milk nan nan 10 capsules roast ground coffee nespresso system natural flavouring roast ground coffee 58 g 204 oz 10 capsules 110 dark medium medium medium medium low high high low</t>
+  </si>
+  <si>
+    <t>original current barista creations cappuccino latte macchiato balanced biscuit notes nan 97 roasted balanced intense coffee remains beautifully balance milk roasty enough push milk delicate sweetness tempers intensity make compelling cappuccino nan nan nan nan 30 30 20 30 taking inspiration melbourne baristas masters robust perfectly balanced tastes orchestrated ideal marriage using meticulous combination topgrade colombian ethiopian arabicas scuro contrasting roasting profile part coffee getting long dark roast part roasted much fast light 10 capsules roast ground coffee nespresso system roast ground coffee 50 g 176 oz 10 capsules 80 dark medium medium medium medium medium medium low medium</t>
+  </si>
+  <si>
+    <t>original current barista creations cappuccino latte macchiato notes caramel sweet biscuits nan 97 balanced sweet biscuity barista creations chiaro hardly hint roastiness almost bitterness acidity perceive creamy caramel sweet biscuit notes add milk baristas brooklyn inspired us way light roast values natural sweetness coffee lends decadent smoothness cup add milk nan nan nan nan 50 10 10 40 inspired baristas brooklyn value natural sweetness coffee apply light roast protect nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 48 g 168 oz 10 capsules 60 medium medium medium medium medium high low low high</t>
+  </si>
+  <si>
+    <t>original current original collection 40 ml espresso rich distinctive 50 87 balanced cereal capriccio rich profile combines fine acidity delicious toasted cereal notes touch bitterness enjoyed cappuccino latte macchiato pure moment indulgence 30 30 20 20 nan nan nan nan capriccio rich unique espresso ready astonish complex balanced bouquet distinct cereal notes characteristic brazilian arabica touch robusta use capriccio surprises fine acidity gleams coming highgrown south american arabicas light roast one first four coffees launched 1986 capriccio carefully created combining fine lightroasted arabicas brazil colombia touch topquality robusta capriccio gets light roast preserve fine acidity shimmers rich cereal notes light roasting also develops rich profile unique capriccio 10 capsules roast ground coffee nespresso system roast ground coffee 50 g 176 oz 10 capsules 50 medium medium medium low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current original collection 40 ml espresso mild delicately roasted 40 87 fruity cereal delicate pairing fruity flavors toasted cereal notes cosi low bitterness roastiness body classic aromatics harmonious balance cosi milk takes indulgent silky texture sweet biscuit notes 30 20 20 20 nan nan nan nan one nespresso s og cosi s light roasted classic coffees keeps distinguished aromatics alive meets palate smile rich combination arabicas costa rica kenya south american countries kenyan arabicas provide zesty acidity present cosi coffee roasters give light roast latin american east african coffees ensuring heart soul shines cup 10 capsules roast ground coffee nespresso system roast ground coffee 50 g 176 oz 10 capsules 40 blonde medium low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current original collection 40 ml espresso sweet light 40 87 balanced fruity cereal like fresh ovenbaked brioche volluto irresistible perfume comforting sweet biscuit notes touch winey fruitiness enlivens blend pairs perfectly milk 30 20 20 30 nan nan nan nan volluto sunny living natural brazilian arabica mellows preshipment resting time medium roast softens brazil cereal notes turns sweet biscuit washed arabica colombia brings delightful fresh red fruit notes blend volluto delicious profile created combining sweet mellowness brazilian arabicas winey fruitiness colombian arabicas lightly roasted given medium grind keep harmony roast turns brazil cereal notes sweet biscuit keeps fruity notes colombian beans alive 10 capsules roast ground coffee nespresso system roast ground coffee 50 g 176 oz 10 capsules 40 blonde medium low low medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>original current original collection 40 ml espresso sweet light 40 87 balanced fruity cereal volluto decaffeinato faithful form brazilian colombian coffees carefully composed gently decaffeinated sunny living decaffeinate naturally make sure coffee beans quality taste protected much possible volluto volluto decaffeinato milk taste irresistible charm easy sweet biscuit caramel notes splash lively fruit aromas 30 20 20 20 nan nan nan nan sweet light delightfully balanced cereal fruity notes volluto easy way nan nan 10 capsules roast ground coffee nespresso system decaffeinated roast ground coffee 50 g 176 oz 10 capsules 40 blonde medium low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current long coffee 230 ml coffee smooth strong 90 126 intense intense long black coffee distinctly lingering aftertaste roasted notes thick coffee crema pairs perfectly milk enriches blend brown caramel notes 10 40 50 30 nan nan nan nan blend nicaraguans washed robusta coffee beans latin american arabica thick roasted notes lingering finish arabicas get dark roast low acidity bring brown sugar aroma nicaraguan coffee gets long roast develop robusta coffee beans bold bitter notes intenso created combining latin american arabicas nicaraguan robustas arabicas get dark roast low acidity bring brown sugar aroma robustas get long roast develop bitter notes lingering aftertaste 10 capsules roast ground coffee nespresso system roast ground coffee 125 g 441 oz 10 capsules 90 dark low high high medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current long coffee 230 ml coffee rich strong 80 126 intense long slow roast intensifies nicaraguan guatemalan cereal aromatics notes spice wood highgrown arabica coffees give deep roast build rich intensity vertuo coffee pod remains smooth fullbodied milk may mellow stormio still taste powerful roasted notes blow away gathering storm 10 40 40 40 nan nan nan nan love stormio darkly roasted blend rushes myriad aromas strength could come pure arabica coffees nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 125 g 440 oz 10 capsules 80 dark low high high high medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current long coffee 230 ml coffee bold lively 70 126 intense nicaraguan arabica gives odacio soft solid cereal note daringly blended touch ethiopian arabica adds splash acidity delicate fruitiness split roast coffees vertuo coffee pod long light roast coffees develops body structure keeps acidity aromatics intact odacio brings fullbodied cereal note dares surprise flourish fruitiness delicate acidity end bold lively hits palate great elegance 20 40 40 40 nan nan nan nan love odacio lively intense vertuo coffee nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 125 g 440 oz 10 capsules 70 medium low high high high medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current long coffee 230 ml coffee intense spiced 70 137 spicy woody intense coffee roasted woody spicy notes thick texture low acidity pairs perfectly milk 10 30 40 20 nan nan nan nan double take master origins mexico double washed robusta because selective handpicking thoroughly washing arabica arabicas robustas coffee come mexico arabica coffee beans given medium roast uncommon double washed robusta coffee beans get long deep roast 10 capsules roast ground coffee nespresso system roast ground coffee 125 g 440 oz 10 capsules 70 medium low medium high low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current long coffee 230 ml coffee smooth balanced 60 126 unknown harmonious blend latin american arabicas sing smooth cereal notes honeyed sweetness pairs perfectly milk enhances softness biscuity notes 10 20 30 30 nan nan nan nan help fall melozio canadian bestseller harmonious blend fine quality brazilian central american arabicas roasted create rounded coffee smooth perfectly balanced harmonious blend latin american arabicas mostly brazil guatemala rich smooth cereal notes honeyed sweetness brazilian arabicas roasted separately develop sweet cereal notes arabicas get lightly roasted round melozio 10 capsules roast ground coffee nespresso system roast ground coffee 125 g 440 oz 10 capsules 60 medium low low medium medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current long coffee 230 ml coffee smooth balanced 60 126 cereal split roast vertuo coffee capsule s arabica coffees allows brazilian bourbon develop cereal note become sweet smooth coffee lightly roasting arabicas rounds melozio melozio decaffeinato delights twice latin american arabicas still sing smooth cereal honeyed sweetness even decaffeination 10 20 30 30 nan nan nan nan nan nan nan 10 capsules roast ground coffee nespresso system decaffeinated roast ground coffee 125 g 440 oz 10 capsules 60 medium low low medium medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current long coffee 230 ml coffee sweet velvety 50 126 unknown vertuo coffee capsule blends decaffeinated regular arabica coffees brazil ethiopia decaffeination half coffee light quick roast brazilian arabica coffee gives vertuo coffee pod roundness sweetness chose blend ethiopian coffee delicate aromatics would add finesse half coffee nespresso decaffeinated taste full 10 10 20 20 nan nan nan nan love love half caffeinato smooth velvety texture sweet biscuit note nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 125 g 440 oz 10 capsules 50 medium low low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current long coffee 230 ml coffee sweet jam 50 137 biscuity winey coffee displays sweet biscuity fruity jam cereal notes mild low bitterness 40 10 20 20 nan nan nan nan grown shadetrees treasured coffee varieties find ideal terroir nestled beside active volcanoes delivering mild cup sweet biscuit fruity jam notes red honey process involves carefully adjusting amount sweet pulp left drying cherry complements arabica blend washed processed beans sweet aromatics allarabica blend sourced apaneca ilamatepec mountain range el salvador selection red honey processed beans complements washed arabica beans distinctive sweetness overall light roast red honey roasted separately rest make unique processing method portion washed slightly long dark 10 capsules roast ground coffee nespresso system roast ground coffee 125 g 440 oz 10 capsules 50 medium high low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current long coffee 230 ml coffee red fruit notes 50 137 unknown long fermentation highgrown colombian arabica delivers particularly juicy fruity sweet cup pairs perfectly milk 50 10 10 10 nan nan nan nan cool climate highaltitude colombia aguadas mountains means coffee takes long ferment classic washed coffee processing method complex timeconsuming calls even skill fullywashed coffee sourced highaltitude region aguadas colombia separate coffee 2 batches roasting given fast light roast small portion roasted little long deep add complexity cup 10 capsules roast ground coffee nespresso system roast ground coffee 125 g 440 oz 10 capsules 50 medium high low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current long coffee 230 ml coffee fruity lightlybodied 20 126 cereal fruity vertuo coffee capsule arabica blend two renowned washed coffees loved lively acidity distinct fruity notes split roast blended highgrown colombian coffee kenyan coffee create light roast coffee light body lovable character juicy acidity shines solelio toasted cereal note hard miss classic fruitiness colombian kenyan coffees really ease morning vertuo coffee 30 10 10 10 nan nan nan nan love solelio gentle start day nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 125 g 440 oz 10 capsules 20 blonde medium low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current long coffee exclusively use vertuo next vertuo pop vertuo lattissima vertuo creatista machines 355 ml alto roasted woody 70 105 roasted woody spicy intense coffee roasted woody spicy notes 10 30 30 30 nan nan nan nan alto onice delivers full palate strong cereal deep woody notes long cup savour home onthego bold aromatics beautiful bitter cocoa spice roasted notes comes golden caramel note faint shimmer acidity balance deeproasted blend coffees colombia india beyond complex blend several origins indian beans cocoa spice notes comes colombian arabica shimmer acidity long cup size arabicas robustas roasted together first split second split composed exclusively decaffeinated arabica roasted slightly short time 7 capsules roast ground coffee nespresso system roast ground coffee decaffeinated roast ground coffee 120 g 423 oz 7 capsules 70 medium low medium medium medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current long coffee exclusively use vertuo next vertuo pop vertuo lattissima vertuo creatista machines 355 ml alto honeyed delicate 40 105 cereal honey ambrato delicate blend light toasted bread honey notes light body 10 20 20 20 nan nan nan nan taste alto ambrato s honeyed cereal toasted notes caramel sweetness fruity touch sparkles lightly roasted blend fine latin american arabicas robusta home go long cup warm rich golden aromatics arabica robusta coffees latin america give rich warmth lightroast long cup taste toasted cereal sweet caramel notes balanced fruity touch nan 7 capsules roast ground coffee nespresso system roast ground coffee decaffeinated roast ground coffee 120 g 423 oz 7 capsules 40 blonde low low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current long coffee exclusively use vertuo next vertuo pop vertuo lattissima vertuo creatista machines 355 ml cold brew sweet caramel roasted cereal nan 1085 caramel roasted cereal smooth silkytextured coffee roasted caramel notes low bitterness pleasant acidity typical cold brew extractions nan nan nan nan nan nan nan nan inspired hot bloom method cold brew style intense reimagined nespresso begins brewing hot draw best beans continues cool water leave bitterness behind brewed minutes taste roasted arabicas caramel notes smooth silkytextured coffee best experience use cool water 10c 50f vertuo water tank add 34 ice cubes coffee 12 fl oz 355 ml 2 servings 6 fl oz 1725 ml 100 arabica blend mostly uses brazilian bourbons guatemalan arabicas vertuo coffee gets split roast allows brazilian bourbon develop cereal note become sweet smooth coffee lightly roasting arabicas rounds blend 7 cold brew style intense capsules roast ground coffee nespresso system roast ground coffee decaffeinated roast ground coffee 120 g 423 oz 7 capsules 50 medium medium medium medium medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current long coffee exclusively use vertuo next vertuo lattissima vertuo creatista machines 535 ml carafe roasted smokey nan 112 unknown carafe pourover style coffee opens possibilities sharing others simply extending pleasure nespresso moment creating long cup means short journey delivering right intensity 535 ml also optimum crema distinct flavour profile something happen overnight years development able refine perfect product desire welcoming large ever coffee family elevate drinking experience carafe accessory set specifically designed reveal coffee s unique aromatics inspire new nespresso coffee ritual 10 30 30 30 nan nan nan nan carafe pourover syle coffee like none range easytodrink blend peruvian colombian washed arabicas complement contrasting qualities create unique aromatic profile nan nan 7 capsules roast ground coffee vertuo next machine roast ground coffee 120 g 423 oz 7 capsules 70 medium low medium medium medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current long coffee exclusively use vertuo next vertuo lattissima vertuo creatista machines 535 ml carafe toasted cereal malted nan 112 unknown round easy drink carafe pourover style mild balanced sensorial profile toasted cereal notes pleasant sweetness blend roasted using split roast technique 6040 first split includes origins roasted light degree average roasting time second split includes colombian coffees roasted slightly dark degree creating mild roast overall classic vertuo roast 10 20 20 10 nan nan nan nan smooth toasted cereal malted notes grace every last drop subtly sweet latin american arabica blend coffee inspired pourover method nan nan 7 capsules roast ground coffee vertuo next machine roast ground coffee 120 g 423 oz 7 capsules 50 medium low low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current gran lungo 150 ml gran lungo intense fullbodied 80 110 cocoa intense coffee gran lungo size comes thickbodied full cocoa oak notes pairs perfectly milk 10 40 40 40 nan nan nan nan intense vertuo coffee gran lungo size fortado indian robusta comes full force cocoa oak wood notes emerge latin american arabicas chose high quality washed latin american arabicas blended naturally processed indian robusta highend quality intensity full body first long roast medium temperatures brings intensity indian robusta without harshness arabicas get dark developing rich cocoa wood notes 10 capsules roast ground coffee nespresso system roast ground coffee 100 g 353 oz 10 capsules 80 dark low high high high medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current gran lungo 150 ml gran lungo intense fullbodied 80 110 woody thickbodied character cocoa oak notes fortado decaffeinated recipe pairs perfectly milk 10 40 40 40 nan nan nan nan intense gran lungo vertuo coffee decaffeinated fortado decaffeinato indian robusta comes full force cocoa oak wood notes still strong decaffeinated latin american arabicas chose high quality washed latin american arabicas blended naturally processed indian robusta highend quality intensity full body first long roast medium temperatures brings intensity indian robusta without harshness arabicas get dark developing rich cocoa wood notes 10 capsules roast ground coffee nespresso system decaffeinated roast ground coffee 100 g 353 oz 10 capsules 80 dark low high high high medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current gran lungo 150 ml gran lungo malty cereal notes 70 121 unknown oneofakind process fermentation hotspring waters brings remarkably balanced clean taste cup master origins costa rica fullbodied mellow malty sweet cereal note runs crystal clarity 10 30 40 30 nan nan nan nan high costa rica mountains small selection arabica coffee beans soaked rainforest hot spring waters costa rica contains scarce coffee whose rare process highlights malty sweet cereal character craftsman coffee 100 arabica fully washed coffee sourced high costa rican mountains first batch roasted medium temperatures reach mediumdark colour develop sweet malty notes second batch roasted intensively reach dark color desired intensity 10 capsules roast ground coffee nespresso system roast ground coffee 105 g 370 oz 10 capsules 70 medium low medium high medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current gran lungo 150 ml gran lungo cereal mild 60 110 unknown mild gran lungo fooled inner strength behind cereal note subtle acidity hint robusta oomph addition milk softens cereal notes keeping enchanting character 30 40 30 30 nan nan nan nan nan nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 100 g 353 oz 10 capsules 60 medium medium high medium medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current gran lungo 150 ml gran lungo floral cereal 40 110 floral split roast medium roast coffee ethiopian arabicas get light short roast keep floral notes alive long dark roast kenyan coffee adds body vertuo coffee capsule brewing also designed bring great crema keeping floral aromatics intact juicy coffee combines subtle floral cereal notes 30 20 20 40 nan nan nan nan inizio helping hand easing every day velvety smooth body kenyan ethiopian arabica blend comes warmth strength rich toasted cereal note wild florals give laidback sunday feeling nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 100 g 353 oz 10 capsules 40 blonde medium low low high medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current gran lungo 150 ml gran lungo floral delicate 40 121 unknown ethiopia naturally flowery coffee gains fruitiness complexity signature drying method revealing ripe blueberry notes hint musk 30 10 20 10 nan nan nan nan ethiopia dry processed arabica involves sundrying coffee cherry continual handturning ensure even drying calls great care ethiopian farmers used method long anyone else nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 95 g 335 oz 10 capsules 40 blonde medium low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current espresso 40 ml espresso exceptionally intense velvety 110 99 cereal woody cocoa split roast coffees give robustas dark roast light slightly long roast colombian arabica beans keeps acidity intact develops hint nutty note il caffè goes like dream classic aroma promises delight familiar flavour one remember crafted il caffè traditional black coffee experience want soften one intensity add milk make cappuccino 10 40 50 10 nan nan nan nan split roast coffees give robustas dark roast light slightly long roast colombian arabica beans keeps acidity intact develops hint nutty note il caffè goes like dream classic aroma promises delight familiar flavour one remember crafted il caffè traditional black coffee experience want soften one intensity add milk make cappuccino nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 70 g 247 oz 10 capsules 110 dark low high high low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current espresso 40 ml espresso highly intense powerful 110 99 intense woody harshness diavolitto fine oak wood leather notes smooth creamy texture addition milk complements natural full body 10 40 40 40 nan nan nan nan short devil coffee capsule intense powerful espresso definitely packed character oak leather aromas punch creamy texture diavolitto s blend robustas including washed guatemalan robusta latin american arabicas blend robustas arabicas latin america rare robusta guatemala gives coffee soft creamy texture highly roasted robusta arabica coffee blend split roast coffee origin characteristics stay play 10 capsules roast ground coffee nespresso system roast ground coffee 70 g 247 oz 10 capsules 110 dark low high high high medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current espresso 40 ml espresso fullbodied creamy 90 99 cocoa fullbodied bold espresso taste comes blending south american arabicas robusta costa rican arabica adds soft cereal note decaffeinated taste highly roasted altissio decaffeinato true original still cloaked creamy royal robes 10 30 30 30 nan nan nan nan altissio decaffeinato walks ll notice nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 70 g 246 oz 10 capsules 90 dark low medium medium medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current espresso 40 ml espresso fullbodied creamy 90 99 intense bold espresso cloaked creamy roasty cereal note pairs perfectly milk complements natural full body 10 30 10 30 nan nan nan nan south american arabicas touch brazilian robusta give fullbodied bold espresso taste balanced coffees costa rican arabica adds soft cereal note royal robes altissio vertuo espresso coffee cloaked thick velvety crema full roasty notes soft creamy cereal note combination arabicas latin america costa rica little touch brazilian robusta fullbodied cup altissio gets intense short roast bring fullbodied character bold vertuo espresso coffee 10 capsules roast ground coffee nespresso system roast ground coffee 70 g 246 oz 10 capsules 90 dark low medium low medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current espresso 40 ml espresso high andes 60 108 fruity high 1000 meters even 2100 meters tucked slopes andes found organic processes passed generation generation coffee blessed meticulous care smallholder farmers peru organic split roast reveal bright juicy acidity elegant fruity notes accented smooth toasted cereal note 40 30 30 30 nan nan nan nan love traveled across remote peruvian regions search fine organic certified arabica coffee beans nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 70 g 246 oz 10 capsules 60 medium high medium medium medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current espresso 40 ml espresso caramel roasted 60 99 caramel crafted orafio light long roasted ugandan robusta roast keeps coffee typical body bitterness check still delivering liquorice spice notes hallmarks origin naturally processed robusta short dark roast brazilian costa rican arabicas balances blend orafio complex coffee carrying delicious caramel note lingering long finish beautiful roasted notes graced hint acidity make luxurious coffee worth weight gold 10 30 30 20 nan nan nan nan makes orafio glow cup combination masterful blending bringing together high quality arabica robusta coffees diversity origins skilful split roasting sounds bit like level craftmanship goes coffee namesake italians among us recognize link word goldsmith nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 62 g 218 oz 10 capsules 60 medium low medium medium low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current espresso 40 ml espresso berry winey 50 99 berry fill cup wildly aromatic toccanto juicy coffee whose latin american arabicas bring candied winey fruit notes palate 30 20 20 20 nan nan nan nan barrel fine south central american coffee origins gather together toccanto bring wild juicy coffee candied ripe fruity notes arabica blend beautifully balances acidity body aromatic cup nan nan 10 capsules roast ground coffee nespresso system roast ground coffee 62 g 218 oz 10 capsules 50 medium medium low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current espresso 40 ml espresso light sweet 40 99 unknown sweet mild harmonious blend delicate biscuity aromas perfectly pairs dash milk looking even smooth taste 20 20 20 20 nan nan nan nan light sweet espresso comes biscuity aroma fine south american arabicas might make golden standard voltesso gets light biscuity note brazilian bourbon coffee colombian arabicas add hint acidity colombian coffee roasted light short preserve acidity brazilian bourbon roasted long time reveal biscuity notes 10 capsules roast ground coffee nespresso system roast ground coffee 52 g 183 oz 10 capsules 40 blonde low low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current espresso 80 ml double espresso dark bold 110 110 unknown highly roasted blend arabica robusta gives double espresso scuro smoky character dark cocoa subtle vanilla notes pairs perfectly milk 10 30 30 30 nan nan nan nan double espresso scuro highly roasted blend robusta arabica central american coffees robusta guatemala arabica costa rican robusta nespresso vertuoline double shot helps pack double enjoyment intense blend created using robustas guatemala origins combination arabicas costa rica separate robustas arabicas give full roast develop intense cocoa notes smoky character coffee 10 capsules roast ground coffee nespresso system roast ground coffee 100 g 352 oz 10 capsules 110 dark low medium medium medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current espresso 80 ml double espresso dense wild 80 110 unknown intense yet balanced double espresso woody earthy roasted cereal notes pairs perfectly milk enriches blend surprisingly prominent notes caramel 10 30 30 20 nan nan nan nan nespresso vertuoline double shot last course go ahead finish meal bang blend latin american arabica coffees mainly coming brazil colombia washed natural arabicas roasted separately although get intense short roast done bring best part blend 10 capsules roast ground coffee nespresso system roast ground coffee 100 g 352 oz 10 capsules 80 dark low medium medium low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current espresso 80 ml double espresso cereal malted 50 110 cereal exceptionally smooth double espresso gets sweetness malty toasted cereal notes fine blend arabica robusta pairs perfectly milk 20 20 30 50 nan nan nan nan masterful blending split roasting different arabica robusta beans secret behind mild smooth double espresso latin american arabicas deliver delicious malty toasted cereal note sings beautifully balanced cup double espresso dolce created combining latin american arabicas ugandan robustas batch arabicas roasted light short another combination arabica robusta get slightly long dark roast 10 capsules roast ground coffee nespresso system roast ground coffee 95 g 335 oz 10 capsules 50 medium low low medium high medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current barista creations 230 ml coffee cappucino latte macchiato hazelnut flavoured nan 126 hazelnut flavoured flavoured blend delights classic grilled hazelnut flavour complemented notes biscuits caramel 10 10 20 00 nan nan nan nan made name changes barista creations flavoured range vertuo good reflect various changes made recipe flavouring extracts recommended cup size bringing rich caramelized flavour roasted hazelnuts coffee called perfectly roasting smooth arabica beans latin america africa sweet velvety blend delicate biscuit note meets bittersweet complexity hazelnut flavour barista creations flavoured roasted hazelnut smiles makes milky treat rush grilled hazelnut praline caramel biscuit notes 100 arabica blend sourced brazil ethiopia another latin american country latin american beans roasted medium dark quickly develop sweetness coffees roasted bit long develop velvety texture 10 capsules artificially flavoured hazelnut roast ground coffee nespresso system roast ground coffee 125 g 440 oz 10 capsules 50 medium low low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current barista creations 230 ml coffee cappucino latte macchiato caramel flavoured nan 126 caramel flavoured flavoured blend delights classic caramel flavour combined sweet biscuit notes 10 10 20 20 nan nan nan nan made name changes barista creations flavoured range vertuo good reflect various changes made recipe flavouring extracts recommended cup size barista creations flavoured golden caramel brings weekend mood day sweet velvety base blend latin american african arabicas comes comforting caramel flavour biscuity sweetness echo coffee blend one got layers indulgence irresistibly inviting cozy time moment calls insider tip dash milk caramel biscuit notes missed nan nan 10 capsules artificially flavoured caramel roast ground coffee nespresso system roast ground coffee artificial flavour 125 g 440 oz 10 capsules 50 medium low low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current barista creations 230 ml coffee cappucino latte macchiato vanilla flavoured nan 126 vanilla flavoured flavoured blend delights classic vanilla flavour combined sweet biscuit candied cereal notes coming delicate arabica base 10 10 20 20 nan nan nan nan made name changes barista creations flavoured range vertuo good reflect various changes made recipe flavouring extracts recommended cup sizetuck barista creations flavoured sweet vanilla dreamy taste vanilla dances delicious coffee add vanilla flavour lightroasted arabicas latin america africa discover much cup takes swirl flavours notes caramel vanilla cake excuse need pause enjoy little metime share loved ones insider tip dash milk highlights vanilla flavour nan nan 10 capsules roast ground coffee nespresso system vanilla flavour natural flavours roast ground coffee natural flavour 125 g 440 oz 10 capsules 50 medium low low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current barista creations 230 ml coffee cappucino latte macchiato dark chocolate flavoured nan 126 chocolate flavoured flavoured blend delights elegant dark chocolate flavour complemented notes caramel almond cereal 10 10 20 20 nan nan nan nan satisfy chocolate craving barista creations flavoured rich chocolate velvetysmooth blend latin american african arabicas meets authentic chocolate flavour inviting make occasion coffee moment like good dark chocolaterich complexthis coffee unfolds layers flavour sweetness elevates dessert status insider tip dash milk rush nuts biscuit notes emerges accompany chocolate flavour nan nan 10 capsules flavoured roast ground coffee nespresso system roast ground coffee cocoa flavour natural flavours 125 g 440 oz 10 capsules 50 medium low low low low medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current barista creations 40 ml espresso milk recipes sweet smooth nan 99 smooth sweet soft smooth creamy texture sweet notes caramel nuts biscuit especially crafted recipes milk 10 20 30 30 nan nan nan nan intense yet smooth taste espresso specially designed making cappuccinos latte macchiatos flat whites expertly crafted blend arabicas china colombia brazil ethiopia creates world rich roasted notes land harmony creamy sweetness milk 100 arabica blend sourced beans diversity origins stretching china colombia brazil ethiopia roasted two splits 1 mediumdark majority coffee 2 light light balance overall roast aiming best combination work well milk 10 capsules roast ground coffee nespresso system roast ground coffee 62 g 219 oz 10 capsules 70 medium low low medium medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current barista creations 80 ml double espresso milk recipes sweet milky nan 110 sweet smooth caramelly lightroast arabica blend crafted specifically large milky coffees 00 10 10 30 nan nan nan nan crafted coffee match long milky treats aromatic blend light roasted arabicas kenya colombia nicaragua signature split roast develops delicious caramelly notes smooth texture bianco doppio milk coffee pairs beautifully milk large cappuccinos flat whites 100 arabica blend sourced beans diversity origins stretching china colombia brazil ethiopia majority coffee goes light first split second split pushed bit clear light roast overall 10 capsules roast ground coffee nespresso system roast ground coffee 102 g 359 oz 10 capsules 60 medium low low low medium medium medium medium medium</t>
+  </si>
+  <si>
+    <t>vertuo current barista creations 230 ml coffee cappucino latte macchiato intense fullbodied nan 126 balanced intense fullbodied intense darkroasted coffee rich cereal notes especially crafted recipes remains powerful combination milk nan nan nan nan 20 30 30 30 long cup coffee big powerful roasted notes add generous dash milk find sweetness sits dynamic balance carefully crafted blend fine colombian kenyan arabicas give beans dark split roast highlight coffees rich roasted cereal notes 100 arabica blend combines coffees kenya colombia costa rica one part blend gets long dark roast second part roasted little fast slightly light degree 10 capsules roast ground coffee nespresso system roast ground coffee 125 g 440 oz 10 capsules 70 medium medium medium medium medium low medium medium medium</t>
   </si>
 </sst>
 </file>
@@ -2800,13 +3073,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB76"/>
+  <dimension ref="A1:AM76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2891,34 +3164,67 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="E2" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G2" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="H2" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="I2" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="J2">
         <v>13</v>
@@ -2927,10 +3233,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L2" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="M2" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -2945,54 +3251,87 @@
         <v>5</v>
       </c>
       <c r="V2" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="W2" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="X2" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="Y2" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z2" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA2" t="s">
-        <v>709</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>730</v>
+        <v>720</v>
+      </c>
+      <c r="AB2">
+        <v>13</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>746</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>821</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F3" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G3" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="H3" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="I3" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="J3">
         <v>12</v>
@@ -3001,10 +3340,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L3" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="M3" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3019,48 +3358,81 @@
         <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="Y3" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z3" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA3" t="s">
-        <v>710</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>731</v>
+        <v>721</v>
+      </c>
+      <c r="AB3">
+        <v>12</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>747</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>822</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="E4" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F4" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G4" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="H4" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="I4" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -3069,10 +3441,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L4" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="M4" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -3087,54 +3459,87 @@
         <v>4</v>
       </c>
       <c r="V4" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="W4" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="X4" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="Y4" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z4" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA4" t="s">
-        <v>709</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>732</v>
+        <v>720</v>
+      </c>
+      <c r="AB4">
+        <v>10</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>748</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>823</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E5" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F5" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G5" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="H5" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="I5" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -3143,10 +3548,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L5" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="M5" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -3161,48 +3566,81 @@
         <v>4</v>
       </c>
       <c r="V5" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="Y5" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z5" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="AA5" t="s">
-        <v>709</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>733</v>
+        <v>720</v>
+      </c>
+      <c r="AB5">
+        <v>10</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>749</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>824</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="E6" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F6" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G6" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="H6" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="I6" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="J6">
         <v>9</v>
@@ -3211,10 +3649,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L6" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="M6" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -3229,54 +3667,87 @@
         <v>4</v>
       </c>
       <c r="V6" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="W6" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="X6" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="Y6" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z6" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA6" t="s">
-        <v>711</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>734</v>
+        <v>722</v>
+      </c>
+      <c r="AB6">
+        <v>9</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>750</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>825</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="H7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="I7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="J7">
         <v>9</v>
@@ -3285,10 +3756,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="M7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -3303,54 +3774,87 @@
         <v>4</v>
       </c>
       <c r="V7" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="W7" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="X7" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="Y7" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z7" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="AA7" t="s">
-        <v>712</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>735</v>
+        <v>723</v>
+      </c>
+      <c r="AB7">
+        <v>9</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>751</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>826</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="E8" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F8" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G8" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="H8" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="I8" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="J8">
         <v>8</v>
@@ -3359,10 +3863,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L8" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="M8" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3377,54 +3881,87 @@
         <v>4</v>
       </c>
       <c r="V8" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="W8" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="X8" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="Y8" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z8" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA8" t="s">
-        <v>713</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>736</v>
+        <v>724</v>
+      </c>
+      <c r="AB8">
+        <v>8</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>752</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>827</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="E9" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F9" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G9" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="H9" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="I9" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -3433,10 +3970,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L9" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="M9" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="N9">
         <v>4</v>
@@ -3451,48 +3988,81 @@
         <v>3</v>
       </c>
       <c r="V9" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="Y9" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z9" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA9" t="s">
-        <v>714</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>737</v>
+        <v>725</v>
+      </c>
+      <c r="AB9">
+        <v>8</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>753</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>828</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E10" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G10" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I10" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -3501,10 +4071,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L10" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="M10" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -3519,54 +4089,87 @@
         <v>3</v>
       </c>
       <c r="V10" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="W10" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="X10" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="Y10" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z10" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA10" t="s">
-        <v>711</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>738</v>
+        <v>722</v>
+      </c>
+      <c r="AB10">
+        <v>6</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>754</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>829</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="E11" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F11" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G11" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="H11" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="I11" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -3575,10 +4178,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L11" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="M11" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -3593,48 +4196,81 @@
         <v>4</v>
       </c>
       <c r="V11" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="Y11" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z11" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA11" t="s">
-        <v>712</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>739</v>
+        <v>723</v>
+      </c>
+      <c r="AB11">
+        <v>10</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>755</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E12" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F12" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G12" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="H12" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="I12" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -3643,10 +4279,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L12" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="M12" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3661,48 +4297,81 @@
         <v>4</v>
       </c>
       <c r="V12" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="Y12" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z12" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA12" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>740</v>
+        <v>381</v>
+      </c>
+      <c r="AB12">
+        <v>9</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>756</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>831</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="E13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G13" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="H13" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I13" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="J13">
         <v>9</v>
@@ -3711,10 +4380,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L13" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="M13" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -3729,54 +4398,87 @@
         <v>4</v>
       </c>
       <c r="V13" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="W13" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="X13" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="Y13" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z13" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA13" t="s">
-        <v>712</v>
-      </c>
-      <c r="AB13" t="s">
+        <v>723</v>
+      </c>
+      <c r="AB13">
+        <v>9</v>
+      </c>
+      <c r="AC13" t="s">
         <v>741</v>
       </c>
+      <c r="AD13" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>757</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>832</v>
+      </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="E14" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F14" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G14" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="H14" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="I14" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="J14">
         <v>8</v>
@@ -3785,10 +4487,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L14" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="M14" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="N14">
         <v>4</v>
@@ -3803,54 +4505,87 @@
         <v>3</v>
       </c>
       <c r="V14" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="W14" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="X14" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="Y14" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z14" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA14" t="s">
-        <v>713</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>742</v>
+        <v>724</v>
+      </c>
+      <c r="AB14">
+        <v>8</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>758</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>833</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="E15" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F15" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G15" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="H15" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="I15" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="J15">
         <v>8</v>
@@ -3859,10 +4594,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L15" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="M15" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -3877,54 +4612,87 @@
         <v>3</v>
       </c>
       <c r="V15" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="W15" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="X15" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="Y15" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z15" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA15" t="s">
-        <v>710</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>743</v>
+        <v>721</v>
+      </c>
+      <c r="AB15">
+        <v>8</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>759</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>834</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="E16" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F16" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G16" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="H16" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I16" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -3933,10 +4701,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L16" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="M16" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -3951,54 +4719,87 @@
         <v>3</v>
       </c>
       <c r="V16" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="W16" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="X16" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="Y16" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z16" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA16" t="s">
-        <v>714</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>744</v>
+        <v>725</v>
+      </c>
+      <c r="AB16">
+        <v>6</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>760</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>835</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="E17" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F17" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G17" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="H17" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="I17" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="J17">
         <v>6</v>
@@ -4007,7 +4808,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M17" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4022,48 +4823,81 @@
         <v>2</v>
       </c>
       <c r="V17" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="Y17" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z17" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA17" t="s">
-        <v>712</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>745</v>
+        <v>723</v>
+      </c>
+      <c r="AB17">
+        <v>6</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>761</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>836</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="E18" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F18" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G18" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="H18" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="I18" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="J18">
         <v>6</v>
@@ -4072,10 +4906,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L18" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="M18" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4090,54 +4924,87 @@
         <v>3</v>
       </c>
       <c r="V18" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="W18" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="X18" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="Y18" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z18" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA18" t="s">
-        <v>715</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>746</v>
+        <v>726</v>
+      </c>
+      <c r="AB18">
+        <v>6</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>762</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>837</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="E19" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F19" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G19" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="H19" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="I19" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -4146,10 +5013,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L19" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="M19" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -4164,48 +5031,81 @@
         <v>2</v>
       </c>
       <c r="V19" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="Y19" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z19" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA19" t="s">
-        <v>713</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>747</v>
+        <v>724</v>
+      </c>
+      <c r="AB19">
+        <v>5</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>763</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>838</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="E20" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F20" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G20" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="H20" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="I20" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -4214,10 +5114,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L20" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="M20" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -4232,48 +5132,81 @@
         <v>3</v>
       </c>
       <c r="V20" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="Y20" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z20" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA20" t="s">
-        <v>713</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>748</v>
+        <v>724</v>
+      </c>
+      <c r="AB20">
+        <v>4</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>764</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>839</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="E21" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F21" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G21" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="H21" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="I21" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="J21">
         <v>11</v>
@@ -4282,10 +5215,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L21" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="M21" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4300,54 +5233,87 @@
         <v>3</v>
       </c>
       <c r="V21" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="W21" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="X21" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="Y21" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z21" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA21" t="s">
-        <v>712</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>749</v>
+        <v>723</v>
+      </c>
+      <c r="AB21">
+        <v>11</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>765</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>840</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="E22" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F22" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G22" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="H22" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="I22" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="J22">
         <v>8</v>
@@ -4356,10 +5322,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L22" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="M22" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -4374,54 +5340,87 @@
         <v>3</v>
       </c>
       <c r="V22" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="W22" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="X22" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="Y22" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z22" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA22" t="s">
-        <v>713</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>750</v>
+        <v>724</v>
+      </c>
+      <c r="AB22">
+        <v>8</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>766</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>841</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="E23" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F23" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G23" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="H23" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="I23" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="J23">
         <v>6</v>
@@ -4430,10 +5429,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L23" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="M23" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="N23">
         <v>4</v>
@@ -4448,54 +5447,87 @@
         <v>2</v>
       </c>
       <c r="V23" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="W23" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="X23" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="Y23" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z23" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA23" t="s">
-        <v>709</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>751</v>
+        <v>720</v>
+      </c>
+      <c r="AB23">
+        <v>6</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>767</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>842</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E24" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F24" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G24" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="H24" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="I24" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="J24">
         <v>6</v>
@@ -4504,10 +5536,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L24" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="M24" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="N24">
         <v>4</v>
@@ -4522,48 +5554,81 @@
         <v>3</v>
       </c>
       <c r="V24" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="Y24" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z24" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA24" t="s">
-        <v>715</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>752</v>
+        <v>726</v>
+      </c>
+      <c r="AB24">
+        <v>6</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>768</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>843</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="E25" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F25" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G25" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="H25" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="I25" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="J25">
         <v>5</v>
@@ -4572,10 +5637,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L25" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="M25" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -4590,51 +5655,84 @@
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="W25" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="Y25" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z25" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA25" t="s">
-        <v>714</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>753</v>
+        <v>725</v>
+      </c>
+      <c r="AB25">
+        <v>5</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>769</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>844</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C26" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="E26" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F26" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G26" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="H26" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="I26" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="J26">
         <v>4</v>
@@ -4643,10 +5741,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L26" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="M26" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="N26">
         <v>4</v>
@@ -4661,57 +5759,90 @@
         <v>1</v>
       </c>
       <c r="V26" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="Y26" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z26" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA26" t="s">
-        <v>713</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>754</v>
+        <v>724</v>
+      </c>
+      <c r="AB26">
+        <v>4</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>770</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>845</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E27" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F27" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G27" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H27" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="I27" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="K27">
         <v>9.699999999999999</v>
       </c>
       <c r="L27" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="M27" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="N27">
         <v>3</v>
@@ -4726,57 +5857,90 @@
         <v>2</v>
       </c>
       <c r="V27" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="Y27" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z27" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="AA27" t="s">
-        <v>714</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>755</v>
+        <v>725</v>
+      </c>
+      <c r="AB27">
+        <v>6</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>771</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>846</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E28" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F28" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G28" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H28" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="I28" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="K28">
         <v>9.699999999999999</v>
       </c>
       <c r="L28" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="M28" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -4791,57 +5955,90 @@
         <v>2</v>
       </c>
       <c r="V28" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="Y28" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z28" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="AA28" t="s">
-        <v>714</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>756</v>
+        <v>725</v>
+      </c>
+      <c r="AB28">
+        <v>6</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>772</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>847</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="E29" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F29" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G29" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H29" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="I29" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="K29">
         <v>9.699999999999999</v>
       </c>
       <c r="L29" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="M29" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="N29">
         <v>3</v>
@@ -4856,57 +6053,90 @@
         <v>2</v>
       </c>
       <c r="V29" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="Y29" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="Z29" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA29" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>757</v>
+        <v>381</v>
+      </c>
+      <c r="AB29">
+        <v>6</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>773</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>848</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="E30" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F30" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G30" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H30" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="I30" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="K30">
         <v>9.699999999999999</v>
       </c>
       <c r="L30" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="M30" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="N30">
         <v>3</v>
@@ -4921,57 +6151,90 @@
         <v>2</v>
       </c>
       <c r="V30" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="Y30" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="Z30" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="AA30" t="s">
-        <v>714</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>758</v>
+        <v>725</v>
+      </c>
+      <c r="AB30">
+        <v>6</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>774</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>849</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E31" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F31" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G31" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H31" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="I31" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="K31">
         <v>9.699999999999999</v>
       </c>
       <c r="L31" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="M31" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="R31">
         <v>1</v>
@@ -4986,57 +6249,90 @@
         <v>1</v>
       </c>
       <c r="V31" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="Y31" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z31" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="AA31" t="s">
-        <v>715</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>759</v>
+        <v>726</v>
+      </c>
+      <c r="AB31">
+        <v>11</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>744</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>745</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>745</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>744</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>775</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>850</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E32" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F32" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G32" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H32" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="I32" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="K32">
         <v>9.699999999999999</v>
       </c>
       <c r="L32" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="M32" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="R32">
         <v>3</v>
@@ -5051,63 +6347,96 @@
         <v>3</v>
       </c>
       <c r="V32" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="W32" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="X32" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="Y32" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z32" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA32" t="s">
-        <v>714</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>760</v>
+        <v>725</v>
+      </c>
+      <c r="AB32">
+        <v>8</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>744</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>776</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>851</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="E33" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F33" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G33" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H33" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="I33" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="K33">
         <v>9.699999999999999</v>
       </c>
       <c r="L33" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="M33" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="R33">
         <v>5</v>
@@ -5122,48 +6451,81 @@
         <v>4</v>
       </c>
       <c r="V33" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="Y33" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z33" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA33" t="s">
-        <v>716</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>761</v>
+        <v>727</v>
+      </c>
+      <c r="AB33">
+        <v>6</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>745</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>744</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>744</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>745</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>777</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>852</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="E34" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F34" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G34" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="H34" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I34" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -5172,10 +6534,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="M34" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="N34">
         <v>3</v>
@@ -5190,54 +6552,87 @@
         <v>2</v>
       </c>
       <c r="V34" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="W34" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="X34" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="Y34" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z34" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA34" t="s">
-        <v>714</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>762</v>
+        <v>725</v>
+      </c>
+      <c r="AB34">
+        <v>5</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>778</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>853</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="E35" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F35" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G35" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="H35" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I35" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="J35">
         <v>4</v>
@@ -5246,10 +6641,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L35" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="M35" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="N35">
         <v>3</v>
@@ -5264,54 +6659,87 @@
         <v>2</v>
       </c>
       <c r="V35" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="W35" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="X35" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="Y35" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z35" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA35" t="s">
-        <v>714</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>763</v>
+        <v>725</v>
+      </c>
+      <c r="AB35">
+        <v>4</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>779</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>854</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="E36" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F36" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G36" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="H36" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I36" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -5320,10 +6748,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L36" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="M36" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="N36">
         <v>3</v>
@@ -5338,54 +6766,87 @@
         <v>3</v>
       </c>
       <c r="V36" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="W36" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="X36" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="Y36" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z36" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA36" t="s">
-        <v>714</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>764</v>
+        <v>725</v>
+      </c>
+      <c r="AB36">
+        <v>4</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>780</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>855</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="E37" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F37" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G37" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="H37" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I37" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="J37">
         <v>4</v>
@@ -5394,10 +6855,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L37" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="M37" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="N37">
         <v>3</v>
@@ -5412,48 +6873,81 @@
         <v>2</v>
       </c>
       <c r="V37" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="Y37" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z37" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="AA37" t="s">
-        <v>714</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>765</v>
+        <v>725</v>
+      </c>
+      <c r="AB37">
+        <v>4</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>781</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>856</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="E38" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F38" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G38" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="H38" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="I38" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="J38">
         <v>9</v>
@@ -5462,10 +6956,10 @@
         <v>12.6</v>
       </c>
       <c r="L38" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="M38" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -5480,54 +6974,87 @@
         <v>3</v>
       </c>
       <c r="V38" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="W38" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="X38" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="Y38" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="Z38" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA38" t="s">
-        <v>717</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>766</v>
+        <v>728</v>
+      </c>
+      <c r="AB38">
+        <v>9</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>782</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>857</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C39" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="E39" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F39" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G39" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="H39" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="I39" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="J39">
         <v>8</v>
@@ -5536,10 +7063,10 @@
         <v>12.6</v>
       </c>
       <c r="L39" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="M39" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -5554,48 +7081,81 @@
         <v>4</v>
       </c>
       <c r="V39" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="Y39" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z39" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA39" t="s">
-        <v>718</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>767</v>
+        <v>729</v>
+      </c>
+      <c r="AB39">
+        <v>8</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>783</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>858</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C40" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="E40" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F40" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G40" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="H40" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="I40" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="J40">
         <v>7</v>
@@ -5604,10 +7164,10 @@
         <v>12.6</v>
       </c>
       <c r="L40" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="M40" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -5622,48 +7182,81 @@
         <v>4</v>
       </c>
       <c r="V40" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="Y40" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z40" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA40" t="s">
-        <v>718</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>768</v>
+        <v>729</v>
+      </c>
+      <c r="AB40">
+        <v>7</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>784</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>859</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="E41" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G41" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="H41" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="I41" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="J41">
         <v>7</v>
@@ -5672,10 +7265,10 @@
         <v>13.7</v>
       </c>
       <c r="L41" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="M41" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -5690,54 +7283,87 @@
         <v>2</v>
       </c>
       <c r="V41" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="W41" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="X41" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="Y41" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z41" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA41" t="s">
-        <v>718</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>769</v>
+        <v>729</v>
+      </c>
+      <c r="AB41">
+        <v>7</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>785</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>860</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C42" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="E42" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F42" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G42" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="H42" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="I42" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="J42">
         <v>6</v>
@@ -5746,10 +7372,10 @@
         <v>12.6</v>
       </c>
       <c r="L42" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="M42" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -5764,54 +7390,87 @@
         <v>3</v>
       </c>
       <c r="V42" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="W42" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="X42" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="Y42" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z42" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA42" t="s">
-        <v>718</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>770</v>
+        <v>729</v>
+      </c>
+      <c r="AB42">
+        <v>6</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>786</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>861</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="E43" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F43" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G43" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="H43" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="I43" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="J43">
         <v>6</v>
@@ -5820,10 +7479,10 @@
         <v>12.6</v>
       </c>
       <c r="L43" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="M43" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -5838,45 +7497,78 @@
         <v>3</v>
       </c>
       <c r="Y43" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z43" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="AA43" t="s">
-        <v>718</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>771</v>
+        <v>729</v>
+      </c>
+      <c r="AB43">
+        <v>6</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>787</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>862</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C44" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="E44" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F44" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G44" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="H44" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="I44" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -5885,10 +7577,10 @@
         <v>12.6</v>
       </c>
       <c r="L44" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="M44" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -5903,48 +7595,81 @@
         <v>2</v>
       </c>
       <c r="V44" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="Y44" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z44" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA44" t="s">
-        <v>718</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>772</v>
+        <v>729</v>
+      </c>
+      <c r="AB44">
+        <v>5</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>788</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>863</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="E45" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F45" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G45" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="H45" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="I45" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="J45">
         <v>5</v>
@@ -5953,10 +7678,10 @@
         <v>13.7</v>
       </c>
       <c r="L45" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="M45" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="N45">
         <v>4</v>
@@ -5971,54 +7696,87 @@
         <v>2</v>
       </c>
       <c r="V45" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="W45" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="X45" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="Y45" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z45" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA45" t="s">
-        <v>718</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>773</v>
+        <v>729</v>
+      </c>
+      <c r="AB45">
+        <v>5</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>789</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>864</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="E46" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F46" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G46" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="H46" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="I46" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="J46">
         <v>5</v>
@@ -6027,10 +7785,10 @@
         <v>13.7</v>
       </c>
       <c r="L46" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="M46" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="N46">
         <v>5</v>
@@ -6045,54 +7803,87 @@
         <v>1</v>
       </c>
       <c r="V46" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="W46" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="X46" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="Y46" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z46" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA46" t="s">
-        <v>718</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>774</v>
+        <v>729</v>
+      </c>
+      <c r="AB46">
+        <v>5</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>790</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>865</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="E47" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F47" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G47" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="H47" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="I47" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -6101,10 +7892,10 @@
         <v>12.6</v>
       </c>
       <c r="L47" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="M47" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="N47">
         <v>3</v>
@@ -6119,48 +7910,81 @@
         <v>1</v>
       </c>
       <c r="V47" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="Y47" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z47" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA47" t="s">
-        <v>718</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>775</v>
+        <v>729</v>
+      </c>
+      <c r="AB47">
+        <v>2</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>791</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>866</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="E48" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F48" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G48" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="H48" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="I48" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="J48">
         <v>7</v>
@@ -6169,10 +7993,10 @@
         <v>10.5</v>
       </c>
       <c r="L48" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="M48" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -6187,54 +8011,87 @@
         <v>3</v>
       </c>
       <c r="V48" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="W48" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="X48" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="Y48" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="Z48" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="AA48" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>776</v>
+        <v>730</v>
+      </c>
+      <c r="AB48">
+        <v>7</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>792</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>867</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="E49" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F49" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G49" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="H49" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="I49" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -6243,10 +8100,10 @@
         <v>10.5</v>
       </c>
       <c r="L49" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="M49" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -6261,119 +8118,185 @@
         <v>2</v>
       </c>
       <c r="V49" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="W49" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="Y49" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="Z49" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="AA49" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>777</v>
+        <v>730</v>
+      </c>
+      <c r="AB49">
+        <v>4</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>793</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>868</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C50" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="E50" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F50" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G50" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="H50" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="I50" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="K50">
         <v>10.85</v>
       </c>
       <c r="L50" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="M50" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="V50" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="W50" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="X50" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="Y50" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="Z50" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="AA50" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>778</v>
+        <v>730</v>
+      </c>
+      <c r="AB50">
+        <v>5</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>794</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>869</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="E51" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F51" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G51" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="H51" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="I51" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="K51">
         <v>11.2</v>
       </c>
       <c r="L51" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="M51" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -6388,57 +8311,90 @@
         <v>3</v>
       </c>
       <c r="V51" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="Y51" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="Z51" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA51" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>779</v>
+        <v>730</v>
+      </c>
+      <c r="AB51">
+        <v>7</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>795</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>870</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="E52" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F52" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G52" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="H52" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="I52" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="K52">
         <v>11.2</v>
       </c>
       <c r="L52" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -6453,48 +8409,81 @@
         <v>1</v>
       </c>
       <c r="V52" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="Y52" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="Z52" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA52" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>780</v>
+        <v>730</v>
+      </c>
+      <c r="AB52">
+        <v>5</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>796</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>871</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="E53" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F53" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G53" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="H53" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="I53" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="J53">
         <v>8</v>
@@ -6503,10 +8492,10 @@
         <v>11</v>
       </c>
       <c r="L53" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="M53" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -6521,54 +8510,87 @@
         <v>4</v>
       </c>
       <c r="V53" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="W53" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="X53" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="Y53" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z53" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA53" t="s">
-        <v>720</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>781</v>
+        <v>731</v>
+      </c>
+      <c r="AB53">
+        <v>8</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>797</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>872</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="E54" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F54" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G54" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="H54" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="I54" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="J54">
         <v>8</v>
@@ -6577,10 +8599,10 @@
         <v>11</v>
       </c>
       <c r="L54" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="M54" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -6595,54 +8617,87 @@
         <v>4</v>
       </c>
       <c r="V54" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="W54" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="X54" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="Y54" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z54" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="AA54" t="s">
-        <v>720</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>782</v>
+        <v>731</v>
+      </c>
+      <c r="AB54">
+        <v>8</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>798</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>873</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E55" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F55" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G55" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="H55" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="I55" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="J55">
         <v>7</v>
@@ -6651,10 +8706,10 @@
         <v>12.1</v>
       </c>
       <c r="L55" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="M55" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -6669,54 +8724,87 @@
         <v>3</v>
       </c>
       <c r="V55" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="W55" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="X55" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="Y55" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z55" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA55" t="s">
-        <v>721</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>783</v>
+        <v>732</v>
+      </c>
+      <c r="AB55">
+        <v>7</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>799</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>874</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="E56" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F56" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G56" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="H56" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="I56" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="J56">
         <v>6</v>
@@ -6725,10 +8813,10 @@
         <v>11</v>
       </c>
       <c r="L56" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="M56" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="N56">
         <v>3</v>
@@ -6743,45 +8831,78 @@
         <v>3</v>
       </c>
       <c r="Y56" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z56" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA56" t="s">
-        <v>720</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>784</v>
+        <v>731</v>
+      </c>
+      <c r="AB56">
+        <v>6</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>800</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>875</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="E57" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F57" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G57" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="H57" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="I57" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="J57">
         <v>4</v>
@@ -6790,10 +8911,10 @@
         <v>11</v>
       </c>
       <c r="L57" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="M57" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="N57">
         <v>3</v>
@@ -6808,48 +8929,81 @@
         <v>4</v>
       </c>
       <c r="V57" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="Y57" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z57" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA57" t="s">
-        <v>720</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>785</v>
+        <v>731</v>
+      </c>
+      <c r="AB57">
+        <v>4</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>876</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="E58" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F58" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G58" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="H58" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="I58" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="J58">
         <v>4</v>
@@ -6858,10 +9012,10 @@
         <v>12.1</v>
       </c>
       <c r="L58" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="M58" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="N58">
         <v>3</v>
@@ -6876,48 +9030,81 @@
         <v>1</v>
       </c>
       <c r="V58" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="Y58" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z58" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA58" t="s">
-        <v>722</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>786</v>
+        <v>733</v>
+      </c>
+      <c r="AB58">
+        <v>4</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>802</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>877</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="E59" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F59" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G59" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H59" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I59" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="J59">
         <v>11</v>
@@ -6926,10 +9113,10 @@
         <v>9.9</v>
       </c>
       <c r="L59" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="M59" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -6944,48 +9131,81 @@
         <v>1</v>
       </c>
       <c r="V59" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Y59" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z59" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA59" t="s">
-        <v>723</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>787</v>
+        <v>734</v>
+      </c>
+      <c r="AB59">
+        <v>11</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>803</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>878</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="E60" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F60" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G60" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H60" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I60" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="J60">
         <v>11</v>
@@ -6994,10 +9214,10 @@
         <v>9.9</v>
       </c>
       <c r="L60" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="M60" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -7012,54 +9232,87 @@
         <v>4</v>
       </c>
       <c r="V60" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="W60" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="X60" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="Y60" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z60" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA60" t="s">
-        <v>723</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>788</v>
+        <v>734</v>
+      </c>
+      <c r="AB60">
+        <v>11</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>745</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>804</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>879</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C61" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="E61" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F61" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G61" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H61" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I61" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="J61">
         <v>9</v>
@@ -7068,10 +9321,10 @@
         <v>9.9</v>
       </c>
       <c r="L61" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="M61" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -7086,48 +9339,81 @@
         <v>3</v>
       </c>
       <c r="V61" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="Y61" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z61" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA61" t="s">
-        <v>724</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>789</v>
+        <v>735</v>
+      </c>
+      <c r="AB61">
+        <v>9</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>805</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>880</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="E62" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F62" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G62" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H62" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I62" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="J62">
         <v>9</v>
@@ -7136,10 +9422,10 @@
         <v>9.9</v>
       </c>
       <c r="L62" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="M62" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -7154,54 +9440,87 @@
         <v>3</v>
       </c>
       <c r="V62" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="W62" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="X62" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="Y62" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z62" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA62" t="s">
-        <v>724</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>790</v>
+        <v>735</v>
+      </c>
+      <c r="AB62">
+        <v>9</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>806</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>881</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C63" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="E63" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F63" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G63" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H63" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I63" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="J63">
         <v>6</v>
@@ -7210,10 +9529,10 @@
         <v>10.8</v>
       </c>
       <c r="L63" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="M63" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="N63">
         <v>4</v>
@@ -7228,48 +9547,81 @@
         <v>3</v>
       </c>
       <c r="V63" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="Y63" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z63" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA63" t="s">
-        <v>724</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>791</v>
+        <v>735</v>
+      </c>
+      <c r="AB63">
+        <v>6</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>807</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>882</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C64" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="E64" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F64" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G64" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H64" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I64" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="J64">
         <v>6</v>
@@ -7278,10 +9630,10 @@
         <v>9.9</v>
       </c>
       <c r="L64" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="M64" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -7296,48 +9648,81 @@
         <v>2</v>
       </c>
       <c r="V64" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="Y64" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z64" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA64" t="s">
-        <v>725</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>792</v>
+        <v>736</v>
+      </c>
+      <c r="AB64">
+        <v>6</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>808</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>883</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C65" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="E65" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F65" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G65" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H65" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I65" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="J65">
         <v>5</v>
@@ -7346,10 +9731,10 @@
         <v>9.9</v>
       </c>
       <c r="L65" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="M65" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="N65">
         <v>3</v>
@@ -7364,48 +9749,81 @@
         <v>2</v>
       </c>
       <c r="V65" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="Y65" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z65" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA65" t="s">
-        <v>725</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>793</v>
+        <v>736</v>
+      </c>
+      <c r="AB65">
+        <v>5</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>809</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>884</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C66" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="E66" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F66" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G66" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H66" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="I66" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -7414,10 +9832,10 @@
         <v>9.9</v>
       </c>
       <c r="L66" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="M66" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="N66">
         <v>2</v>
@@ -7432,54 +9850,87 @@
         <v>2</v>
       </c>
       <c r="V66" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="W66" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="X66" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="Y66" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z66" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA66" t="s">
-        <v>726</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>794</v>
+        <v>737</v>
+      </c>
+      <c r="AB66">
+        <v>4</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>810</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>885</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C67" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="E67" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F67" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G67" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H67" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="I67" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="J67">
         <v>11</v>
@@ -7488,10 +9939,10 @@
         <v>11</v>
       </c>
       <c r="L67" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="M67" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -7506,54 +9957,87 @@
         <v>3</v>
       </c>
       <c r="V67" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="W67" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="X67" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="Y67" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z67" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA67" t="s">
-        <v>727</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>795</v>
+        <v>738</v>
+      </c>
+      <c r="AB67">
+        <v>11</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK67" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>811</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>886</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C68" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="E68" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F68" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G68" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H68" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="I68" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="J68">
         <v>8</v>
@@ -7562,10 +10046,10 @@
         <v>11</v>
       </c>
       <c r="L68" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="M68" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -7580,54 +10064,87 @@
         <v>2</v>
       </c>
       <c r="V68" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="W68" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="X68" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="Y68" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z68" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA68" t="s">
-        <v>727</v>
-      </c>
-      <c r="AB68" t="s">
-        <v>796</v>
+        <v>738</v>
+      </c>
+      <c r="AB68">
+        <v>8</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>812</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>887</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C69" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="E69" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F69" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G69" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H69" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="I69" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -7636,10 +10153,10 @@
         <v>11</v>
       </c>
       <c r="L69" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="M69" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="N69">
         <v>2</v>
@@ -7654,63 +10171,96 @@
         <v>5</v>
       </c>
       <c r="V69" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="W69" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="X69" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="Y69" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z69" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA69" t="s">
-        <v>722</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>797</v>
+        <v>733</v>
+      </c>
+      <c r="AB69">
+        <v>5</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>813</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>888</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C70" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E70" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F70" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G70" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H70" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="I70" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="K70">
         <v>12.6</v>
       </c>
       <c r="L70" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="M70" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -7725,63 +10275,96 @@
         <v>0</v>
       </c>
       <c r="V70" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="W70" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="X70" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="Y70" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="Z70" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AA70" t="s">
-        <v>718</v>
-      </c>
-      <c r="AB70" t="s">
-        <v>798</v>
+        <v>729</v>
+      </c>
+      <c r="AB70">
+        <v>5</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>814</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>889</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="E71" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F71" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G71" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H71" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="I71" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="K71">
         <v>12.6</v>
       </c>
       <c r="L71" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="M71" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -7796,57 +10379,90 @@
         <v>2</v>
       </c>
       <c r="V71" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="Y71" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="Z71" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="AA71" t="s">
-        <v>718</v>
-      </c>
-      <c r="AB71" t="s">
-        <v>799</v>
+        <v>729</v>
+      </c>
+      <c r="AB71">
+        <v>5</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>815</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>890</v>
       </c>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C72" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="E72" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F72" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G72" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H72" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="I72" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="K72">
         <v>12.6</v>
       </c>
       <c r="L72" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="M72" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -7861,57 +10477,90 @@
         <v>2</v>
       </c>
       <c r="V72" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="Y72" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="Z72" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="AA72" t="s">
-        <v>718</v>
-      </c>
-      <c r="AB72" t="s">
-        <v>800</v>
+        <v>729</v>
+      </c>
+      <c r="AB72">
+        <v>5</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>816</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>891</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C73" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="E73" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F73" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G73" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H73" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="I73" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="K73">
         <v>12.6</v>
       </c>
       <c r="L73" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="M73" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -7926,57 +10575,90 @@
         <v>2</v>
       </c>
       <c r="V73" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="Y73" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="Z73" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="AA73" t="s">
-        <v>718</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>801</v>
+        <v>729</v>
+      </c>
+      <c r="AB73">
+        <v>5</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>817</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>892</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C74" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="E74" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F74" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G74" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H74" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="I74" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="K74">
         <v>9.9</v>
       </c>
       <c r="L74" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="M74" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -7991,63 +10673,96 @@
         <v>3</v>
       </c>
       <c r="V74" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="W74" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="X74" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="Y74" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z74" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="AA74" t="s">
-        <v>728</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>802</v>
+        <v>739</v>
+      </c>
+      <c r="AB74">
+        <v>7</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>818</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>893</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B75" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C75" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E75" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F75" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G75" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H75" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="I75" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="K75">
         <v>11</v>
       </c>
       <c r="L75" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="M75" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -8062,63 +10777,96 @@
         <v>3</v>
       </c>
       <c r="V75" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="W75" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="X75" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="Y75" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z75" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="AA75" t="s">
-        <v>729</v>
-      </c>
-      <c r="AB75" t="s">
-        <v>803</v>
+        <v>740</v>
+      </c>
+      <c r="AB75">
+        <v>6</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>744</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>819</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>894</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C76" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="E76" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F76" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G76" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H76" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="I76" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="K76">
         <v>12.6</v>
       </c>
       <c r="L76" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="M76" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="R76">
         <v>2</v>
@@ -8133,25 +10881,58 @@
         <v>3</v>
       </c>
       <c r="V76" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="W76" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="X76" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="Y76" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="Z76" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="AA76" t="s">
-        <v>718</v>
-      </c>
-      <c r="AB76" t="s">
-        <v>804</v>
+        <v>729</v>
+      </c>
+      <c r="AB76">
+        <v>7</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>742</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>742</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>744</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>820</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>895</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="1081">
   <si>
     <t>ID</t>
   </si>
@@ -367,6 +367,12 @@
     <t>VL39</t>
   </si>
   <si>
+    <t>VL40</t>
+  </si>
+  <si>
+    <t>VL41</t>
+  </si>
+  <si>
     <t>Ispirazione Napoli</t>
   </si>
   <si>
@@ -586,6 +592,12 @@
     <t>Bianco Forte</t>
   </si>
   <si>
+    <t>Ice Forte</t>
+  </si>
+  <si>
+    <t>Ice Leggero</t>
+  </si>
+  <si>
     <t>Images/OL1_Ispirazione Napoli_Original_Capsule.png</t>
   </si>
   <si>
@@ -811,6 +823,12 @@
     <t>Images/VL39_Bianco Forte_Vertuo_Capsule.png</t>
   </si>
   <si>
+    <t>Images/VL40_Ice Forte_Vertuo_Capsule.png</t>
+  </si>
+  <si>
+    <t>Images/VL41_Ice Leggero_Vertuo_Capsule.png</t>
+  </si>
+  <si>
     <t>Images/OL1_Ispirazione Napoli_Original_Sleeve.png</t>
   </si>
   <si>
@@ -1036,6 +1054,12 @@
     <t>Images/VL39_Bianco Forte_Vertuo_Sleeve.png</t>
   </si>
   <si>
+    <t>Images/VL40_Ice Forte_Vertuo_Sleeve.png</t>
+  </si>
+  <si>
+    <t>Images/VL41_Ice Leggero_Vertuo_Sleeve.png</t>
+  </si>
+  <si>
     <t>Original</t>
   </si>
   <si>
@@ -1120,6 +1144,9 @@
     <t>80 ml (Double Espresso) &amp; Milk Recipes</t>
   </si>
   <si>
+    <t>230 ml (Coffee) &amp; Iced Recipe</t>
+  </si>
+  <si>
     <t>Dark &amp; Creamy</t>
   </si>
   <si>
@@ -1313,6 +1340,12 @@
   </si>
   <si>
     <t>Sweet &amp; Milky</t>
+  </si>
+  <si>
+    <t>For intense recipes with ice</t>
+  </si>
+  <si>
+    <t>For mild recipes with ice</t>
   </si>
   <si>
     <t>Intense &amp; Roasted</t>
@@ -1685,6 +1718,12 @@
     <t>A full-bodied, intense and dark-roasted coffee, rich in cereal notes. Especially crafted for your recipes, it remains powerful in combination with milk.</t>
   </si>
   <si>
+    <t>Barista Creations Ice Forte carries that distinct roasted character that’ll truly awaken your senses. Cereal, woody and peppery notes lace through the cup to deliver a rich iced coffee experience.</t>
+  </si>
+  <si>
+    <t>Chill out with the light and thirst-quenching fruitiness of this refreshing iced coffee experience, paired with a rounded cereal note.</t>
+  </si>
+  <si>
     <t>Ispirazione Napoli pays tribute to the short, strong and dark espressos of this southern Italian coastal city. It’s a velvety, creamy cup with an extremely thick body and a kiss of pleasant bitterness in its aftertaste.</t>
   </si>
   <si>
@@ -1901,6 +1940,12 @@
     <t>A long cup coffee, big in powerful roasted notes. Add a generous dash of milk and you’ll find its sweetness sits in a dynamic balance with this carefully crafted blend of fine Colombian and Kenyan Arabicas. We give the beans a dark split roast to highlight the coffees' rich roasted and cereal notes.</t>
   </si>
   <si>
+    <t>Why we love it: Enjoy the intense taste of Barista Creations ICE FORTE in a refreshing coffee over ice. South American Arabicas mix with the Indonesian and Ethiopian Arabicas to offer an impactful aromatic experience. Dark roasted and ground specifically for a delicious coffee over ice. Best served as: 1 coffee capsule (230 ml) over a cup full of ice cubes (230 g). To prolong the pleasure, top it up with cold water or cold milk (180 ml).</t>
+  </si>
+  <si>
+    <t>Why we love it: Enjoy the delicate fruity and cereal notes of Barista Creations Ice Leggero. The elegant flavours of the Ethiopian Arabica in this blend refresh you like the most gentle summer breeze when you pour it over ice. We roast it lightly and grind it specifically to deliver that cool, delicate taste to your palate. Best served as: 1 coffee capsule (80 ml) over a cup full of ice cubes (180 g). To prolong the pleasure, top it up with cold water or cold milk (180 ml).</t>
+  </si>
+  <si>
     <t>This intense blend is created mostly using Robustas from Uganda and India, combined with Arabicas for an intense coffee with a cocoa touch.</t>
   </si>
   <si>
@@ -2015,6 +2060,12 @@
     <t>This 100% Arabica blend combines coffees from Kenya, Colombia and Costa Rica.</t>
   </si>
   <si>
+    <t>This 100% Arabica blend is made mostly with a combination of Colombian, Indonesian and Ethiopian beans.</t>
+  </si>
+  <si>
+    <t>This 100% Arabica blend gets its coffee mostly from Ethiopia and Indonesia.</t>
+  </si>
+  <si>
     <t>A dark and intense roast, done with carefully selected beans that can withstand the process and develop delicious bitter notes without completely burning away.</t>
   </si>
   <si>
@@ -2126,6 +2177,12 @@
     <t>One part of the blend gets a long and dark roast, while the second part is roasted a little faster and to a slightly lighter degree.</t>
   </si>
   <si>
+    <t>Part of this blend gets a medium roast to keep the flavour complexity intact. The other part gets a longer and darker roast to delivers intensity and a bold body.</t>
+  </si>
+  <si>
+    <t>The first part of this blend gets a light and short roast to enhance the floral notes typical of Ethiopian Arabica. The second gets a medium roast to bring balance and roundness to the cup.</t>
+  </si>
+  <si>
     <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
   </si>
   <si>
@@ -2504,6 +2561,12 @@
     <t>Charts/VL39_Bianco Forte_Vertuo_Taste Profile.png</t>
   </si>
   <si>
+    <t>Charts/VL40_Ice Forte_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
+    <t>Charts/VL41_Ice Leggero_Vertuo_Taste Profile.png</t>
+  </si>
+  <si>
     <t>original current italian espressos ml ristretto ml espresso dark creamy 130 87 intense roasted velvety creamy cup extremely thick body pleasantly bitter cocoa notes 10 50 50 50 ispirazione napoli pays tribute short strong dark espressos southern italian coastal city velvety creamy cup extremely thick body kiss pleasant bitterness aftertaste intense blend created mostly using robustas uganda india combined arabicas intense coffee cocoa touch dark intense roast done carefully selected beans withstand process develop delicious bitter notes without completely burning away capsules roast ground coffee nespresso system roast ground coffee g 201 oz capsules ispirazione napoli 130 dark low high high high</t>
   </si>
   <si>
@@ -2729,6 +2792,12 @@
     <t>vertuo current barista creations ml coffee cappucino latte macchiato intense fullbodied 126 balanced intense fullbodied intense darkroasted coffee rich cereal notes especially crafted recipes remains powerful combination milk 20 30 30 30 long cup coffee big powerful roasted notes add generous dash milk find sweetness sits dynamic balance carefully crafted blend fine colombian kenyan arabicas give beans dark split roast highlight coffees rich roasted cereal notes arabica blend combines coffees kenya colombia costa rica one part blend gets long dark roast second part roasted little fast slightly light degree capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules bianco forte 70 medium low medium medium medium</t>
   </si>
   <si>
+    <t>vertuo current barista creations ml coffee iced recipe intense recipes ice 135 roasted peppery note barista creations ice forte carries distinct roasted character truly awaken senses cereal woody peppery notes lace cup deliver rich iced coffee experience love enjoy intense taste barista creations ice forte refreshing coffee ice south american arabicas mix indonesian ethiopian arabicas offer impactful aromatic experience dark roasted ground specifically delicious coffee ice best served coffee capsule ml cup full ice cubes g prolong pleasure top cold water cold milk ml arabica blend made mostly combination colombian indonesian ethiopian beans part blend gets medium roast keep flavour complexity intact part gets long dark roast delivers intensity bold body capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules ice forte 50 medium</t>
+  </si>
+  <si>
+    <t>vertuo current barista creations ml double espresso mild recipes ice 115 cereal chill light thirstquenching fruitiness refreshing iced coffee experience paired rounded cereal note love enjoy delicate fruity cereal notes barista creations ice leggero elegant flavours ethiopian arabica blend refresh like gentle summer breeze pour ice roast lightly grind specifically deliver cool delicate taste palate best served coffee capsule ml cup full ice cubes g prolong pleasure top cold water cold milk ml arabica blend gets coffee mostly ethiopia indonesia first part blend gets light short roast enhance floral notes typical ethiopian arabica second gets medium roast bring balance roundness cup capsules flavoured roast ground coffee nespresso system roast ground coffee g 352 oz capsules ice leggero 50 medium</t>
+  </si>
+  <si>
     <t>Charts/OL1_Ispirazione Napoli_Original_Word Cloud.png</t>
   </si>
   <si>
@@ -2954,6 +3023,12 @@
     <t>Charts/VL39_Bianco Forte_Vertuo_Word Cloud.png</t>
   </si>
   <si>
+    <t>Charts/VL40_Ice Forte_Vertuo_Word Cloud.png</t>
+  </si>
+  <si>
+    <t>Charts/VL41_Ice Leggero_Vertuo_Word Cloud.png</t>
+  </si>
+  <si>
     <t>Charts/OL1_Ispirazione Napoli_Original Feature Results.png</t>
   </si>
   <si>
@@ -3177,6 +3252,12 @@
   </si>
   <si>
     <t>Charts/VL39_Bianco Forte_Vertuo Feature Results.png</t>
+  </si>
+  <si>
+    <t>Charts/VL40_Ice Forte_Vertuo Feature Results.png</t>
+  </si>
+  <si>
+    <t>Charts/VL41_Ice Leggero_Vertuo Feature Results.png</t>
   </si>
 </sst>
 </file>
@@ -3534,7 +3615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP76"/>
+  <dimension ref="A1:AP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3673,28 +3754,28 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I2" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="J2">
         <v>13</v>
@@ -3703,10 +3784,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L2" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="M2" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -3721,55 +3802,55 @@
         <v>5</v>
       </c>
       <c r="V2" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="W2" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="X2" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="Y2" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z2" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA2" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="AB2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AC2">
         <v>13</v>
       </c>
       <c r="AD2" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE2" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF2" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG2" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH2" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AM2" t="s">
-        <v>754</v>
+        <v>773</v>
       </c>
       <c r="AN2" t="s">
-        <v>829</v>
+        <v>850</v>
       </c>
       <c r="AO2" t="s">
-        <v>904</v>
+        <v>927</v>
       </c>
       <c r="AP2" t="s">
-        <v>979</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -3777,28 +3858,28 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E3" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F3" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G3" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H3" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I3" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="J3">
         <v>12</v>
@@ -3807,10 +3888,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L3" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="M3" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3825,49 +3906,49 @@
         <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="Y3" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z3" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA3" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
       <c r="AB3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC3">
         <v>12</v>
       </c>
       <c r="AD3" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE3" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF3" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG3" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH3" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AM3" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="AN3" t="s">
-        <v>830</v>
+        <v>851</v>
       </c>
       <c r="AO3" t="s">
-        <v>905</v>
+        <v>928</v>
       </c>
       <c r="AP3" t="s">
-        <v>980</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -3875,28 +3956,28 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E4" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F4" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G4" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H4" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I4" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -3905,10 +3986,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L4" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="M4" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -3923,55 +4004,55 @@
         <v>4</v>
       </c>
       <c r="V4" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="W4" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="X4" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="Y4" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z4" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA4" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="AB4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AC4">
         <v>10</v>
       </c>
       <c r="AD4" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE4" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AF4" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG4" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH4" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AM4" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="AN4" t="s">
-        <v>831</v>
+        <v>852</v>
       </c>
       <c r="AO4" t="s">
-        <v>906</v>
+        <v>929</v>
       </c>
       <c r="AP4" t="s">
-        <v>981</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -3979,28 +4060,28 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E5" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F5" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G5" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H5" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I5" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -4009,10 +4090,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L5" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="M5" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -4027,49 +4108,49 @@
         <v>4</v>
       </c>
       <c r="V5" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="Y5" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z5" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
       <c r="AA5" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="AB5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AC5">
         <v>10</v>
       </c>
       <c r="AD5" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE5" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AF5" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG5" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH5" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AM5" t="s">
-        <v>757</v>
+        <v>776</v>
       </c>
       <c r="AN5" t="s">
-        <v>832</v>
+        <v>853</v>
       </c>
       <c r="AO5" t="s">
-        <v>907</v>
+        <v>930</v>
       </c>
       <c r="AP5" t="s">
-        <v>982</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -4077,28 +4158,28 @@
         <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E6" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F6" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G6" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H6" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I6" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="J6">
         <v>9</v>
@@ -4107,10 +4188,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L6" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="M6" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -4125,55 +4206,55 @@
         <v>4</v>
       </c>
       <c r="V6" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="W6" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="X6" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="Y6" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z6" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA6" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="AB6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AC6">
         <v>9</v>
       </c>
       <c r="AD6" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE6" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF6" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG6" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH6" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AM6" t="s">
-        <v>758</v>
+        <v>777</v>
       </c>
       <c r="AN6" t="s">
-        <v>833</v>
+        <v>854</v>
       </c>
       <c r="AO6" t="s">
-        <v>908</v>
+        <v>931</v>
       </c>
       <c r="AP6" t="s">
-        <v>983</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -4181,28 +4262,28 @@
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="J7">
         <v>9</v>
@@ -4211,10 +4292,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="M7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -4229,55 +4310,55 @@
         <v>4</v>
       </c>
       <c r="V7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="W7" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="X7" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="Y7" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z7" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
       <c r="AA7" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="AB7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AC7">
         <v>9</v>
       </c>
       <c r="AD7" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE7" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF7" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG7" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH7" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AM7" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="AN7" t="s">
-        <v>834</v>
+        <v>855</v>
       </c>
       <c r="AO7" t="s">
-        <v>909</v>
+        <v>932</v>
       </c>
       <c r="AP7" t="s">
-        <v>984</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -4285,28 +4366,28 @@
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E8" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F8" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G8" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H8" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I8" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="J8">
         <v>8</v>
@@ -4315,10 +4396,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L8" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M8" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -4333,55 +4414,55 @@
         <v>4</v>
       </c>
       <c r="V8" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="W8" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="X8" t="s">
-        <v>670</v>
+        <v>687</v>
       </c>
       <c r="Y8" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z8" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA8" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="AB8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC8">
         <v>8</v>
       </c>
       <c r="AD8" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE8" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF8" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG8" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH8" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AM8" t="s">
-        <v>760</v>
+        <v>779</v>
       </c>
       <c r="AN8" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="AO8" t="s">
-        <v>910</v>
+        <v>933</v>
       </c>
       <c r="AP8" t="s">
-        <v>985</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -4389,28 +4470,28 @@
         <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E9" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F9" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G9" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H9" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I9" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -4419,10 +4500,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L9" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="M9" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="N9">
         <v>4</v>
@@ -4437,49 +4518,49 @@
         <v>3</v>
       </c>
       <c r="V9" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="Y9" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z9" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA9" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="AB9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC9">
         <v>8</v>
       </c>
       <c r="AD9" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE9" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AF9" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG9" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH9" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM9" t="s">
-        <v>761</v>
+        <v>780</v>
       </c>
       <c r="AN9" t="s">
-        <v>836</v>
+        <v>857</v>
       </c>
       <c r="AO9" t="s">
-        <v>911</v>
+        <v>934</v>
       </c>
       <c r="AP9" t="s">
-        <v>986</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -4487,28 +4568,28 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E10" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F10" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G10" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H10" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I10" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -4517,10 +4598,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L10" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="M10" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -4535,55 +4616,55 @@
         <v>3</v>
       </c>
       <c r="V10" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="W10" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="X10" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="Y10" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z10" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA10" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="AB10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC10">
         <v>6</v>
       </c>
       <c r="AD10" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE10" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AF10" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG10" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH10" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM10" t="s">
-        <v>762</v>
+        <v>781</v>
       </c>
       <c r="AN10" t="s">
-        <v>837</v>
+        <v>858</v>
       </c>
       <c r="AO10" t="s">
-        <v>912</v>
+        <v>935</v>
       </c>
       <c r="AP10" t="s">
-        <v>987</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -4591,28 +4672,28 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E11" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F11" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G11" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H11" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="I11" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -4621,10 +4702,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L11" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="M11" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -4639,49 +4720,49 @@
         <v>4</v>
       </c>
       <c r="V11" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="Y11" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z11" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA11" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="AB11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AC11">
         <v>10</v>
       </c>
       <c r="AD11" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE11" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF11" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG11" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH11" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AM11" t="s">
-        <v>763</v>
+        <v>782</v>
       </c>
       <c r="AN11" t="s">
-        <v>838</v>
+        <v>859</v>
       </c>
       <c r="AO11" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="AP11" t="s">
-        <v>988</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -4689,28 +4770,28 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E12" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F12" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G12" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H12" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I12" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -4719,10 +4800,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L12" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="M12" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -4737,49 +4818,49 @@
         <v>4</v>
       </c>
       <c r="V12" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="Y12" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z12" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA12" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="AB12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AC12">
         <v>9</v>
       </c>
       <c r="AD12" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE12" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF12" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG12" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH12" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AM12" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
       <c r="AN12" t="s">
-        <v>839</v>
+        <v>860</v>
       </c>
       <c r="AO12" t="s">
-        <v>914</v>
+        <v>937</v>
       </c>
       <c r="AP12" t="s">
-        <v>989</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="13" spans="1:42">
@@ -4787,28 +4868,28 @@
         <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D13" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E13" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F13" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G13" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H13" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I13" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="J13">
         <v>9</v>
@@ -4817,10 +4898,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L13" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="M13" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -4835,55 +4916,55 @@
         <v>4</v>
       </c>
       <c r="V13" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="W13" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="X13" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="Y13" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z13" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA13" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="AB13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC13">
         <v>9</v>
       </c>
       <c r="AD13" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE13" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF13" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG13" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH13" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AM13" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="AN13" t="s">
-        <v>840</v>
+        <v>861</v>
       </c>
       <c r="AO13" t="s">
-        <v>915</v>
+        <v>938</v>
       </c>
       <c r="AP13" t="s">
-        <v>990</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="14" spans="1:42">
@@ -4891,28 +4972,28 @@
         <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E14" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F14" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G14" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H14" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I14" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="J14">
         <v>8</v>
@@ -4921,10 +5002,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L14" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="M14" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="N14">
         <v>4</v>
@@ -4939,55 +5020,55 @@
         <v>3</v>
       </c>
       <c r="V14" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="W14" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="X14" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="Y14" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z14" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA14" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="AB14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AC14">
         <v>8</v>
       </c>
       <c r="AD14" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE14" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AF14" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG14" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH14" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM14" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
       <c r="AN14" t="s">
-        <v>841</v>
+        <v>862</v>
       </c>
       <c r="AO14" t="s">
-        <v>916</v>
+        <v>939</v>
       </c>
       <c r="AP14" t="s">
-        <v>991</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -4995,28 +5076,28 @@
         <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E15" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F15" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G15" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H15" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="I15" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="J15">
         <v>8</v>
@@ -5025,10 +5106,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L15" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="M15" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -5043,55 +5124,55 @@
         <v>3</v>
       </c>
       <c r="V15" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="W15" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="X15" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="Y15" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z15" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA15" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
       <c r="AB15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC15">
         <v>8</v>
       </c>
       <c r="AD15" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE15" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF15" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG15" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH15" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM15" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="AN15" t="s">
-        <v>842</v>
+        <v>863</v>
       </c>
       <c r="AO15" t="s">
-        <v>917</v>
+        <v>940</v>
       </c>
       <c r="AP15" t="s">
-        <v>992</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="16" spans="1:42">
@@ -5099,28 +5180,28 @@
         <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D16" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E16" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F16" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G16" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H16" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I16" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -5129,10 +5210,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L16" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="M16" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -5147,55 +5228,55 @@
         <v>3</v>
       </c>
       <c r="V16" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="W16" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="X16" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="Y16" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z16" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA16" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="AB16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC16">
         <v>6</v>
       </c>
       <c r="AD16" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE16" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF16" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG16" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH16" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM16" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="AN16" t="s">
-        <v>843</v>
+        <v>864</v>
       </c>
       <c r="AO16" t="s">
-        <v>918</v>
+        <v>941</v>
       </c>
       <c r="AP16" t="s">
-        <v>993</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="17" spans="1:42">
@@ -5203,28 +5284,28 @@
         <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E17" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F17" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G17" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H17" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="I17" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="J17">
         <v>6</v>
@@ -5233,7 +5314,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M17" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -5248,49 +5329,49 @@
         <v>2</v>
       </c>
       <c r="V17" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="Y17" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z17" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA17" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="AB17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AC17">
         <v>6</v>
       </c>
       <c r="AD17" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE17" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF17" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG17" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH17" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM17" t="s">
-        <v>769</v>
+        <v>788</v>
       </c>
       <c r="AN17" t="s">
-        <v>844</v>
+        <v>865</v>
       </c>
       <c r="AO17" t="s">
-        <v>919</v>
+        <v>942</v>
       </c>
       <c r="AP17" t="s">
-        <v>994</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="18" spans="1:42">
@@ -5298,28 +5379,28 @@
         <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D18" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E18" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F18" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G18" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H18" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="I18" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="J18">
         <v>6</v>
@@ -5328,10 +5409,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L18" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="M18" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -5346,55 +5427,55 @@
         <v>3</v>
       </c>
       <c r="V18" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="W18" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="X18" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="Y18" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z18" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA18" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="AB18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC18">
         <v>6</v>
       </c>
       <c r="AD18" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE18" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF18" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG18" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH18" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM18" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="AN18" t="s">
-        <v>845</v>
+        <v>866</v>
       </c>
       <c r="AO18" t="s">
-        <v>920</v>
+        <v>943</v>
       </c>
       <c r="AP18" t="s">
-        <v>995</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="19" spans="1:42">
@@ -5402,28 +5483,28 @@
         <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E19" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F19" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G19" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H19" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="I19" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -5432,10 +5513,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L19" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="M19" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -5450,49 +5531,49 @@
         <v>2</v>
       </c>
       <c r="V19" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="Y19" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z19" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA19" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="AB19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC19">
         <v>5</v>
       </c>
       <c r="AD19" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE19" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF19" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG19" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH19" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM19" t="s">
-        <v>771</v>
+        <v>790</v>
       </c>
       <c r="AN19" t="s">
-        <v>846</v>
+        <v>867</v>
       </c>
       <c r="AO19" t="s">
-        <v>921</v>
+        <v>944</v>
       </c>
       <c r="AP19" t="s">
-        <v>996</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="20" spans="1:42">
@@ -5500,28 +5581,28 @@
         <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E20" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F20" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G20" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H20" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="I20" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -5530,10 +5611,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L20" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="M20" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -5548,49 +5629,49 @@
         <v>3</v>
       </c>
       <c r="V20" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="Y20" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z20" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA20" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="AB20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AC20">
         <v>4</v>
       </c>
       <c r="AD20" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="AE20" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF20" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG20" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH20" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM20" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
       <c r="AN20" t="s">
-        <v>847</v>
+        <v>868</v>
       </c>
       <c r="AO20" t="s">
-        <v>922</v>
+        <v>945</v>
       </c>
       <c r="AP20" t="s">
-        <v>997</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="21" spans="1:42">
@@ -5598,28 +5679,28 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D21" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E21" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F21" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G21" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="H21" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="I21" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="J21">
         <v>11</v>
@@ -5628,10 +5709,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L21" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="M21" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -5646,55 +5727,55 @@
         <v>3</v>
       </c>
       <c r="V21" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="W21" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="X21" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="Y21" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z21" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA21" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="AB21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AC21">
         <v>11</v>
       </c>
       <c r="AD21" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE21" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF21" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG21" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH21" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM21" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="AN21" t="s">
-        <v>848</v>
+        <v>869</v>
       </c>
       <c r="AO21" t="s">
-        <v>923</v>
+        <v>946</v>
       </c>
       <c r="AP21" t="s">
-        <v>998</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="22" spans="1:42">
@@ -5702,28 +5783,28 @@
         <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E22" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F22" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G22" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="H22" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="I22" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="J22">
         <v>8</v>
@@ -5732,10 +5813,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L22" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="M22" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -5750,55 +5831,55 @@
         <v>3</v>
       </c>
       <c r="V22" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="W22" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="X22" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="Y22" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z22" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA22" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="AB22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AC22">
         <v>8</v>
       </c>
       <c r="AD22" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE22" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF22" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG22" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH22" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM22" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="AN22" t="s">
-        <v>849</v>
+        <v>870</v>
       </c>
       <c r="AO22" t="s">
-        <v>924</v>
+        <v>947</v>
       </c>
       <c r="AP22" t="s">
-        <v>999</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="23" spans="1:42">
@@ -5806,28 +5887,28 @@
         <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E23" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F23" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G23" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="H23" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="I23" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="J23">
         <v>6</v>
@@ -5836,10 +5917,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L23" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="M23" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="N23">
         <v>4</v>
@@ -5854,55 +5935,55 @@
         <v>2</v>
       </c>
       <c r="V23" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="W23" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="X23" t="s">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="Y23" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z23" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA23" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="AB23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AC23">
         <v>6</v>
       </c>
       <c r="AD23" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE23" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AF23" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG23" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH23" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM23" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
       <c r="AN23" t="s">
-        <v>850</v>
+        <v>871</v>
       </c>
       <c r="AO23" t="s">
-        <v>925</v>
+        <v>948</v>
       </c>
       <c r="AP23" t="s">
-        <v>1000</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="24" spans="1:42">
@@ -5910,28 +5991,28 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E24" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F24" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G24" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="H24" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="I24" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="J24">
         <v>6</v>
@@ -5940,10 +6021,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L24" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="M24" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="N24">
         <v>4</v>
@@ -5958,49 +6039,49 @@
         <v>3</v>
       </c>
       <c r="V24" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="Y24" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z24" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA24" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="AB24" t="s">
-        <v>745</v>
+        <v>764</v>
       </c>
       <c r="AC24">
         <v>6</v>
       </c>
       <c r="AD24" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE24" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AF24" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG24" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH24" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM24" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="AN24" t="s">
-        <v>851</v>
+        <v>872</v>
       </c>
       <c r="AO24" t="s">
-        <v>926</v>
+        <v>949</v>
       </c>
       <c r="AP24" t="s">
-        <v>1001</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="25" spans="1:42">
@@ -6008,28 +6089,28 @@
         <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E25" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F25" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G25" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="H25" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="I25" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="J25">
         <v>5</v>
@@ -6038,10 +6119,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L25" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="M25" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -6056,52 +6137,52 @@
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="W25" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="Y25" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z25" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA25" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="AB25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AC25">
         <v>5</v>
       </c>
       <c r="AD25" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE25" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF25" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG25" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH25" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM25" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
       <c r="AN25" t="s">
-        <v>852</v>
+        <v>873</v>
       </c>
       <c r="AO25" t="s">
-        <v>927</v>
+        <v>950</v>
       </c>
       <c r="AP25" t="s">
-        <v>1002</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="26" spans="1:42">
@@ -6109,28 +6190,28 @@
         <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D26" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E26" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F26" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G26" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="H26" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="I26" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="J26">
         <v>4</v>
@@ -6139,10 +6220,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="L26" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="M26" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="N26">
         <v>4</v>
@@ -6157,49 +6238,49 @@
         <v>1</v>
       </c>
       <c r="V26" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="Y26" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z26" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA26" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="AB26" t="s">
-        <v>746</v>
+        <v>765</v>
       </c>
       <c r="AC26">
         <v>4</v>
       </c>
       <c r="AD26" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="AE26" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AF26" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG26" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH26" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM26" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
       <c r="AN26" t="s">
-        <v>853</v>
+        <v>874</v>
       </c>
       <c r="AO26" t="s">
-        <v>928</v>
+        <v>951</v>
       </c>
       <c r="AP26" t="s">
-        <v>1003</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="27" spans="1:42">
@@ -6207,37 +6288,37 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D27" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E27" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F27" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G27" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H27" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="I27" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="K27">
         <v>9.699999999999999</v>
       </c>
       <c r="L27" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="M27" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="N27">
         <v>3</v>
@@ -6252,49 +6333,49 @@
         <v>2</v>
       </c>
       <c r="V27" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="Y27" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z27" t="s">
-        <v>715</v>
+        <v>734</v>
       </c>
       <c r="AA27" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="AB27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AC27">
         <v>6</v>
       </c>
       <c r="AD27" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE27" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AF27" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG27" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH27" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM27" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="AN27" t="s">
-        <v>854</v>
+        <v>875</v>
       </c>
       <c r="AO27" t="s">
-        <v>929</v>
+        <v>952</v>
       </c>
       <c r="AP27" t="s">
-        <v>1004</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="28" spans="1:42">
@@ -6302,37 +6383,37 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D28" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E28" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F28" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G28" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H28" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="I28" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="K28">
         <v>9.699999999999999</v>
       </c>
       <c r="L28" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="M28" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -6347,49 +6428,49 @@
         <v>2</v>
       </c>
       <c r="V28" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="Y28" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z28" t="s">
-        <v>715</v>
+        <v>734</v>
       </c>
       <c r="AA28" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="AB28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AC28">
         <v>6</v>
       </c>
       <c r="AD28" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE28" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AF28" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG28" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH28" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM28" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="AN28" t="s">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="AO28" t="s">
-        <v>930</v>
+        <v>953</v>
       </c>
       <c r="AP28" t="s">
-        <v>1005</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="29" spans="1:42">
@@ -6397,37 +6478,37 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D29" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E29" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F29" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G29" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H29" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="I29" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="K29">
         <v>9.699999999999999</v>
       </c>
       <c r="L29" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="M29" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="N29">
         <v>3</v>
@@ -6442,49 +6523,49 @@
         <v>2</v>
       </c>
       <c r="V29" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="Y29" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
       <c r="Z29" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA29" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="AB29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AC29">
         <v>6</v>
       </c>
       <c r="AD29" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE29" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AF29" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG29" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH29" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM29" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="AN29" t="s">
-        <v>856</v>
+        <v>877</v>
       </c>
       <c r="AO29" t="s">
-        <v>931</v>
+        <v>954</v>
       </c>
       <c r="AP29" t="s">
-        <v>1006</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="30" spans="1:42">
@@ -6492,37 +6573,37 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D30" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E30" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F30" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G30" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H30" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="I30" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="K30">
         <v>9.699999999999999</v>
       </c>
       <c r="L30" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="M30" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="N30">
         <v>3</v>
@@ -6537,49 +6618,49 @@
         <v>2</v>
       </c>
       <c r="V30" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="Y30" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="Z30" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="AA30" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="AB30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AC30">
         <v>6</v>
       </c>
       <c r="AD30" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE30" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AF30" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG30" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH30" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM30" t="s">
-        <v>782</v>
+        <v>801</v>
       </c>
       <c r="AN30" t="s">
-        <v>857</v>
+        <v>878</v>
       </c>
       <c r="AO30" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
       <c r="AP30" t="s">
-        <v>1007</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="31" spans="1:42">
@@ -6587,37 +6668,37 @@
         <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D31" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E31" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F31" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G31" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H31" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="I31" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="K31">
         <v>9.699999999999999</v>
       </c>
       <c r="L31" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="M31" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="R31">
         <v>1</v>
@@ -6632,49 +6713,49 @@
         <v>1</v>
       </c>
       <c r="V31" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="Y31" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z31" t="s">
-        <v>717</v>
+        <v>736</v>
       </c>
       <c r="AA31" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="AB31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AC31">
         <v>11</v>
       </c>
       <c r="AD31" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AI31" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AJ31" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AK31" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AL31" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM31" t="s">
-        <v>783</v>
+        <v>802</v>
       </c>
       <c r="AN31" t="s">
-        <v>858</v>
+        <v>879</v>
       </c>
       <c r="AO31" t="s">
-        <v>933</v>
+        <v>956</v>
       </c>
       <c r="AP31" t="s">
-        <v>1008</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="32" spans="1:42">
@@ -6682,37 +6763,37 @@
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D32" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E32" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F32" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G32" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H32" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="I32" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K32">
         <v>9.699999999999999</v>
       </c>
       <c r="L32" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="M32" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="R32">
         <v>3</v>
@@ -6727,55 +6808,55 @@
         <v>3</v>
       </c>
       <c r="V32" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="W32" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="X32" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="Y32" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z32" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA32" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="AB32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AC32">
         <v>8</v>
       </c>
       <c r="AD32" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AI32" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AJ32" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AK32" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AL32" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM32" t="s">
-        <v>784</v>
+        <v>803</v>
       </c>
       <c r="AN32" t="s">
-        <v>859</v>
+        <v>880</v>
       </c>
       <c r="AO32" t="s">
-        <v>934</v>
+        <v>957</v>
       </c>
       <c r="AP32" t="s">
-        <v>1009</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="33" spans="1:42">
@@ -6783,37 +6864,37 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D33" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E33" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F33" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G33" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H33" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="I33" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="K33">
         <v>9.699999999999999</v>
       </c>
       <c r="L33" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="M33" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="R33">
         <v>5</v>
@@ -6828,49 +6909,49 @@
         <v>4</v>
       </c>
       <c r="V33" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="Y33" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z33" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA33" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="AB33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AC33">
         <v>6</v>
       </c>
       <c r="AD33" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AI33" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AJ33" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AK33" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AL33" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AM33" t="s">
-        <v>785</v>
+        <v>804</v>
       </c>
       <c r="AN33" t="s">
-        <v>860</v>
+        <v>881</v>
       </c>
       <c r="AO33" t="s">
-        <v>935</v>
+        <v>958</v>
       </c>
       <c r="AP33" t="s">
-        <v>1010</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="34" spans="1:42">
@@ -6878,28 +6959,28 @@
         <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C34" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D34" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E34" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F34" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G34" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H34" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I34" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -6908,10 +6989,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="M34" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="N34">
         <v>3</v>
@@ -6926,55 +7007,55 @@
         <v>2</v>
       </c>
       <c r="V34" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="W34" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="X34" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="Y34" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z34" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA34" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="AB34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AC34">
         <v>5</v>
       </c>
       <c r="AD34" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE34" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AF34" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG34" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH34" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM34" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
       <c r="AN34" t="s">
-        <v>861</v>
+        <v>882</v>
       </c>
       <c r="AO34" t="s">
-        <v>936</v>
+        <v>959</v>
       </c>
       <c r="AP34" t="s">
-        <v>1011</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="35" spans="1:42">
@@ -6982,28 +7063,28 @@
         <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E35" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F35" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G35" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H35" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I35" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="J35">
         <v>4</v>
@@ -7012,10 +7093,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L35" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="M35" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="N35">
         <v>3</v>
@@ -7030,55 +7111,55 @@
         <v>2</v>
       </c>
       <c r="V35" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="W35" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="X35" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="Y35" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z35" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA35" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="AB35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AC35">
         <v>4</v>
       </c>
       <c r="AD35" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="AE35" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AF35" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG35" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH35" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM35" t="s">
-        <v>787</v>
+        <v>806</v>
       </c>
       <c r="AN35" t="s">
-        <v>862</v>
+        <v>883</v>
       </c>
       <c r="AO35" t="s">
-        <v>937</v>
+        <v>960</v>
       </c>
       <c r="AP35" t="s">
-        <v>1012</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="36" spans="1:42">
@@ -7086,28 +7167,28 @@
         <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D36" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="E36" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F36" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G36" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H36" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I36" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -7116,10 +7197,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L36" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="M36" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="N36">
         <v>3</v>
@@ -7134,55 +7215,55 @@
         <v>3</v>
       </c>
       <c r="V36" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="W36" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="X36" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="Y36" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z36" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA36" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="AB36" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AC36">
         <v>4</v>
       </c>
       <c r="AD36" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="AE36" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AF36" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG36" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH36" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM36" t="s">
-        <v>788</v>
+        <v>807</v>
       </c>
       <c r="AN36" t="s">
-        <v>863</v>
+        <v>884</v>
       </c>
       <c r="AO36" t="s">
-        <v>938</v>
+        <v>961</v>
       </c>
       <c r="AP36" t="s">
-        <v>1013</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="37" spans="1:42">
@@ -7190,28 +7271,28 @@
         <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C37" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D37" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E37" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F37" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G37" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H37" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I37" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="J37">
         <v>4</v>
@@ -7220,10 +7301,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L37" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="M37" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="N37">
         <v>3</v>
@@ -7238,49 +7319,49 @@
         <v>2</v>
       </c>
       <c r="V37" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="Y37" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z37" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
       <c r="AA37" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="AB37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AC37">
         <v>4</v>
       </c>
       <c r="AD37" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="AE37" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AF37" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG37" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH37" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM37" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="AN37" t="s">
-        <v>864</v>
+        <v>885</v>
       </c>
       <c r="AO37" t="s">
-        <v>939</v>
+        <v>962</v>
       </c>
       <c r="AP37" t="s">
-        <v>1014</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="38" spans="1:42">
@@ -7288,28 +7369,28 @@
         <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D38" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E38" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F38" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G38" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H38" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="I38" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="J38">
         <v>9</v>
@@ -7318,10 +7399,10 @@
         <v>12.6</v>
       </c>
       <c r="L38" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="M38" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -7336,55 +7417,55 @@
         <v>3</v>
       </c>
       <c r="V38" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="W38" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="X38" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="Y38" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="Z38" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA38" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="AB38" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AC38">
         <v>9</v>
       </c>
       <c r="AD38" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE38" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF38" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG38" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH38" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM38" t="s">
-        <v>790</v>
+        <v>809</v>
       </c>
       <c r="AN38" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="AO38" t="s">
-        <v>940</v>
+        <v>963</v>
       </c>
       <c r="AP38" t="s">
-        <v>1015</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="39" spans="1:42">
@@ -7392,28 +7473,28 @@
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C39" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D39" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E39" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F39" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G39" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H39" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="I39" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="J39">
         <v>8</v>
@@ -7422,10 +7503,10 @@
         <v>12.6</v>
       </c>
       <c r="L39" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="M39" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -7440,49 +7521,49 @@
         <v>4</v>
       </c>
       <c r="V39" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="Y39" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z39" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA39" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="AB39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC39">
         <v>8</v>
       </c>
       <c r="AD39" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE39" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF39" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG39" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH39" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AM39" t="s">
-        <v>791</v>
+        <v>810</v>
       </c>
       <c r="AN39" t="s">
-        <v>866</v>
+        <v>887</v>
       </c>
       <c r="AO39" t="s">
-        <v>941</v>
+        <v>964</v>
       </c>
       <c r="AP39" t="s">
-        <v>1016</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="40" spans="1:42">
@@ -7490,28 +7571,28 @@
         <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D40" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E40" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F40" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G40" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H40" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="I40" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="J40">
         <v>7</v>
@@ -7520,10 +7601,10 @@
         <v>12.6</v>
       </c>
       <c r="L40" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="M40" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -7538,49 +7619,49 @@
         <v>4</v>
       </c>
       <c r="V40" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="Y40" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z40" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA40" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="AB40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC40">
         <v>7</v>
       </c>
       <c r="AD40" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE40" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF40" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG40" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH40" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AM40" t="s">
-        <v>792</v>
+        <v>811</v>
       </c>
       <c r="AN40" t="s">
-        <v>867</v>
+        <v>888</v>
       </c>
       <c r="AO40" t="s">
-        <v>942</v>
+        <v>965</v>
       </c>
       <c r="AP40" t="s">
-        <v>1017</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="41" spans="1:42">
@@ -7588,28 +7669,28 @@
         <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C41" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D41" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E41" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F41" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G41" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H41" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="I41" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="J41">
         <v>7</v>
@@ -7618,10 +7699,10 @@
         <v>13.7</v>
       </c>
       <c r="L41" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="M41" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -7636,55 +7717,55 @@
         <v>2</v>
       </c>
       <c r="V41" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="W41" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="X41" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="Y41" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z41" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA41" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="AB41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AC41">
         <v>7</v>
       </c>
       <c r="AD41" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE41" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF41" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG41" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH41" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM41" t="s">
-        <v>793</v>
+        <v>812</v>
       </c>
       <c r="AN41" t="s">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="AO41" t="s">
-        <v>943</v>
+        <v>966</v>
       </c>
       <c r="AP41" t="s">
-        <v>1018</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="42" spans="1:42">
@@ -7692,28 +7773,28 @@
         <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D42" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="E42" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F42" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G42" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H42" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="I42" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="J42">
         <v>6</v>
@@ -7722,10 +7803,10 @@
         <v>12.6</v>
       </c>
       <c r="L42" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M42" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -7740,55 +7821,55 @@
         <v>3</v>
       </c>
       <c r="V42" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="W42" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="X42" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="Y42" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z42" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA42" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="AB42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AC42">
         <v>6</v>
       </c>
       <c r="AD42" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE42" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF42" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG42" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH42" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM42" t="s">
-        <v>794</v>
+        <v>813</v>
       </c>
       <c r="AN42" t="s">
-        <v>869</v>
+        <v>890</v>
       </c>
       <c r="AO42" t="s">
-        <v>944</v>
+        <v>967</v>
       </c>
       <c r="AP42" t="s">
-        <v>1019</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="43" spans="1:42">
@@ -7796,28 +7877,28 @@
         <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D43" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E43" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F43" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G43" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H43" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="I43" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="J43">
         <v>6</v>
@@ -7826,10 +7907,10 @@
         <v>12.6</v>
       </c>
       <c r="L43" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="M43" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -7844,46 +7925,46 @@
         <v>3</v>
       </c>
       <c r="Y43" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z43" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="AA43" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="AB43" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AC43">
         <v>6</v>
       </c>
       <c r="AD43" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE43" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF43" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG43" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH43" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM43" t="s">
-        <v>795</v>
+        <v>814</v>
       </c>
       <c r="AN43" t="s">
-        <v>870</v>
+        <v>891</v>
       </c>
       <c r="AO43" t="s">
-        <v>945</v>
+        <v>968</v>
       </c>
       <c r="AP43" t="s">
-        <v>1020</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="44" spans="1:42">
@@ -7891,28 +7972,28 @@
         <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D44" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E44" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F44" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G44" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H44" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="I44" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -7921,10 +8002,10 @@
         <v>12.6</v>
       </c>
       <c r="L44" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M44" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -7939,49 +8020,49 @@
         <v>2</v>
       </c>
       <c r="V44" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="Y44" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z44" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA44" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="AB44" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AC44">
         <v>5</v>
       </c>
       <c r="AD44" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE44" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF44" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG44" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH44" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM44" t="s">
-        <v>796</v>
+        <v>815</v>
       </c>
       <c r="AN44" t="s">
-        <v>871</v>
+        <v>892</v>
       </c>
       <c r="AO44" t="s">
-        <v>946</v>
+        <v>969</v>
       </c>
       <c r="AP44" t="s">
-        <v>1021</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="45" spans="1:42">
@@ -7989,28 +8070,28 @@
         <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D45" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E45" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F45" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G45" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H45" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="I45" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="J45">
         <v>5</v>
@@ -8019,10 +8100,10 @@
         <v>13.7</v>
       </c>
       <c r="L45" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="M45" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="N45">
         <v>4</v>
@@ -8037,55 +8118,55 @@
         <v>2</v>
       </c>
       <c r="V45" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="W45" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="X45" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="Y45" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z45" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA45" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="AB45" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AC45">
         <v>5</v>
       </c>
       <c r="AD45" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE45" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AF45" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG45" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH45" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM45" t="s">
-        <v>797</v>
+        <v>816</v>
       </c>
       <c r="AN45" t="s">
-        <v>872</v>
+        <v>893</v>
       </c>
       <c r="AO45" t="s">
-        <v>947</v>
+        <v>970</v>
       </c>
       <c r="AP45" t="s">
-        <v>1022</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="46" spans="1:42">
@@ -8093,28 +8174,28 @@
         <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D46" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E46" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F46" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G46" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H46" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="I46" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="J46">
         <v>5</v>
@@ -8123,10 +8204,10 @@
         <v>13.7</v>
       </c>
       <c r="L46" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M46" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="N46">
         <v>5</v>
@@ -8141,55 +8222,55 @@
         <v>1</v>
       </c>
       <c r="V46" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="W46" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="X46" t="s">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="Y46" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z46" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA46" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="AB46" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AC46">
         <v>5</v>
       </c>
       <c r="AD46" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE46" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AF46" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG46" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH46" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM46" t="s">
-        <v>798</v>
+        <v>817</v>
       </c>
       <c r="AN46" t="s">
-        <v>873</v>
+        <v>894</v>
       </c>
       <c r="AO46" t="s">
-        <v>948</v>
+        <v>971</v>
       </c>
       <c r="AP46" t="s">
-        <v>1023</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="47" spans="1:42">
@@ -8197,28 +8278,28 @@
         <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D47" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E47" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F47" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G47" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H47" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="I47" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -8227,10 +8308,10 @@
         <v>12.6</v>
       </c>
       <c r="L47" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="M47" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="N47">
         <v>3</v>
@@ -8245,49 +8326,49 @@
         <v>1</v>
       </c>
       <c r="V47" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="Y47" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z47" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA47" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="AB47" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AC47">
         <v>2</v>
       </c>
       <c r="AD47" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="AE47" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AF47" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG47" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH47" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM47" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="AN47" t="s">
-        <v>874</v>
+        <v>895</v>
       </c>
       <c r="AO47" t="s">
-        <v>949</v>
+        <v>972</v>
       </c>
       <c r="AP47" t="s">
-        <v>1024</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="48" spans="1:42">
@@ -8295,28 +8376,28 @@
         <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C48" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D48" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E48" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F48" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G48" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="H48" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="I48" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="J48">
         <v>7</v>
@@ -8325,10 +8406,10 @@
         <v>10.5</v>
       </c>
       <c r="L48" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="M48" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -8343,55 +8424,55 @@
         <v>3</v>
       </c>
       <c r="V48" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="W48" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="X48" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="Y48" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
       <c r="Z48" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="AA48" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="AB48" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AC48">
         <v>7</v>
       </c>
       <c r="AD48" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE48" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF48" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG48" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH48" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM48" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
       <c r="AN48" t="s">
-        <v>875</v>
+        <v>896</v>
       </c>
       <c r="AO48" t="s">
-        <v>950</v>
+        <v>973</v>
       </c>
       <c r="AP48" t="s">
-        <v>1025</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="49" spans="1:42">
@@ -8399,28 +8480,28 @@
         <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C49" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D49" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E49" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F49" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G49" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="H49" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="I49" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -8429,10 +8510,10 @@
         <v>10.5</v>
       </c>
       <c r="L49" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="M49" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -8447,52 +8528,52 @@
         <v>2</v>
       </c>
       <c r="V49" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="W49" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="Y49" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
       <c r="Z49" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="AA49" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="AB49" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AC49">
         <v>4</v>
       </c>
       <c r="AD49" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="AE49" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF49" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG49" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH49" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM49" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="AN49" t="s">
-        <v>876</v>
+        <v>897</v>
       </c>
       <c r="AO49" t="s">
-        <v>951</v>
+        <v>974</v>
       </c>
       <c r="AP49" t="s">
-        <v>1026</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="50" spans="1:42">
@@ -8500,76 +8581,76 @@
         <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C50" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D50" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E50" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F50" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G50" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="H50" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="I50" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="K50">
         <v>10.85</v>
       </c>
       <c r="L50" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="M50" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="V50" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="W50" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="X50" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="Y50" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="Z50" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="AA50" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="AB50" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AC50">
         <v>5</v>
       </c>
       <c r="AD50" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM50" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
       <c r="AN50" t="s">
-        <v>877</v>
+        <v>898</v>
       </c>
       <c r="AO50" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="AP50" t="s">
-        <v>1027</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="51" spans="1:42">
@@ -8577,37 +8658,37 @@
         <v>91</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C51" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D51" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E51" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F51" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G51" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="H51" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="I51" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="K51">
         <v>11.2</v>
       </c>
       <c r="L51" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M51" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -8622,49 +8703,49 @@
         <v>3</v>
       </c>
       <c r="V51" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="Y51" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
       <c r="Z51" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA51" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="AB51" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AC51">
         <v>7</v>
       </c>
       <c r="AD51" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE51" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF51" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG51" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH51" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM51" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="AN51" t="s">
-        <v>878</v>
+        <v>899</v>
       </c>
       <c r="AO51" t="s">
-        <v>953</v>
+        <v>976</v>
       </c>
       <c r="AP51" t="s">
-        <v>1028</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="52" spans="1:42">
@@ -8672,37 +8753,37 @@
         <v>92</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C52" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D52" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E52" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F52" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G52" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="H52" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="I52" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="K52">
         <v>11.2</v>
       </c>
       <c r="L52" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M52" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -8717,49 +8798,49 @@
         <v>1</v>
       </c>
       <c r="V52" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="Y52" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
       <c r="Z52" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA52" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="AB52" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AC52">
         <v>5</v>
       </c>
       <c r="AD52" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE52" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF52" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG52" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH52" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM52" t="s">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="AN52" t="s">
-        <v>879</v>
+        <v>900</v>
       </c>
       <c r="AO52" t="s">
-        <v>954</v>
+        <v>977</v>
       </c>
       <c r="AP52" t="s">
-        <v>1029</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="53" spans="1:42">
@@ -8767,28 +8848,28 @@
         <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D53" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E53" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F53" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G53" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H53" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="I53" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="J53">
         <v>8</v>
@@ -8797,10 +8878,10 @@
         <v>11</v>
       </c>
       <c r="L53" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="M53" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -8815,55 +8896,55 @@
         <v>4</v>
       </c>
       <c r="V53" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="W53" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="X53" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="Y53" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z53" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA53" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="AB53" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AC53">
         <v>8</v>
       </c>
       <c r="AD53" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE53" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF53" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG53" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH53" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AM53" t="s">
-        <v>805</v>
+        <v>824</v>
       </c>
       <c r="AN53" t="s">
-        <v>880</v>
+        <v>901</v>
       </c>
       <c r="AO53" t="s">
-        <v>955</v>
+        <v>978</v>
       </c>
       <c r="AP53" t="s">
-        <v>1030</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="54" spans="1:42">
@@ -8871,28 +8952,28 @@
         <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D54" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E54" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F54" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G54" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H54" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="I54" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="J54">
         <v>8</v>
@@ -8901,10 +8982,10 @@
         <v>11</v>
       </c>
       <c r="L54" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="M54" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -8919,55 +9000,55 @@
         <v>4</v>
       </c>
       <c r="V54" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="W54" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="X54" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="Y54" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z54" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="AA54" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="AB54" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AC54">
         <v>8</v>
       </c>
       <c r="AD54" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE54" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF54" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG54" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH54" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AM54" t="s">
-        <v>806</v>
+        <v>825</v>
       </c>
       <c r="AN54" t="s">
-        <v>881</v>
+        <v>902</v>
       </c>
       <c r="AO54" t="s">
-        <v>956</v>
+        <v>979</v>
       </c>
       <c r="AP54" t="s">
-        <v>1031</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="55" spans="1:42">
@@ -8975,28 +9056,28 @@
         <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D55" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E55" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F55" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G55" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H55" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="I55" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="J55">
         <v>7</v>
@@ -9005,10 +9086,10 @@
         <v>12.1</v>
       </c>
       <c r="L55" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M55" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -9023,55 +9104,55 @@
         <v>3</v>
       </c>
       <c r="V55" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="W55" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="X55" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="Y55" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z55" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA55" t="s">
-        <v>736</v>
+        <v>755</v>
       </c>
       <c r="AB55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AC55">
         <v>7</v>
       </c>
       <c r="AD55" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE55" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF55" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG55" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH55" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM55" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
       <c r="AN55" t="s">
-        <v>882</v>
+        <v>903</v>
       </c>
       <c r="AO55" t="s">
-        <v>957</v>
+        <v>980</v>
       </c>
       <c r="AP55" t="s">
-        <v>1032</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="56" spans="1:42">
@@ -9079,28 +9160,28 @@
         <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C56" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D56" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E56" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F56" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G56" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H56" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="I56" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="J56">
         <v>6</v>
@@ -9109,10 +9190,10 @@
         <v>11</v>
       </c>
       <c r="L56" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M56" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="N56">
         <v>3</v>
@@ -9127,46 +9208,46 @@
         <v>3</v>
       </c>
       <c r="Y56" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z56" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA56" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="AB56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AC56">
         <v>6</v>
       </c>
       <c r="AD56" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE56" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AF56" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG56" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH56" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM56" t="s">
-        <v>808</v>
+        <v>827</v>
       </c>
       <c r="AN56" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
       <c r="AO56" t="s">
-        <v>958</v>
+        <v>981</v>
       </c>
       <c r="AP56" t="s">
-        <v>1033</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="57" spans="1:42">
@@ -9174,28 +9255,28 @@
         <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C57" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D57" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E57" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F57" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G57" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H57" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="I57" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="J57">
         <v>4</v>
@@ -9204,10 +9285,10 @@
         <v>11</v>
       </c>
       <c r="L57" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="M57" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="N57">
         <v>3</v>
@@ -9222,49 +9303,49 @@
         <v>4</v>
       </c>
       <c r="V57" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="Y57" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z57" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA57" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="AB57" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AC57">
         <v>4</v>
       </c>
       <c r="AD57" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="AE57" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AF57" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG57" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH57" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AM57" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
       <c r="AN57" t="s">
-        <v>884</v>
+        <v>905</v>
       </c>
       <c r="AO57" t="s">
-        <v>959</v>
+        <v>982</v>
       </c>
       <c r="AP57" t="s">
-        <v>1034</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="58" spans="1:42">
@@ -9272,28 +9353,28 @@
         <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C58" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D58" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E58" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F58" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G58" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H58" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="I58" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="J58">
         <v>4</v>
@@ -9302,10 +9383,10 @@
         <v>12.1</v>
       </c>
       <c r="L58" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M58" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="N58">
         <v>3</v>
@@ -9320,49 +9401,49 @@
         <v>1</v>
       </c>
       <c r="V58" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="Y58" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z58" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA58" t="s">
-        <v>737</v>
+        <v>756</v>
       </c>
       <c r="AB58" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="AC58">
         <v>4</v>
       </c>
       <c r="AD58" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="AE58" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AF58" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG58" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH58" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM58" t="s">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="AN58" t="s">
-        <v>885</v>
+        <v>906</v>
       </c>
       <c r="AO58" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
       <c r="AP58" t="s">
-        <v>1035</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="59" spans="1:42">
@@ -9370,28 +9451,28 @@
         <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D59" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E59" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F59" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G59" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H59" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I59" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="J59">
         <v>11</v>
@@ -9400,10 +9481,10 @@
         <v>9.9</v>
       </c>
       <c r="L59" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="M59" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -9418,49 +9499,49 @@
         <v>1</v>
       </c>
       <c r="V59" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="Y59" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z59" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA59" t="s">
-        <v>738</v>
+        <v>757</v>
       </c>
       <c r="AB59" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AC59">
         <v>11</v>
       </c>
       <c r="AD59" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE59" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF59" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG59" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH59" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM59" t="s">
-        <v>811</v>
+        <v>830</v>
       </c>
       <c r="AN59" t="s">
-        <v>886</v>
+        <v>907</v>
       </c>
       <c r="AO59" t="s">
-        <v>961</v>
+        <v>984</v>
       </c>
       <c r="AP59" t="s">
-        <v>1036</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="60" spans="1:42">
@@ -9468,28 +9549,28 @@
         <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C60" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D60" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E60" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F60" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G60" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H60" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I60" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="J60">
         <v>11</v>
@@ -9498,10 +9579,10 @@
         <v>9.9</v>
       </c>
       <c r="L60" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="M60" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -9516,55 +9597,55 @@
         <v>4</v>
       </c>
       <c r="V60" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="W60" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="X60" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="Y60" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z60" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA60" t="s">
-        <v>738</v>
+        <v>757</v>
       </c>
       <c r="AB60" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AC60">
         <v>11</v>
       </c>
       <c r="AD60" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE60" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF60" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AG60" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AH60" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AM60" t="s">
-        <v>812</v>
+        <v>831</v>
       </c>
       <c r="AN60" t="s">
-        <v>887</v>
+        <v>908</v>
       </c>
       <c r="AO60" t="s">
-        <v>962</v>
+        <v>985</v>
       </c>
       <c r="AP60" t="s">
-        <v>1037</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="61" spans="1:42">
@@ -9572,28 +9653,28 @@
         <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C61" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D61" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E61" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F61" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G61" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H61" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I61" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="J61">
         <v>9</v>
@@ -9602,10 +9683,10 @@
         <v>9.9</v>
       </c>
       <c r="L61" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="M61" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -9620,49 +9701,49 @@
         <v>3</v>
       </c>
       <c r="V61" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="Y61" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z61" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA61" t="s">
-        <v>739</v>
+        <v>758</v>
       </c>
       <c r="AB61" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AC61">
         <v>9</v>
       </c>
       <c r="AD61" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE61" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF61" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG61" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH61" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM61" t="s">
-        <v>813</v>
+        <v>832</v>
       </c>
       <c r="AN61" t="s">
-        <v>888</v>
+        <v>909</v>
       </c>
       <c r="AO61" t="s">
-        <v>963</v>
+        <v>986</v>
       </c>
       <c r="AP61" t="s">
-        <v>1038</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="62" spans="1:42">
@@ -9670,28 +9751,28 @@
         <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D62" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E62" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F62" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G62" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H62" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I62" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="J62">
         <v>9</v>
@@ -9700,10 +9781,10 @@
         <v>9.9</v>
       </c>
       <c r="L62" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="M62" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -9718,55 +9799,55 @@
         <v>3</v>
       </c>
       <c r="V62" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="W62" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="X62" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
       <c r="Y62" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z62" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA62" t="s">
-        <v>739</v>
+        <v>758</v>
       </c>
       <c r="AB62" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AC62">
         <v>9</v>
       </c>
       <c r="AD62" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE62" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF62" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG62" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH62" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM62" t="s">
-        <v>814</v>
+        <v>833</v>
       </c>
       <c r="AN62" t="s">
-        <v>889</v>
+        <v>910</v>
       </c>
       <c r="AO62" t="s">
-        <v>964</v>
+        <v>987</v>
       </c>
       <c r="AP62" t="s">
-        <v>1039</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="63" spans="1:42">
@@ -9774,28 +9855,28 @@
         <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D63" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E63" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F63" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G63" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H63" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I63" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="J63">
         <v>6</v>
@@ -9804,10 +9885,10 @@
         <v>10.8</v>
       </c>
       <c r="L63" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="M63" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="N63">
         <v>4</v>
@@ -9822,49 +9903,49 @@
         <v>3</v>
       </c>
       <c r="V63" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="Y63" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z63" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA63" t="s">
-        <v>739</v>
+        <v>758</v>
       </c>
       <c r="AB63" t="s">
-        <v>748</v>
+        <v>767</v>
       </c>
       <c r="AC63">
         <v>6</v>
       </c>
       <c r="AD63" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE63" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AF63" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG63" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH63" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM63" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
       <c r="AN63" t="s">
-        <v>890</v>
+        <v>911</v>
       </c>
       <c r="AO63" t="s">
-        <v>965</v>
+        <v>988</v>
       </c>
       <c r="AP63" t="s">
-        <v>1040</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="64" spans="1:42">
@@ -9872,28 +9953,28 @@
         <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D64" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E64" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F64" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G64" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H64" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I64" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="J64">
         <v>6</v>
@@ -9902,10 +9983,10 @@
         <v>9.9</v>
       </c>
       <c r="L64" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="M64" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -9920,49 +10001,49 @@
         <v>2</v>
       </c>
       <c r="V64" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="Y64" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z64" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA64" t="s">
-        <v>740</v>
+        <v>759</v>
       </c>
       <c r="AB64" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AC64">
         <v>6</v>
       </c>
       <c r="AD64" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE64" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF64" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG64" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH64" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM64" t="s">
-        <v>816</v>
+        <v>835</v>
       </c>
       <c r="AN64" t="s">
-        <v>891</v>
+        <v>912</v>
       </c>
       <c r="AO64" t="s">
-        <v>966</v>
+        <v>989</v>
       </c>
       <c r="AP64" t="s">
-        <v>1041</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="65" spans="1:42">
@@ -9970,28 +10051,28 @@
         <v>105</v>
       </c>
       <c r="B65" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C65" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D65" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E65" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F65" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G65" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H65" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I65" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="J65">
         <v>5</v>
@@ -10000,10 +10081,10 @@
         <v>9.9</v>
       </c>
       <c r="L65" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="M65" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="N65">
         <v>3</v>
@@ -10018,49 +10099,49 @@
         <v>2</v>
       </c>
       <c r="V65" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="Y65" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z65" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA65" t="s">
-        <v>740</v>
+        <v>759</v>
       </c>
       <c r="AB65" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AC65">
         <v>5</v>
       </c>
       <c r="AD65" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE65" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AF65" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG65" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH65" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM65" t="s">
-        <v>817</v>
+        <v>836</v>
       </c>
       <c r="AN65" t="s">
-        <v>892</v>
+        <v>913</v>
       </c>
       <c r="AO65" t="s">
-        <v>967</v>
+        <v>990</v>
       </c>
       <c r="AP65" t="s">
-        <v>1042</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="66" spans="1:42">
@@ -10068,28 +10149,28 @@
         <v>106</v>
       </c>
       <c r="B66" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D66" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="E66" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F66" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G66" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H66" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I66" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -10098,10 +10179,10 @@
         <v>9.9</v>
       </c>
       <c r="L66" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M66" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="N66">
         <v>2</v>
@@ -10116,55 +10197,55 @@
         <v>2</v>
       </c>
       <c r="V66" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="W66" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="X66" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="Y66" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z66" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA66" t="s">
-        <v>741</v>
+        <v>760</v>
       </c>
       <c r="AB66" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AC66">
         <v>4</v>
       </c>
       <c r="AD66" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="AE66" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF66" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG66" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH66" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM66" t="s">
-        <v>818</v>
+        <v>837</v>
       </c>
       <c r="AN66" t="s">
-        <v>893</v>
+        <v>914</v>
       </c>
       <c r="AO66" t="s">
-        <v>968</v>
+        <v>991</v>
       </c>
       <c r="AP66" t="s">
-        <v>1043</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="67" spans="1:42">
@@ -10172,28 +10253,28 @@
         <v>107</v>
       </c>
       <c r="B67" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C67" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D67" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E67" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F67" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G67" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H67" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="I67" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="J67">
         <v>11</v>
@@ -10202,10 +10283,10 @@
         <v>11</v>
       </c>
       <c r="L67" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M67" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -10220,55 +10301,55 @@
         <v>3</v>
       </c>
       <c r="V67" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="W67" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="X67" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="Y67" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z67" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA67" t="s">
-        <v>742</v>
+        <v>761</v>
       </c>
       <c r="AB67" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AC67">
         <v>11</v>
       </c>
       <c r="AD67" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE67" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF67" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG67" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH67" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM67" t="s">
-        <v>819</v>
+        <v>838</v>
       </c>
       <c r="AN67" t="s">
-        <v>894</v>
+        <v>915</v>
       </c>
       <c r="AO67" t="s">
-        <v>969</v>
+        <v>992</v>
       </c>
       <c r="AP67" t="s">
-        <v>1044</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="68" spans="1:42">
@@ -10276,28 +10357,28 @@
         <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C68" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D68" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="E68" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F68" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G68" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H68" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="I68" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="J68">
         <v>8</v>
@@ -10306,10 +10387,10 @@
         <v>11</v>
       </c>
       <c r="L68" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M68" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -10324,55 +10405,55 @@
         <v>2</v>
       </c>
       <c r="V68" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="W68" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="X68" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="Y68" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z68" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA68" t="s">
-        <v>742</v>
+        <v>761</v>
       </c>
       <c r="AB68" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AC68">
         <v>8</v>
       </c>
       <c r="AD68" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="AE68" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF68" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AG68" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH68" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM68" t="s">
-        <v>820</v>
+        <v>839</v>
       </c>
       <c r="AN68" t="s">
-        <v>895</v>
+        <v>916</v>
       </c>
       <c r="AO68" t="s">
-        <v>970</v>
+        <v>993</v>
       </c>
       <c r="AP68" t="s">
-        <v>1045</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="69" spans="1:42">
@@ -10380,28 +10461,28 @@
         <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D69" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="E69" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F69" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G69" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H69" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="I69" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -10410,10 +10491,10 @@
         <v>11</v>
       </c>
       <c r="L69" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="M69" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="N69">
         <v>2</v>
@@ -10428,55 +10509,55 @@
         <v>5</v>
       </c>
       <c r="V69" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="W69" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="X69" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="Y69" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z69" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA69" t="s">
-        <v>737</v>
+        <v>756</v>
       </c>
       <c r="AB69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AC69">
         <v>5</v>
       </c>
       <c r="AD69" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE69" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF69" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG69" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH69" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="AM69" t="s">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="AN69" t="s">
-        <v>896</v>
+        <v>917</v>
       </c>
       <c r="AO69" t="s">
-        <v>971</v>
+        <v>994</v>
       </c>
       <c r="AP69" t="s">
-        <v>1046</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="70" spans="1:42">
@@ -10484,37 +10565,37 @@
         <v>110</v>
       </c>
       <c r="B70" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C70" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D70" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E70" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F70" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G70" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H70" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="I70" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="K70">
         <v>12.6</v>
       </c>
       <c r="L70" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="M70" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -10529,55 +10610,55 @@
         <v>0</v>
       </c>
       <c r="V70" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="W70" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="X70" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="Y70" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="Z70" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="AA70" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="AB70" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AC70">
         <v>5</v>
       </c>
       <c r="AD70" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE70" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF70" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG70" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH70" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM70" t="s">
-        <v>822</v>
+        <v>841</v>
       </c>
       <c r="AN70" t="s">
-        <v>897</v>
+        <v>918</v>
       </c>
       <c r="AO70" t="s">
-        <v>972</v>
+        <v>995</v>
       </c>
       <c r="AP70" t="s">
-        <v>1047</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="71" spans="1:42">
@@ -10585,37 +10666,37 @@
         <v>111</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D71" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="E71" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F71" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G71" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H71" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="I71" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="K71">
         <v>12.6</v>
       </c>
       <c r="L71" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="M71" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -10630,49 +10711,49 @@
         <v>2</v>
       </c>
       <c r="V71" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="Y71" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="Z71" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="AA71" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="AB71" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AC71">
         <v>5</v>
       </c>
       <c r="AD71" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE71" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF71" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG71" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH71" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM71" t="s">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="AN71" t="s">
-        <v>898</v>
+        <v>919</v>
       </c>
       <c r="AO71" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="AP71" t="s">
-        <v>1048</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="72" spans="1:42">
@@ -10680,37 +10761,37 @@
         <v>112</v>
       </c>
       <c r="B72" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C72" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D72" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="E72" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F72" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G72" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H72" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="I72" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="K72">
         <v>12.6</v>
       </c>
       <c r="L72" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="M72" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -10725,49 +10806,49 @@
         <v>2</v>
       </c>
       <c r="V72" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="Y72" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="Z72" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
       <c r="AA72" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="AB72" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AC72">
         <v>5</v>
       </c>
       <c r="AD72" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE72" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF72" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG72" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH72" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM72" t="s">
-        <v>824</v>
+        <v>843</v>
       </c>
       <c r="AN72" t="s">
-        <v>899</v>
+        <v>920</v>
       </c>
       <c r="AO72" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
       <c r="AP72" t="s">
-        <v>1049</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="73" spans="1:42">
@@ -10775,37 +10856,37 @@
         <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C73" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D73" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="E73" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F73" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G73" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H73" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="I73" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="K73">
         <v>12.6</v>
       </c>
       <c r="L73" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="M73" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -10820,49 +10901,49 @@
         <v>2</v>
       </c>
       <c r="V73" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="Y73" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="Z73" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="AA73" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="AB73" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AC73">
         <v>5</v>
       </c>
       <c r="AD73" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE73" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF73" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG73" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH73" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AM73" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="AN73" t="s">
-        <v>900</v>
+        <v>921</v>
       </c>
       <c r="AO73" t="s">
-        <v>975</v>
+        <v>998</v>
       </c>
       <c r="AP73" t="s">
-        <v>1050</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="74" spans="1:42">
@@ -10870,37 +10951,37 @@
         <v>114</v>
       </c>
       <c r="B74" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C74" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D74" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E74" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F74" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G74" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H74" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="I74" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="K74">
         <v>9.9</v>
       </c>
       <c r="L74" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="M74" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -10915,55 +10996,55 @@
         <v>3</v>
       </c>
       <c r="V74" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="W74" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="X74" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="Y74" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z74" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
       <c r="AA74" t="s">
-        <v>743</v>
+        <v>762</v>
       </c>
       <c r="AB74" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AC74">
         <v>7</v>
       </c>
       <c r="AD74" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE74" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF74" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG74" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AH74" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM74" t="s">
-        <v>826</v>
+        <v>845</v>
       </c>
       <c r="AN74" t="s">
-        <v>901</v>
+        <v>922</v>
       </c>
       <c r="AO74" t="s">
-        <v>976</v>
+        <v>999</v>
       </c>
       <c r="AP74" t="s">
-        <v>1051</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="75" spans="1:42">
@@ -10971,37 +11052,37 @@
         <v>115</v>
       </c>
       <c r="B75" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C75" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D75" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E75" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F75" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G75" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H75" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="I75" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="K75">
         <v>11</v>
       </c>
       <c r="L75" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="M75" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -11016,55 +11097,55 @@
         <v>3</v>
       </c>
       <c r="V75" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="W75" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="X75" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="Y75" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z75" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
       <c r="AA75" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
       <c r="AB75" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AC75">
         <v>6</v>
       </c>
       <c r="AD75" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AE75" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AF75" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AG75" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="AH75" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AM75" t="s">
-        <v>827</v>
+        <v>846</v>
       </c>
       <c r="AN75" t="s">
-        <v>902</v>
+        <v>923</v>
       </c>
       <c r="AO75" t="s">
-        <v>977</v>
+        <v>1000</v>
       </c>
       <c r="AP75" t="s">
-        <v>1052</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="76" spans="1:42">
@@ -11072,37 +11153,37 @@
         <v>116</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C76" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D76" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E76" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F76" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G76" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H76" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="I76" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="K76">
         <v>12.6</v>
       </c>
       <c r="L76" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="M76" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="R76">
         <v>2</v>
@@ -11117,55 +11198,209 @@
         <v>3</v>
       </c>
       <c r="V76" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="W76" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="X76" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="Y76" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="Z76" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="AA76" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="AB76" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AC76">
         <v>7</v>
       </c>
       <c r="AD76" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="AI76" t="s">
+        <v>771</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>769</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>769</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>847</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="77" spans="1:42">
+      <c r="A77" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" t="s">
+        <v>192</v>
+      </c>
+      <c r="C77" t="s">
+        <v>269</v>
+      </c>
+      <c r="D77" t="s">
+        <v>346</v>
+      </c>
+      <c r="E77" t="s">
+        <v>349</v>
+      </c>
+      <c r="F77" t="s">
+        <v>350</v>
+      </c>
+      <c r="G77" t="s">
+        <v>354</v>
+      </c>
+      <c r="H77" t="s">
+        <v>376</v>
+      </c>
+      <c r="I77" t="s">
+        <v>442</v>
+      </c>
+      <c r="K77">
+        <v>13.5</v>
+      </c>
+      <c r="L77" t="s">
+        <v>451</v>
+      </c>
+      <c r="M77" t="s">
+        <v>567</v>
+      </c>
+      <c r="V77" t="s">
+        <v>641</v>
+      </c>
+      <c r="W77" t="s">
+        <v>681</v>
+      </c>
+      <c r="X77" t="s">
+        <v>720</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>722</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>732</v>
+      </c>
+      <c r="AA77" t="s">
         <v>752</v>
       </c>
-      <c r="AJ76" t="s">
-        <v>750</v>
-      </c>
-      <c r="AK76" t="s">
-        <v>750</v>
-      </c>
-      <c r="AL76" t="s">
-        <v>750</v>
-      </c>
-      <c r="AM76" t="s">
-        <v>828</v>
-      </c>
-      <c r="AN76" t="s">
-        <v>903</v>
-      </c>
-      <c r="AO76" t="s">
-        <v>978</v>
-      </c>
-      <c r="AP76" t="s">
-        <v>1053</v>
+      <c r="AB77" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC77">
+        <v>5</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>769</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>848</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>925</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="78" spans="1:42">
+      <c r="A78" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" t="s">
+        <v>270</v>
+      </c>
+      <c r="D78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E78" t="s">
+        <v>349</v>
+      </c>
+      <c r="F78" t="s">
+        <v>350</v>
+      </c>
+      <c r="G78" t="s">
+        <v>354</v>
+      </c>
+      <c r="H78" t="s">
+        <v>372</v>
+      </c>
+      <c r="I78" t="s">
+        <v>443</v>
+      </c>
+      <c r="K78">
+        <v>11.5</v>
+      </c>
+      <c r="L78" t="s">
+        <v>474</v>
+      </c>
+      <c r="M78" t="s">
+        <v>568</v>
+      </c>
+      <c r="V78" t="s">
+        <v>642</v>
+      </c>
+      <c r="W78" t="s">
+        <v>682</v>
+      </c>
+      <c r="X78" t="s">
+        <v>721</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>731</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>732</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>761</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC78">
+        <v>5</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>769</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>849</v>
+      </c>
+      <c r="AN78" t="s">
+        <v>926</v>
+      </c>
+      <c r="AO78" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AP78" t="s">
+        <v>1080</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -786,10 +786,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM2" t="inlineStr">
         <is>
           <t>Charts/OL1_Ispirazione Napoli_Original_Taste Profile.png</t>
@@ -797,7 +813,7 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>original current italian espressos ml ristretto ml espresso dark creamy 130 87 intense roasted velvety creamy cup extremely thick body pleasantly bitter cocoa notes 10 50 50 50 ispirazione napoli pays tribute short strong dark espressos southern italian coastal city velvety creamy cup extremely thick body kiss pleasant bitterness aftertaste intense blend created mostly using robustas uganda india combined arabicas intense coffee cocoa touch dark intense roast done carefully selected beans withstand process develop delicious bitter notes without completely burning away capsules roast ground coffee nespresso system roast ground coffee g 201 oz capsules ispirazione napoli 130 dark low high high high</t>
+          <t>original current italian espressos ml ristretto ml espresso dark creamy 130 87 intense roasted velvety creamy cup extremely thick body pleasantly bitter cocoa notes 10 50 50 50 ispirazione napoli pays tribute short strong dark espressos southern italian coastal city velvety creamy cup extremely thick body kiss pleasant bitterness aftertaste intense blend created mostly using robustas uganda india combined arabicas intense coffee cocoa touch dark intense roast done carefully selected beans withstand process develop delicious bitter notes without completely burning away capsules roast ground coffee nespresso system roast ground coffee g 201 oz capsules ispirazione napoli 130 dark low high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -944,10 +960,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM3" t="inlineStr">
         <is>
           <t>Charts/OL2_Kazaar_Original_Taste Profile.png</t>
@@ -955,7 +987,7 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>original current italian espressos ml ristretto ml espresso exceptionally intense syrupy 120 87 woody spicy taste audacious bitterness peppery notes leaping thick syrupy body together arabica robusta balance espresso reflects palermo coastal lifestyle rich history sit back sun enjoy kazaar terrace everything food plate architecture surrounding whispering histories passed palermo 10 50 50 50 long dark roast inspired union sicilian coffee artistry african arabian heritage guaranteed spice things capsules roast ground coffee nespresso system roast ground coffee g 211 oz capsules kazaar 120 dark low high high high</t>
+          <t>original current italian espressos ml ristretto ml espresso exceptionally intense syrupy 120 87 woody spicy taste audacious bitterness peppery notes leaping thick syrupy body together arabica robusta balance espresso reflects palermo coastal lifestyle rich history sit back sun enjoy kazaar terrace everything food plate architecture surrounding whispering histories passed palermo 10 50 50 50 long dark roast inspired union sicilian coffee artistry african arabian heritage guaranteed spice things capsules roast ground coffee nespresso system roast ground coffee g 211 oz capsules kazaar 120 dark low high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -1110,10 +1142,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM4" t="inlineStr">
         <is>
           <t>Charts/OL3_Ristretto_Original_Taste Profile.png</t>
@@ -1121,7 +1169,7 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>original current italian espressos ml ristretto ml espresso powerful contrasting 100 87 dark roast hint fruity ristretto deliciously complex coffee displays roasty intense notes combination fruity notes hint acidity milk hide ristretto contrasted bouquet love rounds blend gives creamy texture 30 40 40 40 ca nt help fall ristretto canadian bestseller medium dark roast embodies italy iconic coffee culture short quick sip complex blend created using arabicas brazil colombia combination robustas sources including east africa robustas ristretto go long roast develop pleasantly bitter cocoa note arabicas go though quick roast keep bright acidity fruity notes alive capsules roast ground coffee nespresso system roast ground coffee g 201 oz capsules ristretto 100 dark medium high high high</t>
+          <t>original current italian espressos ml ristretto ml espresso powerful contrasting 100 87 dark roast hint fruity ristretto deliciously complex coffee displays roasty intense notes combination fruity notes hint acidity milk hide ristretto contrasted bouquet love rounds blend gives creamy texture 30 40 40 40 ca nt help fall ristretto canadian bestseller medium dark roast embodies italy iconic coffee culture short quick sip complex blend created using arabicas brazil colombia combination robustas sources including east africa robustas ristretto go long roast develop pleasantly bitter cocoa note arabicas go though quick roast keep bright acidity fruity notes alive capsules roast ground coffee nespresso system roast ground coffee g 201 oz capsules ristretto 100 dark medium high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1268,10 +1316,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM5" t="inlineStr">
         <is>
           <t>Charts/OL4_Ristretto Decaffeinato_Original_Taste Profile.png</t>
@@ -1279,7 +1343,7 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>original current italian espressos ml ristretto ml espresso powerful contrasting 100 92 dark roast hint fruity boldly roasty balanced soft cocoa notes may catch subtle acidity fruity notes make nespresso decaf capsule mysteriously complex 30 40 40 40 profile worthy ambassador coffee explains italians passion coffee makes sense ingrained daily life extracted classic ml soon see right italians drop deliciousness shows less truly capsules roast ground coffee nespresso system decaffeinated roast ground coffee g 201 oz capsules ristretto decaffeinato 100 dark medium high high high</t>
+          <t>original current italian espressos ml ristretto ml espresso powerful contrasting 100 92 dark roast hint fruity boldly roasty balanced soft cocoa notes may catch subtle acidity fruity notes make nespresso decaf capsule mysteriously complex 30 40 40 40 profile worthy ambassador coffee explains italians passion coffee makes sense ingrained daily life extracted classic ml soon see right italians drop deliciousness shows less truly capsules roast ground coffee nespresso system decaffeinated roast ground coffee g 201 oz capsules ristretto decaffeinato 100 dark medium high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1434,10 +1498,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM6" t="inlineStr">
         <is>
           <t>Charts/OL5_Arpeggio_Original_Taste Profile.png</t>
@@ -1445,7 +1525,7 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>original current italian espressos ml ristretto ml espresso intense creamy 90 87 intense dark roast cocoa arpeggio dense creamy combining bold roasty cocoa notes irresistible velvety texture arpeggio potent character push milk intense coffee sweet notes arabica mix well milk froth 20 40 40 40 nespresso classic arpeggio s coffees short dark roasted masterpiece come heart instance cultural artistic heart italy arabica blend created using beans brazil guatemala fine origins intense roast coffee beans develops distinct characteristics arpeggio coffees malty aroma turns cocoa notes give espresso gravitas capsules roast ground coffee nespresso system roast ground coffee g 186 oz capsules arpeggio 90 dark low high high high</t>
+          <t>original current italian espressos ml ristretto ml espresso intense creamy 90 87 intense dark roast cocoa arpeggio dense creamy combining bold roasty cocoa notes irresistible velvety texture arpeggio potent character push milk intense coffee sweet notes arabica mix well milk froth 20 40 40 40 nespresso classic arpeggio s coffees short dark roasted masterpiece come heart instance cultural artistic heart italy arabica blend created using beans brazil guatemala fine origins intense roast coffee beans develops distinct characteristics arpeggio coffees malty aroma turns cocoa notes give espresso gravitas capsules roast ground coffee nespresso system roast ground coffee g 186 oz capsules arpeggio 90 dark low high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1600,10 +1680,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM7" t="inlineStr">
         <is>
           <t>Charts/OL6_Arpeggio Decaffeinato_Original_Taste Profile.png</t>
@@ -1611,7 +1707,7 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>original current italian espressos ml ristretto ml espresso intense creamy 90 92 dark roast cocoa arpeggio decaffeinato dense creamy decaffeinated version decaffeination diminish bold roasty cocoa notes crema gives creamy velvety texture irresistible perfectly pairs milk 20 40 40 40 exquisite blend true reflection florence cultural significance intellectual hub heart italy drawing influences across country s roasting style brings influences together combining fruity notes north italy cocoa notes south culminating velvety dense creamy cup arabica blend created using beans brazil guatemala fine origins intense roast coffee beans develops distinct characteristics arpeggio coffees malty aroma turns cocoa notes give espresso gravitas capsules roast ground coffee nespresso system decaffeinated roast ground coffee g 194 oz capsules arpeggio decaffeinato 90 dark low high high high</t>
+          <t>original current italian espressos ml ristretto ml espresso intense creamy 90 92 dark roast cocoa arpeggio decaffeinato dense creamy decaffeinated version decaffeination diminish bold roasty cocoa notes crema gives creamy velvety texture irresistible perfectly pairs milk 20 40 40 40 exquisite blend true reflection florence cultural significance intellectual hub heart italy drawing influences across country s roasting style brings influences together combining fruity notes north italy cocoa notes south culminating velvety dense creamy cup arabica blend created using beans brazil guatemala fine origins intense roast coffee beans develops distinct characteristics arpeggio coffees malty aroma turns cocoa notes give espresso gravitas capsules roast ground coffee nespresso system decaffeinated roast ground coffee g 194 oz capsules arpeggio decaffeinato 90 dark low high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1766,10 +1862,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM8" t="inlineStr">
         <is>
           <t>Charts/OL7_Inspirazione Venezia_Original_Taste Profile.png</t>
@@ -1777,7 +1889,7 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>original current italian espressos ml ristretto ml espresso balanced thick body 80 87 unknown venezia mellow rounded delicately aromatic coffee remind coffee beans fresh roaster 10 30 40 40 venezia celebrates long local coffee tradition italy roast combines intense notes ottoman influence highly aromatic european coffee profiles influences arrived venetian traders led way importing coffee italy majority arabica blend coffee coming colombia brazil fairly dark roast gives venezia rounded mouthfeel mellowed acidity hint bitterness capsules roast ground coffee nespresso system roast ground coffee g 197 oz capsules inspirazione venezia 80 dark low medium high high</t>
+          <t>original current italian espressos ml ristretto ml espresso balanced thick body 80 87 unknown venezia mellow rounded delicately aromatic coffee remind coffee beans fresh roaster 10 30 40 40 venezia celebrates long local coffee tradition italy roast combines intense notes ottoman influence highly aromatic european coffee profiles influences arrived venetian traders led way importing coffee italy majority arabica blend coffee coming colombia brazil fairly dark roast gives venezia rounded mouthfeel mellowed acidity hint bitterness capsules roast ground coffee nespresso system roast ground coffee g 197 oz capsules inspirazione venezia 80 dark low medium high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -1924,10 +2036,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM9" t="inlineStr">
         <is>
           <t>Charts/OL8_Inspirazione Roma_Original_Taste Profile.png</t>
@@ -1935,7 +2063,7 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>original current italian espressos ml ristretto ml espresso full balanced 80 87 woody cereal days ancient rome great many cultures passed metropolis different layers civilization towering present day modern rome adds layer elegance rich history city ispirazione roma beautifully complex subtle balance strength roastiness depth woodsy cereal notes finesse acidity elegant aromatics 40 40 30 30 combining ancient character rome twist modernity short roast balances intensity elegant aromatics reflecting complexity great city thankfully making one less complex capsules roast ground coffee nespresso system roast ground coffee g 176 oz capsules inspirazione roma 80 dark high high medium medium</t>
+          <t>original current italian espressos ml ristretto ml espresso full balanced 80 87 woody cereal days ancient rome great many cultures passed metropolis different layers civilization towering present day modern rome adds layer elegance rich history city ispirazione roma beautifully complex subtle balance strength roastiness depth woodsy cereal notes finesse acidity elegant aromatics 40 40 30 30 combining ancient character rome twist modernity short roast balances intensity elegant aromatics reflecting complexity great city thankfully making one less complex capsules roast ground coffee nespresso system roast ground coffee g 176 oz capsules inspirazione roma 80 dark high high medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -2090,10 +2218,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM10" t="inlineStr">
         <is>
           <t>Charts/OL9_Livanto_Original_Taste Profile.png</t>
@@ -2101,7 +2245,7 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>original current italian espressos ml espresso round balanced 60 87 caramel balanced smooth rounded delicately aromatic coffee light roast develops smooth full body keeps fine aromas present toasted cereal fragrance sweet caramel notes pairs perfectly milk 30 30 30 30 honour genoa gateway world used fine latin american arabicas create sweet medium roast livanto arabica blend beans coming brazil guatemala colombia gave coffees livanto medium roast still dark enough develop caramel toasted cereal notes rounded mouthfeel preserving delicate acidity capsules roast ground coffee nespresso system roast ground coffee g 186 oz capsules livanto 60 medium medium medium medium medium</t>
+          <t>original current italian espressos ml espresso round balanced 60 87 caramel balanced smooth rounded delicately aromatic coffee light roast develops smooth full body keeps fine aromas present toasted cereal fragrance sweet caramel notes pairs perfectly milk 30 30 30 30 honour genoa gateway world used fine latin american arabicas create sweet medium roast livanto arabica blend beans coming brazil guatemala colombia gave coffees livanto medium roast still dark enough develop caramel toasted cereal notes rounded mouthfeel preserving delicate acidity capsules roast ground coffee nespresso system roast ground coffee g 186 oz capsules livanto 60 medium medium medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
@@ -2248,10 +2392,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM11" t="inlineStr">
         <is>
           <t>Charts/OL10_Cape Town Lungo_Original_Taste Profile.png</t>
@@ -2259,7 +2419,7 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>original current world explorations ml lungo potent roasted 100 92 roasted woody blend brings cape town taste coffee south africa stopping point old trade routes asian coffees shaped local taste time world explorations cape town lungo reflects preference blend indian arabica robusta results intense lungo fullbodied punchy bitter note woodsy aroma enjoy like local add splash milk long cup experience silky texture 10 40 50 40 deeproasted intense fullbodied cup woodsy aroma punchy bitterness reminiscent robusta cargo shaped cape town taste coffee capsules roast ground coffee nespresso system roast ground coffee g 194 oz capsules cape town lungo 100 dark low high high high</t>
+          <t>original current world explorations ml lungo potent roasted 100 92 roasted woody blend brings cape town taste coffee south africa stopping point old trade routes asian coffees shaped local taste time world explorations cape town lungo reflects preference blend indian arabica robusta results intense lungo fullbodied punchy bitter note woodsy aroma enjoy like local add splash milk long cup experience silky texture 10 40 50 40 deeproasted intense fullbodied cup woodsy aroma punchy bitterness reminiscent robusta cargo shaped cape town taste coffee capsules roast ground coffee nespresso system roast ground coffee g 194 oz capsules cape town lungo 100 dark low high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -2406,10 +2566,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM12" t="inlineStr">
         <is>
           <t>Charts/OL11_Miami Espresso_Original_Taste Profile.png</t>
@@ -2417,7 +2593,7 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>original current world explorations ml ristretto ml espresso roasted peppery note 90 87 roasted peppery note short dark split roasting fine grind help evoke every ventanita cuban cafecito always sweetened sprinkle brown sugar coffee vibrant context enjoyed americans grab tall coffees togo miami reflects strong hispanic influence coffee short shared intense thick crema strong roasted character begs brown sugar soften bitter notes enjoy cafecito brown sugar people miami coffee way together 10 40 50 40 walk streets miami pass dozens ventanitas little windows portholes cuba miniature coffee shops dishing small bites coffeethe short cafecito large colado share city melting pot traditions world explorations miami espresso bold blend arabica robusta coffees echoes caribbean arabica joins latin american coffees sealing authenticity archetypal cubanstyle cup americans grab tall coffees togo miami reflects strong hispanic influence coffee short shared capsules roast ground coffee nespresso system roast ground coffee unknown miami espresso 90 dark low high high high</t>
+          <t>original current world explorations ml ristretto ml espresso roasted peppery note 90 87 roasted peppery note short dark split roasting fine grind help evoke every ventanita cuban cafecito always sweetened sprinkle brown sugar coffee vibrant context enjoyed americans grab tall coffees togo miami reflects strong hispanic influence coffee short shared intense thick crema strong roasted character begs brown sugar soften bitter notes enjoy cafecito brown sugar people miami coffee way together 10 40 50 40 walk streets miami pass dozens ventanitas little windows portholes cuba miniature coffee shops dishing small bites coffeethe short cafecito large colado share city melting pot traditions world explorations miami espresso bold blend arabica robusta coffees echoes caribbean arabica joins latin american coffees sealing authenticity archetypal cubanstyle cup americans grab tall coffees togo miami reflects strong hispanic influence coffee short shared capsules roast ground coffee nespresso system roast ground coffee unknown miami espresso 90 dark low high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -2572,10 +2748,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM13" t="inlineStr">
         <is>
           <t>Charts/OL12_Rio De Janeiro Espresso_Original_Taste Profile.png</t>
@@ -2583,7 +2775,7 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>original current world explorations ml espresso cereal spicy 90 87 spicy pleasantly bitter velvetytextured cup unexpected walnut sandalwood herbal notes reminiscent thyme rosemary 10 40 40 40 embodying spirit lively colourful city espresso reflects country deeply rooted heritage growing drinking coffee rio de janeiro s unique touch sandalwood herbal notes give glimpse brazilian way life drink like local double espresso hot water arabica created using beans two distinct brazilian regions cerrado wellknown quality espirito santo brings herbal notes define coffee espirito santo beans roasted separately preserve herbal notes beans roasted together dark roasting mode enhance body intensity bitter notes capsules roast ground coffee nespresso system roast ground coffee g 194 oz capsules rio de janeiro espresso 90 dark low high high high</t>
+          <t>original current world explorations ml espresso cereal spicy 90 87 spicy pleasantly bitter velvetytextured cup unexpected walnut sandalwood herbal notes reminiscent thyme rosemary 10 40 40 40 embodying spirit lively colourful city espresso reflects country deeply rooted heritage growing drinking coffee rio de janeiro s unique touch sandalwood herbal notes give glimpse brazilian way life drink like local double espresso hot water arabica created using beans two distinct brazilian regions cerrado wellknown quality espirito santo brings herbal notes define coffee espirito santo beans roasted separately preserve herbal notes beans roasted together dark roasting mode enhance body intensity bitter notes capsules roast ground coffee nespresso system roast ground coffee g 194 oz capsules rio de janeiro espresso 90 dark low high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2739,10 +2931,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM14" t="inlineStr">
         <is>
           <t>Charts/OL13_Istanbul Espresso_Original_Taste Profile.png</t>
@@ -2750,7 +2958,7 @@
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>original current world explorations ml ristretto ml espresso roasted fruity note hint almond 80 87 fruity roasted thick velvety blend displays wild spicy fruity notes hint almond pleasant roasty aftertaste 40 30 30 30 istanbul espresso takes back time original coffeehouses intense ambrosial brew bursts boldness wild ripe fruits delicate almond touch thick velvety homage turkish coffee ethiopian arabica indian robusta remind us city crossroads ancient coffee trade routes blend composed mostly ethiopian arabica beans indian robustas coffees come together bring complex profile bitterness acidity wild fruitiness roasted notes classic splitroast high intensity average roasting time batches separated arabicas robustas precise roast capsules roast ground coffee nespresso system roast ground coffee g 197 oz capsules istanbul espresso 80 dark high medium medium medium</t>
+          <t>original current world explorations ml ristretto ml espresso roasted fruity note hint almond 80 87 fruity roasted thick velvety blend displays wild spicy fruity notes hint almond pleasant roasty aftertaste 40 30 30 30 istanbul espresso takes back time original coffeehouses intense ambrosial brew bursts boldness wild ripe fruits delicate almond touch thick velvety homage turkish coffee ethiopian arabica indian robusta remind us city crossroads ancient coffee trade routes blend composed mostly ethiopian arabica beans indian robustas coffees come together bring complex profile bitterness acidity wild fruitiness roasted notes classic splitroast high intensity average roasting time batches separated arabicas robustas precise roast capsules roast ground coffee nespresso system roast ground coffee g 197 oz capsules istanbul espresso 80 dark high medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -2905,10 +3113,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM15" t="inlineStr">
         <is>
           <t>Charts/OL14_Stockholm Lungo_Original_Taste Profile.png</t>
@@ -2916,7 +3140,7 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>original current world explorations ml lungo rich fullbodied 80 92 roasted stockholm lungo coffee sweet cereal malty toasted notes lies beneath veil acidity lively bittereness paired milk coffee reveals additional sweet biscuit toffee notes 20 30 40 30 swedes among world big coffee consumers wander around stockholm often find intense black coffees malty savoury note coming distinctive monsoon arabica stockholm lungo recreates aromatic profile swedish coffee coupling monsooned malabar colombian arabica rich combination beans coming colombia costa rica india late undergoing particular monsooning process defines coffee sensorial profile monsooned arabica gets dark roast enhance body cereal notes light roast washed colombian coffee means classic fine aromatics stay balance capsules roast ground coffee nespresso system roast ground coffee g 211 oz capsules stockholm lungo 80 dark low medium high medium</t>
+          <t>original current world explorations ml lungo rich fullbodied 80 92 roasted stockholm lungo coffee sweet cereal malty toasted notes lies beneath veil acidity lively bittereness paired milk coffee reveals additional sweet biscuit toffee notes 20 30 40 30 swedes among world big coffee consumers wander around stockholm often find intense black coffees malty savoury note coming distinctive monsoon arabica stockholm lungo recreates aromatic profile swedish coffee coupling monsooned malabar colombian arabica rich combination beans coming colombia costa rica india late undergoing particular monsooning process defines coffee sensorial profile monsooned arabica gets dark roast enhance body cereal notes light roast washed colombian coffee means classic fine aromatics stay balance capsules roast ground coffee nespresso system roast ground coffee g 211 oz capsules stockholm lungo 80 dark low medium high medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
@@ -3071,10 +3295,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM16" t="inlineStr">
         <is>
           <t>Charts/OL15_Paris Espresso_Original_Taste Profile.png</t>
@@ -3082,7 +3322,7 @@
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>original current world explorations ml espresso cereal biscuity hint citrus 60 87 citrus biscuity citrus paris espresso balanced coffee light bitterness cereal biscuity notes pleasant acidity hint citrus paired milk coffee reveals caramelic biscuity note bitter almond touch 20 30 30 30 live authentic parisian café experience people enjoy philosophizing coffee world explorations paris espresso transports terraces balanced blend arabicas emboldened vietnamese robusta delicately bitter cup cereal citrus notes blend arabicas brazil colombia combined touch topgrade robusta beans vietnam adds pleasant bitter note coffee classic split roast average roasting intensity time arabicas robustas separated batches robusta part lightly roasted allow delicate arabica notes stand capsules roast ground coffee nespresso system roast ground coffee g 176 oz capsules paris espresso 60 medium low medium medium medium</t>
+          <t>original current world explorations ml espresso cereal biscuity hint citrus 60 87 citrus biscuity citrus paris espresso balanced coffee light bitterness cereal biscuity notes pleasant acidity hint citrus paired milk coffee reveals caramelic biscuity note bitter almond touch 20 30 30 30 live authentic parisian café experience people enjoy philosophizing coffee world explorations paris espresso transports terraces balanced blend arabicas emboldened vietnamese robusta delicately bitter cup cereal citrus notes blend arabicas brazil colombia combined touch topgrade robusta beans vietnam adds pleasant bitter note coffee classic split roast average roasting intensity time arabicas robustas separated batches robusta part lightly roasted allow delicate arabica notes stand capsules roast ground coffee nespresso system roast ground coffee g 176 oz capsules paris espresso 60 medium low medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
@@ -3225,10 +3465,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM17" t="inlineStr">
         <is>
           <t>Charts/OL16_Vienna Lungo_Original_Taste Profile.png</t>
@@ -3236,7 +3492,7 @@
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>original current world explorations ml lungo round smooth 60 92 vienna coffeehouse tradition shaped coffee culture vibrant city known many recipes smoothness coffee world explorations vienna lungo recreates balanced pleasant viennese taste pairing sweet brazilian colombian arabicas lightly roasted experts enhance malty aromatic notes cup enjoy like local top lungo hot water 150ml cup pair slice cake 10 20 30 20 coffeehouse home coffee gathering balanced blend smooth silky south american arabicas pairs perfectly viennoiserie capsules roast ground coffee nespresso system roast ground coffee g 194 oz capsules vienna lungo 60 medium low low medium low</t>
+          <t>original current world explorations ml lungo round smooth 60 92 vienna coffeehouse tradition shaped coffee culture vibrant city known many recipes smoothness coffee world explorations vienna lungo recreates balanced pleasant viennese taste pairing sweet brazilian colombian arabicas lightly roasted experts enhance malty aromatic notes cup enjoy like local top lungo hot water 150ml cup pair slice cake 10 20 30 20 coffeehouse home coffee gathering balanced blend smooth silky south american arabicas pairs perfectly viennoiserie capsules roast ground coffee nespresso system roast ground coffee g 194 oz capsules vienna lungo 60 medium low low medium low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
@@ -3391,10 +3647,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM18" t="inlineStr">
         <is>
           <t>Charts/OL17_Tokyo Lungo_Original_Taste Profile.png</t>
@@ -3402,7 +3674,7 @@
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>original current world explorations ml lungo floral complex 60 92 roasted tokyo lungo combines delicate flowery notes refined toasted cereal notes hint fruit 10 20 30 30 known tea japanese also real affinity coffee striving sophistication natural sweetness love rich coffee balance elegant aromas tokyo lungo captures essence preferences refined ethiopian mexican arabicas floral notes delicate acidity coming lightly roasted ethiopian arabica contrast beautifully rich flavours mexican washed arabica ethiopian beans go fast roast preserves acidity flowery notes mexican beans roasted long develop intensity capsules roast ground coffee nespresso system roast ground coffee g 204 oz capsules tokyo lungo 60 medium low low medium medium</t>
+          <t>original current world explorations ml lungo floral complex 60 92 roasted tokyo lungo combines delicate flowery notes refined toasted cereal notes hint fruit 10 20 30 30 known tea japanese also real affinity coffee striving sophistication natural sweetness love rich coffee balance elegant aromas tokyo lungo captures essence preferences refined ethiopian mexican arabicas floral notes delicate acidity coming lightly roasted ethiopian arabica contrast beautifully rich flavours mexican washed arabica ethiopian beans go fast roast preserves acidity flowery notes mexican beans roasted long develop intensity capsules roast ground coffee nespresso system roast ground coffee g 204 oz capsules tokyo lungo 60 medium low low medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
@@ -3549,10 +3821,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM19" t="inlineStr">
         <is>
           <t>Charts/OL18_Shanghai Lungo_Original_Taste Profile.png</t>
@@ -3560,7 +3848,7 @@
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>original current world explorations ml lungo fruity fine acidity 50 92 berry world explorations shanghai lungo insight emerging asian coffee culture crafted kenyan chinese indonesian arabicas distinctive lightroast blend please palate berry notes fine acidity enjoy like local lengthen long cup coffee splash cream take onthego 20 10 20 20 venice long history importing world coffees expertly roasting diverse coffees harmony expertise inspired beautifully balanced roast ispirazione venezia worthy noble dessert classic caramel cereal notes coffee marry elegantly decadent ingredients rich tiramisu capsules roast ground coffee nespresso system roast ground coffee g 197 oz capsules shanghai lungo 50 medium low low low low</t>
+          <t>original current world explorations ml lungo fruity fine acidity 50 92 berry world explorations shanghai lungo insight emerging asian coffee culture crafted kenyan chinese indonesian arabicas distinctive lightroast blend please palate berry notes fine acidity enjoy like local lengthen long cup coffee splash cream take onthego 20 10 20 20 venice long history importing world coffees expertly roasting diverse coffees harmony expertise inspired beautifully balanced roast ispirazione venezia worthy noble dessert classic caramel cereal notes coffee marry elegantly decadent ingredients rich tiramisu capsules roast ground coffee nespresso system roast ground coffee g 197 oz capsules shanghai lungo 50 medium low low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -3707,10 +3995,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM20" t="inlineStr">
         <is>
           <t>Charts/OL19_Buenos Aires Lungo_Original_Taste Profile.png</t>
@@ -3718,7 +4022,7 @@
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>original current world explorations ml lungo sweet cereal 40 92 cereal caramel world explorations buenos aires lungo blends gently roasted colombian arabica ugandan robusta deliver distinct cereal sweet popcorn notes tribute city love smooth long cups drink like local add generous drop milk sugar lungo extra treat 20 10 10 30 destination true foodies buenos aires highlight argentina vibrant food scene sweetness prevails coffee exception love sweet milky capsules roast ground coffee nespresso system roast ground coffee g 197 oz capsules buenos aires lungo 40 blonde low low low medium</t>
+          <t>original current world explorations ml lungo sweet cereal 40 92 cereal caramel world explorations buenos aires lungo blends gently roasted colombian arabica ugandan robusta deliver distinct cereal sweet popcorn notes tribute city love smooth long cups drink like local add generous drop milk sugar lungo extra treat 20 10 10 30 destination true foodies buenos aires highlight argentina vibrant food scene sweetness prevails coffee exception love sweet milky capsules roast ground coffee nespresso system roast ground coffee g 197 oz capsules buenos aires lungo 40 blonde low low low medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
@@ -3873,10 +4177,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM21" t="inlineStr">
         <is>
           <t>Charts/OL20_India_Original_Taste Profile.png</t>
@@ -3884,7 +4204,7 @@
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>original current master origins ml espresso lungo unknown 110 97 intense spicy monsooned coffee unique india southwest coast offering powerful cup distinct intense woody spicy notes come mostly robusta part blend perfectly pairs milk 10 40 40 30 india distinctive robusta monsooning process exposes coffee beans monsoonal ocean winds causing swell dry transform flavour local craftsmen spend months attending drying coffee beans develop renowned spicy flavor syrupy body taste indian coffee blend arabica robusta blend exclusively created beans india split roast blend medium slightly short roast separating arabicas robustas keep distinct characteristics alive capsules roast ground coffee nespresso system roast ground coffee g 194 oz capsules india 110 dark low high high medium</t>
+          <t>original current master origins ml espresso lungo unknown 110 97 intense spicy monsooned coffee unique india southwest coast offering powerful cup distinct intense woody spicy notes come mostly robusta part blend perfectly pairs milk 10 40 40 30 india distinctive robusta monsooning process exposes coffee beans monsoonal ocean winds causing swell dry transform flavour local craftsmen spend months attending drying coffee beans develop renowned spicy flavor syrupy body taste indian coffee blend arabica robusta blend exclusively created beans india split roast blend medium slightly short roast separating arabicas robustas keep distinct characteristics alive capsules roast ground coffee nespresso system roast ground coffee g 194 oz capsules india 110 dark low high high medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -4039,10 +4359,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM22" t="inlineStr">
         <is>
           <t>Charts/OL21_Indonesia - Fairtrade_Original_Taste Profile.png</t>
@@ -4050,7 +4386,7 @@
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>original current master origins ml espresso lungo wet hulled arabica 80 97 intense rich cereal woody master origins indonesia thick velvety body cured tobacco notes hint tropical woody aromastry master origins indonesia wethulled arabica dash milk nutty woody roasted notes emerge intense master origins coffee milk 20 30 40 30 sumatran farmers wethull coffee humid climate remove parchment coffee soft moist exposed beans dry fast method unique produces classic indonesian taste velvety thick wildly aromatic notes cured tobacco coffee exclusively created fairtrade beans indonesia split roast single origin coffee medium slightly short average roast split roasting sumatra coffee brings great aromatic complexity cup capsules roast ground coffee nespresso system roast ground coffee g 197 oz capsules indonesia fairtrade 80 dark low medium high medium</t>
+          <t>original current master origins ml espresso lungo wet hulled arabica 80 97 intense rich cereal woody master origins indonesia thick velvety body cured tobacco notes hint tropical woody aromastry master origins indonesia wethulled arabica dash milk nutty woody roasted notes emerge intense master origins coffee milk 20 30 40 30 sumatran farmers wethull coffee humid climate remove parchment coffee soft moist exposed beans dry fast method unique produces classic indonesian taste velvety thick wildly aromatic notes cured tobacco coffee exclusively created fairtrade beans indonesia split roast single origin coffee medium slightly short average roast split roasting sumatra coffee brings great aromatic complexity cup capsules roast ground coffee nespresso system roast ground coffee g 197 oz capsules indonesia fairtrade 80 dark low medium high medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
@@ -4205,10 +4541,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM23" t="inlineStr">
         <is>
           <t>Charts/OL22_Colombia_Original_Taste Profile.png</t>
@@ -4216,7 +4568,7 @@
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>original current master origins ml espresso lungo late harvest arabica 60 97 winey master origins colombia smooth fruity coffee bright acidity winey red fruit notes blackcurrant cranberry paired milk coffee reveals additional sweet biscuit notes 40 30 30 20 master origins colombia late harvest uses highgrown washed processed colombian arabica taste lively acidity burst winey red fruit aromas comes coffee farmers dared wait long harvesting crop made late harvest arabica harvesting technique leaves cherry plant slightly long amplify acidity winey notes average short roast medium temperatures keeps deep delicate aromatics master origins colombia balance capsules roast ground coffee nespresso system roast ground coffee g 201 oz capsules colombia 60 medium high medium medium low</t>
+          <t>original current master origins ml espresso lungo late harvest arabica 60 97 winey master origins colombia smooth fruity coffee bright acidity winey red fruit notes blackcurrant cranberry paired milk coffee reveals additional sweet biscuit notes 40 30 30 20 master origins colombia late harvest uses highgrown washed processed colombian arabica taste lively acidity burst winey red fruit aromas comes coffee farmers dared wait long harvesting crop made late harvest arabica harvesting technique leaves cherry plant slightly long amplify acidity winey notes average short roast medium temperatures keeps deep delicate aromatics master origins colombia balance capsules roast ground coffee nespresso system roast ground coffee g 201 oz capsules colombia 60 medium high medium medium low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -4363,10 +4715,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM24" t="inlineStr">
         <is>
           <t>Charts/OL23_Peru Organic_Original_Taste Profile.png</t>
@@ -4374,7 +4742,7 @@
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>original current master origins ml espresso lungo high andes 60 97 fruity elegant organic arabica crafted remote smallholder farmers peru remote andes mountains graced smooth toasted cereal fruit notes going great lengths source fine organic peruvian coffee natural take care roasting coffee peru organic single origin coffee roasted two parts bring nuanced complexity final cup two splits lightly roasted highlight bright smooth character blend revealing exotic fruity notes 40 30 30 30 traveled across remote peruvian regions search fine organic arabica beans high meters tucked slopes andes found blessed meticulous care smallholder farmers peru organic elegant fruity coffee accented smooth toasted cereal note capsules roast ground coffee nespresso system roast ground coffee g 204 oz capsules peru organic original 60 medium high medium medium medium</t>
+          <t>original current master origins ml espresso lungo high andes 60 97 fruity elegant organic arabica crafted remote smallholder farmers peru remote andes mountains graced smooth toasted cereal fruit notes going great lengths source fine organic peruvian coffee natural take care roasting coffee peru organic single origin coffee roasted two parts bring nuanced complexity final cup two splits lightly roasted highlight bright smooth character blend revealing exotic fruity notes 40 30 30 30 traveled across remote peruvian regions search fine organic arabica beans high meters tucked slopes andes found blessed meticulous care smallholder farmers peru organic elegant fruity coffee accented smooth toasted cereal note capsules roast ground coffee nespresso system roast ground coffee g 204 oz capsules peru organic original 60 medium high medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -4525,10 +4893,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM25" t="inlineStr">
         <is>
           <t>Charts/OL24_Nicaragua_Original_Taste Profile.png</t>
@@ -4536,7 +4920,7 @@
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>original current master origins ml espresso lungo blackhoney processed arabica 50 97 sweet blackhoney processed arabica master origins nicaragua nectarous coffee satiny smooth texture warming sweet cereal notes distinct sweetness comes rare blackhoney process like milk froth master origins nicaragua blackhoney processed arabica makes rich latte macchiato coffee milk balanced nutty roasted notes surface 20 20 20 10 black honey processing easy road nectarous coffee farmers dare rare process calls meticulous monitoring master origins nicaragua blackhoney processed arabica contains coffee gives nicaraguan arabica smooth honeyed texture sweet cereal notes arabica singleorigin nicaraguan coffee contains blackhoney processed beans give smooth texture sweet cereal notes capsules roast ground coffee nespresso system roast ground coffee g 176 oz capsules nicaragua 50 medium low low low low</t>
+          <t>original current master origins ml espresso lungo blackhoney processed arabica 50 97 sweet blackhoney processed arabica master origins nicaragua nectarous coffee satiny smooth texture warming sweet cereal notes distinct sweetness comes rare blackhoney process like milk froth master origins nicaragua blackhoney processed arabica makes rich latte macchiato coffee milk balanced nutty roasted notes surface 20 20 20 10 black honey processing easy road nectarous coffee farmers dare rare process calls meticulous monitoring master origins nicaragua blackhoney processed arabica contains coffee gives nicaraguan arabica smooth honeyed texture sweet cereal notes arabica singleorigin nicaraguan coffee contains blackhoney processed beans give smooth texture sweet cereal notes capsules roast ground coffee nespresso system roast ground coffee g 176 oz capsules nicaragua 50 medium low low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
@@ -4683,10 +5067,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM26" t="inlineStr">
         <is>
           <t>Charts/OL25_Ethiopia_Original_Taste Profile.png</t>
@@ -4694,7 +5094,7 @@
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>original current master origins ml espresso lungo ethiopia dry processed arabica 40 97 fruity orange blossom aroma rich fruit jam notes come sundried coffee master origins ethiopia dry processed arabica continually handturning coffee cherry ensure even drying calls great care ethiopian farmers used method long anyone else like milk coffee try master origins ethiopia dry processed arabica milk froth make cappuccino find delicate floral notes still smoothly dancing cup coffee milk 40 20 20 10 ethiopian arabica fine decadently aromatic capsules roast ground coffee nespresso system roast ground coffee g 197 oz capsules ethiopia original 40 blonde high low low low</t>
+          <t>original current master origins ml espresso lungo ethiopia dry processed arabica 40 97 fruity orange blossom aroma rich fruit jam notes come sundried coffee master origins ethiopia dry processed arabica continually handturning coffee cherry ensure even drying calls great care ethiopian farmers used method long anyone else like milk coffee try master origins ethiopia dry processed arabica milk froth make cappuccino find delicate floral notes still smoothly dancing cup coffee milk 40 20 20 10 ethiopian arabica fine decadently aromatic capsules roast ground coffee nespresso system roast ground coffee g 197 oz capsules ethiopia original 40 blonde high low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
@@ -4839,10 +5239,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM27" t="inlineStr">
         <is>
           <t>Charts/OL26_Cioccolatino_Original_Taste Profile.png</t>
@@ -4850,7 +5266,7 @@
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>original current barista creations ml lungo cappuccino latte macchiato chocolate flavoured 97 chocolate flavoured biscuity flavoured blend delights elegant dark chocolate flavour complemented notes biscuit cereal 30 20 20 20 made name changes barista creations flavoured range original good reflect various changes made recipe flavouring extracts recommended cup size barista creations flavoured cioccolato brings together exquisite flavour dark chocolate signature taste roasted coffee smooth latin american arabica blend meets timeless rich chocolate flavour deep layers flavour emerge ready create coffee moment keep coming back decadence make cappuccinoan elegant nutty note unfolds finishing touch chocolate flavour capsules roast ground coffee nespresso system roast ground coffee natural flavour g 176 oz capsules cioccolatino 60 medium medium low low low</t>
+          <t>original current barista creations ml lungo cappuccino latte macchiato chocolate flavoured 97 chocolate flavoured biscuity flavoured blend delights elegant dark chocolate flavour complemented notes biscuit cereal 30 20 20 20 made name changes barista creations flavoured range original good reflect various changes made recipe flavouring extracts recommended cup size barista creations flavoured cioccolato brings together exquisite flavour dark chocolate signature taste roasted coffee smooth latin american arabica blend meets timeless rich chocolate flavour deep layers flavour emerge ready create coffee moment keep coming back decadence make cappuccinoan elegant nutty note unfolds finishing touch chocolate flavour capsules roast ground coffee nespresso system roast ground coffee natural flavour g 176 oz capsules cioccolatino 60 medium medium low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
@@ -4995,10 +5411,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM28" t="inlineStr">
         <is>
           <t>Charts/OL27_Vaniglia_Original_Taste Profile.png</t>
@@ -5006,7 +5438,7 @@
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>original current barista creations ml lungo cappuccino latte macchiato vanilla flavoured 97 flavoured vanilla flavoured blend delights classic vanilla flavour combined sweet biscuit cereal notes 30 20 20 20 made name changes barista creations flavoured range original good reflect various changes made recipe flavouring extracts recommended cup size craft barista creations flavoured vaniglia brought custardy vanilla flavour smooth base blend arabica beans brazil colombia combination brazilian bourbon variety sweetness lively character washed colombian coffee perfect landing complex warming nature beloved vanilla flavour coffee blend mellow malted cereal notes bring rounded silky taste elegantly complements classic vanilla try cappuccino may remind favourite vanilla cake capsules roast ground coffee nespresso system roast ground coffee natural flavour g 176 oz capsules vaniglia 60 medium medium low low low</t>
+          <t>original current barista creations ml lungo cappuccino latte macchiato vanilla flavoured 97 flavoured vanilla flavoured blend delights classic vanilla flavour combined sweet biscuit cereal notes 30 20 20 20 made name changes barista creations flavoured range original good reflect various changes made recipe flavouring extracts recommended cup size craft barista creations flavoured vaniglia brought custardy vanilla flavour smooth base blend arabica beans brazil colombia combination brazilian bourbon variety sweetness lively character washed colombian coffee perfect landing complex warming nature beloved vanilla flavour coffee blend mellow malted cereal notes bring rounded silky taste elegantly complements classic vanilla try cappuccino may remind favourite vanilla cake capsules roast ground coffee nespresso system roast ground coffee natural flavour g 176 oz capsules vaniglia 60 medium medium low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -5151,10 +5583,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM29" t="inlineStr">
         <is>
           <t>Charts/OL28_Nocciola_Original_Taste Profile.png</t>
@@ -5162,7 +5610,7 @@
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>original current barista creations ml lungo cappuccino latte macchiato hazelnut flavoured 97 flavoured biscuity hazelnut flavoured blend delights classic hazelnut flavour complemented notes praline biscuit cereals 30 20 20 20 made name changes barista creations flavoured range original good reflect various changes made recipe flavouring extracts recommended cup size nothing beats classic barista creations flavoured nocciola delivers rich roasted hazelnut flavour cascades smooth latin american arabica blend coffee malted cereal character comes caramelized nutty noteyour cue slow savour coffee moment stretch momentmake cappuccino milky delight hazelnut flavour taking delicious praline character linger capsules roast ground coffee nespresso system artificially flavoured hazelnut roast ground coffee unknown nocciola 60 medium medium low low low</t>
+          <t>original current barista creations ml lungo cappuccino latte macchiato hazelnut flavoured 97 flavoured biscuity hazelnut flavoured blend delights classic hazelnut flavour complemented notes praline biscuit cereals 30 20 20 20 made name changes barista creations flavoured range original good reflect various changes made recipe flavouring extracts recommended cup size nothing beats classic barista creations flavoured nocciola delivers rich roasted hazelnut flavour cascades smooth latin american arabica blend coffee malted cereal character comes caramelized nutty noteyour cue slow savour coffee moment stretch momentmake cappuccino milky delight hazelnut flavour taking delicious praline character linger capsules roast ground coffee nespresso system artificially flavoured hazelnut roast ground coffee unknown nocciola 60 medium medium low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -5307,10 +5755,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM30" t="inlineStr">
         <is>
           <t>Charts/OL29_Caramello_Original_Taste Profile.png</t>
@@ -5318,7 +5782,7 @@
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>original current barista creations ml lungo cappuccino latte macchiato caramel flavoured 97 flavoured caramel flavoured blend delights classic caramel flavour combined sweet biscuit nutty notes 30 20 20 20 made name changes barista creations flavoured range original good reflect various changes made recipe flavouring extracts recommended cup sizewhen nutty sweetness classically decadent caramel flavour meets base blend south american arabicas barista creations flavoured caramello irresistible invitation treat caramel creamy nuttiness way rounding coffee delicious biscuit note effortlessly complementing smooth taste light roasting brazilian colombian beans ensures texture tastes aromas coffee right carrying unmistakable caramel flavour make cappuccino momentmilk brings caramel biscuit notes capsules artificially flavoured caramel roast ground coffee nespresso system roast ground coffee artificial flavour g 176 oz capsules caramello 60 medium medium low low low</t>
+          <t>original current barista creations ml lungo cappuccino latte macchiato caramel flavoured 97 flavoured caramel flavoured blend delights classic caramel flavour combined sweet biscuit nutty notes 30 20 20 20 made name changes barista creations flavoured range original good reflect various changes made recipe flavouring extracts recommended cup sizewhen nutty sweetness classically decadent caramel flavour meets base blend south american arabicas barista creations flavoured caramello irresistible invitation treat caramel creamy nuttiness way rounding coffee delicious biscuit note effortlessly complementing smooth taste light roasting brazilian colombian beans ensures texture tastes aromas coffee right carrying unmistakable caramel flavour make cappuccino momentmilk brings caramel biscuit notes capsules artificially flavoured caramel roast ground coffee nespresso system roast ground coffee artificial flavour g 176 oz capsules caramello 60 medium medium low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -5443,10 +5907,26 @@
           <t>Dark</t>
         </is>
       </c>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AI31" t="inlineStr">
         <is>
           <t>Low</t>
@@ -5474,7 +5954,7 @@
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>original current barista creations cappuccino latte macchiato spicy slightly smoked 97 intense barista creations corto took inspiration dark roasts thick textures created expert baristas spain easily recognizable raw strength intense roasty character corto punch milk rich aftertaste elegant bitterness thick textured body dash hot milk milk froth crowning cup experience corto traditional cortado recipe way 10 50 50 10 inspired dark roasted tastes thick textures created expert baristas spain selected blend african arabicas robusta roasted long dark create powerful fullbodied taste becomes smooth creamy splash milk capsules roast ground coffee nespresso system natural flavouring roast ground coffee g 204 oz capsules corto 110 dark low high high low</t>
+          <t>original current barista creations cappuccino latte macchiato spicy slightly smoked 97 intense barista creations corto took inspiration dark roasts thick textures created expert baristas spain easily recognizable raw strength intense roasty character corto punch milk rich aftertaste elegant bitterness thick textured body dash hot milk milk froth crowning cup experience corto traditional cortado recipe way 10 50 50 10 inspired dark roasted tastes thick textures created expert baristas spain selected blend african arabicas robusta roasted long dark create powerful fullbodied taste becomes smooth creamy splash milk capsules roast ground coffee nespresso system natural flavouring roast ground coffee g 204 oz capsules corto 110 dark medium medium medium medium low high high low</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
@@ -5607,10 +6087,26 @@
           <t>Dark</t>
         </is>
       </c>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AI32" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5638,7 +6134,7 @@
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>original current barista creations cappuccino latte macchiato balanced biscuit notes 97 roasted balanced intense coffee remains beautifully balance milk roasty enough push milk delicate sweetness tempers intensity make compelling cappuccino 30 30 20 30 taking inspiration melbourne baristas masters robust perfectly balanced tastes orchestrated ideal marriage using meticulous combination topgrade colombian ethiopian arabicas scuro contrasting roasting profile part coffee getting long dark roast part roasted much fast light capsules roast ground coffee nespresso system roast ground coffee g 176 oz capsules scuro 80 dark medium medium low medium</t>
+          <t>original current barista creations cappuccino latte macchiato balanced biscuit notes 97 roasted balanced intense coffee remains beautifully balance milk roasty enough push milk delicate sweetness tempers intensity make compelling cappuccino 30 30 20 30 taking inspiration melbourne baristas masters robust perfectly balanced tastes orchestrated ideal marriage using meticulous combination topgrade colombian ethiopian arabicas scuro contrasting roasting profile part coffee getting long dark roast part roasted much fast light capsules roast ground coffee nespresso system roast ground coffee g 176 oz capsules scuro 80 dark medium medium medium medium medium medium low medium</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -5763,10 +6259,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AI33" t="inlineStr">
         <is>
           <t>High</t>
@@ -5794,7 +6306,7 @@
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>original current barista creations cappuccino latte macchiato notes caramel sweet biscuits 97 balanced sweet biscuity barista creations chiaro hardly hint roastiness almost bitterness acidity perceive creamy caramel sweet biscuit notes add milk baristas brooklyn inspired us way light roast values natural sweetness coffee lends decadent smoothness cup add milk 50 10 10 40 inspired baristas brooklyn value natural sweetness coffee apply light roast protect capsules roast ground coffee nespresso system roast ground coffee g 168 oz capsules chiaro 60 medium high low low high</t>
+          <t>original current barista creations cappuccino latte macchiato notes caramel sweet biscuits 97 balanced sweet biscuity barista creations chiaro hardly hint roastiness almost bitterness acidity perceive creamy caramel sweet biscuit notes add milk baristas brooklyn inspired us way light roast values natural sweetness coffee lends decadent smoothness cup add milk 50 10 10 40 inspired baristas brooklyn value natural sweetness coffee apply light roast protect capsules roast ground coffee nespresso system roast ground coffee g 168 oz capsules chiaro 60 medium medium medium medium medium high low low high</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -5949,10 +6461,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM34" t="inlineStr">
         <is>
           <t>Charts/OL33_Capriccio_Original_Taste Profile.png</t>
@@ -5960,7 +6488,7 @@
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>original current original collection ml espresso rich distinctive 50 87 balanced cereal capriccio rich profile combines fine acidity delicious toasted cereal notes touch bitterness enjoyed cappuccino latte macchiato pure moment indulgence 30 30 20 20 capriccio rich unique espresso ready astonish complex balanced bouquet distinct cereal notes characteristic brazilian arabica touch robusta use capriccio surprises fine acidity gleams coming highgrown south american arabicas light roast one first four coffees launched capriccio carefully created combining fine lightroasted arabicas brazil colombia touch topquality robusta capriccio gets light roast preserve fine acidity shimmers rich cereal notes light roasting also develops rich profile unique capriccio capsules roast ground coffee nespresso system roast ground coffee g 176 oz capsules capriccio 50 medium medium medium low low</t>
+          <t>original current original collection ml espresso rich distinctive 50 87 balanced cereal capriccio rich profile combines fine acidity delicious toasted cereal notes touch bitterness enjoyed cappuccino latte macchiato pure moment indulgence 30 30 20 20 capriccio rich unique espresso ready astonish complex balanced bouquet distinct cereal notes characteristic brazilian arabica touch robusta use capriccio surprises fine acidity gleams coming highgrown south american arabicas light roast one first four coffees launched capriccio carefully created combining fine lightroasted arabicas brazil colombia touch topquality robusta capriccio gets light roast preserve fine acidity shimmers rich cereal notes light roasting also develops rich profile unique capriccio capsules roast ground coffee nespresso system roast ground coffee g 176 oz capsules capriccio 50 medium medium medium low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
@@ -6115,10 +6643,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM35" t="inlineStr">
         <is>
           <t>Charts/OL34_Cosi_Original_Taste Profile.png</t>
@@ -6126,7 +6670,7 @@
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>original current original collection ml espresso mild delicately roasted 40 87 fruity cereal delicate pairing fruity flavors toasted cereal notes cosi low bitterness roastiness body classic aromatics harmonious balance cosi milk takes indulgent silky texture sweet biscuit notes 30 20 20 20 one nespresso s og cosi s light roasted classic coffees keeps distinguished aromatics alive meets palate smile rich combination arabicas costa rica kenya south american countries kenyan arabicas provide zesty acidity present cosi coffee roasters give light roast latin american east african coffees ensuring heart soul shines cup capsules roast ground coffee nespresso system roast ground coffee g 176 oz capsules cosi 40 blonde medium low low low</t>
+          <t>original current original collection ml espresso mild delicately roasted 40 87 fruity cereal delicate pairing fruity flavors toasted cereal notes cosi low bitterness roastiness body classic aromatics harmonious balance cosi milk takes indulgent silky texture sweet biscuit notes 30 20 20 20 one nespresso s og cosi s light roasted classic coffees keeps distinguished aromatics alive meets palate smile rich combination arabicas costa rica kenya south american countries kenyan arabicas provide zesty acidity present cosi coffee roasters give light roast latin american east african coffees ensuring heart soul shines cup capsules roast ground coffee nespresso system roast ground coffee g 176 oz capsules cosi 40 blonde medium low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
@@ -6281,10 +6825,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM36" t="inlineStr">
         <is>
           <t>Charts/OL35_Volluto_Original_Taste Profile.png</t>
@@ -6292,7 +6852,7 @@
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>original current original collection ml espresso sweet light 40 87 balanced fruity cereal like fresh ovenbaked brioche volluto irresistible perfume comforting sweet biscuit notes touch winey fruitiness enlivens blend pairs perfectly milk 30 20 20 30 volluto sunny living natural brazilian arabica mellows preshipment resting time medium roast softens brazil cereal notes turns sweet biscuit washed arabica colombia brings delightful fresh red fruit notes blend volluto delicious profile created combining sweet mellowness brazilian arabicas winey fruitiness colombian arabicas lightly roasted given medium grind keep harmony roast turns brazil cereal notes sweet biscuit keeps fruity notes colombian beans alive capsules roast ground coffee nespresso system roast ground coffee g 176 oz capsules volluto 40 blonde medium low low medium</t>
+          <t>original current original collection ml espresso sweet light 40 87 balanced fruity cereal like fresh ovenbaked brioche volluto irresistible perfume comforting sweet biscuit notes touch winey fruitiness enlivens blend pairs perfectly milk 30 20 20 30 volluto sunny living natural brazilian arabica mellows preshipment resting time medium roast softens brazil cereal notes turns sweet biscuit washed arabica colombia brings delightful fresh red fruit notes blend volluto delicious profile created combining sweet mellowness brazilian arabicas winey fruitiness colombian arabicas lightly roasted given medium grind keep harmony roast turns brazil cereal notes sweet biscuit keeps fruity notes colombian beans alive capsules roast ground coffee nespresso system roast ground coffee g 176 oz capsules volluto 40 blonde medium low low medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
@@ -6435,10 +6995,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
-      <c r="AL37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM37" t="inlineStr">
         <is>
           <t>Charts/OL36_Volluto Decaffeinato_Original_Taste Profile.png</t>
@@ -6446,7 +7022,7 @@
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>original current original collection sweet light 40 87 balanced fruity cereal volluto decaffeinato faithful form brazilian colombian coffees carefully composed gently decaffeinated sunny living decaffeinate naturally make sure coffee beans quality taste protected much possible volluto volluto decaffeinato milk taste irresistible charm easy sweet biscuit caramel notes splash lively fruit aromas 30 20 20 20 sweet light delightfully balanced cereal fruity notes volluto easy way capsules roast ground coffee nespresso system decaffeinated roast ground coffee g 176 oz capsules volluto decaffeinato 40 blonde medium low low low</t>
+          <t>original current original collection sweet light 40 87 balanced fruity cereal volluto decaffeinato faithful form brazilian colombian coffees carefully composed gently decaffeinated sunny living decaffeinate naturally make sure coffee beans quality taste protected much possible volluto volluto decaffeinato milk taste irresistible charm easy sweet biscuit caramel notes splash lively fruit aromas 30 20 20 20 sweet light delightfully balanced cereal fruity notes volluto easy way capsules roast ground coffee nespresso system decaffeinated roast ground coffee g 176 oz capsules volluto decaffeinato 40 blonde medium low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
@@ -6595,10 +7171,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM38" t="inlineStr">
         <is>
           <t>Charts/OL37_Filter Style Mild_Original_Taste Profile.png</t>
@@ -6606,7 +7198,7 @@
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>original current online exclusive filter style coffees ml lungo floral malted cereal 105 roasted floral catch filter style mild heady florals revised capsule design unlocks complex long cup peach acidity alluring malted caramel sweetness 10 10 30 10 revised capsule design unlocks aromatic filter style brew lightbodied delicate veil crema filter style mild easytodrink morning cup characterized heady aroma jasmine orange blossoms juicy peach acidity subtle malty cereal note ribbon liquorice caramel sweetness complex alluring coffee membrane capsules fully recyclable smelling aromas fresh arabica coffee ground peeling capsule membrane rediscover delicate taste traditional filter coffee nespresso coffee machine prepare peel membrane extract long 150ml first lungo espresso buttons dash milk coffee gains body sweetness coffeeness remains strong retaining smoky character recommend filterstyle mild black coffee capsules roast ground coffee roast ground coffee g 342 oz capsules filter style mild 50 medium low low medium low</t>
+          <t>original current online exclusive filter style coffees ml lungo floral malted cereal 105 roasted floral catch filter style mild heady florals revised capsule design unlocks complex long cup peach acidity alluring malted caramel sweetness 10 10 30 10 revised capsule design unlocks aromatic filter style brew lightbodied delicate veil crema filter style mild easytodrink morning cup characterized heady aroma jasmine orange blossoms juicy peach acidity subtle malty cereal note ribbon liquorice caramel sweetness complex alluring coffee membrane capsules fully recyclable smelling aromas fresh arabica coffee ground peeling capsule membrane rediscover delicate taste traditional filter coffee nespresso coffee machine prepare peel membrane extract long 150ml first lungo espresso buttons dash milk coffee gains body sweetness coffeeness remains strong retaining smoky character recommend filterstyle mild black coffee capsules roast ground coffee roast ground coffee g 342 oz capsules filter style mild 50 medium low low medium low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -6756,10 +7348,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM39" t="inlineStr">
         <is>
           <t>Charts/OL38_Filter Style Intense_Original_Taste Profile.png</t>
@@ -6767,7 +7375,7 @@
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>original current online exclusive filter style coffees ml lungo roasted smoky 105 intense roasted filter style intense revised capsule design brings velvety long cup fine crema intense compelling notes sandalwood smoke 10 20 50 10 revised capsule design unlocks filter style coffee bold easytodrink morning cup beneath fine veil crema warming cereal strong roasted notes characterize filter style intense velvety textured compelling sandalwood finish hint honeyed sweetness balances long cup bitter light smoky earthy notes membrane capsule fully recyclable smelling aromas fresh arabica coffee ground peeling capsule membrane rediscover delicate taste traditional filter coffee nespresso coffee machine prepare peel membrane extract long 150ml first lungo espresso buttons dash milk coffee gains body sweetness coffeeness remains strong retaining smoky character capsules roast ground coffee roast ground coffee g 342 oz capsules filter style intense 70 medium low low high low</t>
+          <t>original current online exclusive filter style coffees ml lungo roasted smoky 105 intense roasted filter style intense revised capsule design brings velvety long cup fine crema intense compelling notes sandalwood smoke 10 20 50 10 revised capsule design unlocks filter style coffee bold easytodrink morning cup beneath fine veil crema warming cereal strong roasted notes characterize filter style intense velvety textured compelling sandalwood finish hint honeyed sweetness balances long cup bitter light smoky earthy notes membrane capsule fully recyclable smelling aromas fresh arabica coffee ground peeling capsule membrane rediscover delicate taste traditional filter coffee nespresso coffee machine prepare peel membrane extract long 150ml first lungo espresso buttons dash milk coffee gains body sweetness coffeeness remains strong retaining smoky character capsules roast ground coffee roast ground coffee g 342 oz capsules filter style intense 70 medium low low high low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -6892,14 +7500,46 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
-      <c r="AL40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM40" t="inlineStr">
         <is>
           <t>Charts/OL39_Freddo Intenso_Original_Taste Profile.png</t>
@@ -6907,7 +7547,7 @@
       </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>original limited made ice ml espresso iced recipe intense recipes ice 110 roasted peppery note arabica blend characterized woody toasted cereal notes perfectly balance classic bitter taste rich dark roast enjoy bold roasted taste freddo intenso south american arabica meet indonesian arabica beans offer intense exciting complement summer season dark roast blend grind beans specifically delicious experience ice best served coffee capsule 40ml handful ice cubes 90g prolong pleasure top cold water cold milk 90ml arabica blend gets coffee mostly peru indonesia freddo intenso gets split roast roasts mediumdark bring fruity notes keep coffees sweetness intact capsules roast ground coffee roast ground coffee g 169 oz capsules freddo intenso 70 medium</t>
+          <t>original limited made ice ml espresso iced recipe intense recipes ice 110 roasted peppery note arabica blend characterized woody toasted cereal notes perfectly balance classic bitter taste rich dark roast enjoy bold roasted taste freddo intenso south american arabica meet indonesian arabica beans offer intense exciting complement summer season dark roast blend grind beans specifically delicious experience ice best served coffee capsule 40ml handful ice cubes 90g prolong pleasure top cold water cold milk 90ml arabica blend gets coffee mostly peru indonesia freddo intenso gets split roast roasts mediumdark bring fruity notes keep coffees sweetness intact capsules roast ground coffee roast ground coffee g 169 oz capsules freddo intenso 70 medium medium medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
@@ -7032,14 +7672,46 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="inlineStr"/>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM41" t="inlineStr">
         <is>
           <t>Charts/OL40_Freddo Delicato_Original_Taste Profile.png</t>
@@ -7047,7 +7719,7 @@
       </c>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>original limited made ice ml espresso iced recipe sweet mild recipes ice 110 fruity sweet fruity sweet coffee bursting thirstquenching fruity notes soothes light refreshing rounded character enjoy exhilarating bright fruit notes freddo delicato kenyan arabica beans bring juicy fruit flavours make cool refreshing blend season pour ice lightly roasted ground specifically deliver delicate aromatic notes palate best served coffee capsule ml handful ice cubes g extend treat top cold water cold milk 90ml arabica blend gets coffee mostly kenya indonesia roast two splits mediumlight roasting bring juicy acidity mild blend first split little short heightens bright citrus notes capsules roast ground coffee roast ground coffee g 204 oz capsules freddo delicato 50 medium</t>
+          <t>original limited made ice ml espresso iced recipe sweet mild recipes ice 110 fruity sweet fruity sweet coffee bursting thirstquenching fruity notes soothes light refreshing rounded character enjoy exhilarating bright fruit notes freddo delicato kenyan arabica beans bring juicy fruit flavours make cool refreshing blend season pour ice lightly roasted ground specifically deliver delicate aromatic notes palate best served coffee capsule ml handful ice cubes g extend treat top cold water cold milk 90ml arabica blend gets coffee mostly kenya indonesia roast two splits mediumlight roasting bring juicy acidity mild blend first split little short heightens bright citrus notes capsules roast ground coffee roast ground coffee g 204 oz capsules freddo delicato 50 medium medium medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -7172,14 +7844,46 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
-      <c r="AL42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM42" t="inlineStr">
         <is>
           <t>Charts/OL41_Coconut Flavour Over Ice_Original_Taste Profile.png</t>
@@ -7187,7 +7891,7 @@
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>original limited summer coffees ml espresso iced recipe coconut flavoured 115 coconut coconut flavour enhances sweet notes smooth rounded delicately aromatic arabica blend love refreshing exotic taste coconut flavour ice coconut flavour blends beautifully roasted caramelly notes latin american arabica espresso iced delight perfect refreshing summer treat best served coffee capsule ml handful ice cubes g extend treat top cold water cold milk ml latin american arabicas blend known naturally smooth taste brazilian beans bring approachable mellowness blend arabicas central south america give blend rounded taste gave coffees medium roast still dark enough caramel toasted cereal notes develop preserving rounded mouthfeel deliciate acidity coffee capsules artificially flavoured roast ground coffee roast ground coffee artificial flavours g 186 oz capsules coconut flavour ice 50 medium</t>
+          <t>original limited summer coffees ml espresso iced recipe coconut flavoured 115 coconut coconut flavour enhances sweet notes smooth rounded delicately aromatic arabica blend love refreshing exotic taste coconut flavour ice coconut flavour blends beautifully roasted caramelly notes latin american arabica espresso iced delight perfect refreshing summer treat best served coffee capsule ml handful ice cubes g extend treat top cold water cold milk ml latin american arabicas blend known naturally smooth taste brazilian beans bring approachable mellowness blend arabicas central south america give blend rounded taste gave coffees medium roast still dark enough caramel toasted cereal notes develop preserving rounded mouthfeel deliciate acidity coffee capsules artificially flavoured roast ground coffee roast ground coffee artificial flavours g 186 oz capsules coconut flavour ice 50 medium medium medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
@@ -7342,10 +8046,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM43" t="inlineStr">
         <is>
           <t>Charts/OL42_Cadiz Espresso_Original_Taste Profile.png</t>
@@ -7353,7 +8073,7 @@
       </c>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>original limited summer coffees ml espresso malted cereal caramel 80 110 caramel cocoa delightful combination malted cereal biscuit caramel notes accompanied sweet aromas delicate hint cocoa 20 30 30 40 tomar un café trade rush slow pace enjoying coffee spanish way cádiz espresso captures taste life sunnyandalusian port city blend brazilian arabica indian robusta malted cereal smooth caramel notes invite unwind enjoy like local take coffee traditional tapas side blend balances equal parts high quality brazilian arabicas indian robustas round syrupy cup medium split roast equal arabica robusta surprisingly robusta light roasted arabica long dark roasted capsules roast ground coffee roast ground coffee g 194 oz capsules cadiz espresso 80 dark low medium medium high</t>
+          <t>original limited summer coffees ml espresso malted cereal caramel 80 110 caramel cocoa delightful combination malted cereal biscuit caramel notes accompanied sweet aromas delicate hint cocoa 20 30 30 40 tomar un café trade rush slow pace enjoying coffee spanish way cádiz espresso captures taste life sunnyandalusian port city blend brazilian arabica indian robusta malted cereal smooth caramel notes invite unwind enjoy like local take coffee traditional tapas side blend balances equal parts high quality brazilian arabicas indian robustas round syrupy cup medium split roast equal arabica robusta surprisingly robusta light roasted arabica long dark roasted capsules roast ground coffee roast ground coffee g 194 oz capsules cadiz espresso 80 dark low medium medium high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
@@ -7508,10 +8228,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM44" t="inlineStr">
         <is>
           <t>Charts/OL43_Lisbon Bica_Original_Taste Profile.png</t>
@@ -7519,7 +8255,7 @@
       </c>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>original limited summer coffees ml ristretto toasted cereal nuts 100 110 spicy nuts highintensity coffee featuring roasted cereal nutty undertones complemented roasted almonds 20 40 40 40 bica lisbon s dense bitter coffee thick echoes empire principally crafted robusta beans enhanced character harmoniously complemented arabica beans el salvador lisbon bica captures rich history spicy nutty notes run take bold short shot enjoy like local traditional pastel de nata side balances bold coffee experience sweet treat majority robusta blend gets beans nicaragua el salvador arabica beans lightly roasted fine grind robusta beans roasted dark level creates notable difference roasting profiles two varieties within blend capsules roast ground coffee roast ground coffee g 180 oz capsules lisbon bica 100 dark low high high high</t>
+          <t>original limited summer coffees ml ristretto toasted cereal nuts 100 110 spicy nuts highintensity coffee featuring roasted cereal nutty undertones complemented roasted almonds 20 40 40 40 bica lisbon s dense bitter coffee thick echoes empire principally crafted robusta beans enhanced character harmoniously complemented arabica beans el salvador lisbon bica captures rich history spicy nutty notes run take bold short shot enjoy like local traditional pastel de nata side balances bold coffee experience sweet treat majority robusta blend gets beans nicaragua el salvador arabica beans lightly roasted fine grind robusta beans roasted dark level creates notable difference roasting profiles two varieties within blend capsules roast ground coffee roast ground coffee g 180 oz capsules lisbon bica 100 dark low high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
@@ -7674,10 +8410,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="inlineStr"/>
-      <c r="AL45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL45" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM45" t="inlineStr">
         <is>
           <t>Charts/VL1_Intenso_Vertuo_Taste Profile.png</t>
@@ -7685,7 +8437,7 @@
       </c>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee smooth strong 90 126 intense intense long black coffee distinctly lingering aftertaste roasted notes thick coffee crema pairs perfectly milk enriches blend brown caramel notes 10 40 50 30 blend nicaraguans washed robusta coffee beans latin american arabica thick roasted notes lingering finish arabicas get dark roast low acidity bring brown sugar aroma nicaraguan coffee gets long roast develop robusta coffee beans bold bitter notes intenso created combining latin american arabicas nicaraguan robustas arabicas get dark roast low acidity bring brown sugar aroma robustas get long roast develop bitter notes lingering aftertaste capsules roast ground coffee nespresso system roast ground coffee g 441 oz capsules intenso 90 dark low high high medium</t>
+          <t>vertuo current long coffee ml coffee smooth strong 90 126 intense intense long black coffee distinctly lingering aftertaste roasted notes thick coffee crema pairs perfectly milk enriches blend brown caramel notes 10 40 50 30 blend nicaraguans washed robusta coffee beans latin american arabica thick roasted notes lingering finish arabicas get dark roast low acidity bring brown sugar aroma nicaraguan coffee gets long roast develop robusta coffee beans bold bitter notes intenso created combining latin american arabicas nicaraguan robustas arabicas get dark roast low acidity bring brown sugar aroma robustas get long roast develop bitter notes lingering aftertaste capsules roast ground coffee nespresso system roast ground coffee g 441 oz capsules intenso 90 dark low high high medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
@@ -7832,10 +8584,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="inlineStr"/>
-      <c r="AL46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM46" t="inlineStr">
         <is>
           <t>Charts/VL2_Stormio_Vertuo_Taste Profile.png</t>
@@ -7843,7 +8611,7 @@
       </c>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee rich strong 80 126 intense long slow roast intensifies nicaraguan guatemalan cereal aromatics notes spice wood highgrown arabica coffees give deep roast build rich intensity vertuo coffee pod remains smooth fullbodied milk may mellow stormio still taste powerful roasted notes blow away gathering storm 10 40 40 40 love stormio darkly roasted blend rushes myriad aromas strength could come pure arabica coffees capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules stormio 80 dark low high high high</t>
+          <t>vertuo current long coffee ml coffee rich strong 80 126 intense long slow roast intensifies nicaraguan guatemalan cereal aromatics notes spice wood highgrown arabica coffees give deep roast build rich intensity vertuo coffee pod remains smooth fullbodied milk may mellow stormio still taste powerful roasted notes blow away gathering storm 10 40 40 40 love stormio darkly roasted blend rushes myriad aromas strength could come pure arabica coffees capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules stormio 80 dark low high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
@@ -7990,10 +8758,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="inlineStr"/>
-      <c r="AL47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM47" t="inlineStr">
         <is>
           <t>Charts/VL3_Odacio_Vertuo_Taste Profile.png</t>
@@ -8001,7 +8785,7 @@
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee bold lively 70 126 intense nicaraguan arabica gives odacio soft solid cereal note daringly blended touch ethiopian arabica adds splash acidity delicate fruitiness split roast coffees vertuo coffee pod long light roast coffees develops body structure keeps acidity aromatics intact odacio brings fullbodied cereal note dares surprise flourish fruitiness delicate acidity end bold lively hits palate great elegance 20 40 40 40 love odacio lively intense vertuo coffee capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules odacio 70 medium low high high high</t>
+          <t>vertuo current long coffee ml coffee bold lively 70 126 intense nicaraguan arabica gives odacio soft solid cereal note daringly blended touch ethiopian arabica adds splash acidity delicate fruitiness split roast coffees vertuo coffee pod long light roast coffees develops body structure keeps acidity aromatics intact odacio brings fullbodied cereal note dares surprise flourish fruitiness delicate acidity end bold lively hits palate great elegance 20 40 40 40 love odacio lively intense vertuo coffee capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules odacio 70 medium low high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
@@ -8156,10 +8940,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI48" t="inlineStr"/>
-      <c r="AJ48" t="inlineStr"/>
-      <c r="AK48" t="inlineStr"/>
-      <c r="AL48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL48" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM48" t="inlineStr">
         <is>
           <t>Charts/VL4_Mexico_Vertuo_Taste Profile.png</t>
@@ -8167,7 +8967,7 @@
       </c>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee intense spiced 70 137 spicy woody intense coffee roasted woody spicy notes thick texture low acidity pairs perfectly milk 10 30 40 20 double take master origins mexico double washed robusta because selective handpicking thoroughly washing arabica arabicas robustas coffee come mexico arabica coffee beans given medium roast uncommon double washed robusta coffee beans get long deep roast capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules mexico 70 medium low medium high low</t>
+          <t>vertuo current long coffee ml coffee intense spiced 70 137 spicy woody intense coffee roasted woody spicy notes thick texture low acidity pairs perfectly milk 10 30 40 20 double take master origins mexico double washed robusta because selective handpicking thoroughly washing arabica arabicas robustas coffee come mexico arabica coffee beans given medium roast uncommon double washed robusta coffee beans get long deep roast capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules mexico 70 medium low medium high low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
@@ -8322,10 +9122,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="inlineStr"/>
-      <c r="AL49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL49" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM49" t="inlineStr">
         <is>
           <t>Charts/VL5_Melozio_Vertuo_Taste Profile.png</t>
@@ -8333,7 +9149,7 @@
       </c>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee smooth balanced 60 126 unknown harmonious blend latin american arabicas sing smooth cereal notes honeyed sweetness pairs perfectly milk enhances softness biscuity notes 10 20 30 30 help fall melozio canadian bestseller harmonious blend fine quality brazilian central american arabicas roasted create rounded coffee smooth perfectly balanced harmonious blend latin american arabicas mostly brazil guatemala rich smooth cereal notes honeyed sweetness brazilian arabicas roasted separately develop sweet cereal notes arabicas get lightly roasted round melozio capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules melozio 60 medium low low medium medium</t>
+          <t>vertuo current long coffee ml coffee smooth balanced 60 126 unknown harmonious blend latin american arabicas sing smooth cereal notes honeyed sweetness pairs perfectly milk enhances softness biscuity notes 10 20 30 30 help fall melozio canadian bestseller harmonious blend fine quality brazilian central american arabicas roasted create rounded coffee smooth perfectly balanced harmonious blend latin american arabicas mostly brazil guatemala rich smooth cereal notes honeyed sweetness brazilian arabicas roasted separately develop sweet cereal notes arabicas get lightly roasted round melozio capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules melozio 60 medium low low medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
@@ -8476,10 +9292,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI50" t="inlineStr"/>
-      <c r="AJ50" t="inlineStr"/>
-      <c r="AK50" t="inlineStr"/>
-      <c r="AL50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM50" t="inlineStr">
         <is>
           <t>Charts/VL6_Melozio Decaffeinato_Vertuo_Taste Profile.png</t>
@@ -8487,7 +9319,7 @@
       </c>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee smooth balanced 60 126 cereal split roast vertuo coffee capsule s arabica coffees allows brazilian bourbon develop cereal note become sweet smooth coffee lightly roasting arabicas rounds melozio melozio decaffeinato delights twice latin american arabicas still sing smooth cereal honeyed sweetness even decaffeination 10 20 30 30 capsules roast ground coffee nespresso system decaffeinated roast ground coffee g 440 oz capsules melozio decaffeinato 60 medium low low medium medium</t>
+          <t>vertuo current long coffee ml coffee smooth balanced 60 126 cereal split roast vertuo coffee capsule s arabica coffees allows brazilian bourbon develop cereal note become sweet smooth coffee lightly roasting arabicas rounds melozio melozio decaffeinato delights twice latin american arabicas still sing smooth cereal honeyed sweetness even decaffeination 10 20 30 30 capsules roast ground coffee nespresso system decaffeinated roast ground coffee g 440 oz capsules melozio decaffeinato 60 medium low low medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
@@ -8634,10 +9466,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI51" t="inlineStr"/>
-      <c r="AJ51" t="inlineStr"/>
-      <c r="AK51" t="inlineStr"/>
-      <c r="AL51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL51" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM51" t="inlineStr">
         <is>
           <t>Charts/VL7_Half Caffeinato_Vertuo_Taste Profile.png</t>
@@ -8645,7 +9493,7 @@
       </c>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee sweet velvety 50 126 unknown vertuo coffee capsule blends decaffeinated regular arabica coffees brazil ethiopia decaffeination half coffee light quick roast brazilian arabica coffee gives vertuo coffee pod roundness sweetness chose blend ethiopian coffee delicate aromatics would add finesse half coffee nespresso decaffeinated taste full 10 10 20 20 love love half caffeinato smooth velvety texture sweet biscuit note capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules half caffeinato 50 medium low low low low</t>
+          <t>vertuo current long coffee ml coffee sweet velvety 50 126 unknown vertuo coffee capsule blends decaffeinated regular arabica coffees brazil ethiopia decaffeination half coffee light quick roast brazilian arabica coffee gives vertuo coffee pod roundness sweetness chose blend ethiopian coffee delicate aromatics would add finesse half coffee nespresso decaffeinated taste full 10 10 20 20 love love half caffeinato smooth velvety texture sweet biscuit note capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules half caffeinato 50 medium low low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
@@ -8800,10 +9648,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI52" t="inlineStr"/>
-      <c r="AJ52" t="inlineStr"/>
-      <c r="AK52" t="inlineStr"/>
-      <c r="AL52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL52" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM52" t="inlineStr">
         <is>
           <t>Charts/VL8_El Salvador_Vertuo_Taste Profile.png</t>
@@ -8811,7 +9675,7 @@
       </c>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee sweet jam 50 137 biscuity winey coffee displays sweet biscuity fruity jam cereal notes mild low bitterness 40 10 20 20 grown shadetrees treasured coffee varieties find ideal terroir nestled beside active volcanoes delivering mild cup sweet biscuit fruity jam notes red honey process involves carefully adjusting amount sweet pulp left drying cherry complements arabica blend washed processed beans sweet aromatics allarabica blend sourced apaneca ilamatepec mountain range el salvador selection red honey processed beans complements washed arabica beans distinctive sweetness overall light roast red honey roasted separately rest make unique processing method portion washed slightly long dark capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules el salvador 50 medium high low low low</t>
+          <t>vertuo current long coffee ml coffee sweet jam 50 137 biscuity winey coffee displays sweet biscuity fruity jam cereal notes mild low bitterness 40 10 20 20 grown shadetrees treasured coffee varieties find ideal terroir nestled beside active volcanoes delivering mild cup sweet biscuit fruity jam notes red honey process involves carefully adjusting amount sweet pulp left drying cherry complements arabica blend washed processed beans sweet aromatics allarabica blend sourced apaneca ilamatepec mountain range el salvador selection red honey processed beans complements washed arabica beans distinctive sweetness overall light roast red honey roasted separately rest make unique processing method portion washed slightly long dark capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules el salvador 50 medium high low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
@@ -8966,10 +9830,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI53" t="inlineStr"/>
-      <c r="AJ53" t="inlineStr"/>
-      <c r="AK53" t="inlineStr"/>
-      <c r="AL53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL53" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM53" t="inlineStr">
         <is>
           <t>Charts/VL9_Colombia - Fairtrade_Vertuo_Taste Profile.png</t>
@@ -8977,7 +9857,7 @@
       </c>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee red fruit notes 50 137 unknown long fermentation highgrown colombian arabica delivers particularly juicy fruity sweet cup pairs perfectly milk 50 10 10 10 cool climate highaltitude colombia aguadas mountains means coffee takes long ferment classic washed coffee processing method complex timeconsuming calls even skill fullywashed coffee sourced highaltitude region aguadas colombia separate coffee batches roasting given fast light roast small portion roasted little long deep add complexity cup capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules colombia fairtrade 50 medium high low low low</t>
+          <t>vertuo current long coffee ml coffee red fruit notes 50 137 unknown long fermentation highgrown colombian arabica delivers particularly juicy fruity sweet cup pairs perfectly milk 50 10 10 10 cool climate highaltitude colombia aguadas mountains means coffee takes long ferment classic washed coffee processing method complex timeconsuming calls even skill fullywashed coffee sourced highaltitude region aguadas colombia separate coffee batches roasting given fast light roast small portion roasted little long deep add complexity cup capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules colombia fairtrade 50 medium high low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
@@ -9124,10 +10004,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI54" t="inlineStr"/>
-      <c r="AJ54" t="inlineStr"/>
-      <c r="AK54" t="inlineStr"/>
-      <c r="AL54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL54" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM54" t="inlineStr">
         <is>
           <t>Charts/VL10_Solelio_Vertuo_Taste Profile.png</t>
@@ -9135,7 +10031,7 @@
       </c>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee fruity lightlybodied 20 126 cereal fruity vertuo coffee capsule arabica blend two renowned washed coffees loved lively acidity distinct fruity notes split roast blended highgrown colombian coffee kenyan coffee create light roast coffee light body lovable character juicy acidity shines solelio toasted cereal note hard miss classic fruitiness colombian kenyan coffees really ease morning vertuo coffee 30 10 10 10 love solelio gentle start day capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules solelio 20 blonde medium low low low</t>
+          <t>vertuo current long coffee ml coffee fruity lightlybodied 20 126 cereal fruity vertuo coffee capsule arabica blend two renowned washed coffees loved lively acidity distinct fruity notes split roast blended highgrown colombian coffee kenyan coffee create light roast coffee light body lovable character juicy acidity shines solelio toasted cereal note hard miss classic fruitiness colombian kenyan coffees really ease morning vertuo coffee 30 10 10 10 love solelio gentle start day capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules solelio 20 blonde medium low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -9290,10 +10186,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI55" t="inlineStr"/>
-      <c r="AJ55" t="inlineStr"/>
-      <c r="AK55" t="inlineStr"/>
-      <c r="AL55" t="inlineStr"/>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL55" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM55" t="inlineStr">
         <is>
           <t>Charts/VL11_Alto Onice_Vertuo_Taste Profile.png</t>
@@ -9301,7 +10213,7 @@
       </c>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>vertuo current long coffee exclusively use vertuo next vertuo pop vertuo lattissima vertuo creatista machines ml alto roasted woody 70 105 roasted woody spicy intense coffee roasted woody spicy notes 10 30 30 30 alto onice delivers full palate strong cereal deep woody notes long cup savour home onthego bold aromatics beautiful bitter cocoa spice roasted notes comes golden caramel note faint shimmer acidity balance deeproasted blend coffees colombia india beyond complex blend several origins indian beans cocoa spice notes comes colombian arabica shimmer acidity long cup size arabicas robustas roasted together first split second split composed exclusively decaffeinated arabica roasted slightly short time capsules roast ground coffee nespresso system roast ground coffee decaffeinated roast ground coffee g 423 oz capsules alto onice 70 medium low medium medium medium</t>
+          <t>vertuo current long coffee exclusively use vertuo next vertuo pop vertuo lattissima vertuo creatista machines ml alto roasted woody 70 105 roasted woody spicy intense coffee roasted woody spicy notes 10 30 30 30 alto onice delivers full palate strong cereal deep woody notes long cup savour home onthego bold aromatics beautiful bitter cocoa spice roasted notes comes golden caramel note faint shimmer acidity balance deeproasted blend coffees colombia india beyond complex blend several origins indian beans cocoa spice notes comes colombian arabica shimmer acidity long cup size arabicas robustas roasted together first split second split composed exclusively decaffeinated arabica roasted slightly short time capsules roast ground coffee nespresso system roast ground coffee decaffeinated roast ground coffee g 423 oz capsules alto onice 70 medium low medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
@@ -9452,10 +10364,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI56" t="inlineStr"/>
-      <c r="AJ56" t="inlineStr"/>
-      <c r="AK56" t="inlineStr"/>
-      <c r="AL56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL56" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM56" t="inlineStr">
         <is>
           <t>Charts/VL12_Alto Ambrato_Vertuo_Taste Profile.png</t>
@@ -9463,7 +10391,7 @@
       </c>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>vertuo current long coffee exclusively use vertuo next vertuo pop vertuo lattissima vertuo creatista machines ml alto honeyed delicate 40 105 cereal honey ambrato delicate blend light toasted bread honey notes light body 10 20 20 20 taste alto ambrato s honeyed cereal toasted notes caramel sweetness fruity touch sparkles lightly roasted blend fine latin american arabicas robusta home go long cup warm rich golden aromatics arabica robusta coffees latin america give rich warmth lightroast long cup taste toasted cereal sweet caramel notes balanced fruity touch capsules roast ground coffee nespresso system roast ground coffee decaffeinated roast ground coffee g 423 oz capsules alto ambrato 40 blonde low low low low</t>
+          <t>vertuo current long coffee exclusively use vertuo next vertuo pop vertuo lattissima vertuo creatista machines ml alto honeyed delicate 40 105 cereal honey ambrato delicate blend light toasted bread honey notes light body 10 20 20 20 taste alto ambrato s honeyed cereal toasted notes caramel sweetness fruity touch sparkles lightly roasted blend fine latin american arabicas robusta home go long cup warm rich golden aromatics arabica robusta coffees latin america give rich warmth lightroast long cup taste toasted cereal sweet caramel notes balanced fruity touch capsules roast ground coffee nespresso system roast ground coffee decaffeinated roast ground coffee g 423 oz capsules alto ambrato 40 blonde low low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
@@ -9588,14 +10516,46 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
-      <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="inlineStr"/>
-      <c r="AL57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG57" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AH57" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AI57" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL57" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM57" t="inlineStr">
         <is>
           <t>Charts/VL13_Cold Brew Style Intense_Vertuo_Taste Profile.png</t>
@@ -9603,7 +10563,7 @@
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>vertuo current long coffee exclusively use vertuo next vertuo pop vertuo lattissima vertuo creatista machines ml cold brew sweet caramel roasted cereal 1085 caramel roasted cereal smooth silkytextured coffee roasted caramel notes low bitterness pleasant acidity typical cold brew extractions inspired hot bloom method cold brew style intense reimagined nespresso begins brewing hot draw best beans continues cool water leave bitterness behind brewed minutes taste roasted arabicas caramel notes smooth silkytextured coffee best experience use cool water 10c 50f vertuo water tank add 34 ice cubes coffee fl oz ml servings fl oz 1725 ml arabica blend mostly uses brazilian bourbons guatemalan arabicas vertuo coffee gets split roast allows brazilian bourbon develop cereal note become sweet smooth coffee lightly roasting arabicas rounds blend cold brew style intense capsules roast ground coffee nespresso system roast ground coffee decaffeinated roast ground coffee g 423 oz capsules cold brew style intense 50 medium</t>
+          <t>vertuo current long coffee exclusively use vertuo next vertuo pop vertuo lattissima vertuo creatista machines ml cold brew sweet caramel roasted cereal 1085 caramel roasted cereal smooth silkytextured coffee roasted caramel notes low bitterness pleasant acidity typical cold brew extractions inspired hot bloom method cold brew style intense reimagined nespresso begins brewing hot draw best beans continues cool water leave bitterness behind brewed minutes taste roasted arabicas caramel notes smooth silkytextured coffee best experience use cool water 10c 50f vertuo water tank add 34 ice cubes coffee fl oz ml servings fl oz 1725 ml arabica blend mostly uses brazilian bourbons guatemalan arabicas vertuo coffee gets split roast allows brazilian bourbon develop cereal note become sweet smooth coffee lightly roasting arabicas rounds blend cold brew style intense capsules roast ground coffee nespresso system roast ground coffee decaffeinated roast ground coffee g 423 oz capsules cold brew style intense 50 medium medium medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
@@ -9748,10 +10708,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI58" t="inlineStr"/>
-      <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="inlineStr"/>
-      <c r="AL58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ58" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL58" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM58" t="inlineStr">
         <is>
           <t>Charts/VL14_Carafe Pour-Over Style_Vertuo_Taste Profile.png</t>
@@ -9759,7 +10735,7 @@
       </c>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>vertuo current long coffee exclusively use vertuo next vertuo lattissima vertuo creatista machines ml carafe roasted smokey 112 unknown carafe pourover style coffee opens possibilities sharing others simply extending pleasure nespresso moment creating long cup means short journey delivering right intensity ml also optimum crema distinct flavour profile something happen overnight years development able refine perfect product desire welcoming large ever coffee family elevate drinking experience carafe accessory set specifically designed reveal coffee s unique aromatics inspire new nespresso coffee ritual 10 30 30 30 carafe pourover syle coffee like none range easytodrink blend peruvian colombian washed arabicas complement contrasting qualities create unique aromatic profile capsules roast ground coffee vertuo next machine roast ground coffee g 423 oz capsules carafe pourover style 70 medium low medium medium medium</t>
+          <t>vertuo current long coffee exclusively use vertuo next vertuo lattissima vertuo creatista machines ml carafe roasted smokey 112 unknown carafe pourover style coffee opens possibilities sharing others simply extending pleasure nespresso moment creating long cup means short journey delivering right intensity ml also optimum crema distinct flavour profile something happen overnight years development able refine perfect product desire welcoming large ever coffee family elevate drinking experience carafe accessory set specifically designed reveal coffee s unique aromatics inspire new nespresso coffee ritual 10 30 30 30 carafe pourover syle coffee like none range easytodrink blend peruvian colombian washed arabicas complement contrasting qualities create unique aromatic profile capsules roast ground coffee vertuo next machine roast ground coffee g 423 oz capsules carafe pourover style 70 medium low medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
@@ -9904,10 +10880,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI59" t="inlineStr"/>
-      <c r="AJ59" t="inlineStr"/>
-      <c r="AK59" t="inlineStr"/>
-      <c r="AL59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL59" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM59" t="inlineStr">
         <is>
           <t>Charts/VL15_Carafe Pour-Over Style Mild_Vertuo_Taste Profile.png</t>
@@ -9915,7 +10907,7 @@
       </c>
       <c r="AN59" t="inlineStr">
         <is>
-          <t>vertuo current long coffee exclusively use vertuo next vertuo lattissima vertuo creatista machines ml carafe toasted cereal malted 112 unknown round easy drink carafe pourover style mild balanced sensorial profile toasted cereal notes pleasant sweetness blend roasted using split roast technique 6040 first split includes origins roasted light degree average roasting time second split includes colombian coffees roasted slightly dark degree creating mild roast overall classic vertuo roast 10 20 20 10 smooth toasted cereal malted notes grace every last drop subtly sweet latin american arabica blend coffee inspired pourover method capsules roast ground coffee vertuo next machine roast ground coffee g 423 oz capsules carafe pourover style mild 50 medium low low low low</t>
+          <t>vertuo current long coffee exclusively use vertuo next vertuo lattissima vertuo creatista machines ml carafe toasted cereal malted 112 unknown round easy drink carafe pourover style mild balanced sensorial profile toasted cereal notes pleasant sweetness blend roasted using split roast technique 6040 first split includes origins roasted light degree average roasting time second split includes colombian coffees roasted slightly dark degree creating mild roast overall classic vertuo roast 10 20 20 10 smooth toasted cereal malted notes grace every last drop subtly sweet latin american arabica blend coffee inspired pourover method capsules roast ground coffee vertuo next machine roast ground coffee g 423 oz capsules carafe pourover style mild 50 medium low low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
@@ -10070,10 +11062,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI60" t="inlineStr"/>
-      <c r="AJ60" t="inlineStr"/>
-      <c r="AK60" t="inlineStr"/>
-      <c r="AL60" t="inlineStr"/>
+      <c r="AI60" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ60" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL60" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM60" t="inlineStr">
         <is>
           <t>Charts/VL16_Fortado_Vertuo_Taste Profile.png</t>
@@ -10081,7 +11089,7 @@
       </c>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>vertuo current gran lungo ml gran lungo intense fullbodied 80 110 cocoa intense coffee gran lungo size comes thickbodied full cocoa oak notes pairs perfectly milk 10 40 40 40 intense vertuo coffee gran lungo size fortado indian robusta comes full force cocoa oak wood notes emerge latin american arabicas chose high quality washed latin american arabicas blended naturally processed indian robusta highend quality intensity full body first long roast medium temperatures brings intensity indian robusta without harshness arabicas get dark developing rich cocoa wood notes capsules roast ground coffee nespresso system roast ground coffee g 353 oz capsules fortado 80 dark low high high high</t>
+          <t>vertuo current gran lungo ml gran lungo intense fullbodied 80 110 cocoa intense coffee gran lungo size comes thickbodied full cocoa oak notes pairs perfectly milk 10 40 40 40 intense vertuo coffee gran lungo size fortado indian robusta comes full force cocoa oak wood notes emerge latin american arabicas chose high quality washed latin american arabicas blended naturally processed indian robusta highend quality intensity full body first long roast medium temperatures brings intensity indian robusta without harshness arabicas get dark developing rich cocoa wood notes capsules roast ground coffee nespresso system roast ground coffee g 353 oz capsules fortado 80 dark low high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
@@ -10236,10 +11244,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI61" t="inlineStr"/>
-      <c r="AJ61" t="inlineStr"/>
-      <c r="AK61" t="inlineStr"/>
-      <c r="AL61" t="inlineStr"/>
+      <c r="AI61" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ61" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK61" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL61" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM61" t="inlineStr">
         <is>
           <t>Charts/VL17_Fortado Decaffeinato_Vertuo_Taste Profile.png</t>
@@ -10247,7 +11271,7 @@
       </c>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>vertuo current gran lungo ml gran lungo intense fullbodied 80 110 woody thickbodied character cocoa oak notes fortado decaffeinated recipe pairs perfectly milk 10 40 40 40 intense gran lungo vertuo coffee decaffeinated fortado decaffeinato indian robusta comes full force cocoa oak wood notes still strong decaffeinated latin american arabicas chose high quality washed latin american arabicas blended naturally processed indian robusta highend quality intensity full body first long roast medium temperatures brings intensity indian robusta without harshness arabicas get dark developing rich cocoa wood notes capsules roast ground coffee nespresso system decaffeinated roast ground coffee g 353 oz capsules fortado decaffeinato 80 dark low high high high</t>
+          <t>vertuo current gran lungo ml gran lungo intense fullbodied 80 110 woody thickbodied character cocoa oak notes fortado decaffeinated recipe pairs perfectly milk 10 40 40 40 intense gran lungo vertuo coffee decaffeinated fortado decaffeinato indian robusta comes full force cocoa oak wood notes still strong decaffeinated latin american arabicas chose high quality washed latin american arabicas blended naturally processed indian robusta highend quality intensity full body first long roast medium temperatures brings intensity indian robusta without harshness arabicas get dark developing rich cocoa wood notes capsules roast ground coffee nespresso system decaffeinated roast ground coffee g 353 oz capsules fortado decaffeinato 80 dark low high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
@@ -10402,10 +11426,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI62" t="inlineStr"/>
-      <c r="AJ62" t="inlineStr"/>
-      <c r="AK62" t="inlineStr"/>
-      <c r="AL62" t="inlineStr"/>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ62" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL62" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM62" t="inlineStr">
         <is>
           <t>Charts/VL18_Costa Rica_Vertuo_Taste Profile.png</t>
@@ -10413,7 +11453,7 @@
       </c>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>vertuo current gran lungo ml gran lungo malty cereal notes 70 121 unknown oneofakind process fermentation hotspring waters brings remarkably balanced clean taste cup master origins costa rica fullbodied mellow malty sweet cereal note runs crystal clarity 10 30 40 30 high costa rica mountains small selection arabica coffee beans soaked rainforest hot spring waters costa rica contains scarce coffee whose rare process highlights malty sweet cereal character craftsman coffee arabica fully washed coffee sourced high costa rican mountains first batch roasted medium temperatures reach mediumdark colour develop sweet malty notes second batch roasted intensively reach dark color desired intensity capsules roast ground coffee nespresso system roast ground coffee g 370 oz capsules costa rica 70 medium low medium high medium</t>
+          <t>vertuo current gran lungo ml gran lungo malty cereal notes 70 121 unknown oneofakind process fermentation hotspring waters brings remarkably balanced clean taste cup master origins costa rica fullbodied mellow malty sweet cereal note runs crystal clarity 10 30 40 30 high costa rica mountains small selection arabica coffee beans soaked rainforest hot spring waters costa rica contains scarce coffee whose rare process highlights malty sweet cereal character craftsman coffee arabica fully washed coffee sourced high costa rican mountains first batch roasted medium temperatures reach mediumdark colour develop sweet malty notes second batch roasted intensively reach dark color desired intensity capsules roast ground coffee nespresso system roast ground coffee g 370 oz capsules costa rica 70 medium low medium high medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
@@ -10556,10 +11596,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI63" t="inlineStr"/>
-      <c r="AJ63" t="inlineStr"/>
-      <c r="AK63" t="inlineStr"/>
-      <c r="AL63" t="inlineStr"/>
+      <c r="AI63" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL63" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM63" t="inlineStr">
         <is>
           <t>Charts/VL19_Arondio_Vertuo_Taste Profile.png</t>
@@ -10567,7 +11623,7 @@
       </c>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>vertuo current gran lungo ml gran lungo cereal mild 60 110 unknown mild gran lungo fooled inner strength behind cereal note subtle acidity hint robusta oomph addition milk softens cereal notes keeping enchanting character 30 40 30 30 capsules roast ground coffee nespresso system roast ground coffee g 353 oz capsules arondio 60 medium medium high medium medium</t>
+          <t>vertuo current gran lungo ml gran lungo cereal mild 60 110 unknown mild gran lungo fooled inner strength behind cereal note subtle acidity hint robusta oomph addition milk softens cereal notes keeping enchanting character 30 40 30 30 capsules roast ground coffee nespresso system roast ground coffee g 353 oz capsules arondio 60 medium medium high medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
@@ -10714,10 +11770,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI64" t="inlineStr"/>
-      <c r="AJ64" t="inlineStr"/>
-      <c r="AK64" t="inlineStr"/>
-      <c r="AL64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ64" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK64" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL64" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM64" t="inlineStr">
         <is>
           <t>Charts/VL20_Inizio_Vertuo_Taste Profile.png</t>
@@ -10725,7 +11797,7 @@
       </c>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>vertuo current gran lungo ml gran lungo floral cereal 40 110 floral split roast medium roast coffee ethiopian arabicas get light short roast keep floral notes alive long dark roast kenyan coffee adds body vertuo coffee capsule brewing also designed bring great crema keeping floral aromatics intact juicy coffee combines subtle floral cereal notes 30 20 20 40 inizio helping hand easing every day velvety smooth body kenyan ethiopian arabica blend comes warmth strength rich toasted cereal note wild florals give laidback sunday feeling capsules roast ground coffee nespresso system roast ground coffee g 353 oz capsules inizio 40 blonde medium low low high</t>
+          <t>vertuo current gran lungo ml gran lungo floral cereal 40 110 floral split roast medium roast coffee ethiopian arabicas get light short roast keep floral notes alive long dark roast kenyan coffee adds body vertuo coffee capsule brewing also designed bring great crema keeping floral aromatics intact juicy coffee combines subtle floral cereal notes 30 20 20 40 inizio helping hand easing every day velvety smooth body kenyan ethiopian arabica blend comes warmth strength rich toasted cereal note wild florals give laidback sunday feeling capsules roast ground coffee nespresso system roast ground coffee g 353 oz capsules inizio 40 blonde medium low low high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
@@ -10872,10 +11944,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI65" t="inlineStr"/>
-      <c r="AJ65" t="inlineStr"/>
-      <c r="AK65" t="inlineStr"/>
-      <c r="AL65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK65" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL65" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM65" t="inlineStr">
         <is>
           <t>Charts/VL21_Ethiopia_Vertuo_Taste Profile.png</t>
@@ -10883,7 +11971,7 @@
       </c>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>vertuo current gran lungo ml gran lungo floral delicate 40 121 unknown ethiopia naturally flowery coffee gains fruitiness complexity signature drying method revealing ripe blueberry notes hint musk 30 10 20 10 ethiopia dry processed arabica involves sundrying coffee cherry continual handturning ensure even drying calls great care ethiopian farmers used method long anyone else capsules roast ground coffee nespresso system roast ground coffee g 335 oz capsules ethiopia vertuo 40 blonde medium low low low</t>
+          <t>vertuo current gran lungo ml gran lungo floral delicate 40 121 unknown ethiopia naturally flowery coffee gains fruitiness complexity signature drying method revealing ripe blueberry notes hint musk 30 10 20 10 ethiopia dry processed arabica involves sundrying coffee cherry continual handturning ensure even drying calls great care ethiopian farmers used method long anyone else capsules roast ground coffee nespresso system roast ground coffee g 335 oz capsules ethiopia vertuo 40 blonde medium low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
@@ -11030,10 +12118,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI66" t="inlineStr"/>
-      <c r="AJ66" t="inlineStr"/>
-      <c r="AK66" t="inlineStr"/>
-      <c r="AL66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL66" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM66" t="inlineStr">
         <is>
           <t>Charts/VL22_Il Caffe_Vertuo_Taste Profile.png</t>
@@ -11041,7 +12145,7 @@
       </c>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml espresso exceptionally intense velvety 110 99 cereal woody cocoa split roast coffees give robustas dark roast light slightly long roast colombian arabica beans keeps acidity intact develops hint nutty note il caffè goes like dream classic aroma promises delight familiar flavour one remember crafted il caffè traditional black coffee experience want soften one intensity add milk make cappuccino 10 40 50 10 split roast coffees give robustas dark roast light slightly long roast colombian arabica beans keeps acidity intact develops hint nutty note il caffè goes like dream classic aroma promises delight familiar flavour one remember crafted il caffè traditional black coffee experience want soften one intensity add milk make cappuccino capsules roast ground coffee nespresso system roast ground coffee g 247 oz capsules il caffe 110 dark low high high low</t>
+          <t>vertuo current espresso ml espresso exceptionally intense velvety 110 99 cereal woody cocoa split roast coffees give robustas dark roast light slightly long roast colombian arabica beans keeps acidity intact develops hint nutty note il caffè goes like dream classic aroma promises delight familiar flavour one remember crafted il caffè traditional black coffee experience want soften one intensity add milk make cappuccino 10 40 50 10 split roast coffees give robustas dark roast light slightly long roast colombian arabica beans keeps acidity intact develops hint nutty note il caffè goes like dream classic aroma promises delight familiar flavour one remember crafted il caffè traditional black coffee experience want soften one intensity add milk make cappuccino capsules roast ground coffee nespresso system roast ground coffee g 247 oz capsules il caffe 110 dark low high high low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
@@ -11196,10 +12300,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI67" t="inlineStr"/>
-      <c r="AJ67" t="inlineStr"/>
-      <c r="AK67" t="inlineStr"/>
-      <c r="AL67" t="inlineStr"/>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ67" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK67" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM67" t="inlineStr">
         <is>
           <t>Charts/VL23_Diavolitto_Vertuo_Taste Profile.png</t>
@@ -11207,7 +12327,7 @@
       </c>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml espresso highly intense powerful 110 99 intense woody harshness diavolitto fine oak wood leather notes smooth creamy texture addition milk complements natural full body 10 40 40 40 short devil coffee capsule intense powerful espresso definitely packed character oak leather aromas punch creamy texture diavolitto s blend robustas including washed guatemalan robusta latin american arabicas blend robustas arabicas latin america rare robusta guatemala gives coffee soft creamy texture highly roasted robusta arabica coffee blend split roast coffee origin characteristics stay play capsules roast ground coffee nespresso system roast ground coffee g 247 oz capsules diavolitto 110 dark low high high high</t>
+          <t>vertuo current espresso ml espresso highly intense powerful 110 99 intense woody harshness diavolitto fine oak wood leather notes smooth creamy texture addition milk complements natural full body 10 40 40 40 short devil coffee capsule intense powerful espresso definitely packed character oak leather aromas punch creamy texture diavolitto s blend robustas including washed guatemalan robusta latin american arabicas blend robustas arabicas latin america rare robusta guatemala gives coffee soft creamy texture highly roasted robusta arabica coffee blend split roast coffee origin characteristics stay play capsules roast ground coffee nespresso system roast ground coffee g 247 oz capsules diavolitto 110 dark low high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
@@ -11354,10 +12474,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI68" t="inlineStr"/>
-      <c r="AJ68" t="inlineStr"/>
-      <c r="AK68" t="inlineStr"/>
-      <c r="AL68" t="inlineStr"/>
+      <c r="AI68" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ68" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK68" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL68" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM68" t="inlineStr">
         <is>
           <t>Charts/VL24_Altissio Decaffeinato_Vertuo_Taste Profile.png</t>
@@ -11365,7 +12501,7 @@
       </c>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml espresso fullbodied creamy 90 99 cocoa fullbodied bold espresso taste comes blending south american arabicas robusta costa rican arabica adds soft cereal note decaffeinated taste highly roasted altissio decaffeinato true original still cloaked creamy royal robes 10 30 30 30 altissio decaffeinato walks ll notice capsules roast ground coffee nespresso system roast ground coffee g 246 oz capsules altissio decaffeinato 90 dark low medium medium medium</t>
+          <t>vertuo current espresso ml espresso fullbodied creamy 90 99 cocoa fullbodied bold espresso taste comes blending south american arabicas robusta costa rican arabica adds soft cereal note decaffeinated taste highly roasted altissio decaffeinato true original still cloaked creamy royal robes 10 30 30 30 altissio decaffeinato walks ll notice capsules roast ground coffee nespresso system roast ground coffee g 246 oz capsules altissio decaffeinato 90 dark low medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
@@ -11520,10 +12656,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI69" t="inlineStr"/>
-      <c r="AJ69" t="inlineStr"/>
-      <c r="AK69" t="inlineStr"/>
-      <c r="AL69" t="inlineStr"/>
+      <c r="AI69" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ69" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK69" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL69" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM69" t="inlineStr">
         <is>
           <t>Charts/VL25_Altissio_Vertuo_Taste Profile.png</t>
@@ -11531,7 +12683,7 @@
       </c>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml espresso fullbodied creamy 90 99 intense bold espresso cloaked creamy roasty cereal note pairs perfectly milk complements natural full body 10 30 10 30 south american arabicas touch brazilian robusta give fullbodied bold espresso taste balanced coffees costa rican arabica adds soft cereal note royal robes altissio vertuo espresso coffee cloaked thick velvety crema full roasty notes soft creamy cereal note combination arabicas latin america costa rica little touch brazilian robusta fullbodied cup altissio gets intense short roast bring fullbodied character bold vertuo espresso coffee capsules roast ground coffee nespresso system roast ground coffee g 246 oz capsules altissio 90 dark low medium low medium</t>
+          <t>vertuo current espresso ml espresso fullbodied creamy 90 99 intense bold espresso cloaked creamy roasty cereal note pairs perfectly milk complements natural full body 10 30 10 30 south american arabicas touch brazilian robusta give fullbodied bold espresso taste balanced coffees costa rican arabica adds soft cereal note royal robes altissio vertuo espresso coffee cloaked thick velvety crema full roasty notes soft creamy cereal note combination arabicas latin america costa rica little touch brazilian robusta fullbodied cup altissio gets intense short roast bring fullbodied character bold vertuo espresso coffee capsules roast ground coffee nespresso system roast ground coffee g 246 oz capsules altissio 90 dark low medium low medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
@@ -11678,10 +12830,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI70" t="inlineStr"/>
-      <c r="AJ70" t="inlineStr"/>
-      <c r="AK70" t="inlineStr"/>
-      <c r="AL70" t="inlineStr"/>
+      <c r="AI70" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ70" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK70" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL70" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM70" t="inlineStr">
         <is>
           <t>Charts/VL26_Peru Organic_Vertuo_Taste Profile.png</t>
@@ -11689,7 +12857,7 @@
       </c>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml espresso high andes 60 108 fruity high meters even meters tucked slopes andes found organic processes passed generation generation coffee blessed meticulous care smallholder farmers peru organic split roast reveal bright juicy acidity elegant fruity notes accented smooth toasted cereal note 40 30 30 30 love traveled across remote peruvian regions search fine organic certified arabica coffee beans capsules roast ground coffee nespresso system roast ground coffee g 246 oz capsules peru organic vertuo 60 medium high medium medium medium</t>
+          <t>vertuo current espresso ml espresso high andes 60 108 fruity high meters even meters tucked slopes andes found organic processes passed generation generation coffee blessed meticulous care smallholder farmers peru organic split roast reveal bright juicy acidity elegant fruity notes accented smooth toasted cereal note 40 30 30 30 love traveled across remote peruvian regions search fine organic certified arabica coffee beans capsules roast ground coffee nespresso system roast ground coffee g 246 oz capsules peru organic vertuo 60 medium high medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
@@ -11836,10 +13004,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI71" t="inlineStr"/>
-      <c r="AJ71" t="inlineStr"/>
-      <c r="AK71" t="inlineStr"/>
-      <c r="AL71" t="inlineStr"/>
+      <c r="AI71" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ71" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK71" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL71" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM71" t="inlineStr">
         <is>
           <t>Charts/VL27_Orafio_Vertuo_Taste Profile.png</t>
@@ -11847,7 +13031,7 @@
       </c>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml espresso caramel roasted 60 99 caramel crafted orafio light long roasted ugandan robusta roast keeps coffee typical body bitterness check still delivering liquorice spice notes hallmarks origin naturally processed robusta short dark roast brazilian costa rican arabicas balances blend orafio complex coffee carrying delicious caramel note lingering long finish beautiful roasted notes graced hint acidity make luxurious coffee worth weight gold 10 30 30 20 makes orafio glow cup combination masterful blending bringing together high quality arabica robusta coffees diversity origins skilful split roasting sounds bit like level craftmanship goes coffee namesake italians among us recognize link word goldsmith capsules roast ground coffee nespresso system roast ground coffee g 218 oz capsules orafio 60 medium low medium medium low</t>
+          <t>vertuo current espresso ml espresso caramel roasted 60 99 caramel crafted orafio light long roasted ugandan robusta roast keeps coffee typical body bitterness check still delivering liquorice spice notes hallmarks origin naturally processed robusta short dark roast brazilian costa rican arabicas balances blend orafio complex coffee carrying delicious caramel note lingering long finish beautiful roasted notes graced hint acidity make luxurious coffee worth weight gold 10 30 30 20 makes orafio glow cup combination masterful blending bringing together high quality arabica robusta coffees diversity origins skilful split roasting sounds bit like level craftmanship goes coffee namesake italians among us recognize link word goldsmith capsules roast ground coffee nespresso system roast ground coffee g 218 oz capsules orafio 60 medium low medium medium low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
@@ -11889,7 +13073,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Current</t>
+          <t>Not Current</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11994,10 +13178,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI72" t="inlineStr"/>
-      <c r="AJ72" t="inlineStr"/>
-      <c r="AK72" t="inlineStr"/>
-      <c r="AL72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ72" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK72" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM72" t="inlineStr">
         <is>
           <t>Charts/VL28_Toccanto_Vertuo_Taste Profile.png</t>
@@ -12005,7 +13205,7 @@
       </c>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml espresso berry winey 50 99 berry fill cup wildly aromatic toccanto juicy coffee whose latin american arabicas bring candied winey fruit notes palate 30 20 20 20 barrel fine south central american coffee origins gather together toccanto bring wild juicy coffee candied ripe fruity notes arabica blend beautifully balances acidity body aromatic cup capsules roast ground coffee nespresso system roast ground coffee g 218 oz capsules toccanto 50 medium medium low low low</t>
+          <t>vertuo current espresso ml espresso berry winey 50 99 berry fill cup wildly aromatic toccanto juicy coffee whose latin american arabicas bring candied winey fruit notes palate 30 20 20 20 barrel fine south central american coffee origins gather together toccanto bring wild juicy coffee candied ripe fruity notes arabica blend beautifully balances acidity body aromatic cup capsules roast ground coffee nespresso system roast ground coffee g 218 oz capsules toccanto 50 medium medium low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
@@ -12160,10 +13360,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI73" t="inlineStr"/>
-      <c r="AJ73" t="inlineStr"/>
-      <c r="AK73" t="inlineStr"/>
-      <c r="AL73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ73" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK73" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL73" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM73" t="inlineStr">
         <is>
           <t>Charts/VL29_Voltesso_Vertuo_Taste Profile.png</t>
@@ -12171,7 +13387,7 @@
       </c>
       <c r="AN73" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml espresso light sweet 40 99 unknown sweet mild harmonious blend delicate biscuity aromas perfectly pairs dash milk looking even smooth taste 20 20 20 20 light sweet espresso comes biscuity aroma fine south american arabicas might make golden standard voltesso gets light biscuity note brazilian bourbon coffee colombian arabicas add hint acidity colombian coffee roasted light short preserve acidity brazilian bourbon roasted long time reveal biscuity notes capsules roast ground coffee nespresso system roast ground coffee g 183 oz capsules voltesso 40 blonde low low low low</t>
+          <t>vertuo current espresso ml espresso light sweet 40 99 unknown sweet mild harmonious blend delicate biscuity aromas perfectly pairs dash milk looking even smooth taste 20 20 20 20 light sweet espresso comes biscuity aroma fine south american arabicas might make golden standard voltesso gets light biscuity note brazilian bourbon coffee colombian arabicas add hint acidity colombian coffee roasted light short preserve acidity brazilian bourbon roasted long time reveal biscuity notes capsules roast ground coffee nespresso system roast ground coffee g 183 oz capsules voltesso 40 blonde low low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
@@ -12326,10 +13542,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI74" t="inlineStr"/>
-      <c r="AJ74" t="inlineStr"/>
-      <c r="AK74" t="inlineStr"/>
-      <c r="AL74" t="inlineStr"/>
+      <c r="AI74" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ74" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL74" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM74" t="inlineStr">
         <is>
           <t>Charts/VL30_Double Espresso Scuro_Vertuo_Taste Profile.png</t>
@@ -12337,7 +13569,7 @@
       </c>
       <c r="AN74" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml double espresso dark bold 110 110 unknown highly roasted blend arabica robusta gives double espresso scuro smoky character dark cocoa subtle vanilla notes pairs perfectly milk 10 30 30 30 double espresso scuro highly roasted blend robusta arabica central american coffees robusta guatemala arabica costa rican robusta nespresso vertuoline double shot helps pack double enjoyment intense blend created using robustas guatemala origins combination arabicas costa rica separate robustas arabicas give full roast develop intense cocoa notes smoky character coffee capsules roast ground coffee nespresso system roast ground coffee g 352 oz capsules double espresso scuro 110 dark low medium medium medium</t>
+          <t>vertuo current espresso ml double espresso dark bold 110 110 unknown highly roasted blend arabica robusta gives double espresso scuro smoky character dark cocoa subtle vanilla notes pairs perfectly milk 10 30 30 30 double espresso scuro highly roasted blend robusta arabica central american coffees robusta guatemala arabica costa rican robusta nespresso vertuoline double shot helps pack double enjoyment intense blend created using robustas guatemala origins combination arabicas costa rica separate robustas arabicas give full roast develop intense cocoa notes smoky character coffee capsules roast ground coffee nespresso system roast ground coffee g 352 oz capsules double espresso scuro 110 dark low medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
@@ -12492,10 +13724,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI75" t="inlineStr"/>
-      <c r="AJ75" t="inlineStr"/>
-      <c r="AK75" t="inlineStr"/>
-      <c r="AL75" t="inlineStr"/>
+      <c r="AI75" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ75" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK75" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL75" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM75" t="inlineStr">
         <is>
           <t>Charts/VL31_Double Espresso Chiaro_Vertuo_Taste Profile.png</t>
@@ -12503,7 +13751,7 @@
       </c>
       <c r="AN75" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml double espresso dense wild 80 110 unknown intense yet balanced double espresso woody earthy roasted cereal notes pairs perfectly milk enriches blend surprisingly prominent notes caramel 10 30 30 20 nespresso vertuoline double shot last course go ahead finish meal bang blend latin american arabica coffees mainly coming brazil colombia washed natural arabicas roasted separately although get intense short roast done bring best part blend capsules roast ground coffee nespresso system roast ground coffee g 352 oz capsules double espresso chiaro 80 dark low medium medium low</t>
+          <t>vertuo current espresso ml double espresso dense wild 80 110 unknown intense yet balanced double espresso woody earthy roasted cereal notes pairs perfectly milk enriches blend surprisingly prominent notes caramel 10 30 30 20 nespresso vertuoline double shot last course go ahead finish meal bang blend latin american arabica coffees mainly coming brazil colombia washed natural arabicas roasted separately although get intense short roast done bring best part blend capsules roast ground coffee nespresso system roast ground coffee g 352 oz capsules double espresso chiaro 80 dark low medium medium low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
@@ -12658,10 +13906,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="AI76" t="inlineStr"/>
-      <c r="AJ76" t="inlineStr"/>
-      <c r="AK76" t="inlineStr"/>
-      <c r="AL76" t="inlineStr"/>
+      <c r="AI76" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ76" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK76" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL76" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM76" t="inlineStr">
         <is>
           <t>Charts/VL32_Double Espresso Dolce_Vertuo_Taste Profile.png</t>
@@ -12669,7 +13933,7 @@
       </c>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml double espresso cereal malted 50 110 cereal exceptionally smooth double espresso gets sweetness malty toasted cereal notes fine blend arabica robusta pairs perfectly milk 20 20 30 50 masterful blending split roasting different arabica robusta beans secret behind mild smooth double espresso latin american arabicas deliver delicious malty toasted cereal note sings beautifully balanced cup double espresso dolce created combining latin american arabicas ugandan robustas batch arabicas roasted light short another combination arabica robusta get slightly long dark roast capsules roast ground coffee nespresso system roast ground coffee g 335 oz capsules double espresso dolce 50 medium low low medium high</t>
+          <t>vertuo current espresso ml double espresso cereal malted 50 110 cereal exceptionally smooth double espresso gets sweetness malty toasted cereal notes fine blend arabica robusta pairs perfectly milk 20 20 30 50 masterful blending split roasting different arabica robusta beans secret behind mild smooth double espresso latin american arabicas deliver delicious malty toasted cereal note sings beautifully balanced cup double espresso dolce created combining latin american arabicas ugandan robustas batch arabicas roasted light short another combination arabica robusta get slightly long dark roast capsules roast ground coffee nespresso system roast ground coffee g 335 oz capsules double espresso dolce 50 medium low low medium high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
@@ -12822,10 +14086,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI77" t="inlineStr"/>
-      <c r="AJ77" t="inlineStr"/>
-      <c r="AK77" t="inlineStr"/>
-      <c r="AL77" t="inlineStr"/>
+      <c r="AI77" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL77" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM77" t="inlineStr">
         <is>
           <t>Charts/VL33_Roasted Hazelnut_Vertuo_Taste Profile.png</t>
@@ -12833,7 +14113,7 @@
       </c>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>vertuo current barista creations ml coffee cappucino latte macchiato hazelnut flavoured 126 hazelnut flavoured flavoured blend delights classic grilled hazelnut flavour complemented notes biscuits caramel 10 10 20 00 made name changes barista creations flavoured range vertuo good reflect various changes made recipe flavouring extracts recommended cup size bringing rich caramelized flavour roasted hazelnuts coffee called perfectly roasting smooth arabica beans latin america africa sweet velvety blend delicate biscuit note meets bittersweet complexity hazelnut flavour barista creations flavoured roasted hazelnut smiles makes milky treat rush grilled hazelnut praline caramel biscuit notes arabica blend sourced brazil ethiopia another latin american country latin american beans roasted medium dark quickly develop sweetness coffees roasted bit long develop velvety texture capsules artificially flavoured hazelnut roast ground coffee nespresso system roast ground coffee g 440 oz capsules roasted hazelnut 50 medium low low low low</t>
+          <t>vertuo current barista creations ml coffee cappucino latte macchiato hazelnut flavoured 126 hazelnut flavoured flavoured blend delights classic grilled hazelnut flavour complemented notes biscuits caramel 10 10 20 00 made name changes barista creations flavoured range vertuo good reflect various changes made recipe flavouring extracts recommended cup size bringing rich caramelized flavour roasted hazelnuts coffee called perfectly roasting smooth arabica beans latin america africa sweet velvety blend delicate biscuit note meets bittersweet complexity hazelnut flavour barista creations flavoured roasted hazelnut smiles makes milky treat rush grilled hazelnut praline caramel biscuit notes arabica blend sourced brazil ethiopia another latin american country latin american beans roasted medium dark quickly develop sweetness coffees roasted bit long develop velvety texture capsules artificially flavoured hazelnut roast ground coffee nespresso system roast ground coffee g 440 oz capsules roasted hazelnut 50 medium low low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
@@ -12978,10 +14258,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI78" t="inlineStr"/>
-      <c r="AJ78" t="inlineStr"/>
-      <c r="AK78" t="inlineStr"/>
-      <c r="AL78" t="inlineStr"/>
+      <c r="AI78" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ78" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK78" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL78" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM78" t="inlineStr">
         <is>
           <t>Charts/VL34_Golden Caramel_Vertuo_Taste Profile.png</t>
@@ -12989,7 +14285,7 @@
       </c>
       <c r="AN78" t="inlineStr">
         <is>
-          <t>vertuo current barista creations ml coffee cappucino latte macchiato caramel flavoured 126 caramel flavoured flavoured blend delights classic caramel flavour combined sweet biscuit notes 10 10 20 20 made name changes barista creations flavoured range vertuo good reflect various changes made recipe flavouring extracts recommended cup size barista creations flavoured golden caramel brings weekend mood day sweet velvety base blend latin american african arabicas comes comforting caramel flavour biscuity sweetness echo coffee blend one got layers indulgence irresistibly inviting cozy time moment calls insider tip dash milk caramel biscuit notes missed capsules artificially flavoured caramel roast ground coffee nespresso system roast ground coffee artificial flavour g 440 oz capsules golden caramel 50 medium low low low low</t>
+          <t>vertuo current barista creations ml coffee cappucino latte macchiato caramel flavoured 126 caramel flavoured flavoured blend delights classic caramel flavour combined sweet biscuit notes 10 10 20 20 made name changes barista creations flavoured range vertuo good reflect various changes made recipe flavouring extracts recommended cup size barista creations flavoured golden caramel brings weekend mood day sweet velvety base blend latin american african arabicas comes comforting caramel flavour biscuity sweetness echo coffee blend one got layers indulgence irresistibly inviting cozy time moment calls insider tip dash milk caramel biscuit notes missed capsules artificially flavoured caramel roast ground coffee nespresso system roast ground coffee artificial flavour g 440 oz capsules golden caramel 50 medium low low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO78" t="inlineStr">
@@ -13134,10 +14430,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI79" t="inlineStr"/>
-      <c r="AJ79" t="inlineStr"/>
-      <c r="AK79" t="inlineStr"/>
-      <c r="AL79" t="inlineStr"/>
+      <c r="AI79" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ79" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK79" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL79" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM79" t="inlineStr">
         <is>
           <t>Charts/VL35_Sweet Vanilla_Vertuo_Taste Profile.png</t>
@@ -13145,7 +14457,7 @@
       </c>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>vertuo current barista creations ml coffee cappucino latte macchiato vanilla flavoured 126 vanilla flavoured flavoured blend delights classic vanilla flavour combined sweet biscuit candied cereal notes coming delicate arabica base 10 10 20 20 made name changes barista creations flavoured range vertuo good reflect various changes made recipe flavouring extracts recommended cup sizetuck barista creations flavoured sweet vanilla dreamy taste vanilla dances delicious coffee add vanilla flavour lightroasted arabicas latin america africa discover much cup takes swirl flavours notes caramel vanilla cake excuse need pause enjoy little metime share loved ones insider tip dash milk highlights vanilla flavour capsules roast ground coffee nespresso system vanilla flavour natural flavours roast ground coffee natural flavour g 440 oz capsules sweet vanilla 50 medium low low low low</t>
+          <t>vertuo current barista creations ml coffee cappucino latte macchiato vanilla flavoured 126 vanilla flavoured flavoured blend delights classic vanilla flavour combined sweet biscuit candied cereal notes coming delicate arabica base 10 10 20 20 made name changes barista creations flavoured range vertuo good reflect various changes made recipe flavouring extracts recommended cup sizetuck barista creations flavoured sweet vanilla dreamy taste vanilla dances delicious coffee add vanilla flavour lightroasted arabicas latin america africa discover much cup takes swirl flavours notes caramel vanilla cake excuse need pause enjoy little metime share loved ones insider tip dash milk highlights vanilla flavour capsules roast ground coffee nespresso system vanilla flavour natural flavours roast ground coffee natural flavour g 440 oz capsules sweet vanilla 50 medium low low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
@@ -13290,10 +14602,26 @@
           <t>Low</t>
         </is>
       </c>
-      <c r="AI80" t="inlineStr"/>
-      <c r="AJ80" t="inlineStr"/>
-      <c r="AK80" t="inlineStr"/>
-      <c r="AL80" t="inlineStr"/>
+      <c r="AI80" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ80" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK80" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL80" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM80" t="inlineStr">
         <is>
           <t>Charts/VL36_Rich Chocolate_Vertuo_Taste Profile.png</t>
@@ -13301,7 +14629,7 @@
       </c>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>vertuo current barista creations ml coffee cappucino latte macchiato dark chocolate flavoured 126 chocolate flavoured flavoured blend delights elegant dark chocolate flavour complemented notes caramel almond cereal 10 10 20 20 satisfy chocolate craving barista creations flavoured rich chocolate velvetysmooth blend latin american african arabicas meets authentic chocolate flavour inviting make occasion coffee moment like good dark chocolaterich complexthis coffee unfolds layers flavour sweetness elevates dessert status insider tip dash milk rush nuts biscuit notes emerges accompany chocolate flavour capsules flavoured roast ground coffee nespresso system roast ground coffee cocoa flavour natural flavours g 440 oz capsules rich chocolate 50 medium low low low low</t>
+          <t>vertuo current barista creations ml coffee cappucino latte macchiato dark chocolate flavoured 126 chocolate flavoured flavoured blend delights elegant dark chocolate flavour complemented notes caramel almond cereal 10 10 20 20 satisfy chocolate craving barista creations flavoured rich chocolate velvetysmooth blend latin american african arabicas meets authentic chocolate flavour inviting make occasion coffee moment like good dark chocolaterich complexthis coffee unfolds layers flavour sweetness elevates dessert status insider tip dash milk rush nuts biscuit notes emerges accompany chocolate flavour capsules flavoured roast ground coffee nespresso system roast ground coffee cocoa flavour natural flavours g 440 oz capsules rich chocolate 50 medium low low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
@@ -13454,10 +14782,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI81" t="inlineStr"/>
-      <c r="AJ81" t="inlineStr"/>
-      <c r="AK81" t="inlineStr"/>
-      <c r="AL81" t="inlineStr"/>
+      <c r="AI81" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ81" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK81" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL81" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM81" t="inlineStr">
         <is>
           <t>Charts/VL37_Bianco Piccolo_Vertuo_Taste Profile.png</t>
@@ -13465,7 +14809,7 @@
       </c>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>vertuo current barista creations ml espresso milk recipes sweet smooth 99 smooth sweet soft smooth creamy texture sweet notes caramel nuts biscuit especially crafted recipes milk 10 20 30 30 intense yet smooth taste espresso specially designed making cappuccinos latte macchiatos flat whites expertly crafted blend arabicas china colombia brazil ethiopia creates world rich roasted notes land harmony creamy sweetness milk arabica blend sourced beans diversity origins stretching china colombia brazil ethiopia roasted two splits 1 mediumdark majority coffee 2 light light balance overall roast aiming best combination work well milk capsules roast ground coffee nespresso system roast ground coffee g 219 oz capsules bianco piccolo 70 medium low low medium medium</t>
+          <t>vertuo current barista creations ml espresso milk recipes sweet smooth 99 smooth sweet soft smooth creamy texture sweet notes caramel nuts biscuit especially crafted recipes milk 10 20 30 30 intense yet smooth taste espresso specially designed making cappuccinos latte macchiatos flat whites expertly crafted blend arabicas china colombia brazil ethiopia creates world rich roasted notes land harmony creamy sweetness milk arabica blend sourced beans diversity origins stretching china colombia brazil ethiopia roasted two splits 1 mediumdark majority coffee 2 light light balance overall roast aiming best combination work well milk capsules roast ground coffee nespresso system roast ground coffee g 219 oz capsules bianco piccolo 70 medium low low medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
@@ -13618,10 +14962,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI82" t="inlineStr"/>
-      <c r="AJ82" t="inlineStr"/>
-      <c r="AK82" t="inlineStr"/>
-      <c r="AL82" t="inlineStr"/>
+      <c r="AI82" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ82" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK82" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL82" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM82" t="inlineStr">
         <is>
           <t>Charts/VL38_Bianco Doppio_Vertuo_Taste Profile.png</t>
@@ -13629,7 +14989,7 @@
       </c>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>vertuo current barista creations ml double espresso milk recipes sweet milky 110 sweet smooth caramelly lightroast arabica blend crafted specifically large milky coffees 00 10 10 30 crafted coffee match long milky treats aromatic blend light roasted arabicas kenya colombia nicaragua signature split roast develops delicious caramelly notes smooth texture bianco doppio milk coffee pairs beautifully milk large cappuccinos flat whites arabica blend sourced beans diversity origins stretching china colombia brazil ethiopia majority coffee goes light first split second split pushed bit clear light roast overall capsules roast ground coffee nespresso system roast ground coffee g 359 oz capsules bianco doppio 60 medium low low low medium</t>
+          <t>vertuo current barista creations ml double espresso milk recipes sweet milky 110 sweet smooth caramelly lightroast arabica blend crafted specifically large milky coffees 00 10 10 30 crafted coffee match long milky treats aromatic blend light roasted arabicas kenya colombia nicaragua signature split roast develops delicious caramelly notes smooth texture bianco doppio milk coffee pairs beautifully milk large cappuccinos flat whites arabica blend sourced beans diversity origins stretching china colombia brazil ethiopia majority coffee goes light first split second split pushed bit clear light roast overall capsules roast ground coffee nespresso system roast ground coffee g 359 oz capsules bianco doppio 60 medium low low low medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
@@ -13762,10 +15122,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AE83" t="inlineStr"/>
-      <c r="AF83" t="inlineStr"/>
-      <c r="AG83" t="inlineStr"/>
-      <c r="AH83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF83" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG83" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AH83" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AI83" t="inlineStr">
         <is>
           <t>Low</t>
@@ -13793,7 +15169,7 @@
       </c>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>vertuo current barista creations ml coffee cappucino latte macchiato intense fullbodied 126 balanced intense fullbodied intense darkroasted coffee rich cereal notes especially crafted recipes remains powerful combination milk 20 30 30 30 long cup coffee big powerful roasted notes add generous dash milk find sweetness sits dynamic balance carefully crafted blend fine colombian kenyan arabicas give beans dark split roast highlight coffees rich roasted cereal notes arabica blend combines coffees kenya colombia costa rica one part blend gets long dark roast second part roasted little fast slightly light degree capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules bianco forte 70 medium low medium medium medium</t>
+          <t>vertuo current barista creations ml coffee cappucino latte macchiato intense fullbodied 126 balanced intense fullbodied intense darkroasted coffee rich cereal notes especially crafted recipes remains powerful combination milk 20 30 30 30 long cup coffee big powerful roasted notes add generous dash milk find sweetness sits dynamic balance carefully crafted blend fine colombian kenyan arabicas give beans dark split roast highlight coffees rich roasted cereal notes arabica blend combines coffees kenya colombia costa rica one part blend gets long dark roast second part roasted little fast slightly light degree capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules bianco forte 70 medium medium medium medium medium low medium medium medium</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -13918,14 +15294,46 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AE84" t="inlineStr"/>
-      <c r="AF84" t="inlineStr"/>
-      <c r="AG84" t="inlineStr"/>
-      <c r="AH84" t="inlineStr"/>
-      <c r="AI84" t="inlineStr"/>
-      <c r="AJ84" t="inlineStr"/>
-      <c r="AK84" t="inlineStr"/>
-      <c r="AL84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF84" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG84" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AH84" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AI84" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ84" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK84" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL84" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM84" t="inlineStr">
         <is>
           <t>Charts/VL40_Ice Forte_Vertuo_Taste Profile.png</t>
@@ -13933,7 +15341,7 @@
       </c>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>vertuo current barista creations ml coffee iced recipe intense recipes ice 135 roasted peppery note barista creations ice forte carries distinct roasted character truly awaken senses cereal woody peppery notes lace cup deliver rich iced coffee experience love enjoy intense taste barista creations ice forte refreshing coffee ice south american arabicas mix indonesian ethiopian arabicas offer impactful aromatic experience dark roasted ground specifically delicious coffee ice best served coffee capsule ml cup full ice cubes g prolong pleasure top cold water cold milk ml arabica blend made mostly combination colombian indonesian ethiopian beans part blend gets medium roast keep flavour complexity intact part gets long dark roast delivers intensity bold body capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules ice forte 70 medium</t>
+          <t>vertuo current barista creations ml coffee iced recipe intense recipes ice 135 roasted peppery note barista creations ice forte carries distinct roasted character truly awaken senses cereal woody peppery notes lace cup deliver rich iced coffee experience love enjoy intense taste barista creations ice forte refreshing coffee ice south american arabicas mix indonesian ethiopian arabicas offer impactful aromatic experience dark roasted ground specifically delicious coffee ice best served coffee capsule ml cup full ice cubes g prolong pleasure top cold water cold milk ml arabica blend made mostly combination colombian indonesian ethiopian beans part blend gets medium roast keep flavour complexity intact part gets long dark roast delivers intensity bold body capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules ice forte 70 medium medium medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -14058,14 +15466,46 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AE85" t="inlineStr"/>
-      <c r="AF85" t="inlineStr"/>
-      <c r="AG85" t="inlineStr"/>
-      <c r="AH85" t="inlineStr"/>
-      <c r="AI85" t="inlineStr"/>
-      <c r="AJ85" t="inlineStr"/>
-      <c r="AK85" t="inlineStr"/>
-      <c r="AL85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF85" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG85" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AH85" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AI85" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ85" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL85" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM85" t="inlineStr">
         <is>
           <t>Charts/VL41_Ice Leggero_Vertuo_Taste Profile.png</t>
@@ -14073,7 +15513,7 @@
       </c>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>vertuo current barista creations ml double espresso mild recipes ice 115 cereal chill light thirstquenching fruitiness refreshing iced coffee experience paired rounded cereal note love enjoy delicate fruity cereal notes barista creations ice leggero elegant flavours ethiopian arabica blend refresh like gentle summer breeze pour ice roast lightly grind specifically deliver cool delicate taste palate best served coffee capsule ml cup full ice cubes g prolong pleasure top cold water cold milk ml arabica blend gets coffee mostly ethiopia indonesia first part blend gets light short roast enhance floral notes typical ethiopian arabica second gets medium roast bring balance roundness cup capsules flavoured roast ground coffee nespresso system roast ground coffee g 352 oz capsules ice leggero 50 medium</t>
+          <t>vertuo current barista creations ml double espresso mild recipes ice 115 cereal chill light thirstquenching fruitiness refreshing iced coffee experience paired rounded cereal note love enjoy delicate fruity cereal notes barista creations ice leggero elegant flavours ethiopian arabica blend refresh like gentle summer breeze pour ice roast lightly grind specifically deliver cool delicate taste palate best served coffee capsule ml cup full ice cubes g prolong pleasure top cold water cold milk ml arabica blend gets coffee mostly ethiopia indonesia first part blend gets light short roast enhance floral notes typical ethiopian arabica second gets medium roast bring balance roundness cup capsules flavoured roast ground coffee nespresso system roast ground coffee g 352 oz capsules ice leggero 50 medium medium medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
@@ -14218,10 +15658,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI86" t="inlineStr"/>
-      <c r="AJ86" t="inlineStr"/>
-      <c r="AK86" t="inlineStr"/>
-      <c r="AL86" t="inlineStr"/>
+      <c r="AI86" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ86" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK86" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL86" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM86" t="inlineStr">
         <is>
           <t>Charts/VL42_Vivida_Vertuo_Taste Profile.png</t>
@@ -14229,7 +15685,7 @@
       </c>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee toasted cereal biscuity notes vitamin b12 150 cereal biscuity smooth round coffee classic cereal note honeyed sweetness find notes love great taste melozio vivida coffee savour vivida anytime day hot cold black milk customize coffee experience match preferences 10 20 30 30 vivida invites coffee ritual wellbeing smooth taste fine latin american arabicas meets benefits vitamin b12 vitamin b12 contributes normal functioning immune system complemented blend brazilian arabica luxurious sweet cereal note vivida treat great day vitamin b12 support immune health capsule vivida gives recommended daily value enjoy part varied balanced diet capsules flavoured roast ground coffee vitamin b12 nespresso system roast ground coffee natural flavours g 440 oz capsules vivida 60 medium low low medium medium</t>
+          <t>vertuo current long coffee ml coffee toasted cereal biscuity notes vitamin b12 150 cereal biscuity smooth round coffee classic cereal note honeyed sweetness find notes love great taste melozio vivida coffee savour vivida anytime day hot cold black milk customize coffee experience match preferences 10 20 30 30 vivida invites coffee ritual wellbeing smooth taste fine latin american arabicas meets benefits vitamin b12 vitamin b12 contributes normal functioning immune system complemented blend brazilian arabica luxurious sweet cereal note vivida treat great day vitamin b12 support immune health capsule vivida gives recommended daily value enjoy part varied balanced diet capsules flavoured roast ground coffee vitamin b12 nespresso system roast ground coffee natural flavours g 440 oz capsules vivida 60 medium low low medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
@@ -14384,10 +15840,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI87" t="inlineStr"/>
-      <c r="AJ87" t="inlineStr"/>
-      <c r="AK87" t="inlineStr"/>
-      <c r="AL87" t="inlineStr"/>
+      <c r="AI87" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL87" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM87" t="inlineStr">
         <is>
           <t>Charts/VL43_Ristretto Classico_Vertuo_Taste Profile.png</t>
@@ -14395,7 +15867,7 @@
       </c>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>vertuo current online exclusive espresso ml ristretto intensely roasted berry 90 88 berry cocoa intense intense coffee strikes elegant balance roasty fruity aromas outlined distinctive roasted cocoa note 30 40 40 30 ristretto classico intricate allarabica blend beans honduras el salvador guatemala get dark roast make short shot contender classic ristretto experience roasted fruity notes punching weight delivers lingering notes roasted cocoa ristretto classico crafted using blend topgrade fully washed arabicas honduras el salvador guatemala coffee roasted single batch inspired traditional ristretto recipes short yet dark roast allows develop intensity preserving fruitiness capsules roast ground coffee roast ground coffee g 246 oz capsules ristretto classico 90 dark medium high high medium</t>
+          <t>vertuo current online exclusive espresso ml ristretto intensely roasted berry 90 88 berry cocoa intense intense coffee strikes elegant balance roasty fruity aromas outlined distinctive roasted cocoa note 30 40 40 30 ristretto classico intricate allarabica blend beans honduras el salvador guatemala get dark roast make short shot contender classic ristretto experience roasted fruity notes punching weight delivers lingering notes roasted cocoa ristretto classico crafted using blend topgrade fully washed arabicas honduras el salvador guatemala coffee roasted single batch inspired traditional ristretto recipes short yet dark roast allows develop intensity preserving fruitiness capsules roast ground coffee roast ground coffee g 246 oz capsules ristretto classico 90 dark medium high high medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
@@ -14544,10 +16016,26 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AI88" t="inlineStr"/>
-      <c r="AJ88" t="inlineStr"/>
-      <c r="AK88" t="inlineStr"/>
-      <c r="AL88" t="inlineStr"/>
+      <c r="AI88" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ88" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK88" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL88" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM88" t="inlineStr">
         <is>
           <t>Charts/VL44_Infinitely Gourmet_Vertuo_Taste Profile.png</t>
@@ -14555,7 +16043,7 @@
       </c>
       <c r="AN88" t="inlineStr">
         <is>
-          <t>vertuo limited barista creations ml coffee hazelnut flavoured coffee 150 hazelnut elegant roasted hazelnut flavour brings artistry fine patisserie smooth flavoured coffee 20 30 30 30 elegance roasted hazelnut flavourwith sweet top notes praline delicate vanillafinds creative expression infinitely gourmet bring together cerealnoted arabicas latin america africa give blend bespoke roast smooth coffee delicious hazelnut flavour comes craft combination tastes aromas reminiscent fine patisserie chef creations add dash milk make creamy coffee treat cocreated avantgarde french pastry chef pierre hermé festive collection bold delicious collection combines exceptional patisserie knowhow art elevating coffee indulge delicious flavours available limited time capsules artificially flavoured hazelnut roast ground coffee roast ground coffee artificial flavours g 440oz capsules infinitely gourmet 50 medium low medium medium medium</t>
+          <t>vertuo limited barista creations ml coffee hazelnut flavoured coffee 150 hazelnut elegant roasted hazelnut flavour brings artistry fine patisserie smooth flavoured coffee 20 30 30 30 elegance roasted hazelnut flavourwith sweet top notes praline delicate vanillafinds creative expression infinitely gourmet bring together cerealnoted arabicas latin america africa give blend bespoke roast smooth coffee delicious hazelnut flavour comes craft combination tastes aromas reminiscent fine patisserie chef creations add dash milk make creamy coffee treat cocreated avantgarde french pastry chef pierre hermé festive collection bold delicious collection combines exceptional patisserie knowhow art elevating coffee indulge delicious flavours available limited time capsules artificially flavoured hazelnut roast ground coffee roast ground coffee artificial flavours g 440oz capsules infinitely gourmet 50 medium low medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO88" t="inlineStr">
@@ -14680,14 +16168,46 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AE89" t="inlineStr"/>
-      <c r="AF89" t="inlineStr"/>
-      <c r="AG89" t="inlineStr"/>
-      <c r="AH89" t="inlineStr"/>
-      <c r="AI89" t="inlineStr"/>
-      <c r="AJ89" t="inlineStr"/>
-      <c r="AK89" t="inlineStr"/>
-      <c r="AL89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG89" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AH89" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AI89" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ89" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK89" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL89" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM89" t="inlineStr">
         <is>
           <t>Charts/VL45_Sunny Almond Vanilla Over Ice_Vertuo_Taste Profile.png</t>
@@ -14695,7 +16215,7 @@
       </c>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>vertuo limited summer coffees ml double espresso iced recipe almond vanilla flavoured 135 almond vanilla refreshing thirstquenching iced coffee delicious almond vanilla notes reminiscent amaretti vanilla custard smooth refreshing taste sunny almond vanilla ice us cruising mediterranean summer lightroast blend arabicas anchors season sunkissed flavour coffee made ice crafted nespresso one brings shades sunny almond glow sweet vanilla summer best served coffee capsule ml cup full ice cubes gr extend treat top cold water cold milk ml arabica blend gets coffee mostly ethiopia indonesia first part blend gets light short enhance delicate notes typical ethiopian arabica second gets medium roast bring balance roundness cup capsules roast ground coffee roast ground coffee g 353 oz capsules sunny almond vanilla ice 50 medium</t>
+          <t>vertuo limited summer coffees ml double espresso iced recipe almond vanilla flavoured 135 almond vanilla refreshing thirstquenching iced coffee delicious almond vanilla notes reminiscent amaretti vanilla custard smooth refreshing taste sunny almond vanilla ice us cruising mediterranean summer lightroast blend arabicas anchors season sunkissed flavour coffee made ice crafted nespresso one brings shades sunny almond glow sweet vanilla summer best served coffee capsule ml cup full ice cubes gr extend treat top cold water cold milk ml arabica blend gets coffee mostly ethiopia indonesia first part blend gets light short enhance delicate notes typical ethiopian arabica second gets medium roast bring balance roundness cup capsules roast ground coffee roast ground coffee g 353 oz capsules sunny almond vanilla ice 50 medium medium medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO89" t="inlineStr">
@@ -14820,14 +16340,46 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AE90" t="inlineStr"/>
-      <c r="AF90" t="inlineStr"/>
-      <c r="AG90" t="inlineStr"/>
-      <c r="AH90" t="inlineStr"/>
-      <c r="AI90" t="inlineStr"/>
-      <c r="AJ90" t="inlineStr"/>
-      <c r="AK90" t="inlineStr"/>
-      <c r="AL90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG90" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AH90" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AI90" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ90" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK90" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL90" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="AM90" t="inlineStr">
         <is>
           <t>Charts/VL46_Tropical Coconut Flavour Over Ice_Vertuo_Taste Profile.png</t>
@@ -14835,7 +16387,7 @@
       </c>
       <c r="AN90" t="inlineStr">
         <is>
-          <t>vertuo limited summer coffees ml coffee ice recipe coconut vanilla flavours 150 coconut vanilla delicious coconut flavour soft hint vanilla harmoniously combined smooth rounded arabica blend tropical coconut flavour ice brings taste tropics home refreshing coconut flavor splashes caramelly notes latin american african arabica blend exotic coffee ice sweet vanilla note makes true treat refreshing iced coffee experience arabica blend gets beans latin america africa coming brazil ethiopia latin american beans roasted medium dark quickly develop sweetness coffees roasted bit long develop velvety texture add flavour roasting capsules artificially flavoured roast ground coffe roast ground coffee artificial flavours g 440 oz capsules tropical coconut flavour ice 50 medium</t>
+          <t>vertuo limited summer coffees ml coffee ice recipe coconut vanilla flavours 150 coconut vanilla delicious coconut flavour soft hint vanilla harmoniously combined smooth rounded arabica blend tropical coconut flavour ice brings taste tropics home refreshing coconut flavor splashes caramelly notes latin american african arabica blend exotic coffee ice sweet vanilla note makes true treat refreshing iced coffee experience arabica blend gets beans latin america africa coming brazil ethiopia latin american beans roasted medium dark quickly develop sweetness coffees roasted bit long develop velvety texture add flavour roasting capsules artificially flavoured roast ground coffe roast ground coffee artificial flavours g 440 oz capsules tropical coconut flavour ice 50 medium medium medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO90" t="inlineStr">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP90"/>
+  <dimension ref="A1:AP97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Current (Online Exclusive)</t>
+          <t>Not Current (Online Exclusive)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Current (Online Exclusive)</t>
+          <t>Not Current (Online Exclusive)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -8272,76 +8272,74 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>VL1</t>
+          <t>OL44</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Intenso</t>
+          <t>No.20</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Images/VL1_Intenso_Vertuo_Capsule.png</t>
+          <t>Images/OL44_No.20_Original_Capsule.png</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Images/VL1_Intenso_Vertuo_Sleeve.png</t>
+          <t>Images/OL44_No.20_Original_Sleeve.png</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Vertuo</t>
+          <t>Original</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Current</t>
+          <t>Limited</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Long Coffee</t>
+          <t>Espresso</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>230 ml (Coffee)</t>
+          <t>40 ml (Espresso)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Smooth &amp; Strong</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>9</v>
-      </c>
+          <t>Orange Blossom &amp; Citrus</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>12.6</v>
+        <v>15</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Intense</t>
+          <t>Citrus, Floral</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>An intense long black coffee with a distinctly lingering aftertaste with roasted notes and a thick coffee crema. Pairs perfectly with milk that enriches the blend with brown caramel notes.</t>
+          <t>Experience the exclusive and rare single-origin specialty coffee, balanced like a fresh garden in the finest terroir elevations of Colombia.</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
@@ -8349,22 +8347,22 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>A blend of Nicaraguans washed Robusta coffee beans and Latin American Arabica. Thick with roasted notes and a lingering finish. The Arabicas get a darker roast to lower the acidity and bring out that brown sugar aroma. While the Nicaraguan coffee gets a longer roast to develop the Robusta coffee beans’ bold and bitter notes.</t>
+          <t>How to discover the most precious coffee in the world? A rich, complex and never-before tasted experience: fruit of 20 years in art of coffee​. The journey through the senses​. Look: The velvety, silky, and delicate crema, with amber hues and golden reflections. ​Smell: A floral and fruity bouquet, evoking the smells of a fragrant garden after a refreshing rain during an end of day.​ Taste: At the first sip, enjoy the unique notes of orange blossom &amp; fresh citrus aromas emerging from this coffee. Not your average coffee.</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>Intenso is created by combining Latin American Arabicas with Nicaraguan Robustas.</t>
+          <t>Unique coffee. 20-year of expertise encapsulates in one coffee capsule. 100% Arabica. A new variety of arabica beans created by Nespresso, meticulously selected.</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>The Arabicas get a darker roast to lower the acidity and bring out that brown sugar aroma. The Robustas get a longer roast to develop bitter notes and a lingering aftertaste.</t>
+          <t>From beans to coffee. This unique coffee was achieved by cross planting two of the finest Arabica coffees and grown by 59 select famers.</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>10 capsules of roast and ground coffee for the Nespresso system</t>
+          <t>5 capsules of roast and ground coffee.</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -8374,40 +8372,40 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>125 g - 4.41 oz for 10 capsules</t>
+          <t>26.5 g - 0.94 oz for 5 capsules</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>Intenso</t>
+          <t>No.20 (Original)</t>
         </is>
       </c>
       <c r="AC45" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="AF45" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
@@ -8432,92 +8430,92 @@
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Charts/VL1_Intenso_Vertuo_Taste Profile.png</t>
+          <t>Charts/OL44_No.20_Original_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee smooth strong 90 126 intense intense long black coffee distinctly lingering aftertaste roasted notes thick coffee crema pairs perfectly milk enriches blend brown caramel notes 10 40 50 30 blend nicaraguans washed robusta coffee beans latin american arabica thick roasted notes lingering finish arabicas get dark roast low acidity bring brown sugar aroma nicaraguan coffee gets long roast develop robusta coffee beans bold bitter notes intenso created combining latin american arabicas nicaraguan robustas arabicas get dark roast low acidity bring brown sugar aroma robustas get long roast develop bitter notes lingering aftertaste capsules roast ground coffee nespresso system roast ground coffee g 441 oz capsules intenso 90 dark low high high medium medium medium medium medium</t>
+          <t>original limited espresso ml espresso orange blossom citrus 150 citrus floral experience exclusive rare singleorigin specialty coffee balanced like fresh garden fine terroir elevations colombia 40 20 20 20 discover precious coffee world rich complex neverbefore tasted experience fruit years art coffee journey senses look velvety silky delicate crema amber hues golden reflections smell floral fruity bouquet evoking smells fragrant garden refreshing rain end day taste first sip enjoy unique notes orange blossom fresh citrus aromas emerging coffee average coffee unique coffee 20year expertise encapsulates one coffee capsule arabica new variety arabica beans created nespresso meticulously selected beans coffee unique coffee achieved cross planting two fine arabica coffees grown select famers capsules roast ground coffee roast ground coffee 265 g 094 oz capsules no20 original 60 medium high low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Charts/VL1_Intenso_Vertuo_Word Cloud.png</t>
+          <t>Charts/OL44_No.20_Original_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
         <is>
-          <t>Charts/VL1_Intenso_Vertuo Feature Results.png</t>
+          <t>Charts/OL44_No.20_Original Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>VL2</t>
+          <t>OL45</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Stormio</t>
+          <t>Kahawa Ya Congo</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Images/VL2_Stormio_Vertuo_Capsule.png</t>
+          <t>Images/OL45_Kahawa Ya Congo_Original_Capsule.png</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Images/VL2_Stormio_Vertuo_Sleeve.png</t>
+          <t>Images/OL45_Kahawa Ya Congo_Original_Sleeve.png</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Vertuo</t>
+          <t>Original</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Current</t>
+          <t>Limited</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Long Coffee</t>
+          <t>Master Origins</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>230 ml (Coffee)</t>
+          <t>40 ml  (Espresso), 110 ml (Lungo)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Rich &amp; Strong</t>
+          <t>Fruity &amp; Biscuity</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K46" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Intense</t>
+          <t>Berry, Cereal</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>A long, slow roast intensifies the Nicaraguan and Guatemalan cereal aromatics to notes of spice and wood. They’re all high-grown Arabica coffees that we give that deep roast to build the rich intensity. But this Vertuo coffee pod remains smooth and full-bodied. Milk may mellow out Stormio - but you’ll still taste the powerful roasted notes that blow you away with a gathering storm.</t>
+          <t>A smooth organic coffee with toasted cereal notes, nutty aromas and mild fruitiness.</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -8531,59 +8529,67 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Why we love it: Stormio’s a darkly roasted blend that rushes in with this myriad of aromas. But that all that strength could come from pure Arabica coffees?</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
+          <t>Kahawa ya Congo comes as our only organic coffee under the Reviving Origins umbrella. The rain rich volcanic soils of the Kivu lakeshores are fertile ground for Congo's farmers to bring you this mild coffee's fruity and sweet cereal notes. Years of continued conflict and political instability leave many plantation abandoned and smallholder farmers tapping only a small raction of the Congo's potential for specialty coffee. Nespresso Reviving Origins program joins together with the South Kivu farmers and partners to support coffee communities in raising Congo coffee to its full stature. REVIVING ORIGINS Congo is still a carce treasure to behold. But each year, we'll bring you more of this smooth coffee with its mild fruity note and alluring sweet cereal and nutty aromas.</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>This 100% Arabica coffee is sourced in the rich Lake Kivu shores in eastern Congo.</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Kahawa ya Congo is a split roast. Both splits are dark and short, with the first being slightly darker and longer to develop more intensity for this coffee.</t>
+        </is>
+      </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
+          <t>10 capsules of roast and ground coffee.</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Roast and ground coffee</t>
+          <t>Roast and ground coffee.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>125 g - 4.40 oz for 10 capsules</t>
+          <t>56 g - 1.97 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>Stormio</t>
+          <t>Kahawa Ya Congo (Original)</t>
         </is>
       </c>
       <c r="AC46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="AF46" t="inlineStr">
+      <c r="AG46" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="AG46" t="inlineStr">
+      <c r="AH46" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="AH46" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
       <c r="AI46" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -8606,98 +8612,96 @@
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>Charts/VL2_Stormio_Vertuo_Taste Profile.png</t>
+          <t>Charts/OL45_Kahawa Ya Congo_Original_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee rich strong 80 126 intense long slow roast intensifies nicaraguan guatemalan cereal aromatics notes spice wood highgrown arabica coffees give deep roast build rich intensity vertuo coffee pod remains smooth fullbodied milk may mellow stormio still taste powerful roasted notes blow away gathering storm 10 40 40 40 love stormio darkly roasted blend rushes myriad aromas strength could come pure arabica coffees capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules stormio 80 dark low high high high medium medium medium medium</t>
+          <t>original limited master origins ml espresso ml lungo fruity biscuity 70 125 berry cereal smooth organic coffee toasted cereal notes nutty aromas mild fruitiness 30 20 40 40 kahawa ya congo comes organic coffee reviving origins umbrella rain rich volcanic soils kivu lakeshores fertile ground congo s farmers bring mild coffee s fruity sweet cereal notes years continued conflict political instability leave many plantation abandoned smallholder farmers tapping small raction congo s potential specialty coffee nespresso reviving origins program joins together south kivu farmers partners support coffee communities raising congo coffee full stature reviving origins congo still carce treasure behold year ll bring smooth coffee mild fruity note alluring sweet cereal nutty aromas arabica coffee sourced rich lake kivu shores eastern congo kahawa ya congo split roast splits dark short first slightly dark long develop intensity coffee capsules roast ground coffee roast ground coffee g 197 oz capsules kahawa ya congo original 70 medium medium low high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Charts/VL2_Stormio_Vertuo_Word Cloud.png</t>
+          <t>Charts/OL45_Kahawa Ya Congo_Original_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
         <is>
-          <t>Charts/VL2_Stormio_Vertuo Feature Results.png</t>
+          <t>Charts/OL45_Kahawa Ya Congo_Original Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>VL3</t>
+          <t>OL46</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Odacio</t>
+          <t>Pumpkin Spice Cake</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Images/VL3_Odacio_Vertuo_Capsule.png</t>
+          <t>Images/OL46_Pumpkin Spice Cake_Original_Capsule.png</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Images/VL3_Odacio_Vertuo_Sleeve.png</t>
+          <t>Images/OL46_Pumpkin Spice Cake_Original_Sleeve.png</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Vertuo</t>
+          <t>Original</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Current</t>
+          <t>Limited</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Long Coffee</t>
+          <t>Barista Creations</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>230 ml (Coffee)</t>
+          <t>110 ml (Lungo), Milk Recipes</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Bold &amp; Lively</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>7</v>
-      </c>
+          <t>Pumpkin &amp; Spices flavoured</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>12.6</v>
+        <v>11.5</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Intense</t>
+          <t>Spicy, Flavoured, Pumpkin, Cardamom</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>The Nicaraguan Arabica gives Odacio its soft and solid cereal note. We daringly blended in a touch of Ethiopian Arabica - it adds a splash of acidity and delicate fruitiness. We split roast the coffees in this Vertuo coffee pod. A long and light roast for both coffees develops the body and structure and keeps the acidity and aromatics intact. Odacio brings a fullbodied cereal note and then dares to surprise you with its flourish of fruitiness and delicate acidity at the end. It’s bold and it’s lively and it hits your palate with great elegance.</t>
+          <t>A delicious sweet pumpkin flavour combined with a wide range of spicy notes such as cloves, cinnamon and cardamom and a cake-like sweetness.</t>
         </is>
       </c>
       <c r="N47" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" t="n">
         <v>2</v>
       </c>
-      <c r="O47" t="n">
-        <v>4</v>
-      </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
@@ -8705,19 +8709,27 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Why we love it: Odacio’s a lively and intense Vertuo coffee.</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
+          <t>Enjoy warming spice notes with sweet pumpkin flavour</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>A smooth, 100% arabica base blend made of naturally sweet beans from Brazil and lively washed beans from Colombia.</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>The Brazilian coffee is lightly roasted to keep it smooth and with all its malted cereal notes intact, while the majority of the Colombian coffee beans get a short roast to release all their finer aromatics. We add the flavour in after roasting.​</t>
+        </is>
+      </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
+          <t>10 capsules of flavoured roast and ground coffee. Pumpkin spice flavoured.</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Roast and ground coffee</t>
+          <t>Roast and ground coffee, natural flavours.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -8727,11 +8739,11 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>Odacio</t>
+          <t>Pumpkin Spice Cake (Original)</t>
         </is>
       </c>
       <c r="AC47" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
@@ -8740,22 +8752,22 @@
       </c>
       <c r="AE47" t="inlineStr">
         <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="AF47" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
@@ -8780,44 +8792,44 @@
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>Charts/VL3_Odacio_Vertuo_Taste Profile.png</t>
+          <t>Charts/OL46_Pumpkin Spice Cake_Original_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee bold lively 70 126 intense nicaraguan arabica gives odacio soft solid cereal note daringly blended touch ethiopian arabica adds splash acidity delicate fruitiness split roast coffees vertuo coffee pod long light roast coffees develops body structure keeps acidity aromatics intact odacio brings fullbodied cereal note dares surprise flourish fruitiness delicate acidity end bold lively hits palate great elegance 20 40 40 40 love odacio lively intense vertuo coffee capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules odacio 70 medium low high high high medium medium medium medium</t>
+          <t>original limited barista creations ml lungo milk recipes pumpkin spices flavoured 115 spicy flavoured pumpkin cardamom delicious sweet pumpkin flavour combined wide range spicy notes cloves cinnamon cardamom cakelike sweetness 30 20 20 20 enjoy warming spice notes sweet pumpkin flavour smooth arabica base blend made naturally sweet beans brazil lively washed beans colombia brazilian coffee lightly roasted keep smooth malted cereal notes intact majority colombian coffee beans get short roast release fine aromatics add flavour roasting capsules flavoured roast ground coffee pumpkin spice flavoured roast ground coffee natural flavours g 440 oz capsules pumpkin spice cake original 50 medium medium low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Charts/VL3_Odacio_Vertuo_Word Cloud.png</t>
+          <t>Charts/OL46_Pumpkin Spice Cake_Original_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
         <is>
-          <t>Charts/VL3_Odacio_Vertuo Feature Results.png</t>
+          <t>Charts/OL46_Pumpkin Spice Cake_Original Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>VL4</t>
+          <t>VL1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Intenso</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Images/VL4_Mexico_Vertuo_Capsule.png</t>
+          <t>Images/VL1_Intenso_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Images/VL4_Mexico_Vertuo_Sleeve.png</t>
+          <t>Images/VL1_Intenso_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -8842,36 +8854,36 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Intense &amp; Spiced</t>
+          <t>Smooth &amp; Strong</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K48" t="n">
-        <v>13.7</v>
+        <v>12.6</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Spicy &amp; Woody</t>
+          <t>Intense</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>An intense coffee with roasted woody and spicy notes, thick texture and low acidity. Pairs perfectly with milk.</t>
+          <t>An intense long black coffee with a distinctly lingering aftertaste with roasted notes and a thick coffee crema. Pairs perfectly with milk that enriches the blend with brown caramel notes.</t>
         </is>
       </c>
       <c r="N48" t="n">
         <v>1</v>
       </c>
       <c r="O48" t="n">
+        <v>4</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
         <v>3</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2</v>
       </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
@@ -8879,22 +8891,22 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>You’ll do a double take with Master Origins Mexico with double washed Robusta -because selective hand-picking and thoroughly washing was once only for Arabica.</t>
+          <t>A blend of Nicaraguans washed Robusta coffee beans and Latin American Arabica. Thick with roasted notes and a lingering finish. The Arabicas get a darker roast to lower the acidity and bring out that brown sugar aroma. While the Nicaraguan coffee gets a longer roast to develop the Robusta coffee beans’ bold and bitter notes.</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>Both the Arabicas and Robustas from this coffee come from Mexico.</t>
+          <t>Intenso is created by combining Latin American Arabicas with Nicaraguan Robustas.</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>The Arabica coffee beans are given a medium roast and the uncommon Double Washed Robusta coffee beans get a long and deep roast.</t>
+          <t>The Arabicas get a darker roast to lower the acidity and bring out that brown sugar aroma. The Robustas get a longer roast to develop bitter notes and a lingering aftertaste.</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
+          <t>10 capsules of roast and ground coffee for the Nespresso system</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -8904,20 +8916,20 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>125 g - 4.40 oz for 10 capsules</t>
+          <t>125 g - 4.41 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Intenso</t>
         </is>
       </c>
       <c r="AC48" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="AE48" t="inlineStr">
@@ -8927,7 +8939,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
@@ -8937,7 +8949,7 @@
       </c>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AI48" t="inlineStr">
@@ -8962,44 +8974,44 @@
       </c>
       <c r="AM48" t="inlineStr">
         <is>
-          <t>Charts/VL4_Mexico_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL1_Intenso_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee intense spiced 70 137 spicy woody intense coffee roasted woody spicy notes thick texture low acidity pairs perfectly milk 10 30 40 20 double take master origins mexico double washed robusta because selective handpicking thoroughly washing arabica arabicas robustas coffee come mexico arabica coffee beans given medium roast uncommon double washed robusta coffee beans get long deep roast capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules mexico 70 medium low medium high low medium medium medium medium</t>
+          <t>vertuo current long coffee ml coffee smooth strong 90 126 intense intense long black coffee distinctly lingering aftertaste roasted notes thick coffee crema pairs perfectly milk enriches blend brown caramel notes 10 40 50 30 blend nicaraguans washed robusta coffee beans latin american arabica thick roasted notes lingering finish arabicas get dark roast low acidity bring brown sugar aroma nicaraguan coffee gets long roast develop robusta coffee beans bold bitter notes intenso created combining latin american arabicas nicaraguan robustas arabicas get dark roast low acidity bring brown sugar aroma robustas get long roast develop bitter notes lingering aftertaste capsules roast ground coffee nespresso system roast ground coffee g 441 oz capsules intenso 90 dark low high high medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Charts/VL4_Mexico_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL1_Intenso_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
         <is>
-          <t>Charts/VL4_Mexico_Vertuo Feature Results.png</t>
+          <t>Charts/VL1_Intenso_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>VL5</t>
+          <t>VL2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Melozio</t>
+          <t>Stormio</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Images/VL5_Melozio_Vertuo_Capsule.png</t>
+          <t>Images/VL2_Stormio_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Images/VL5_Melozio_Vertuo_Sleeve.png</t>
+          <t>Images/VL2_Stormio_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9024,36 +9036,36 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Smooth &amp; Balanced</t>
+          <t>Rich &amp; Strong</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K49" t="n">
         <v>12.6</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Intense</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>A harmonious blend of Latin American Arabicas that sing with smooth cereal notes and a honeyed sweetness. Pairs perfectly with milk that enhances its softness and biscuity notes.</t>
+          <t>A long, slow roast intensifies the Nicaraguan and Guatemalan cereal aromatics to notes of spice and wood. They’re all high-grown Arabica coffees that we give that deep roast to build the rich intensity. But this Vertuo coffee pod remains smooth and full-bodied. Milk may mellow out Stormio - but you’ll still taste the powerful roasted notes that blow you away with a gathering storm.</t>
         </is>
       </c>
       <c r="N49" t="n">
         <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
@@ -9061,19 +9073,11 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>You can’t help but fall for Melozio, a Canadian best-seller. A harmonious blend of fine quality Brazilian and Central American Arabicas, roasted to create a rounded coffee that is smooth and perfectly balanced.</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>A harmonious blend of Latin American Arabicas, mostly from Brazil and Guatemala, rich in smooth cereal notes and honeyed sweetness.</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>The Brazilian Arabicas are roasted separately to develop sweet and cereal notes. The other Arabicas get are lightly roasted to round out Melozio.</t>
-        </is>
-      </c>
+          <t>Why we love it: Stormio’s a darkly roasted blend that rushes in with this myriad of aromas. But that all that strength could come from pure Arabica coffees?</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr">
         <is>
           <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
@@ -9091,15 +9095,15 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>Melozio</t>
+          <t>Stormio</t>
         </is>
       </c>
       <c r="AC49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="AE49" t="inlineStr">
@@ -9109,17 +9113,17 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="AI49" t="inlineStr">
@@ -9144,44 +9148,44 @@
       </c>
       <c r="AM49" t="inlineStr">
         <is>
-          <t>Charts/VL5_Melozio_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL2_Stormio_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee smooth balanced 60 126 unknown harmonious blend latin american arabicas sing smooth cereal notes honeyed sweetness pairs perfectly milk enhances softness biscuity notes 10 20 30 30 help fall melozio canadian bestseller harmonious blend fine quality brazilian central american arabicas roasted create rounded coffee smooth perfectly balanced harmonious blend latin american arabicas mostly brazil guatemala rich smooth cereal notes honeyed sweetness brazilian arabicas roasted separately develop sweet cereal notes arabicas get lightly roasted round melozio capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules melozio 60 medium low low medium medium medium medium medium medium</t>
+          <t>vertuo current long coffee ml coffee rich strong 80 126 intense long slow roast intensifies nicaraguan guatemalan cereal aromatics notes spice wood highgrown arabica coffees give deep roast build rich intensity vertuo coffee pod remains smooth fullbodied milk may mellow stormio still taste powerful roasted notes blow away gathering storm 10 40 40 40 love stormio darkly roasted blend rushes myriad aromas strength could come pure arabica coffees capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules stormio 80 dark low high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Charts/VL5_Melozio_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL2_Stormio_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
         <is>
-          <t>Charts/VL5_Melozio_Vertuo Feature Results.png</t>
+          <t>Charts/VL2_Stormio_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>VL6</t>
+          <t>VL3</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Melozio Decaffeinato</t>
+          <t>Odacio</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Images/VL6_Melozio Decaffeinato_Vertuo_Capsule.png</t>
+          <t>Images/VL3_Odacio_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Images/VL6_Melozio Decaffeinato_Vertuo_Sleeve.png</t>
+          <t>Images/VL3_Odacio_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -9206,42 +9210,46 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Smooth &amp; Balanced</t>
+          <t>Bold &amp; Lively</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K50" t="n">
         <v>12.6</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Cereal</t>
+          <t>Intense</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>We split roast this Vertuo coffee capsule's Arabica coffees. It allows the Brazilian Bourbon to develop its cereal note to become a sweet and smooth coffee. Lightly roasting the other Arabicas rounds out Melozio. Melozio Decaffeinato delights twice. Its Latin American Arabicas still sing with smooth cereal and honeyed sweetness even after decaffeination.</t>
+          <t>The Nicaraguan Arabica gives Odacio its soft and solid cereal note. We daringly blended in a touch of Ethiopian Arabica - it adds a splash of acidity and delicate fruitiness. We split roast the coffees in this Vertuo coffee pod. A long and light roast for both coffees develops the body and structure and keeps the acidity and aromatics intact. Odacio brings a fullbodied cereal note and then dares to surprise you with its flourish of fruitiness and delicate acidity at the end. It’s bold and it’s lively and it hits your palate with great elegance.</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Why we love it: Odacio’s a lively and intense Vertuo coffee.</t>
+        </is>
+      </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr">
@@ -9251,7 +9259,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>Decaffeinated Roast and ground coffee.</t>
+          <t>Roast and ground coffee</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -9261,11 +9269,11 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>Melozio Decaffeinato</t>
+          <t>Odacio</t>
         </is>
       </c>
       <c r="AC50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
@@ -9279,17 +9287,17 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="AI50" t="inlineStr">
@@ -9314,44 +9322,44 @@
       </c>
       <c r="AM50" t="inlineStr">
         <is>
-          <t>Charts/VL6_Melozio Decaffeinato_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL3_Odacio_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee smooth balanced 60 126 cereal split roast vertuo coffee capsule s arabica coffees allows brazilian bourbon develop cereal note become sweet smooth coffee lightly roasting arabicas rounds melozio melozio decaffeinato delights twice latin american arabicas still sing smooth cereal honeyed sweetness even decaffeination 10 20 30 30 capsules roast ground coffee nespresso system decaffeinated roast ground coffee g 440 oz capsules melozio decaffeinato 60 medium low low medium medium medium medium medium medium</t>
+          <t>vertuo current long coffee ml coffee bold lively 70 126 intense nicaraguan arabica gives odacio soft solid cereal note daringly blended touch ethiopian arabica adds splash acidity delicate fruitiness split roast coffees vertuo coffee pod long light roast coffees develops body structure keeps acidity aromatics intact odacio brings fullbodied cereal note dares surprise flourish fruitiness delicate acidity end bold lively hits palate great elegance 20 40 40 40 love odacio lively intense vertuo coffee capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules odacio 70 medium low high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Charts/VL6_Melozio Decaffeinato_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL3_Odacio_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
         <is>
-          <t>Charts/VL6_Melozio Decaffeinato_Vertuo Feature Results.png</t>
+          <t>Charts/VL3_Odacio_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>VL7</t>
+          <t>VL4</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Half Caffeinato</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Images/VL7_Half Caffeinato_Vertuo_Capsule.png</t>
+          <t>Images/VL4_Mexico_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Images/VL7_Half Caffeinato_Vertuo_Sleeve.png</t>
+          <t>Images/VL4_Mexico_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -9376,33 +9384,33 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Sweet &amp; Velvety</t>
+          <t>Intense &amp; Spiced</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K51" t="n">
-        <v>12.6</v>
+        <v>13.7</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Spicy &amp; Woody</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>This Vertuo coffee capsule blends decaffeinated and regular Arabica coffees from Brazil and Ethiopia. After decaffeination of half the coffee, a light and quick roast of a Brazilian Arabica coffee gives this Vertuo coffee pod a roundness and a sweetness. We chose to blend in an Ethiopian coffee so its delicate aromatics would add finesse. Half the coffee is Nespresso decaffeinated, but the taste is full.</t>
+          <t>An intense coffee with roasted woody and spicy notes, thick texture and low acidity. Pairs perfectly with milk.</t>
         </is>
       </c>
       <c r="N51" t="n">
         <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q51" t="n">
         <v>2</v>
@@ -9413,11 +9421,19 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Why we love it: You’ll love Half Caffeinato - its smooth, velvety texture and its sweet biscuit note.</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
+          <t>You’ll do a double take with Master Origins Mexico with double washed Robusta -because selective hand-picking and thoroughly washing was once only for Arabica.</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Both the Arabicas and Robustas from this coffee come from Mexico.</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>The Arabica coffee beans are given a medium roast and the uncommon Double Washed Robusta coffee beans get a long and deep roast.</t>
+        </is>
+      </c>
       <c r="Y51" t="inlineStr">
         <is>
           <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
@@ -9435,11 +9451,11 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>Half Caffeinato</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="AC51" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
@@ -9453,19 +9469,19 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="AG51" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="AH51" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
       <c r="AI51" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9488,44 +9504,44 @@
       </c>
       <c r="AM51" t="inlineStr">
         <is>
-          <t>Charts/VL7_Half Caffeinato_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL4_Mexico_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee sweet velvety 50 126 unknown vertuo coffee capsule blends decaffeinated regular arabica coffees brazil ethiopia decaffeination half coffee light quick roast brazilian arabica coffee gives vertuo coffee pod roundness sweetness chose blend ethiopian coffee delicate aromatics would add finesse half coffee nespresso decaffeinated taste full 10 10 20 20 love love half caffeinato smooth velvety texture sweet biscuit note capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules half caffeinato 50 medium low low low low medium medium medium medium</t>
+          <t>vertuo current long coffee ml coffee intense spiced 70 137 spicy woody intense coffee roasted woody spicy notes thick texture low acidity pairs perfectly milk 10 30 40 20 double take master origins mexico double washed robusta because selective handpicking thoroughly washing arabica arabicas robustas coffee come mexico arabica coffee beans given medium roast uncommon double washed robusta coffee beans get long deep roast capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules mexico 70 medium low medium high low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>Charts/VL7_Half Caffeinato_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL4_Mexico_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
         <is>
-          <t>Charts/VL7_Half Caffeinato_Vertuo Feature Results.png</t>
+          <t>Charts/VL4_Mexico_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>VL8</t>
+          <t>VL5</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Melozio</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Images/VL8_El Salvador_Vertuo_Capsule.png</t>
+          <t>Images/VL5_Melozio_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Images/VL8_El Salvador_Vertuo_Sleeve.png</t>
+          <t>Images/VL5_Melozio_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -9550,36 +9566,36 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Sweet &amp; Jam</t>
+          <t>Smooth &amp; Balanced</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K52" t="n">
-        <v>13.7</v>
+        <v>12.6</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Biscuity &amp; Winey</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>This coffee displays sweet, biscuity, fruity jam, and cereal notes, with a mild, low bitterness.</t>
+          <t>A harmonious blend of Latin American Arabicas that sing with smooth cereal notes and a honeyed sweetness. Pairs perfectly with milk that enhances its softness and biscuity notes.</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
@@ -9587,17 +9603,17 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Grown under shade-trees, these treasured coffee varieties find their ideal terroir nestled beside active volcanoes, delivering a mild cup with sweet biscuit and fruity jam notes. The "red honey process" involves carefully adjusting the amount of sweet pulp left on the drying cherry which complements this Arabica blend’s washed processed beans with sweet aromatics.</t>
+          <t>You can’t help but fall for Melozio, a Canadian best-seller. A harmonious blend of fine quality Brazilian and Central American Arabicas, roasted to create a rounded coffee that is smooth and perfectly balanced.</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>This is an all-Arabica blend sourced from the Apaneca Ilamatepec Mountain Range in El Salvador. A selection of red honey processed beans complements the washed Arabica beans with distinctive sweetness.</t>
+          <t>A harmonious blend of Latin American Arabicas, mostly from Brazil and Guatemala, rich in smooth cereal notes and honeyed sweetness.</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Overall light roast - The red honey is roasted separately from the rest to make the most of the unique processing method. The other portion washed is slightly longer and darker.</t>
+          <t>The Brazilian Arabicas are roasted separately to develop sweet and cereal notes. The other Arabicas get are lightly roasted to round out Melozio.</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -9617,11 +9633,11 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Melozio</t>
         </is>
       </c>
       <c r="AC52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD52" t="inlineStr">
         <is>
@@ -9630,7 +9646,7 @@
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
@@ -9640,12 +9656,12 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AI52" t="inlineStr">
@@ -9670,44 +9686,44 @@
       </c>
       <c r="AM52" t="inlineStr">
         <is>
-          <t>Charts/VL8_El Salvador_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL5_Melozio_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee sweet jam 50 137 biscuity winey coffee displays sweet biscuity fruity jam cereal notes mild low bitterness 40 10 20 20 grown shadetrees treasured coffee varieties find ideal terroir nestled beside active volcanoes delivering mild cup sweet biscuit fruity jam notes red honey process involves carefully adjusting amount sweet pulp left drying cherry complements arabica blend washed processed beans sweet aromatics allarabica blend sourced apaneca ilamatepec mountain range el salvador selection red honey processed beans complements washed arabica beans distinctive sweetness overall light roast red honey roasted separately rest make unique processing method portion washed slightly long dark capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules el salvador 50 medium high low low low medium medium medium medium</t>
+          <t>vertuo current long coffee ml coffee smooth balanced 60 126 unknown harmonious blend latin american arabicas sing smooth cereal notes honeyed sweetness pairs perfectly milk enhances softness biscuity notes 10 20 30 30 help fall melozio canadian bestseller harmonious blend fine quality brazilian central american arabicas roasted create rounded coffee smooth perfectly balanced harmonious blend latin american arabicas mostly brazil guatemala rich smooth cereal notes honeyed sweetness brazilian arabicas roasted separately develop sweet cereal notes arabicas get lightly roasted round melozio capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules melozio 60 medium low low medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>Charts/VL8_El Salvador_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL5_Melozio_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
         <is>
-          <t>Charts/VL8_El Salvador_Vertuo Feature Results.png</t>
+          <t>Charts/VL5_Melozio_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>VL9</t>
+          <t>VL6</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Colombia - Fairtrade</t>
+          <t>Melozio Decaffeinato</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Images/VL9_Colombia - Fairtrade_Vertuo_Capsule.png</t>
+          <t>Images/VL6_Melozio Decaffeinato_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Images/VL9_Colombia - Fairtrade_Vertuo_Sleeve.png</t>
+          <t>Images/VL6_Melozio Decaffeinato_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -9732,56 +9748,44 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Red fruit notes</t>
+          <t>Smooth &amp; Balanced</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>13.7</v>
+        <v>12.6</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Cereal</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>The longer fermentation of high-grown Colombian Arabica delivers a particularly juicy and fruity, sweet cup. Pairs perfectly with milk.</t>
+          <t>We split roast this Vertuo coffee capsule's Arabica coffees. It allows the Brazilian Bourbon to develop its cereal note to become a sweet and smooth coffee. Lightly roasting the other Arabicas rounds out Melozio. Melozio Decaffeinato delights twice. Its Latin American Arabicas still sing with smooth cereal and honeyed sweetness even after decaffeination.</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>The cooler climate of the high-altitude Colombia Aguadas mountains means the coffee takes longer to ferment. The classic washed coffee processing method is complex and time-consuming, but up here it calls for even more skill.</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>This fully-washed coffee is sourced in the high-altitude region of Aguadas, in Colombia.</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>We separate this coffee in 2 batches for roasting. Most of it is given a fast and light roast, and a smaller portion is roasted a little longer and deeper to add complexity to the cup.</t>
-        </is>
-      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr">
         <is>
           <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
@@ -9789,7 +9793,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>Roast and ground coffee</t>
+          <t>Decaffeinated Roast and ground coffee.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -9799,11 +9803,11 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>Colombia - Fairtrade</t>
+          <t>Melozio Decaffeinato</t>
         </is>
       </c>
       <c r="AC53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD53" t="inlineStr">
         <is>
@@ -9812,7 +9816,7 @@
       </c>
       <c r="AE53" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF53" t="inlineStr">
@@ -9822,12 +9826,12 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AI53" t="inlineStr">
@@ -9852,44 +9856,44 @@
       </c>
       <c r="AM53" t="inlineStr">
         <is>
-          <t>Charts/VL9_Colombia - Fairtrade_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL6_Melozio Decaffeinato_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee red fruit notes 50 137 unknown long fermentation highgrown colombian arabica delivers particularly juicy fruity sweet cup pairs perfectly milk 50 10 10 10 cool climate highaltitude colombia aguadas mountains means coffee takes long ferment classic washed coffee processing method complex timeconsuming calls even skill fullywashed coffee sourced highaltitude region aguadas colombia separate coffee batches roasting given fast light roast small portion roasted little long deep add complexity cup capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules colombia fairtrade 50 medium high low low low medium medium medium medium</t>
+          <t>vertuo current long coffee ml coffee smooth balanced 60 126 cereal split roast vertuo coffee capsule s arabica coffees allows brazilian bourbon develop cereal note become sweet smooth coffee lightly roasting arabicas rounds melozio melozio decaffeinato delights twice latin american arabicas still sing smooth cereal honeyed sweetness even decaffeination 10 20 30 30 capsules roast ground coffee nespresso system decaffeinated roast ground coffee g 440 oz capsules melozio decaffeinato 60 medium low low medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>Charts/VL9_Colombia - Fairtrade_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL6_Melozio Decaffeinato_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">
         <is>
-          <t>Charts/VL9_Colombia - Fairtrade_Vertuo Feature Results.png</t>
+          <t>Charts/VL6_Melozio Decaffeinato_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>VL10</t>
+          <t>VL7</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Solelio</t>
+          <t>Half Caffeinato</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Images/VL10_Solelio_Vertuo_Capsule.png</t>
+          <t>Images/VL7_Half Caffeinato_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Images/VL10_Solelio_Vertuo_Sleeve.png</t>
+          <t>Images/VL7_Half Caffeinato_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -9914,36 +9918,36 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Fruity &amp; Lightly-bodied</t>
+          <t>Sweet &amp; Velvety</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
         <v>12.6</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Cereal &amp; Fruity</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>This Vertuo coffee capsule is an Arabica blend of two renowned washed coffees - both loved for their lively acidity and their distinct fruity notes. We split roast and blended high-grown Colombian coffee and Kenyan coffee to create a light roast coffee with a light body and a lovable character. A juicy acidity shines through Solelio’s toasted cereal note. It’s hard to miss the classic fruitiness of the Colombian and Kenyan coffees. You can really ease into morning with this Vertuo coffee.</t>
+          <t>This Vertuo coffee capsule blends decaffeinated and regular Arabica coffees from Brazil and Ethiopia. After decaffeination of half the coffee, a light and quick roast of a Brazilian Arabica coffee gives this Vertuo coffee pod a roundness and a sweetness. We chose to blend in an Ethiopian coffee so its delicate aromatics would add finesse. Half the coffee is Nespresso decaffeinated, but the taste is full.</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
         <v>1</v>
       </c>
       <c r="P54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
@@ -9951,7 +9955,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Why we love it: Solelio is our gentlest start to the day.</t>
+          <t>Why we love it: You’ll love Half Caffeinato - its smooth, velvety texture and its sweet biscuit note.</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -9973,20 +9977,20 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>Solelio</t>
+          <t>Half Caffeinato</t>
         </is>
       </c>
       <c r="AC54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD54" t="inlineStr">
         <is>
-          <t>Blonde</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
@@ -10026,44 +10030,44 @@
       </c>
       <c r="AM54" t="inlineStr">
         <is>
-          <t>Charts/VL10_Solelio_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL7_Half Caffeinato_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee fruity lightlybodied 20 126 cereal fruity vertuo coffee capsule arabica blend two renowned washed coffees loved lively acidity distinct fruity notes split roast blended highgrown colombian coffee kenyan coffee create light roast coffee light body lovable character juicy acidity shines solelio toasted cereal note hard miss classic fruitiness colombian kenyan coffees really ease morning vertuo coffee 30 10 10 10 love solelio gentle start day capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules solelio 20 blonde medium low low low medium medium medium medium</t>
+          <t>vertuo current long coffee ml coffee sweet velvety 50 126 unknown vertuo coffee capsule blends decaffeinated regular arabica coffees brazil ethiopia decaffeination half coffee light quick roast brazilian arabica coffee gives vertuo coffee pod roundness sweetness chose blend ethiopian coffee delicate aromatics would add finesse half coffee nespresso decaffeinated taste full 10 10 20 20 love love half caffeinato smooth velvety texture sweet biscuit note capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules half caffeinato 50 medium low low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>Charts/VL10_Solelio_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL7_Half Caffeinato_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP54" t="inlineStr">
         <is>
-          <t>Charts/VL10_Solelio_Vertuo Feature Results.png</t>
+          <t>Charts/VL7_Half Caffeinato_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>VL11</t>
+          <t>VL8</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Alto Onice</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Images/VL11_Alto Onice_Vertuo_Capsule.png</t>
+          <t>Images/VL8_El Salvador_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Images/VL11_Alto Onice_Vertuo_Sleeve.png</t>
+          <t>Images/VL8_El Salvador_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -10078,46 +10082,46 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Long Coffee — Exclusively for use with Vertuo Next, Vertuo Pop+, Vertuo Lattissima and Vertuo Creatista machines</t>
+          <t>Long Coffee</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>355 ml (Alto)</t>
+          <t>230 ml (Coffee)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Roasted &amp; Woody</t>
+          <t>Sweet &amp; Jam</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K55" t="n">
-        <v>10.5</v>
+        <v>13.7</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Roasted, Woody &amp; Spicy</t>
+          <t>Biscuity &amp; Winey</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>An intense coffee with roasted, woody and spicy notes.</t>
+          <t>This coffee displays sweet, biscuity, fruity jam, and cereal notes, with a mild, low bitterness.</t>
         </is>
       </c>
       <c r="N55" t="n">
+        <v>4</v>
+      </c>
+      <c r="O55" t="n">
         <v>1</v>
       </c>
-      <c r="O55" t="n">
-        <v>3</v>
-      </c>
       <c r="P55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
@@ -10125,41 +10129,41 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Alto Onice delivers a full palate of strong cereal and deep woody notes for a longer cup to savour at home or on-the-go. Through the bold aromatics of beautiful bitter cocoa, spice and roasted notes comes a golden caramel note and a faint shimmer of acidity to balance this deep-roasted blend of coffees from Colombia, India, and beyond.</t>
+          <t>Grown under shade-trees, these treasured coffee varieties find their ideal terroir nestled beside active volcanoes, delivering a mild cup with sweet biscuit and fruity jam notes. The "red honey process" involves carefully adjusting the amount of sweet pulp left on the drying cherry which complements this Arabica blend’s washed processed beans with sweet aromatics.</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>A complex blend of several origins: through its Indian beans’ cocoa and spice notes comes the Colombian arabica’s shimmer of acidity in our longest cup size.</t>
+          <t>This is an all-Arabica blend sourced from the Apaneca Ilamatepec Mountain Range in El Salvador. A selection of red honey processed beans complements the washed Arabica beans with distinctive sweetness.</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>Arabicas and robustas are roasted together in the first split. The second split is composed exclusively from decaffeinated arabica, and is roasted for a slightly shorter time.</t>
+          <t>Overall light roast - The red honey is roasted separately from the rest to make the most of the unique processing method. The other portion washed is slightly longer and darker.</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>7 capsules of roast and ground coffee for the Nespresso system.</t>
+          <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>Roast and ground coffee, decaffeinated roast and ground coffee.</t>
+          <t>Roast and ground coffee</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>120 g - 4.23 oz for 7 capsules</t>
+          <t>125 g - 4.40 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>Alto Onice</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="AC55" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD55" t="inlineStr">
         <is>
@@ -10168,22 +10172,22 @@
       </c>
       <c r="AE55" t="inlineStr">
         <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="AF55" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AI55" t="inlineStr">
@@ -10208,44 +10212,44 @@
       </c>
       <c r="AM55" t="inlineStr">
         <is>
-          <t>Charts/VL11_Alto Onice_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL8_El Salvador_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>vertuo current long coffee exclusively use vertuo next vertuo pop vertuo lattissima vertuo creatista machines ml alto roasted woody 70 105 roasted woody spicy intense coffee roasted woody spicy notes 10 30 30 30 alto onice delivers full palate strong cereal deep woody notes long cup savour home onthego bold aromatics beautiful bitter cocoa spice roasted notes comes golden caramel note faint shimmer acidity balance deeproasted blend coffees colombia india beyond complex blend several origins indian beans cocoa spice notes comes colombian arabica shimmer acidity long cup size arabicas robustas roasted together first split second split composed exclusively decaffeinated arabica roasted slightly short time capsules roast ground coffee nespresso system roast ground coffee decaffeinated roast ground coffee g 423 oz capsules alto onice 70 medium low medium medium medium medium medium medium medium</t>
+          <t>vertuo current long coffee ml coffee sweet jam 50 137 biscuity winey coffee displays sweet biscuity fruity jam cereal notes mild low bitterness 40 10 20 20 grown shadetrees treasured coffee varieties find ideal terroir nestled beside active volcanoes delivering mild cup sweet biscuit fruity jam notes red honey process involves carefully adjusting amount sweet pulp left drying cherry complements arabica blend washed processed beans sweet aromatics allarabica blend sourced apaneca ilamatepec mountain range el salvador selection red honey processed beans complements washed arabica beans distinctive sweetness overall light roast red honey roasted separately rest make unique processing method portion washed slightly long dark capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules el salvador 50 medium high low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
         <is>
-          <t>Charts/VL11_Alto Onice_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL8_El Salvador_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP55" t="inlineStr">
         <is>
-          <t>Charts/VL11_Alto Onice_Vertuo Feature Results.png</t>
+          <t>Charts/VL8_El Salvador_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VL12</t>
+          <t>VL9</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Alto Ambrato</t>
+          <t>Colombia - Fairtrade</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Images/VL12_Alto Ambrato_Vertuo_Capsule.png</t>
+          <t>Images/VL9_Colombia - Fairtrade_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Images/VL12_Alto Ambrato_Vertuo_Sleeve.png</t>
+          <t>Images/VL9_Colombia - Fairtrade_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -10260,46 +10264,46 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Long Coffee — Exclusively for use with Vertuo Next, Vertuo Pop+, Vertuo Lattissima and Vertuo Creatista machines</t>
+          <t>Long Coffee</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>355 ml (Alto)</t>
+          <t>230 ml (Coffee)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Honeyed &amp; Delicate</t>
+          <t>Red fruit notes</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K56" t="n">
-        <v>10.5</v>
+        <v>13.7</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Cereal &amp; Honey</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Ambrato is a delicate blend with light toasted bread and honey notes and a light body.</t>
+          <t>The longer fermentation of high-grown Colombian Arabica delivers a particularly juicy and fruity, sweet cup. Pairs perfectly with milk.</t>
         </is>
       </c>
       <c r="N56" t="n">
+        <v>5</v>
+      </c>
+      <c r="O56" t="n">
         <v>1</v>
       </c>
-      <c r="O56" t="n">
-        <v>2</v>
-      </c>
       <c r="P56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
@@ -10307,63 +10311,67 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Taste Alto Ambrato's honeyed cereal, toasted notes and caramel sweetness. A fruity touch sparkles through this lightly roasted blend of fine Latin American Arabicas and Robusta. At home or on the go, it’s your longer cup warm in rich, golden aromatics.</t>
+          <t>The cooler climate of the high-altitude Colombia Aguadas mountains means the coffee takes longer to ferment. The classic washed coffee processing method is complex and time-consuming, but up here it calls for even more skill.</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>Arabica and robusta coffees from Latin America give rich warmth to this light-roast long cup. Taste toasted cereal and sweet caramel notes balanced by a fruity touch.</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr"/>
+          <t>This fully-washed coffee is sourced in the high-altitude region of Aguadas, in Colombia.</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>We separate this coffee in 2 batches for roasting. Most of it is given a fast and light roast, and a smaller portion is roasted a little longer and deeper to add complexity to the cup.</t>
+        </is>
+      </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>7 capsules of roast and ground coffee for the Nespresso system.</t>
+          <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>Roast and ground coffee, decaffeinated roast and ground coffee.</t>
+          <t>Roast and ground coffee</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>120 g - 4.23 oz for 7 capsules</t>
+          <t>125 g - 4.40 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>Alto Ambrato</t>
+          <t>Colombia - Fairtrade</t>
         </is>
       </c>
       <c r="AC56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD56" t="inlineStr">
         <is>
-          <t>Blonde</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AE56" t="inlineStr">
         <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="AF56" t="inlineStr">
+      <c r="AG56" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="AG56" t="inlineStr">
+      <c r="AH56" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="AH56" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
       <c r="AI56" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -10386,44 +10394,44 @@
       </c>
       <c r="AM56" t="inlineStr">
         <is>
-          <t>Charts/VL12_Alto Ambrato_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL9_Colombia - Fairtrade_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>vertuo current long coffee exclusively use vertuo next vertuo pop vertuo lattissima vertuo creatista machines ml alto honeyed delicate 40 105 cereal honey ambrato delicate blend light toasted bread honey notes light body 10 20 20 20 taste alto ambrato s honeyed cereal toasted notes caramel sweetness fruity touch sparkles lightly roasted blend fine latin american arabicas robusta home go long cup warm rich golden aromatics arabica robusta coffees latin america give rich warmth lightroast long cup taste toasted cereal sweet caramel notes balanced fruity touch capsules roast ground coffee nespresso system roast ground coffee decaffeinated roast ground coffee g 423 oz capsules alto ambrato 40 blonde low low low low medium medium medium medium</t>
+          <t>vertuo current long coffee ml coffee red fruit notes 50 137 unknown long fermentation highgrown colombian arabica delivers particularly juicy fruity sweet cup pairs perfectly milk 50 10 10 10 cool climate highaltitude colombia aguadas mountains means coffee takes long ferment classic washed coffee processing method complex timeconsuming calls even skill fullywashed coffee sourced highaltitude region aguadas colombia separate coffee batches roasting given fast light roast small portion roasted little long deep add complexity cup capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules colombia fairtrade 50 medium high low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Charts/VL12_Alto Ambrato_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL9_Colombia - Fairtrade_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP56" t="inlineStr">
         <is>
-          <t>Charts/VL12_Alto Ambrato_Vertuo Feature Results.png</t>
+          <t>Charts/VL9_Colombia - Fairtrade_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VL13</t>
+          <t>VL10</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cold Brew Style Intense</t>
+          <t>Solelio</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Images/VL13_Cold Brew Style Intense_Vertuo_Capsule.png</t>
+          <t>Images/VL10_Solelio_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Images/VL13_Cold Brew Style Intense_Vertuo_Sleeve.png</t>
+          <t>Images/VL10_Solelio_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -10438,82 +10446,84 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Long Coffee — Exclusively for use with Vertuo Next, Vertuo Pop+, Vertuo Lattissima and Vertuo Creatista machines</t>
+          <t>Long Coffee</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>355 ml (Cold Brew)</t>
+          <t>230 ml (Coffee)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Sweet Caramel &amp; Roasted Cereal</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr"/>
+          <t>Fruity &amp; Lightly-bodied</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>2</v>
+      </c>
       <c r="K57" t="n">
-        <v>10.85</v>
+        <v>12.6</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Caramel &amp; Roasted Cereal</t>
+          <t>Cereal &amp; Fruity</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>A smooth and silky-textured coffee, with roasted caramel notes, low bitterness and a pleasant acidity that is typical of cold brew extractions.</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+          <t>This Vertuo coffee capsule is an Arabica blend of two renowned washed coffees - both loved for their lively acidity and their distinct fruity notes. We split roast and blended high-grown Colombian coffee and Kenyan coffee to create a light roast coffee with a light body and a lovable character. A juicy acidity shines through Solelio’s toasted cereal note. It’s hard to miss the classic fruitiness of the Colombian and Kenyan coffees. You can really ease into morning with this Vertuo coffee.</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Inspired by the “hot bloom” method, Cold Brew Style Intense, reimagined by Nespresso, begins brewing hot to draw the best of the beans &amp; continues with cool water to leave the bitterness behind and brewed in minutes. Taste the roasted Arabicas’ &amp; caramel notes in a smooth, silky-textured coffee. For the best experience, use cool water (below 10°C / 50F) in your Vertuo water tank &amp; add 3-4 ice cubes to your coffee. 12 fl oz (355 ml) = 2 servings of 6 fl oz (172.5 ml).</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>This 100% Arabica blend mostly uses Brazilian Bourbons and other Guatemalan Arabicas.</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>This Vertuo coffee gets a split roast. It allows the Brazilian Bourbon to develop its cereal note to become a sweet and smooth coffee. Lightly roasting the other Arabicas rounds out the blend.</t>
-        </is>
-      </c>
+          <t>Why we love it: Solelio is our gentlest start to the day.</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>7 Cold Brew Style Intense capsules of roast and ground coffee for the Nespresso system.</t>
+          <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>Roast and ground coffee, decaffeinated roast and ground coffee.</t>
+          <t>Roast and ground coffee</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>120 g - 4.23 oz for 7 capsules</t>
+          <t>125 g - 4.40 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>Cold Brew Style Intense</t>
+          <t>Solelio</t>
         </is>
       </c>
       <c r="AC57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD57" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Blonde</t>
         </is>
       </c>
       <c r="AE57" t="inlineStr">
@@ -10523,17 +10533,17 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
@@ -10558,44 +10568,44 @@
       </c>
       <c r="AM57" t="inlineStr">
         <is>
-          <t>Charts/VL13_Cold Brew Style Intense_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL10_Solelio_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>vertuo current long coffee exclusively use vertuo next vertuo pop vertuo lattissima vertuo creatista machines ml cold brew sweet caramel roasted cereal 1085 caramel roasted cereal smooth silkytextured coffee roasted caramel notes low bitterness pleasant acidity typical cold brew extractions inspired hot bloom method cold brew style intense reimagined nespresso begins brewing hot draw best beans continues cool water leave bitterness behind brewed minutes taste roasted arabicas caramel notes smooth silkytextured coffee best experience use cool water 10c 50f vertuo water tank add 34 ice cubes coffee fl oz ml servings fl oz 1725 ml arabica blend mostly uses brazilian bourbons guatemalan arabicas vertuo coffee gets split roast allows brazilian bourbon develop cereal note become sweet smooth coffee lightly roasting arabicas rounds blend cold brew style intense capsules roast ground coffee nespresso system roast ground coffee decaffeinated roast ground coffee g 423 oz capsules cold brew style intense 50 medium medium medium medium medium medium medium medium medium</t>
+          <t>vertuo current long coffee ml coffee fruity lightlybodied 20 126 cereal fruity vertuo coffee capsule arabica blend two renowned washed coffees loved lively acidity distinct fruity notes split roast blended highgrown colombian coffee kenyan coffee create light roast coffee light body lovable character juicy acidity shines solelio toasted cereal note hard miss classic fruitiness colombian kenyan coffees really ease morning vertuo coffee 30 10 10 10 love solelio gentle start day capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules solelio 20 blonde medium low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
         <is>
-          <t>Charts/VL13_Cold Brew Style Intense_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL10_Solelio_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP57" t="inlineStr">
         <is>
-          <t>Charts/VL13_Cold Brew Style Intense_Vertuo Feature Results.png</t>
+          <t>Charts/VL10_Solelio_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>VL14</t>
+          <t>VL11</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Carafe Pour-Over Style</t>
+          <t>Alto Onice</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Images/VL14_Carafe Pour-Over Style_Vertuo_Capsule.png</t>
+          <t>Images/VL11_Alto Onice_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Images/VL14_Carafe Pour-Over Style_Vertuo_Sleeve.png</t>
+          <t>Images/VL11_Alto Onice_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -10610,31 +10620,33 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Long Coffee — Exclusively for use with Vertuo Next, Vertuo Lattissima and Vertuo Creatista machines</t>
+          <t>Long Coffee — Exclusively for use with Vertuo Next, Vertuo Pop+, Vertuo Lattissima and Vertuo Creatista machines</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>535 ml (Carafe)</t>
+          <t>355 ml (Alto)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Roasted &amp; Smokey</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
+          <t>Roasted &amp; Woody</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>7</v>
+      </c>
       <c r="K58" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Roasted, Woody &amp; Spicy</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>CARAFE POUR-OVER STYLE is the coffee that opens up possibilities for sharing with others or simply extending the pleasure of your Nespresso moment. But creating our longest cup was by no means our shortest journey. Delivering not just the right intensity in the 535 ml, but also optimum crema and a distinct flavour profile, is something that didn’t happen overnight. After years of development, we were able to refine &amp; perfect the product to our desire, welcoming our largest ever coffee into the family. Elevate your drinking experience with the CARAFE accessory set, specifically designed to reveal the coffee's unique aromatics and inspire a new Nespresso coffee ritual.</t>
+          <t>An intense coffee with roasted, woody and spicy notes.</t>
         </is>
       </c>
       <c r="N58" t="n">
@@ -10655,19 +10667,27 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>CARAFE POUR-OVER SYLE is a coffee like none other in the range. It’s an easy-to-drink blend of Peruvian and Colombian washed Arabicas, which complement each other with their contrasting qualities to create a unique aromatic profile.</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
+          <t>Alto Onice delivers a full palate of strong cereal and deep woody notes for a longer cup to savour at home or on-the-go. Through the bold aromatics of beautiful bitter cocoa, spice and roasted notes comes a golden caramel note and a faint shimmer of acidity to balance this deep-roasted blend of coffees from Colombia, India, and beyond.</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>A complex blend of several origins: through its Indian beans’ cocoa and spice notes comes the Colombian arabica’s shimmer of acidity in our longest cup size.</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Arabicas and robustas are roasted together in the first split. The second split is composed exclusively from decaffeinated arabica, and is roasted for a slightly shorter time.</t>
+        </is>
+      </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>7 capsules of roast and ground coffee for the Vertuo Next Machine.</t>
+          <t>7 capsules of roast and ground coffee for the Nespresso system.</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>Roast and ground coffee.</t>
+          <t>Roast and ground coffee, decaffeinated roast and ground coffee.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -10677,7 +10697,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>Carafe Pour-Over Style</t>
+          <t>Alto Onice</t>
         </is>
       </c>
       <c r="AC58" t="n">
@@ -10730,44 +10750,44 @@
       </c>
       <c r="AM58" t="inlineStr">
         <is>
-          <t>Charts/VL14_Carafe Pour-Over Style_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL11_Alto Onice_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>vertuo current long coffee exclusively use vertuo next vertuo lattissima vertuo creatista machines ml carafe roasted smokey 112 unknown carafe pourover style coffee opens possibilities sharing others simply extending pleasure nespresso moment creating long cup means short journey delivering right intensity ml also optimum crema distinct flavour profile something happen overnight years development able refine perfect product desire welcoming large ever coffee family elevate drinking experience carafe accessory set specifically designed reveal coffee s unique aromatics inspire new nespresso coffee ritual 10 30 30 30 carafe pourover syle coffee like none range easytodrink blend peruvian colombian washed arabicas complement contrasting qualities create unique aromatic profile capsules roast ground coffee vertuo next machine roast ground coffee g 423 oz capsules carafe pourover style 70 medium low medium medium medium medium medium medium medium</t>
+          <t>vertuo current long coffee exclusively use vertuo next vertuo pop vertuo lattissima vertuo creatista machines ml alto roasted woody 70 105 roasted woody spicy intense coffee roasted woody spicy notes 10 30 30 30 alto onice delivers full palate strong cereal deep woody notes long cup savour home onthego bold aromatics beautiful bitter cocoa spice roasted notes comes golden caramel note faint shimmer acidity balance deeproasted blend coffees colombia india beyond complex blend several origins indian beans cocoa spice notes comes colombian arabica shimmer acidity long cup size arabicas robustas roasted together first split second split composed exclusively decaffeinated arabica roasted slightly short time capsules roast ground coffee nespresso system roast ground coffee decaffeinated roast ground coffee g 423 oz capsules alto onice 70 medium low medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
         <is>
-          <t>Charts/VL14_Carafe Pour-Over Style_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL11_Alto Onice_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP58" t="inlineStr">
         <is>
-          <t>Charts/VL14_Carafe Pour-Over Style_Vertuo Feature Results.png</t>
+          <t>Charts/VL11_Alto Onice_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>VL15</t>
+          <t>VL12</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Carafe Pour-Over Style Mild</t>
+          <t>Alto Ambrato</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Images/VL15_Carafe Pour-Over Style Mild_Vertuo_Capsule.png</t>
+          <t>Images/VL12_Alto Ambrato_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Images/VL15_Carafe Pour-Over Style Mild_Vertuo_Sleeve.png</t>
+          <t>Images/VL12_Alto Ambrato_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -10777,36 +10797,38 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Not Current</t>
+          <t>Current</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Long Coffee — Exclusively for use with Vertuo Next, Vertuo Lattissima and Vertuo Creatista machines</t>
+          <t>Long Coffee — Exclusively for use with Vertuo Next, Vertuo Pop+, Vertuo Lattissima and Vertuo Creatista machines</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>535 ml (Carafe)</t>
+          <t>355 ml (Alto)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Toasted Cereal &amp; Malted</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr"/>
+          <t>Honeyed &amp; Delicate</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>4</v>
+      </c>
       <c r="K59" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Cereal &amp; Honey</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Round and easy to drink, Carafe Pour-Over Style Mild has a balanced sensorial profile with toasted cereal notes and pleasant sweetness. This blend was roasted using the split roast technique (60/40). The first split includes all origins and is roasted to a light degree and average roasting time, while their second split includes only Colombian coffees and is roasted to a slightly darker degree, creating a mild roast overall. A classic Vertuo roast.</t>
+          <t>Ambrato is a delicate blend with light toasted bread and honey notes and a light body.</t>
         </is>
       </c>
       <c r="N59" t="n">
@@ -10819,7 +10841,7 @@
         <v>2</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
@@ -10827,19 +10849,23 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Smooth, toasted cereal and malted notes grace every last drop of this subtly sweet Latin American Arabica blend coffee inspired by the pour-over method.</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr"/>
+          <t>Taste Alto Ambrato's honeyed cereal, toasted notes and caramel sweetness. A fruity touch sparkles through this lightly roasted blend of fine Latin American Arabicas and Robusta. At home or on the go, it’s your longer cup warm in rich, golden aromatics.</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Arabica and robusta coffees from Latin America give rich warmth to this light-roast long cup. Taste toasted cereal and sweet caramel notes balanced by a fruity touch.</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>7 capsules of roast and ground coffee for the Vertuo Next Machine.</t>
+          <t>7 capsules of roast and ground coffee for the Nespresso system.</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>Roast and ground coffee.</t>
+          <t>Roast and ground coffee, decaffeinated roast and ground coffee.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -10849,15 +10875,15 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>Carafe Pour-Over Style Mild</t>
+          <t>Alto Ambrato</t>
         </is>
       </c>
       <c r="AC59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD59" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Blonde</t>
         </is>
       </c>
       <c r="AE59" t="inlineStr">
@@ -10902,44 +10928,44 @@
       </c>
       <c r="AM59" t="inlineStr">
         <is>
-          <t>Charts/VL15_Carafe Pour-Over Style Mild_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL12_Alto Ambrato_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN59" t="inlineStr">
         <is>
-          <t>vertuo current long coffee exclusively use vertuo next vertuo lattissima vertuo creatista machines ml carafe toasted cereal malted 112 unknown round easy drink carafe pourover style mild balanced sensorial profile toasted cereal notes pleasant sweetness blend roasted using split roast technique 6040 first split includes origins roasted light degree average roasting time second split includes colombian coffees roasted slightly dark degree creating mild roast overall classic vertuo roast 10 20 20 10 smooth toasted cereal malted notes grace every last drop subtly sweet latin american arabica blend coffee inspired pourover method capsules roast ground coffee vertuo next machine roast ground coffee g 423 oz capsules carafe pourover style mild 50 medium low low low low medium medium medium medium</t>
+          <t>vertuo current long coffee exclusively use vertuo next vertuo pop vertuo lattissima vertuo creatista machines ml alto honeyed delicate 40 105 cereal honey ambrato delicate blend light toasted bread honey notes light body 10 20 20 20 taste alto ambrato s honeyed cereal toasted notes caramel sweetness fruity touch sparkles lightly roasted blend fine latin american arabicas robusta home go long cup warm rich golden aromatics arabica robusta coffees latin america give rich warmth lightroast long cup taste toasted cereal sweet caramel notes balanced fruity touch capsules roast ground coffee nespresso system roast ground coffee decaffeinated roast ground coffee g 423 oz capsules alto ambrato 40 blonde low low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
         <is>
-          <t>Charts/VL15_Carafe Pour-Over Style Mild_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL12_Alto Ambrato_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP59" t="inlineStr">
         <is>
-          <t>Charts/VL15_Carafe Pour-Over Style Mild_Vertuo Feature Results.png</t>
+          <t>Charts/VL12_Alto Ambrato_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>VL16</t>
+          <t>VL13</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fortado</t>
+          <t>Cold Brew Style Intense</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Images/VL16_Fortado_Vertuo_Capsule.png</t>
+          <t>Images/VL13_Cold Brew Style Intense_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Images/VL16_Fortado_Vertuo_Sleeve.png</t>
+          <t>Images/VL13_Cold Brew Style Intense_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -10954,112 +10980,102 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Gran Lungo</t>
+          <t>Long Coffee — Exclusively for use with Vertuo Next, Vertuo Pop+, Vertuo Lattissima and Vertuo Creatista machines</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>150 ml (Gran Lungo)</t>
+          <t>355 ml (Cold Brew)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Intense &amp; Full-bodied</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>8</v>
-      </c>
+          <t>Sweet Caramel &amp; Roasted Cereal</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>11</v>
+        <v>10.85</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Cocoa</t>
+          <t>Caramel &amp; Roasted Cereal</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>The most intense coffee in its Gran Lungo size comes thick-bodied and full of cocoa and oak notes. Pairs perfectly with milk.</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>1</v>
-      </c>
-      <c r="O60" t="n">
-        <v>4</v>
-      </c>
-      <c r="P60" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>4</v>
-      </c>
+          <t>A smooth and silky-textured coffee, with roasted caramel notes, low bitterness and a pleasant acidity that is typical of cold brew extractions.</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Here’s the most intense Vertuo coffee in its Gran Lungo size - Fortado. Its Indian Robusta comes at you in full force, and cocoa and oak wood notes emerge from the Latin American Arabicas.</t>
+          <t>Inspired by the “hot bloom” method, Cold Brew Style Intense, reimagined by Nespresso, begins brewing hot to draw the best of the beans &amp; continues with cool water to leave the bitterness behind and brewed in minutes. Taste the roasted Arabicas’ &amp; caramel notes in a smooth, silky-textured coffee. For the best experience, use cool water (below 10°C / 50F) in your Vertuo water tank &amp; add 3-4 ice cubes to your coffee. 12 fl oz (355 ml) = 2 servings of 6 fl oz (172.5 ml).</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>We chose high quality washed Latin American Arabicas and blended it with a naturally processed Indian Robusta for its high-end quality, intensity and full body.</t>
+          <t>This 100% Arabica blend mostly uses Brazilian Bourbons and other Guatemalan Arabicas.</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>First, a long roast at medium temperatures brings out the intensity in the Indian Robusta, without any harshness. The Arabicas then get dark developing rich cocoa and wood notes.</t>
+          <t>This Vertuo coffee gets a split roast. It allows the Brazilian Bourbon to develop its cereal note to become a sweet and smooth coffee. Lightly roasting the other Arabicas rounds out the blend.</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
+          <t>7 Cold Brew Style Intense capsules of roast and ground coffee for the Nespresso system.</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>Roast and ground coffee.</t>
+          <t>Roast and ground coffee, decaffeinated roast and ground coffee.</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>100 g - 3.53 oz for 10 capsules</t>
+          <t>120 g - 4.23 oz for 7 capsules</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>Fortado</t>
+          <t>Cold Brew Style Intense</t>
         </is>
       </c>
       <c r="AC60" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AD60" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AE60" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AH60" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AI60" t="inlineStr">
@@ -11084,44 +11100,44 @@
       </c>
       <c r="AM60" t="inlineStr">
         <is>
-          <t>Charts/VL16_Fortado_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL13_Cold Brew Style Intense_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>vertuo current gran lungo ml gran lungo intense fullbodied 80 110 cocoa intense coffee gran lungo size comes thickbodied full cocoa oak notes pairs perfectly milk 10 40 40 40 intense vertuo coffee gran lungo size fortado indian robusta comes full force cocoa oak wood notes emerge latin american arabicas chose high quality washed latin american arabicas blended naturally processed indian robusta highend quality intensity full body first long roast medium temperatures brings intensity indian robusta without harshness arabicas get dark developing rich cocoa wood notes capsules roast ground coffee nespresso system roast ground coffee g 353 oz capsules fortado 80 dark low high high high medium medium medium medium</t>
+          <t>vertuo current long coffee exclusively use vertuo next vertuo pop vertuo lattissima vertuo creatista machines ml cold brew sweet caramel roasted cereal 1085 caramel roasted cereal smooth silkytextured coffee roasted caramel notes low bitterness pleasant acidity typical cold brew extractions inspired hot bloom method cold brew style intense reimagined nespresso begins brewing hot draw best beans continues cool water leave bitterness behind brewed minutes taste roasted arabicas caramel notes smooth silkytextured coffee best experience use cool water 10c 50f vertuo water tank add 34 ice cubes coffee fl oz ml servings fl oz 1725 ml arabica blend mostly uses brazilian bourbons guatemalan arabicas vertuo coffee gets split roast allows brazilian bourbon develop cereal note become sweet smooth coffee lightly roasting arabicas rounds blend cold brew style intense capsules roast ground coffee nespresso system roast ground coffee decaffeinated roast ground coffee g 423 oz capsules cold brew style intense 50 medium medium medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>Charts/VL16_Fortado_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL13_Cold Brew Style Intense_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP60" t="inlineStr">
         <is>
-          <t>Charts/VL16_Fortado_Vertuo Feature Results.png</t>
+          <t>Charts/VL13_Cold Brew Style Intense_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>VL17</t>
+          <t>VL14</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fortado Decaffeinato</t>
+          <t>Carafe Pour-Over Style</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Images/VL17_Fortado Decaffeinato_Vertuo_Capsule.png</t>
+          <t>Images/VL14_Carafe Pour-Over Style_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Images/VL17_Fortado Decaffeinato_Vertuo_Sleeve.png</t>
+          <t>Images/VL14_Carafe Pour-Over Style_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -11136,46 +11152,44 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Gran Lungo</t>
+          <t>Long Coffee — Exclusively for use with Vertuo Next, Vertuo Lattissima and Vertuo Creatista machines</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>150 ml (Gran Lungo)</t>
+          <t>535 ml (Carafe)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Intense &amp; Full-bodied</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>8</v>
-      </c>
+          <t>Roasted &amp; Smokey</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Woody</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>The thick-bodied character with cocoa and oak notes of Fortado, in a decaffeinated recipe. Pairs perfectly with milk.</t>
+          <t>CARAFE POUR-OVER STYLE is the coffee that opens up possibilities for sharing with others or simply extending the pleasure of your Nespresso moment. But creating our longest cup was by no means our shortest journey. Delivering not just the right intensity in the 535 ml, but also optimum crema and a distinct flavour profile, is something that didn’t happen overnight. After years of development, we were able to refine &amp; perfect the product to our desire, welcoming our largest ever coffee into the family. Elevate your drinking experience with the CARAFE accessory set, specifically designed to reveal the coffee's unique aromatics and inspire a new Nespresso coffee ritual.</t>
         </is>
       </c>
       <c r="N61" t="n">
         <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
@@ -11183,45 +11197,37 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>The most intense Gran Lungo VERTUO coffee, decaffeinated. FORTADO DECAFFEINATO’s Indian Robusta comes at you in full force, with cocoa and oak wood notes still strong in the decaffeinated Latin American Arabicas.</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>We chose high quality washed Latin American Arabicas and blended it with a naturally processed Indian Robusta for its high-end quality, intensity and full body.</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>First, a long roast at medium temperatures brings out the intensity in the Indian Robusta, without any harshness. The Arabicas then get dark developing rich cocoa and wood notes.</t>
-        </is>
-      </c>
+          <t>CARAFE POUR-OVER SYLE is a coffee like none other in the range. It’s an easy-to-drink blend of Peruvian and Colombian washed Arabicas, which complement each other with their contrasting qualities to create a unique aromatic profile.</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
+          <t>7 capsules of roast and ground coffee for the Vertuo Next Machine.</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>Decaffeinated Roast and ground coffee.</t>
+          <t>Roast and ground coffee.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>100 g - 3.53 oz for 10 capsules</t>
+          <t>120 g - 4.23 oz for 7 capsules</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>Fortado Decaffeinato</t>
+          <t>Carafe Pour-Over Style</t>
         </is>
       </c>
       <c r="AC61" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD61" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AE61" t="inlineStr">
@@ -11231,17 +11237,17 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AH61" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AI61" t="inlineStr">
@@ -11266,44 +11272,44 @@
       </c>
       <c r="AM61" t="inlineStr">
         <is>
-          <t>Charts/VL17_Fortado Decaffeinato_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL14_Carafe Pour-Over Style_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>vertuo current gran lungo ml gran lungo intense fullbodied 80 110 woody thickbodied character cocoa oak notes fortado decaffeinated recipe pairs perfectly milk 10 40 40 40 intense gran lungo vertuo coffee decaffeinated fortado decaffeinato indian robusta comes full force cocoa oak wood notes still strong decaffeinated latin american arabicas chose high quality washed latin american arabicas blended naturally processed indian robusta highend quality intensity full body first long roast medium temperatures brings intensity indian robusta without harshness arabicas get dark developing rich cocoa wood notes capsules roast ground coffee nespresso system decaffeinated roast ground coffee g 353 oz capsules fortado decaffeinato 80 dark low high high high medium medium medium medium</t>
+          <t>vertuo current long coffee exclusively use vertuo next vertuo lattissima vertuo creatista machines ml carafe roasted smokey 112 unknown carafe pourover style coffee opens possibilities sharing others simply extending pleasure nespresso moment creating long cup means short journey delivering right intensity ml also optimum crema distinct flavour profile something happen overnight years development able refine perfect product desire welcoming large ever coffee family elevate drinking experience carafe accessory set specifically designed reveal coffee s unique aromatics inspire new nespresso coffee ritual 10 30 30 30 carafe pourover syle coffee like none range easytodrink blend peruvian colombian washed arabicas complement contrasting qualities create unique aromatic profile capsules roast ground coffee vertuo next machine roast ground coffee g 423 oz capsules carafe pourover style 70 medium low medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>Charts/VL17_Fortado Decaffeinato_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL14_Carafe Pour-Over Style_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP61" t="inlineStr">
         <is>
-          <t>Charts/VL17_Fortado Decaffeinato_Vertuo Feature Results.png</t>
+          <t>Charts/VL14_Carafe Pour-Over Style_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>VL18</t>
+          <t>VL15</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Carafe Pour-Over Style Mild</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Images/VL18_Costa Rica_Vertuo_Capsule.png</t>
+          <t>Images/VL15_Carafe Pour-Over Style Mild_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Images/VL18_Costa Rica_Vertuo_Sleeve.png</t>
+          <t>Images/VL15_Carafe Pour-Over Style Mild_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -11313,29 +11319,27 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Current</t>
+          <t>Not Current</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Gran Lungo</t>
+          <t>Long Coffee — Exclusively for use with Vertuo Next, Vertuo Lattissima and Vertuo Creatista machines</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>150 ml (Gran Lungo)</t>
+          <t>535 ml (Carafe)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Malty &amp; Cereal Notes</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>7</v>
-      </c>
+          <t>Toasted Cereal &amp; Malted</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>12.1</v>
+        <v>11.2</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -11344,20 +11348,20 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>The one-of-a-kind process of fermentation in hot-spring waters brings about a remarkably balanced and clean taste in the cup. Master Origins Costa Rica is full-bodied but mellow. A malty sweet cereal note runs through it with crystal clarity.</t>
+          <t>Round and easy to drink, Carafe Pour-Over Style Mild has a balanced sensorial profile with toasted cereal notes and pleasant sweetness. This blend was roasted using the split roast technique (60/40). The first split includes all origins and is roasted to a light degree and average roasting time, while their second split includes only Colombian coffees and is roasted to a slightly darker degree, creating a mild roast overall. A classic Vertuo roast.</t>
         </is>
       </c>
       <c r="N62" t="n">
         <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
@@ -11365,22 +11369,14 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>High in Costa Rica’s mountains, only a small selection of Arabica coffee beans is soaked in rainforest hot spring waters. Costa Rica contains this scarce coffee whose rare process highlights the malty sweet cereal character of this craftsman’s coffee.</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>This 100% Arabica, fully washed coffee is sourced high up in the Costa Rican mountains.</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>First batch is roasted in medium temperatures to reach a medium-dark colour and develop sweet malty notes. Second batch is roasted more intensively to reach a darker color and the desired intensity.</t>
-        </is>
-      </c>
+          <t>Smooth, toasted cereal and malted notes grace every last drop of this subtly sweet Latin American Arabica blend coffee inspired by the pour-over method.</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
+          <t>7 capsules of roast and ground coffee for the Vertuo Next Machine.</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -11390,16 +11386,16 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>105 g - 3.70 oz for 10 capsules</t>
+          <t>120 g - 4.23 oz for 7 capsules</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Carafe Pour-Over Style Mild</t>
         </is>
       </c>
       <c r="AC62" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD62" t="inlineStr">
         <is>
@@ -11413,17 +11409,17 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AI62" t="inlineStr">
@@ -11448,44 +11444,44 @@
       </c>
       <c r="AM62" t="inlineStr">
         <is>
-          <t>Charts/VL18_Costa Rica_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL15_Carafe Pour-Over Style Mild_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>vertuo current gran lungo ml gran lungo malty cereal notes 70 121 unknown oneofakind process fermentation hotspring waters brings remarkably balanced clean taste cup master origins costa rica fullbodied mellow malty sweet cereal note runs crystal clarity 10 30 40 30 high costa rica mountains small selection arabica coffee beans soaked rainforest hot spring waters costa rica contains scarce coffee whose rare process highlights malty sweet cereal character craftsman coffee arabica fully washed coffee sourced high costa rican mountains first batch roasted medium temperatures reach mediumdark colour develop sweet malty notes second batch roasted intensively reach dark color desired intensity capsules roast ground coffee nespresso system roast ground coffee g 370 oz capsules costa rica 70 medium low medium high medium medium medium medium medium</t>
+          <t>vertuo current long coffee exclusively use vertuo next vertuo lattissima vertuo creatista machines ml carafe toasted cereal malted 112 unknown round easy drink carafe pourover style mild balanced sensorial profile toasted cereal notes pleasant sweetness blend roasted using split roast technique 6040 first split includes origins roasted light degree average roasting time second split includes colombian coffees roasted slightly dark degree creating mild roast overall classic vertuo roast 10 20 20 10 smooth toasted cereal malted notes grace every last drop subtly sweet latin american arabica blend coffee inspired pourover method capsules roast ground coffee vertuo next machine roast ground coffee g 423 oz capsules carafe pourover style mild 50 medium low low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>Charts/VL18_Costa Rica_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL15_Carafe Pour-Over Style Mild_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP62" t="inlineStr">
         <is>
-          <t>Charts/VL18_Costa Rica_Vertuo Feature Results.png</t>
+          <t>Charts/VL15_Carafe Pour-Over Style Mild_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>VL19</t>
+          <t>VL16</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Arondio</t>
+          <t>Fortado</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Images/VL19_Arondio_Vertuo_Capsule.png</t>
+          <t>Images/VL16_Fortado_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Images/VL19_Arondio_Vertuo_Sleeve.png</t>
+          <t>Images/VL16_Fortado_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -11510,44 +11506,56 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Cereal &amp; Mild</t>
+          <t>Intense &amp; Full-bodied</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K63" t="n">
         <v>11</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Cocoa</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>A mild Gran Lungo - but don’t be fooled - there’s an inner strength behind the cereal note - a subtle acidity and a hint of Robusta oomph. The addition of milk softens the cereal notes while keeping an enchanting character.</t>
+          <t>The most intense coffee in its Gran Lungo size comes thick-bodied and full of cocoa and oak notes. Pairs perfectly with milk.</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
         <v>4</v>
       </c>
       <c r="P63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Here’s the most intense Vertuo coffee in its Gran Lungo size - Fortado. Its Indian Robusta comes at you in full force, and cocoa and oak wood notes emerge from the Latin American Arabicas.</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>We chose high quality washed Latin American Arabicas and blended it with a naturally processed Indian Robusta for its high-end quality, intensity and full body.</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>First, a long roast at medium temperatures brings out the intensity in the Indian Robusta, without any harshness. The Arabicas then get dark developing rich cocoa and wood notes.</t>
+        </is>
+      </c>
       <c r="Y63" t="inlineStr">
         <is>
           <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
@@ -11565,20 +11573,20 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>Arondio</t>
+          <t>Fortado</t>
         </is>
       </c>
       <c r="AC63" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD63" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="AE63" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF63" t="inlineStr">
@@ -11588,12 +11596,12 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="AH63" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="AI63" t="inlineStr">
@@ -11618,44 +11626,44 @@
       </c>
       <c r="AM63" t="inlineStr">
         <is>
-          <t>Charts/VL19_Arondio_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL16_Fortado_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>vertuo current gran lungo ml gran lungo cereal mild 60 110 unknown mild gran lungo fooled inner strength behind cereal note subtle acidity hint robusta oomph addition milk softens cereal notes keeping enchanting character 30 40 30 30 capsules roast ground coffee nespresso system roast ground coffee g 353 oz capsules arondio 60 medium medium high medium medium medium medium medium medium</t>
+          <t>vertuo current gran lungo ml gran lungo intense fullbodied 80 110 cocoa intense coffee gran lungo size comes thickbodied full cocoa oak notes pairs perfectly milk 10 40 40 40 intense vertuo coffee gran lungo size fortado indian robusta comes full force cocoa oak wood notes emerge latin american arabicas chose high quality washed latin american arabicas blended naturally processed indian robusta highend quality intensity full body first long roast medium temperatures brings intensity indian robusta without harshness arabicas get dark developing rich cocoa wood notes capsules roast ground coffee nespresso system roast ground coffee g 353 oz capsules fortado 80 dark low high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
         <is>
-          <t>Charts/VL19_Arondio_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL16_Fortado_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP63" t="inlineStr">
         <is>
-          <t>Charts/VL19_Arondio_Vertuo Feature Results.png</t>
+          <t>Charts/VL16_Fortado_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>VL20</t>
+          <t>VL17</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Inizio</t>
+          <t>Fortado Decaffeinato</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Images/VL20_Inizio_Vertuo_Capsule.png</t>
+          <t>Images/VL17_Fortado Decaffeinato_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Images/VL20_Inizio_Vertuo_Sleeve.png</t>
+          <t>Images/VL17_Fortado Decaffeinato_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -11680,33 +11688,33 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Floral &amp; Cereal</t>
+          <t>Intense &amp; Full-bodied</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K64" t="n">
         <v>11</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Floral</t>
+          <t>Woody</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>We split roast this medium roast coffee. The Ethiopian Arabicas get a lighter, shorter roast to keep those floral notes alive. A longer, darker roast of the Kenyan coffee adds body to this Vertuo coffee capsule. The brewing is also designed to bring out great crema while keeping the floral aromatics intact. A juicy coffee with that combines subtle floral and cereal notes.</t>
+          <t>The thick-bodied character with cocoa and oak notes of Fortado, in a decaffeinated recipe. Pairs perfectly with milk.</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q64" t="n">
         <v>4</v>
@@ -11717,11 +11725,19 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Inizio is the helping hand easing you into your every day. The velvety, smooth body of this Kenyan and Ethiopian Arabica blend comes with a warmth and strength from its rich toasted cereal note. Its wild florals give you that laid-back Sunday feeling.</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
+          <t>The most intense Gran Lungo VERTUO coffee, decaffeinated. FORTADO DECAFFEINATO’s Indian Robusta comes at you in full force, with cocoa and oak wood notes still strong in the decaffeinated Latin American Arabicas.</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>We chose high quality washed Latin American Arabicas and blended it with a naturally processed Indian Robusta for its high-end quality, intensity and full body.</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>First, a long roast at medium temperatures brings out the intensity in the Indian Robusta, without any harshness. The Arabicas then get dark developing rich cocoa and wood notes.</t>
+        </is>
+      </c>
       <c r="Y64" t="inlineStr">
         <is>
           <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
@@ -11729,7 +11745,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>Roast and ground coffee.</t>
+          <t>Decaffeinated Roast and ground coffee.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -11739,30 +11755,30 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>Inizio</t>
+          <t>Fortado Decaffeinato</t>
         </is>
       </c>
       <c r="AC64" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AD64" t="inlineStr">
         <is>
-          <t>Blonde</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="AE64" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="AH64" t="inlineStr">
@@ -11792,44 +11808,44 @@
       </c>
       <c r="AM64" t="inlineStr">
         <is>
-          <t>Charts/VL20_Inizio_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL17_Fortado Decaffeinato_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>vertuo current gran lungo ml gran lungo floral cereal 40 110 floral split roast medium roast coffee ethiopian arabicas get light short roast keep floral notes alive long dark roast kenyan coffee adds body vertuo coffee capsule brewing also designed bring great crema keeping floral aromatics intact juicy coffee combines subtle floral cereal notes 30 20 20 40 inizio helping hand easing every day velvety smooth body kenyan ethiopian arabica blend comes warmth strength rich toasted cereal note wild florals give laidback sunday feeling capsules roast ground coffee nespresso system roast ground coffee g 353 oz capsules inizio 40 blonde medium low low high medium medium medium medium</t>
+          <t>vertuo current gran lungo ml gran lungo intense fullbodied 80 110 woody thickbodied character cocoa oak notes fortado decaffeinated recipe pairs perfectly milk 10 40 40 40 intense gran lungo vertuo coffee decaffeinated fortado decaffeinato indian robusta comes full force cocoa oak wood notes still strong decaffeinated latin american arabicas chose high quality washed latin american arabicas blended naturally processed indian robusta highend quality intensity full body first long roast medium temperatures brings intensity indian robusta without harshness arabicas get dark developing rich cocoa wood notes capsules roast ground coffee nespresso system decaffeinated roast ground coffee g 353 oz capsules fortado decaffeinato 80 dark low high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>Charts/VL20_Inizio_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL17_Fortado Decaffeinato_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP64" t="inlineStr">
         <is>
-          <t>Charts/VL20_Inizio_Vertuo Feature Results.png</t>
+          <t>Charts/VL17_Fortado Decaffeinato_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>VL21</t>
+          <t>VL18</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Images/VL21_Ethiopia_Vertuo_Capsule.png</t>
+          <t>Images/VL18_Costa Rica_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Images/VL21_Ethiopia_Vertuo_Sleeve.png</t>
+          <t>Images/VL18_Costa Rica_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -11854,11 +11870,11 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Floral &amp; Delicate</t>
+          <t>Malty &amp; Cereal Notes</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K65" t="n">
         <v>12.1</v>
@@ -11870,20 +11886,20 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Ethiopia is a naturally flowery coffee that gains fruitiness and complexity from its signature drying method, revealing ripe blueberry notes and a hint of musk.</t>
+          <t>The one-of-a-kind process of fermentation in hot-spring waters brings about a remarkably balanced and clean taste in the cup. Master Origins Costa Rica is full-bodied but mellow. A malty sweet cereal note runs through it with crystal clarity.</t>
         </is>
       </c>
       <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="n">
         <v>3</v>
       </c>
-      <c r="O65" t="n">
-        <v>1</v>
-      </c>
       <c r="P65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
@@ -11891,11 +11907,19 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Ethiopia with dry processed Arabica involves sun-drying some of the coffee cherry. This continual hand-turning to ensure even drying calls for great care. And Ethiopian farmers have used this method for longer than anyone else.</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
+          <t>High in Costa Rica’s mountains, only a small selection of Arabica coffee beans is soaked in rainforest hot spring waters. Costa Rica contains this scarce coffee whose rare process highlights the malty sweet cereal character of this craftsman’s coffee.</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>This 100% Arabica, fully washed coffee is sourced high up in the Costa Rican mountains.</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>First batch is roasted in medium temperatures to reach a medium-dark colour and develop sweet malty notes. Second batch is roasted more intensively to reach a darker color and the desired intensity.</t>
+        </is>
+      </c>
       <c r="Y65" t="inlineStr">
         <is>
           <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
@@ -11908,40 +11932,40 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>95 g - 3.35 oz for 10 capsules</t>
+          <t>105 g - 3.70 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>Ethiopia (Vertuo)</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="AC65" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD65" t="inlineStr">
         <is>
-          <t>Blonde</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AE65" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="AH65" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AI65" t="inlineStr">
@@ -11966,44 +11990,44 @@
       </c>
       <c r="AM65" t="inlineStr">
         <is>
-          <t>Charts/VL21_Ethiopia_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL18_Costa Rica_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>vertuo current gran lungo ml gran lungo floral delicate 40 121 unknown ethiopia naturally flowery coffee gains fruitiness complexity signature drying method revealing ripe blueberry notes hint musk 30 10 20 10 ethiopia dry processed arabica involves sundrying coffee cherry continual handturning ensure even drying calls great care ethiopian farmers used method long anyone else capsules roast ground coffee nespresso system roast ground coffee g 335 oz capsules ethiopia vertuo 40 blonde medium low low low medium medium medium medium</t>
+          <t>vertuo current gran lungo ml gran lungo malty cereal notes 70 121 unknown oneofakind process fermentation hotspring waters brings remarkably balanced clean taste cup master origins costa rica fullbodied mellow malty sweet cereal note runs crystal clarity 10 30 40 30 high costa rica mountains small selection arabica coffee beans soaked rainforest hot spring waters costa rica contains scarce coffee whose rare process highlights malty sweet cereal character craftsman coffee arabica fully washed coffee sourced high costa rican mountains first batch roasted medium temperatures reach mediumdark colour develop sweet malty notes second batch roasted intensively reach dark color desired intensity capsules roast ground coffee nespresso system roast ground coffee g 370 oz capsules costa rica 70 medium low medium high medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
         <is>
-          <t>Charts/VL21_Ethiopia_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL18_Costa Rica_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP65" t="inlineStr">
         <is>
-          <t>Charts/VL21_Ethiopia_Vertuo Feature Results.png</t>
+          <t>Charts/VL18_Costa Rica_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>VL22</t>
+          <t>VL19</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Il Caffe</t>
+          <t>Arondio</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Images/VL22_Il Caffe_Vertuo_Capsule.png</t>
+          <t>Images/VL19_Arondio_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Images/VL22_Il Caffe_Vertuo_Sleeve.png</t>
+          <t>Images/VL19_Arondio_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -12018,56 +12042,52 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Espresso</t>
+          <t>Gran Lungo</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>40 ml (Espresso)</t>
+          <t>150 ml (Gran Lungo)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Exceptionally Intense &amp; Velvety</t>
+          <t>Cereal &amp; Mild</t>
         </is>
       </c>
       <c r="J66" t="n">
+        <v>6</v>
+      </c>
+      <c r="K66" t="n">
         <v>11</v>
       </c>
-      <c r="K66" t="n">
-        <v>9.9</v>
-      </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Cereal, Woody &amp; Cocoa</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>We split roast the coffees to give the Robustas a darker roast. A lighter but slightly longer roast of the Colombian Arabica beans keeps the acidity intact and develops a hint of a nutty note. Il Caffè goes down like a dream, its classic aroma promises to delight, and its familiar flavour is one to remember. We crafted Il Caffè to be your traditional black coffee experience, but if you want to soften this one’s intensity, why not add milk to make a Cappuccino?</t>
+          <t>A mild Gran Lungo - but don’t be fooled - there’s an inner strength behind the cereal note - a subtle acidity and a hint of Robusta oomph. The addition of milk softens the cereal notes while keeping an enchanting character.</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O66" t="n">
         <v>4</v>
       </c>
       <c r="P66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>We split roast the coffees to give the Robustas a darker roast. A lighter but slightly longer roast of the Colombian Arabica beans keeps the acidity intact and develops a hint of a nutty note. Il Caffè goes down like a dream, its classic aroma promises to delight, and its familiar flavour is one to remember. We crafted Il Caffè to be your traditional black coffee experience, but if you want to soften this one’s intensity, why not add milk to make a Cappuccino?</t>
-        </is>
-      </c>
+      <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr">
@@ -12082,25 +12102,25 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>70 g - 2.47 oz for 10 capsules</t>
+          <t>100 g - 3.53 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>Il Caffe</t>
+          <t>Arondio</t>
         </is>
       </c>
       <c r="AC66" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AD66" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AE66" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AF66" t="inlineStr">
@@ -12110,12 +12130,12 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AH66" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AI66" t="inlineStr">
@@ -12140,44 +12160,44 @@
       </c>
       <c r="AM66" t="inlineStr">
         <is>
-          <t>Charts/VL22_Il Caffe_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL19_Arondio_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml espresso exceptionally intense velvety 110 99 cereal woody cocoa split roast coffees give robustas dark roast light slightly long roast colombian arabica beans keeps acidity intact develops hint nutty note il caffè goes like dream classic aroma promises delight familiar flavour one remember crafted il caffè traditional black coffee experience want soften one intensity add milk make cappuccino 10 40 50 10 split roast coffees give robustas dark roast light slightly long roast colombian arabica beans keeps acidity intact develops hint nutty note il caffè goes like dream classic aroma promises delight familiar flavour one remember crafted il caffè traditional black coffee experience want soften one intensity add milk make cappuccino capsules roast ground coffee nespresso system roast ground coffee g 247 oz capsules il caffe 110 dark low high high low medium medium medium medium</t>
+          <t>vertuo current gran lungo ml gran lungo cereal mild 60 110 unknown mild gran lungo fooled inner strength behind cereal note subtle acidity hint robusta oomph addition milk softens cereal notes keeping enchanting character 30 40 30 30 capsules roast ground coffee nespresso system roast ground coffee g 353 oz capsules arondio 60 medium medium high medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
         <is>
-          <t>Charts/VL22_Il Caffe_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL19_Arondio_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP66" t="inlineStr">
         <is>
-          <t>Charts/VL22_Il Caffe_Vertuo Feature Results.png</t>
+          <t>Charts/VL19_Arondio_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>VL23</t>
+          <t>VL20</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Diavolitto</t>
+          <t>Inizio</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Images/VL23_Diavolitto_Vertuo_Capsule.png</t>
+          <t>Images/VL20_Inizio_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Images/VL23_Diavolitto_Vertuo_Sleeve.png</t>
+          <t>Images/VL20_Inizio_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -12192,43 +12212,43 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Espresso</t>
+          <t>Gran Lungo</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>40 ml (Espresso)</t>
+          <t>150 ml (Gran Lungo)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Highly Intense &amp; Powerful</t>
+          <t>Floral &amp; Cereal</t>
         </is>
       </c>
       <c r="J67" t="n">
+        <v>4</v>
+      </c>
+      <c r="K67" t="n">
         <v>11</v>
       </c>
-      <c r="K67" t="n">
-        <v>9.9</v>
-      </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Intense &amp; Woody</t>
+          <t>Floral</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>No harshness in Diavolitto - just fine oak wood and leather notes and a smooth, creamy texture. The addition of milk complements its natural full body.</t>
+          <t>We split roast this medium roast coffee. The Ethiopian Arabicas get a lighter, shorter roast to keep those floral notes alive. A longer, darker roast of the Kenyan coffee adds body to this Vertuo coffee capsule. The brewing is also designed to bring out great crema while keeping the floral aromatics intact. A juicy coffee with that combines subtle floral and cereal notes.</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q67" t="n">
         <v>4</v>
@@ -12239,19 +12259,11 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>This short devil of a coffee capsule is an intense, powerful espresso, definitely packed with character. Oak and leather aromas punch through the creamy texture of Diavolitto's blend of Robustas, including washed Guatemalan Robusta, and Latin American Arabicas.</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>A blend of Robustas and Arabicas from Latin America and a rare Robusta from Guatemala which gives to this coffee its soft and creamy texture.</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>A highly roasted Robusta and Arabica coffee blend. We split roast so that each coffee’s origin characteristics stay at play.</t>
-        </is>
-      </c>
+          <t>Inizio is the helping hand easing you into your every day. The velvety, smooth body of this Kenyan and Ethiopian Arabica blend comes with a warmth and strength from its rich toasted cereal note. Its wild florals give you that laid-back Sunday feeling.</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr">
         <is>
           <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
@@ -12264,42 +12276,42 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>70 g - 2.47 oz for 10 capsules</t>
+          <t>100 g - 3.53 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>Diavolitto</t>
+          <t>Inizio</t>
         </is>
       </c>
       <c r="AC67" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AD67" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Blonde</t>
         </is>
       </c>
       <c r="AE67" t="inlineStr">
         <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF67" t="inlineStr">
+        <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="AF67" t="inlineStr">
+      <c r="AG67" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AH67" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="AG67" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="AH67" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
       <c r="AI67" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -12322,44 +12334,44 @@
       </c>
       <c r="AM67" t="inlineStr">
         <is>
-          <t>Charts/VL23_Diavolitto_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL20_Inizio_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml espresso highly intense powerful 110 99 intense woody harshness diavolitto fine oak wood leather notes smooth creamy texture addition milk complements natural full body 10 40 40 40 short devil coffee capsule intense powerful espresso definitely packed character oak leather aromas punch creamy texture diavolitto s blend robustas including washed guatemalan robusta latin american arabicas blend robustas arabicas latin america rare robusta guatemala gives coffee soft creamy texture highly roasted robusta arabica coffee blend split roast coffee origin characteristics stay play capsules roast ground coffee nespresso system roast ground coffee g 247 oz capsules diavolitto 110 dark low high high high medium medium medium medium</t>
+          <t>vertuo current gran lungo ml gran lungo floral cereal 40 110 floral split roast medium roast coffee ethiopian arabicas get light short roast keep floral notes alive long dark roast kenyan coffee adds body vertuo coffee capsule brewing also designed bring great crema keeping floral aromatics intact juicy coffee combines subtle floral cereal notes 30 20 20 40 inizio helping hand easing every day velvety smooth body kenyan ethiopian arabica blend comes warmth strength rich toasted cereal note wild florals give laidback sunday feeling capsules roast ground coffee nespresso system roast ground coffee g 353 oz capsules inizio 40 blonde medium low low high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>Charts/VL23_Diavolitto_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL20_Inizio_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP67" t="inlineStr">
         <is>
-          <t>Charts/VL23_Diavolitto_Vertuo Feature Results.png</t>
+          <t>Charts/VL20_Inizio_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>VL24</t>
+          <t>VL21</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Altissio Decaffeinato</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Images/VL24_Altissio Decaffeinato_Vertuo_Capsule.png</t>
+          <t>Images/VL21_Ethiopia_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Images/VL24_Altissio Decaffeinato_Vertuo_Sleeve.png</t>
+          <t>Images/VL21_Ethiopia_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -12374,46 +12386,46 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Espresso</t>
+          <t>Gran Lungo</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>40 ml (Espresso)</t>
+          <t>150 ml (Gran Lungo)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Full-bodied &amp; Creamy</t>
+          <t>Floral &amp; Delicate</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K68" t="n">
-        <v>9.9</v>
+        <v>12.1</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Cocoa</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>The full-bodied, bold espresso taste comes from blending South American Arabicas with Robusta. A Costa Rican Arabica adds its soft cereal note. All decaffeinated, the taste of the highly roasted Altissio Decaffeinato is true to the original – still cloaked in creamy royal robes.</t>
+          <t>Ethiopia is a naturally flowery coffee that gains fruitiness and complexity from its signature drying method, revealing ripe blueberry notes and a hint of musk.</t>
         </is>
       </c>
       <c r="N68" t="n">
+        <v>3</v>
+      </c>
+      <c r="O68" t="n">
         <v>1</v>
       </c>
-      <c r="O68" t="n">
-        <v>3</v>
-      </c>
       <c r="P68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
@@ -12421,7 +12433,7 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
         <is>
-          <t>When Altissio Decaffeinato walks in, you'll notice.</t>
+          <t>Ethiopia with dry processed Arabica involves sun-drying some of the coffee cherry. This continual hand-turning to ensure even drying calls for great care. And Ethiopian farmers have used this method for longer than anyone else.</t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
@@ -12438,40 +12450,40 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>70 g - 2.46 oz for 10 capsules</t>
+          <t>95 g - 3.35 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>Altissio Decaffeinato</t>
+          <t>Ethiopia (Vertuo)</t>
         </is>
       </c>
       <c r="AC68" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AD68" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Blonde</t>
         </is>
       </c>
       <c r="AE68" t="inlineStr">
         <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF68" t="inlineStr">
+        <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="AF68" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AH68" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AI68" t="inlineStr">
@@ -12496,44 +12508,44 @@
       </c>
       <c r="AM68" t="inlineStr">
         <is>
-          <t>Charts/VL24_Altissio Decaffeinato_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL21_Ethiopia_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml espresso fullbodied creamy 90 99 cocoa fullbodied bold espresso taste comes blending south american arabicas robusta costa rican arabica adds soft cereal note decaffeinated taste highly roasted altissio decaffeinato true original still cloaked creamy royal robes 10 30 30 30 altissio decaffeinato walks ll notice capsules roast ground coffee nespresso system roast ground coffee g 246 oz capsules altissio decaffeinato 90 dark low medium medium medium medium medium medium medium</t>
+          <t>vertuo current gran lungo ml gran lungo floral delicate 40 121 unknown ethiopia naturally flowery coffee gains fruitiness complexity signature drying method revealing ripe blueberry notes hint musk 30 10 20 10 ethiopia dry processed arabica involves sundrying coffee cherry continual handturning ensure even drying calls great care ethiopian farmers used method long anyone else capsules roast ground coffee nespresso system roast ground coffee g 335 oz capsules ethiopia vertuo 40 blonde medium low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
         <is>
-          <t>Charts/VL24_Altissio Decaffeinato_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL21_Ethiopia_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP68" t="inlineStr">
         <is>
-          <t>Charts/VL24_Altissio Decaffeinato_Vertuo Feature Results.png</t>
+          <t>Charts/VL21_Ethiopia_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>VL25</t>
+          <t>VL22</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Altissio</t>
+          <t>Il Caffe</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Images/VL25_Altissio_Vertuo_Capsule.png</t>
+          <t>Images/VL22_Il Caffe_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Images/VL25_Altissio_Vertuo_Sleeve.png</t>
+          <t>Images/VL22_Il Caffe_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -12558,36 +12570,36 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Full-Bodied &amp; Creamy</t>
+          <t>Exceptionally Intense &amp; Velvety</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K69" t="n">
         <v>9.9</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Intense</t>
+          <t>Cereal, Woody &amp; Cocoa</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>A bold espresso cloaked in a creamy and roasty cereal note. Pairs perfectly with milk that complements its natural full body.</t>
+          <t>We split roast the coffees to give the Robustas a darker roast. A lighter but slightly longer roast of the Colombian Arabica beans keeps the acidity intact and develops a hint of a nutty note. Il Caffè goes down like a dream, its classic aroma promises to delight, and its familiar flavour is one to remember. We crafted Il Caffè to be your traditional black coffee experience, but if you want to soften this one’s intensity, why not add milk to make a Cappuccino?</t>
         </is>
       </c>
       <c r="N69" t="n">
         <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
         <v>1</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>3</v>
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
@@ -12595,19 +12607,11 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr">
         <is>
-          <t>The South American Arabicas and a touch of Brazilian Robusta give it that full-bodied, bold espresso taste. We balanced these coffees out with a Costa Rican Arabica that adds its soft cereal note. In royal robes, Altissio is a Vertuo espresso coffee cloaked in a thick, velvety crema - full of roasty notes and a soft and creamy cereal note.</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>A combination of Arabicas from Latin America and Costa Rica, with a little touch of Brazilian Robusta for a full-bodied cup.</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>Altissio gets an intense and short roast to bring out the full-bodied character of this bold Vertuo espresso coffee.</t>
-        </is>
-      </c>
+          <t>We split roast the coffees to give the Robustas a darker roast. A lighter but slightly longer roast of the Colombian Arabica beans keeps the acidity intact and develops a hint of a nutty note. Il Caffè goes down like a dream, its classic aroma promises to delight, and its familiar flavour is one to remember. We crafted Il Caffè to be your traditional black coffee experience, but if you want to soften this one’s intensity, why not add milk to make a Cappuccino?</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr">
         <is>
           <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
@@ -12620,16 +12624,16 @@
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>70 g - 2.46 oz for 10 capsules</t>
+          <t>70 g - 2.47 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>Altissio</t>
+          <t>Il Caffe</t>
         </is>
       </c>
       <c r="AC69" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD69" t="inlineStr">
         <is>
@@ -12643,19 +12647,19 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="AG69" t="inlineStr">
         <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AH69" t="inlineStr">
+        <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="AH69" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
       <c r="AI69" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -12678,44 +12682,44 @@
       </c>
       <c r="AM69" t="inlineStr">
         <is>
-          <t>Charts/VL25_Altissio_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL22_Il Caffe_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml espresso fullbodied creamy 90 99 intense bold espresso cloaked creamy roasty cereal note pairs perfectly milk complements natural full body 10 30 10 30 south american arabicas touch brazilian robusta give fullbodied bold espresso taste balanced coffees costa rican arabica adds soft cereal note royal robes altissio vertuo espresso coffee cloaked thick velvety crema full roasty notes soft creamy cereal note combination arabicas latin america costa rica little touch brazilian robusta fullbodied cup altissio gets intense short roast bring fullbodied character bold vertuo espresso coffee capsules roast ground coffee nespresso system roast ground coffee g 246 oz capsules altissio 90 dark low medium low medium medium medium medium medium</t>
+          <t>vertuo current espresso ml espresso exceptionally intense velvety 110 99 cereal woody cocoa split roast coffees give robustas dark roast light slightly long roast colombian arabica beans keeps acidity intact develops hint nutty note il caffè goes like dream classic aroma promises delight familiar flavour one remember crafted il caffè traditional black coffee experience want soften one intensity add milk make cappuccino 10 40 50 10 split roast coffees give robustas dark roast light slightly long roast colombian arabica beans keeps acidity intact develops hint nutty note il caffè goes like dream classic aroma promises delight familiar flavour one remember crafted il caffè traditional black coffee experience want soften one intensity add milk make cappuccino capsules roast ground coffee nespresso system roast ground coffee g 247 oz capsules il caffe 110 dark low high high low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>Charts/VL25_Altissio_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL22_Il Caffe_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP69" t="inlineStr">
         <is>
-          <t>Charts/VL25_Altissio_Vertuo Feature Results.png</t>
+          <t>Charts/VL22_Il Caffe_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>VL26</t>
+          <t>VL23</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Peru Organic</t>
+          <t>Diavolitto</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Images/VL26_Peru Organic_Vertuo_Capsule.png</t>
+          <t>Images/VL23_Diavolitto_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Images/VL26_Peru Organic_Vertuo_Sleeve.png</t>
+          <t>Images/VL23_Diavolitto_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -12740,36 +12744,36 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>High up in the Andes</t>
+          <t>Highly Intense &amp; Powerful</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K70" t="n">
-        <v>10.8</v>
+        <v>9.9</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Fruity</t>
+          <t>Intense &amp; Woody</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>High up above 1000 meters – even up to 2100 meters – and, tucked into the slopes of the Andes, we found them. The organic processes passed down from generation to generation, this coffee is blessed with the meticulous care of smallholder farmers. Peru Organic is split roast to reveal both the bright, juicy acidity and the elegant fruity notes accented by a smooth toasted cereal note.</t>
+          <t>No harshness in Diavolitto - just fine oak wood and leather notes and a smooth, creamy texture. The addition of milk complements its natural full body.</t>
         </is>
       </c>
       <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="n">
         <v>4</v>
       </c>
-      <c r="O70" t="n">
-        <v>3</v>
-      </c>
       <c r="P70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
@@ -12777,11 +12781,19 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Why we love it: We traveled across remote Peruvian regions in search of the finest organic certified Arabica coffee beans.</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
+          <t>This short devil of a coffee capsule is an intense, powerful espresso, definitely packed with character. Oak and leather aromas punch through the creamy texture of Diavolitto's blend of Robustas, including washed Guatemalan Robusta, and Latin American Arabicas.</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>A blend of Robustas and Arabicas from Latin America and a rare Robusta from Guatemala which gives to this coffee its soft and creamy texture.</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>A highly roasted Robusta and Arabica coffee blend. We split roast so that each coffee’s origin characteristics stay at play.</t>
+        </is>
+      </c>
       <c r="Y70" t="inlineStr">
         <is>
           <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
@@ -12794,40 +12806,40 @@
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>70 g - 2.46 oz for 10 capsules</t>
+          <t>70 g - 2.47 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>Peru Organic (Vertuo)</t>
+          <t>Diavolitto</t>
         </is>
       </c>
       <c r="AC70" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AD70" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="AE70" t="inlineStr">
         <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AF70" t="inlineStr">
+        <is>
           <t>High</t>
         </is>
       </c>
-      <c r="AF70" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="AI70" t="inlineStr">
@@ -12852,44 +12864,44 @@
       </c>
       <c r="AM70" t="inlineStr">
         <is>
-          <t>Charts/VL26_Peru Organic_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL23_Diavolitto_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml espresso high andes 60 108 fruity high meters even meters tucked slopes andes found organic processes passed generation generation coffee blessed meticulous care smallholder farmers peru organic split roast reveal bright juicy acidity elegant fruity notes accented smooth toasted cereal note 40 30 30 30 love traveled across remote peruvian regions search fine organic certified arabica coffee beans capsules roast ground coffee nespresso system roast ground coffee g 246 oz capsules peru organic vertuo 60 medium high medium medium medium medium medium medium medium</t>
+          <t>vertuo current espresso ml espresso highly intense powerful 110 99 intense woody harshness diavolitto fine oak wood leather notes smooth creamy texture addition milk complements natural full body 10 40 40 40 short devil coffee capsule intense powerful espresso definitely packed character oak leather aromas punch creamy texture diavolitto s blend robustas including washed guatemalan robusta latin american arabicas blend robustas arabicas latin america rare robusta guatemala gives coffee soft creamy texture highly roasted robusta arabica coffee blend split roast coffee origin characteristics stay play capsules roast ground coffee nespresso system roast ground coffee g 247 oz capsules diavolitto 110 dark low high high high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Charts/VL26_Peru Organic_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL23_Diavolitto_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP70" t="inlineStr">
         <is>
-          <t>Charts/VL26_Peru Organic_Vertuo Feature Results.png</t>
+          <t>Charts/VL23_Diavolitto_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>VL27</t>
+          <t>VL24</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Orafio</t>
+          <t>Altissio Decaffeinato</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Images/VL27_Orafio_Vertuo_Capsule.png</t>
+          <t>Images/VL24_Altissio Decaffeinato_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Images/VL27_Orafio_Vertuo_Sleeve.png</t>
+          <t>Images/VL24_Altissio Decaffeinato_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -12914,23 +12926,23 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Caramel &amp; Roasted</t>
+          <t>Full-bodied &amp; Creamy</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K71" t="n">
         <v>9.9</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Caramel</t>
+          <t>Cocoa</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>We crafted Orafio with a light and long roasted Ugandan Robusta. That roast keeps this coffee’s typical body and bitterness in check while still delivering the liquorice and spice notes that are hallmarks of this origin’s naturally processed Robusta. A short dark roast of the Brazilian and Costa Rican Arabicas balances the blend. Orafio is a complex coffee carrying a delicious caramel note and lingering with a long finish. Its beautiful roasted notes graced by a hint of acidity make this a luxurious coffee worth its weight in gold.</t>
+          <t>The full-bodied, bold espresso taste comes from blending South American Arabicas with Robusta. A Costa Rican Arabica adds its soft cereal note. All decaffeinated, the taste of the highly roasted Altissio Decaffeinato is true to the original – still cloaked in creamy royal robes.</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -12943,7 +12955,7 @@
         <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
@@ -12951,7 +12963,7 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
         <is>
-          <t>What makes Orafio glow in your cup is a combination of masterful blending, bringing together both high quality Arabica and Robusta coffees from a diversity of origins, and skilful split roasting. Sounds a bit like the level of craftmanship that goes into this coffee’s namesake, doesn’t it? The Italians among us will recognize the link to their word for goldsmith.</t>
+          <t>When Altissio Decaffeinato walks in, you'll notice.</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -12968,20 +12980,20 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>62 g - 2.18 oz for 10 capsules</t>
+          <t>70 g - 2.46 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>Orafio</t>
+          <t>Altissio Decaffeinato</t>
         </is>
       </c>
       <c r="AC71" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AD71" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="AE71" t="inlineStr">
@@ -13001,7 +13013,7 @@
       </c>
       <c r="AH71" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AI71" t="inlineStr">
@@ -13026,44 +13038,44 @@
       </c>
       <c r="AM71" t="inlineStr">
         <is>
-          <t>Charts/VL27_Orafio_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL24_Altissio Decaffeinato_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml espresso caramel roasted 60 99 caramel crafted orafio light long roasted ugandan robusta roast keeps coffee typical body bitterness check still delivering liquorice spice notes hallmarks origin naturally processed robusta short dark roast brazilian costa rican arabicas balances blend orafio complex coffee carrying delicious caramel note lingering long finish beautiful roasted notes graced hint acidity make luxurious coffee worth weight gold 10 30 30 20 makes orafio glow cup combination masterful blending bringing together high quality arabica robusta coffees diversity origins skilful split roasting sounds bit like level craftmanship goes coffee namesake italians among us recognize link word goldsmith capsules roast ground coffee nespresso system roast ground coffee g 218 oz capsules orafio 60 medium low medium medium low medium medium medium medium</t>
+          <t>vertuo current espresso ml espresso fullbodied creamy 90 99 cocoa fullbodied bold espresso taste comes blending south american arabicas robusta costa rican arabica adds soft cereal note decaffeinated taste highly roasted altissio decaffeinato true original still cloaked creamy royal robes 10 30 30 30 altissio decaffeinato walks ll notice capsules roast ground coffee nespresso system roast ground coffee g 246 oz capsules altissio decaffeinato 90 dark low medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
         <is>
-          <t>Charts/VL27_Orafio_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL24_Altissio Decaffeinato_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP71" t="inlineStr">
         <is>
-          <t>Charts/VL27_Orafio_Vertuo Feature Results.png</t>
+          <t>Charts/VL24_Altissio Decaffeinato_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>VL28</t>
+          <t>VL25</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Toccanto</t>
+          <t>Altissio</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Images/VL28_Toccanto_Vertuo_Capsule.png</t>
+          <t>Images/VL25_Altissio_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Images/VL28_Toccanto_Vertuo_Sleeve.png</t>
+          <t>Images/VL25_Altissio_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -13073,7 +13085,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Not Current</t>
+          <t>Current</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -13088,36 +13100,36 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Berry &amp; Winey</t>
+          <t>Full-Bodied &amp; Creamy</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K72" t="n">
         <v>9.9</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Berry</t>
+          <t>Intense</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Fill your cup with the wildly aromatic Toccanto - a juicy coffee whose Latin American Arabicas bring candied and winey fruit notes to your palate.</t>
+          <t>A bold espresso cloaked in a creamy and roasty cereal note. Pairs perfectly with milk that complements its natural full body.</t>
         </is>
       </c>
       <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="n">
         <v>3</v>
       </c>
-      <c r="O72" t="n">
-        <v>2</v>
-      </c>
       <c r="P72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
@@ -13125,11 +13137,19 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr">
         <is>
-          <t>A barrel of fine South and Central American coffee origins gather together in Toccanto to bring you a wild, juicy coffee with candied and ripe fruity notes. This all Arabica blend beautifully balances acidity and body in an aromatic cup.</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
+          <t>The South American Arabicas and a touch of Brazilian Robusta give it that full-bodied, bold espresso taste. We balanced these coffees out with a Costa Rican Arabica that adds its soft cereal note. In royal robes, Altissio is a Vertuo espresso coffee cloaked in a thick, velvety crema - full of roasty notes and a soft and creamy cereal note.</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>A combination of Arabicas from Latin America and Costa Rica, with a little touch of Brazilian Robusta for a full-bodied cup.</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Altissio gets an intense and short roast to bring out the full-bodied character of this bold Vertuo espresso coffee.</t>
+        </is>
+      </c>
       <c r="Y72" t="inlineStr">
         <is>
           <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
@@ -13142,40 +13162,40 @@
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>62 g - 2.18 oz for 10 capsules</t>
+          <t>70 g - 2.46 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>Toccanto</t>
+          <t>Altissio</t>
         </is>
       </c>
       <c r="AC72" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AD72" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF72" t="inlineStr">
         <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG72" t="inlineStr">
+        <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="AG72" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
       <c r="AH72" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AI72" t="inlineStr">
@@ -13200,44 +13220,44 @@
       </c>
       <c r="AM72" t="inlineStr">
         <is>
-          <t>Charts/VL28_Toccanto_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL25_Altissio_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml espresso berry winey 50 99 berry fill cup wildly aromatic toccanto juicy coffee whose latin american arabicas bring candied winey fruit notes palate 30 20 20 20 barrel fine south central american coffee origins gather together toccanto bring wild juicy coffee candied ripe fruity notes arabica blend beautifully balances acidity body aromatic cup capsules roast ground coffee nespresso system roast ground coffee g 218 oz capsules toccanto 50 medium medium low low low medium medium medium medium</t>
+          <t>vertuo current espresso ml espresso fullbodied creamy 90 99 intense bold espresso cloaked creamy roasty cereal note pairs perfectly milk complements natural full body 10 30 10 30 south american arabicas touch brazilian robusta give fullbodied bold espresso taste balanced coffees costa rican arabica adds soft cereal note royal robes altissio vertuo espresso coffee cloaked thick velvety crema full roasty notes soft creamy cereal note combination arabicas latin america costa rica little touch brazilian robusta fullbodied cup altissio gets intense short roast bring fullbodied character bold vertuo espresso coffee capsules roast ground coffee nespresso system roast ground coffee g 246 oz capsules altissio 90 dark low medium low medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>Charts/VL28_Toccanto_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL25_Altissio_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP72" t="inlineStr">
         <is>
-          <t>Charts/VL28_Toccanto_Vertuo Feature Results.png</t>
+          <t>Charts/VL25_Altissio_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>VL29</t>
+          <t>VL26</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Voltesso</t>
+          <t>Peru Organic</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Images/VL29_Voltesso_Vertuo_Capsule.png</t>
+          <t>Images/VL26_Peru Organic_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Images/VL29_Voltesso_Vertuo_Sleeve.png</t>
+          <t>Images/VL26_Peru Organic_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -13262,36 +13282,36 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Light &amp; Sweet</t>
+          <t>High up in the Andes</t>
         </is>
       </c>
       <c r="J73" t="n">
+        <v>6</v>
+      </c>
+      <c r="K73" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Fruity</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>High up above 1000 meters – even up to 2100 meters – and, tucked into the slopes of the Andes, we found them. The organic processes passed down from generation to generation, this coffee is blessed with the meticulous care of smallholder farmers. Peru Organic is split roast to reveal both the bright, juicy acidity and the elegant fruity notes accented by a smooth toasted cereal note.</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>4</v>
       </c>
-      <c r="K73" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>A sweet, mild and harmonious blend with delicate biscuity aromas. Perfectly pairs with a dash of milk if you are looking for an even smoother taste.</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v>2</v>
-      </c>
       <c r="O73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
@@ -13299,19 +13319,11 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Our light and sweet espresso that comes with a biscuity aroma from its fine South American Arabicas and that you might just make your golden standard.</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>Voltesso gets its light, biscuity note from Brazilian Bourbon coffee, while Colombian Arabicas add a hint of acidity.</t>
-        </is>
-      </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>The Colombian coffee is roasted light and short to preserve its acidity, while the Brazilian Bourbon is roasted for a longer time to reveal its biscuity notes.</t>
-        </is>
-      </c>
+          <t>Why we love it: We traveled across remote Peruvian regions in search of the finest organic certified Arabica coffee beans.</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr">
         <is>
           <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
@@ -13324,40 +13336,40 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>52 g - 1.83 oz for 10 capsules</t>
+          <t>70 g - 2.46 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>Voltesso</t>
+          <t>Peru Organic (Vertuo)</t>
         </is>
       </c>
       <c r="AC73" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD73" t="inlineStr">
         <is>
-          <t>Blonde</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AE73" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AH73" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AI73" t="inlineStr">
@@ -13382,44 +13394,44 @@
       </c>
       <c r="AM73" t="inlineStr">
         <is>
-          <t>Charts/VL29_Voltesso_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL26_Peru Organic_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN73" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml espresso light sweet 40 99 unknown sweet mild harmonious blend delicate biscuity aromas perfectly pairs dash milk looking even smooth taste 20 20 20 20 light sweet espresso comes biscuity aroma fine south american arabicas might make golden standard voltesso gets light biscuity note brazilian bourbon coffee colombian arabicas add hint acidity colombian coffee roasted light short preserve acidity brazilian bourbon roasted long time reveal biscuity notes capsules roast ground coffee nespresso system roast ground coffee g 183 oz capsules voltesso 40 blonde low low low low medium medium medium medium</t>
+          <t>vertuo current espresso ml espresso high andes 60 108 fruity high meters even meters tucked slopes andes found organic processes passed generation generation coffee blessed meticulous care smallholder farmers peru organic split roast reveal bright juicy acidity elegant fruity notes accented smooth toasted cereal note 40 30 30 30 love traveled across remote peruvian regions search fine organic certified arabica coffee beans capsules roast ground coffee nespresso system roast ground coffee g 246 oz capsules peru organic vertuo 60 medium high medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
         <is>
-          <t>Charts/VL29_Voltesso_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL26_Peru Organic_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP73" t="inlineStr">
         <is>
-          <t>Charts/VL29_Voltesso_Vertuo Feature Results.png</t>
+          <t>Charts/VL26_Peru Organic_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>VL30</t>
+          <t>VL27</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Double Espresso Scuro</t>
+          <t>Orafio</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Images/VL30_Double Espresso Scuro_Vertuo_Capsule.png</t>
+          <t>Images/VL27_Orafio_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Images/VL30_Double Espresso Scuro_Vertuo_Sleeve.png</t>
+          <t>Images/VL27_Orafio_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -13439,28 +13451,28 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>80 ml (Double Espresso)</t>
+          <t>40 ml (Espresso)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Dark &amp; Bold</t>
+          <t>Caramel &amp; Roasted</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K74" t="n">
-        <v>11</v>
+        <v>9.9</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Caramel</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>A highly roasted blend of both Arabica and Robusta, that gives to Double Espresso Scuro a smoky character with dark cocoa and subtle vanilla notes. Pairs perfectly with milk.</t>
+          <t>We crafted Orafio with a light and long roasted Ugandan Robusta. That roast keeps this coffee’s typical body and bitterness in check while still delivering the liquorice and spice notes that are hallmarks of this origin’s naturally processed Robusta. A short dark roast of the Brazilian and Costa Rican Arabicas balances the blend. Orafio is a complex coffee carrying a delicious caramel note and lingering with a long finish. Its beautiful roasted notes graced by a hint of acidity make this a luxurious coffee worth its weight in gold.</t>
         </is>
       </c>
       <c r="N74" t="n">
@@ -13473,7 +13485,7 @@
         <v>3</v>
       </c>
       <c r="Q74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
@@ -13481,19 +13493,11 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Double Espresso Scuro is a highly roasted blend of Robusta and Arabica - all Central American coffees. The Robusta is from Guatemala and the Arabica is Costa Rican. And it’s the Robusta in this Nespresso Vertuoline double shot that helps it pack a double enjoyment.</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>This intense blend is created using Robustas from Guatemala and other origins, in combination with Arabicas from Costa Rica.</t>
-        </is>
-      </c>
-      <c r="X74" t="inlineStr">
-        <is>
-          <t>We separate Robustas and Arabicas but give them both a full roast to develop the intense cocoa notes and the smoky character of this coffee.</t>
-        </is>
-      </c>
+          <t>What makes Orafio glow in your cup is a combination of masterful blending, bringing together both high quality Arabica and Robusta coffees from a diversity of origins, and skilful split roasting. Sounds a bit like the level of craftmanship that goes into this coffee’s namesake, doesn’t it? The Italians among us will recognize the link to their word for goldsmith.</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr">
         <is>
           <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
@@ -13506,20 +13510,20 @@
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>100 g - 3.52 oz for 10 capsules</t>
+          <t>62 g - 2.18 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>Double Espresso Scuro</t>
+          <t>Orafio</t>
         </is>
       </c>
       <c r="AC74" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AD74" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AE74" t="inlineStr">
@@ -13539,7 +13543,7 @@
       </c>
       <c r="AH74" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AI74" t="inlineStr">
@@ -13564,44 +13568,44 @@
       </c>
       <c r="AM74" t="inlineStr">
         <is>
-          <t>Charts/VL30_Double Espresso Scuro_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL27_Orafio_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN74" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml double espresso dark bold 110 110 unknown highly roasted blend arabica robusta gives double espresso scuro smoky character dark cocoa subtle vanilla notes pairs perfectly milk 10 30 30 30 double espresso scuro highly roasted blend robusta arabica central american coffees robusta guatemala arabica costa rican robusta nespresso vertuoline double shot helps pack double enjoyment intense blend created using robustas guatemala origins combination arabicas costa rica separate robustas arabicas give full roast develop intense cocoa notes smoky character coffee capsules roast ground coffee nespresso system roast ground coffee g 352 oz capsules double espresso scuro 110 dark low medium medium medium medium medium medium medium</t>
+          <t>vertuo current espresso ml espresso caramel roasted 60 99 caramel crafted orafio light long roasted ugandan robusta roast keeps coffee typical body bitterness check still delivering liquorice spice notes hallmarks origin naturally processed robusta short dark roast brazilian costa rican arabicas balances blend orafio complex coffee carrying delicious caramel note lingering long finish beautiful roasted notes graced hint acidity make luxurious coffee worth weight gold 10 30 30 20 makes orafio glow cup combination masterful blending bringing together high quality arabica robusta coffees diversity origins skilful split roasting sounds bit like level craftmanship goes coffee namesake italians among us recognize link word goldsmith capsules roast ground coffee nespresso system roast ground coffee g 218 oz capsules orafio 60 medium low medium medium low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
         <is>
-          <t>Charts/VL30_Double Espresso Scuro_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL27_Orafio_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP74" t="inlineStr">
         <is>
-          <t>Charts/VL30_Double Espresso Scuro_Vertuo Feature Results.png</t>
+          <t>Charts/VL27_Orafio_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>VL31</t>
+          <t>VL28</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Double Espresso Chiaro</t>
+          <t>Toccanto</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Images/VL31_Double Espresso Chiaro_Vertuo_Capsule.png</t>
+          <t>Images/VL28_Toccanto_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Images/VL31_Double Espresso Chiaro_Vertuo_Sleeve.png</t>
+          <t>Images/VL28_Toccanto_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -13611,7 +13615,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Current</t>
+          <t>Not Current</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -13621,38 +13625,38 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>80 ml (Double Espresso)</t>
+          <t>40 ml (Espresso)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Dense &amp; Wild</t>
+          <t>Berry &amp; Winey</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K75" t="n">
-        <v>11</v>
+        <v>9.9</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Berry</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>An intense yet balanced Double Espresso, with woody, earthy and roasted cereal notes. Pairs perfectly with milk that enriches the blend with surprisingly prominent notes of caramel.</t>
+          <t>Fill your cup with the wildly aromatic Toccanto - a juicy coffee whose Latin American Arabicas bring candied and winey fruit notes to your palate.</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q75" t="n">
         <v>2</v>
@@ -13663,19 +13667,11 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr">
         <is>
-          <t>This Nespresso Vertuoline double shot’s the last course - go ahead and finish off your meal with a bang.</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>A blend of Latin American Arabica coffees, mainly coming from Brazil and Colombia.</t>
-        </is>
-      </c>
-      <c r="X75" t="inlineStr">
-        <is>
-          <t>Washed and Natural Arabicas are roasted separately, although both get an intense and short roast. This is done to bring the best out of each part of the blend.</t>
-        </is>
-      </c>
+          <t>A barrel of fine South and Central American coffee origins gather together in Toccanto to bring you a wild, juicy coffee with candied and ripe fruity notes. This all Arabica blend beautifully balances acidity and body in an aromatic cup.</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr">
         <is>
           <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
@@ -13688,35 +13684,35 @@
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>100 g - 3.52 oz for 10 capsules</t>
+          <t>62 g - 2.18 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>Double Espresso Chiaro</t>
+          <t>Toccanto</t>
         </is>
       </c>
       <c r="AC75" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AD75" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AE75" t="inlineStr">
         <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF75" t="inlineStr">
+        <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="AF75" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AH75" t="inlineStr">
@@ -13746,44 +13742,44 @@
       </c>
       <c r="AM75" t="inlineStr">
         <is>
-          <t>Charts/VL31_Double Espresso Chiaro_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL28_Toccanto_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN75" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml double espresso dense wild 80 110 unknown intense yet balanced double espresso woody earthy roasted cereal notes pairs perfectly milk enriches blend surprisingly prominent notes caramel 10 30 30 20 nespresso vertuoline double shot last course go ahead finish meal bang blend latin american arabica coffees mainly coming brazil colombia washed natural arabicas roasted separately although get intense short roast done bring best part blend capsules roast ground coffee nespresso system roast ground coffee g 352 oz capsules double espresso chiaro 80 dark low medium medium low medium medium medium medium</t>
+          <t>vertuo current espresso ml espresso berry winey 50 99 berry fill cup wildly aromatic toccanto juicy coffee whose latin american arabicas bring candied winey fruit notes palate 30 20 20 20 barrel fine south central american coffee origins gather together toccanto bring wild juicy coffee candied ripe fruity notes arabica blend beautifully balances acidity body aromatic cup capsules roast ground coffee nespresso system roast ground coffee g 218 oz capsules toccanto 50 medium medium low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
         <is>
-          <t>Charts/VL31_Double Espresso Chiaro_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL28_Toccanto_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP75" t="inlineStr">
         <is>
-          <t>Charts/VL31_Double Espresso Chiaro_Vertuo Feature Results.png</t>
+          <t>Charts/VL28_Toccanto_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>VL32</t>
+          <t>VL29</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Double Espresso Dolce</t>
+          <t>Voltesso</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Images/VL32_Double Espresso Dolce_Vertuo_Capsule.png</t>
+          <t>Images/VL29_Voltesso_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Images/VL32_Double Espresso Dolce_Vertuo_Sleeve.png</t>
+          <t>Images/VL29_Voltesso_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -13803,28 +13799,28 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>80 ml (Double Espresso)</t>
+          <t>40 ml (Espresso)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Cereal &amp; Malted</t>
+          <t>Light &amp; Sweet</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K76" t="n">
-        <v>11</v>
+        <v>9.9</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Cereal</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>An exceptionally smooth double espresso that gets its sweetness and malty toasted cereal notes from a fine blend of Arabica and Robusta. Pairs perfectly with milk.</t>
+          <t>A sweet, mild and harmonious blend with delicate biscuity aromas. Perfectly pairs with a dash of milk if you are looking for an even smoother taste.</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -13834,10 +13830,10 @@
         <v>2</v>
       </c>
       <c r="P76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
@@ -13845,17 +13841,17 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr">
         <is>
-          <t>The masterful blending and split roasting of different Arabica and Robusta beans is the secret behind this mild and smooth double espresso. Latin American Arabicas deliver that delicious malty toasted cereal note that sings above this beautifully balanced cup.</t>
+          <t>Our light and sweet espresso that comes with a biscuity aroma from its fine South American Arabicas and that you might just make your golden standard.</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>Double Espresso Dolce is created by combining Latin American Arabicas and Ugandan Robustas.</t>
+          <t>Voltesso gets its light, biscuity note from Brazilian Bourbon coffee, while Colombian Arabicas add a hint of acidity.</t>
         </is>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>A batch of Arabicas are roasted light and short, while another combination of Arabica and Robusta get a slightly longer and darker roast.</t>
+          <t>The Colombian coffee is roasted light and short to preserve its acidity, while the Brazilian Bourbon is roasted for a longer time to reveal its biscuity notes.</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -13870,20 +13866,20 @@
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>95 g - 3.35 oz for 10 capsules</t>
+          <t>52 g - 1.83 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>Double Espresso Dolce</t>
+          <t>Voltesso</t>
         </is>
       </c>
       <c r="AC76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD76" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Blonde</t>
         </is>
       </c>
       <c r="AE76" t="inlineStr">
@@ -13898,12 +13894,12 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AH76" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AI76" t="inlineStr">
@@ -13928,44 +13924,44 @@
       </c>
       <c r="AM76" t="inlineStr">
         <is>
-          <t>Charts/VL32_Double Espresso Dolce_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL29_Voltesso_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>vertuo current espresso ml double espresso cereal malted 50 110 cereal exceptionally smooth double espresso gets sweetness malty toasted cereal notes fine blend arabica robusta pairs perfectly milk 20 20 30 50 masterful blending split roasting different arabica robusta beans secret behind mild smooth double espresso latin american arabicas deliver delicious malty toasted cereal note sings beautifully balanced cup double espresso dolce created combining latin american arabicas ugandan robustas batch arabicas roasted light short another combination arabica robusta get slightly long dark roast capsules roast ground coffee nespresso system roast ground coffee g 335 oz capsules double espresso dolce 50 medium low low medium high medium medium medium medium</t>
+          <t>vertuo current espresso ml espresso light sweet 40 99 unknown sweet mild harmonious blend delicate biscuity aromas perfectly pairs dash milk looking even smooth taste 20 20 20 20 light sweet espresso comes biscuity aroma fine south american arabicas might make golden standard voltesso gets light biscuity note brazilian bourbon coffee colombian arabicas add hint acidity colombian coffee roasted light short preserve acidity brazilian bourbon roasted long time reveal biscuity notes capsules roast ground coffee nespresso system roast ground coffee g 183 oz capsules voltesso 40 blonde low low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
         <is>
-          <t>Charts/VL32_Double Espresso Dolce_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL29_Voltesso_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP76" t="inlineStr">
         <is>
-          <t>Charts/VL32_Double Espresso Dolce_Vertuo Feature Results.png</t>
+          <t>Charts/VL29_Voltesso_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>VL33</t>
+          <t>VL30</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Roasted Hazelnut</t>
+          <t>Double Espresso Scuro</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Images/VL33_Roasted Hazelnut_Vertuo_Capsule.png</t>
+          <t>Images/VL30_Double Espresso Scuro_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Images/VL33_Roasted Hazelnut_Vertuo_Sleeve.png</t>
+          <t>Images/VL30_Double Espresso Scuro_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -13980,44 +13976,46 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Barista Creations</t>
+          <t>Espresso</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>230 ml (Coffee), Cappucino and Latte Macchiato</t>
+          <t>80 ml (Double Espresso)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Hazelnut Flavoured</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr"/>
+          <t>Dark &amp; Bold</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>11</v>
+      </c>
       <c r="K77" t="n">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Hazelnut &amp; Flavoured</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>This flavoured blend delights with its classic grilled hazelnut flavour, complemented by notes of biscuits and caramel.</t>
+          <t>A highly roasted blend of both Arabica and Robusta, that gives to Double Espresso Scuro a smoky character with dark cocoa and subtle vanilla notes. Pairs perfectly with milk.</t>
         </is>
       </c>
       <c r="N77" t="n">
         <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
@@ -14025,22 +14023,22 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr">
         <is>
-          <t>We have made name changes to our Barista Creations flavoured range for Vertuo to better reflect the various changes made, from the recipe to the flavouring extracts and recommended cup size. Bringing you the rich caramelized flavour of roasted hazelnuts in a coffee called for perfectly roasting some of our smoothest Arabica beans from Latin America and Africa. When this sweet, velvety blend with its delicate biscuit note meets the bittersweet complexity of the hazelnut flavour in Barista Creations Flavoured Roasted Hazelnut it’s all smiles. It makes a milky treat with a rush of grilled hazelnut, praline, and caramel biscuit notes.</t>
+          <t>Double Espresso Scuro is a highly roasted blend of Robusta and Arabica - all Central American coffees. The Robusta is from Guatemala and the Arabica is Costa Rican. And it’s the Robusta in this Nespresso Vertuoline double shot that helps it pack a double enjoyment.</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>This 100% Arabica blend is sourced from Brazil and Ethiopia and another Latin American Country.</t>
+          <t>This intense blend is created using Robustas from Guatemala and other origins, in combination with Arabicas from Costa Rica.</t>
         </is>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Latin American beans are roasted medium dark and quickly to develop sweetness. The other coffees are roasted a bit longer to develop a velvety texture.</t>
+          <t>We separate Robustas and Arabicas but give them both a full roast to develop the intense cocoa notes and the smoky character of this coffee.</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>10 capsules of artificially flavoured hazelnut roast and ground coffee for the Nespresso system.</t>
+          <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
@@ -14050,20 +14048,20 @@
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>125 g - 4.40 oz for 10 capsules</t>
+          <t>100 g - 3.52 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>Roasted Hazelnut</t>
+          <t>Double Espresso Scuro</t>
         </is>
       </c>
       <c r="AC77" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AD77" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="AE77" t="inlineStr">
@@ -14073,17 +14071,17 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AH77" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AI77" t="inlineStr">
@@ -14108,44 +14106,44 @@
       </c>
       <c r="AM77" t="inlineStr">
         <is>
-          <t>Charts/VL33_Roasted Hazelnut_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL30_Double Espresso Scuro_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>vertuo current barista creations ml coffee cappucino latte macchiato hazelnut flavoured 126 hazelnut flavoured flavoured blend delights classic grilled hazelnut flavour complemented notes biscuits caramel 10 10 20 00 made name changes barista creations flavoured range vertuo good reflect various changes made recipe flavouring extracts recommended cup size bringing rich caramelized flavour roasted hazelnuts coffee called perfectly roasting smooth arabica beans latin america africa sweet velvety blend delicate biscuit note meets bittersweet complexity hazelnut flavour barista creations flavoured roasted hazelnut smiles makes milky treat rush grilled hazelnut praline caramel biscuit notes arabica blend sourced brazil ethiopia another latin american country latin american beans roasted medium dark quickly develop sweetness coffees roasted bit long develop velvety texture capsules artificially flavoured hazelnut roast ground coffee nespresso system roast ground coffee g 440 oz capsules roasted hazelnut 50 medium low low low low medium medium medium medium</t>
+          <t>vertuo current espresso ml double espresso dark bold 110 110 unknown highly roasted blend arabica robusta gives double espresso scuro smoky character dark cocoa subtle vanilla notes pairs perfectly milk 10 30 30 30 double espresso scuro highly roasted blend robusta arabica central american coffees robusta guatemala arabica costa rican robusta nespresso vertuoline double shot helps pack double enjoyment intense blend created using robustas guatemala origins combination arabicas costa rica separate robustas arabicas give full roast develop intense cocoa notes smoky character coffee capsules roast ground coffee nespresso system roast ground coffee g 352 oz capsules double espresso scuro 110 dark low medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>Charts/VL33_Roasted Hazelnut_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL30_Double Espresso Scuro_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP77" t="inlineStr">
         <is>
-          <t>Charts/VL33_Roasted Hazelnut_Vertuo Feature Results.png</t>
+          <t>Charts/VL30_Double Espresso Scuro_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>VL34</t>
+          <t>VL31</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Golden Caramel</t>
+          <t>Double Espresso Chiaro</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Images/VL34_Golden Caramel_Vertuo_Capsule.png</t>
+          <t>Images/VL31_Double Espresso Chiaro_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Images/VL34_Golden Caramel_Vertuo_Sleeve.png</t>
+          <t>Images/VL31_Double Espresso Chiaro_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -14160,41 +14158,43 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Barista Creations</t>
+          <t>Espresso</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>230 ml (Coffee), Cappucino and Latte Macchiato</t>
+          <t>80 ml (Double Espresso)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Caramel Flavoured</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr"/>
+          <t>Dense &amp; Wild</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>8</v>
+      </c>
       <c r="K78" t="n">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Caramel &amp; Flavoured</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>This flavoured blend delights with the classic caramel flavour combined with sweet biscuit notes.</t>
+          <t>An intense yet balanced Double Espresso, with woody, earthy and roasted cereal notes. Pairs perfectly with milk that enriches the blend with surprisingly prominent notes of caramel.</t>
         </is>
       </c>
       <c r="N78" t="n">
         <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q78" t="n">
         <v>2</v>
@@ -14205,37 +14205,45 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr">
         <is>
-          <t>We have made name changes to our Barista Creations flavoured range for Vertuo to better reflect the various changes made, from the recipe to the flavouring extracts and recommended cup size. Barista Creations Flavoured Golden Caramel brings the weekend mood any day. Into our sweet and velvety base blend of Latin American and African Arabicas comes the comforting caramel flavour. Its biscuity sweetness is an echo of the coffee blend itself, this one’s got layers of indulgence irresistibly inviting you to cozy up any time the moment calls for it. Insider Tip: With a dash of milk, the caramel and biscuit notes can’t be missed.</t>
-        </is>
-      </c>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
+          <t>This Nespresso Vertuoline double shot’s the last course - go ahead and finish off your meal with a bang.</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>A blend of Latin American Arabica coffees, mainly coming from Brazil and Colombia.</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Washed and Natural Arabicas are roasted separately, although both get an intense and short roast. This is done to bring the best out of each part of the blend.</t>
+        </is>
+      </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>10 capsules of artificially flavoured caramel roast and ground coffee for the Nespresso system.</t>
+          <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>Roast and ground coffee, artificial flavour</t>
+          <t>Roast and ground coffee.</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>125 g - 4.40 oz for 10 capsules</t>
+          <t>100 g - 3.52 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>Golden Caramel</t>
+          <t>Double Espresso Chiaro</t>
         </is>
       </c>
       <c r="AC78" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AD78" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="AE78" t="inlineStr">
@@ -14245,19 +14253,19 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG78" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AH78" t="inlineStr">
+        <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="AG78" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="AH78" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
       <c r="AI78" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -14280,44 +14288,44 @@
       </c>
       <c r="AM78" t="inlineStr">
         <is>
-          <t>Charts/VL34_Golden Caramel_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL31_Double Espresso Chiaro_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN78" t="inlineStr">
         <is>
-          <t>vertuo current barista creations ml coffee cappucino latte macchiato caramel flavoured 126 caramel flavoured flavoured blend delights classic caramel flavour combined sweet biscuit notes 10 10 20 20 made name changes barista creations flavoured range vertuo good reflect various changes made recipe flavouring extracts recommended cup size barista creations flavoured golden caramel brings weekend mood day sweet velvety base blend latin american african arabicas comes comforting caramel flavour biscuity sweetness echo coffee blend one got layers indulgence irresistibly inviting cozy time moment calls insider tip dash milk caramel biscuit notes missed capsules artificially flavoured caramel roast ground coffee nespresso system roast ground coffee artificial flavour g 440 oz capsules golden caramel 50 medium low low low low medium medium medium medium</t>
+          <t>vertuo current espresso ml double espresso dense wild 80 110 unknown intense yet balanced double espresso woody earthy roasted cereal notes pairs perfectly milk enriches blend surprisingly prominent notes caramel 10 30 30 20 nespresso vertuoline double shot last course go ahead finish meal bang blend latin american arabica coffees mainly coming brazil colombia washed natural arabicas roasted separately although get intense short roast done bring best part blend capsules roast ground coffee nespresso system roast ground coffee g 352 oz capsules double espresso chiaro 80 dark low medium medium low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO78" t="inlineStr">
         <is>
-          <t>Charts/VL34_Golden Caramel_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL31_Double Espresso Chiaro_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP78" t="inlineStr">
         <is>
-          <t>Charts/VL34_Golden Caramel_Vertuo Feature Results.png</t>
+          <t>Charts/VL31_Double Espresso Chiaro_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>VL35</t>
+          <t>VL32</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sweet Vanilla</t>
+          <t>Double Espresso Dolce</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Images/VL35_Sweet Vanilla_Vertuo_Capsule.png</t>
+          <t>Images/VL32_Double Espresso Dolce_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Images/VL35_Sweet Vanilla_Vertuo_Sleeve.png</t>
+          <t>Images/VL32_Double Espresso Dolce_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -14332,44 +14340,46 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Barista Creations</t>
+          <t>Espresso</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>230 ml (Coffee), Cappucino and Latte Macchiato</t>
+          <t>80 ml (Double Espresso)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Vanilla Flavoured</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr"/>
+          <t>Cereal &amp; Malted</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>5</v>
+      </c>
       <c r="K79" t="n">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Vanilla &amp; Flavoured</t>
+          <t>Cereal</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>This flavoured blend delights with the classic vanilla flavour combined with sweet biscuit, candied and cereal notes coming from its delicate arabica base.</t>
+          <t>An exceptionally smooth double espresso that gets its sweetness and malty toasted cereal notes from a fine blend of Arabica and Robusta. Pairs perfectly with milk.</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
@@ -14377,29 +14387,37 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr">
         <is>
-          <t>We have made name changes to our Barista Creations flavoured range for Vertuo to better reflect the various changes made, from the recipe to the flavouring extracts and recommended cup size.Tuck into Barista Creations Flavoured Sweet Vanilla - the dreamy taste of vanilla dances through delicious coffee. When we add vanilla flavour to our light-roasted Arabicas from Latin America and Africa, you’ll discover much more in the cup. It takes on a swirl of flavours. Notes of caramel and vanilla cake are all the excuse you need to pause and enjoy a little me-time. Just for you or to share with loved ones. Insider tip: A dash of milk highlights the vanilla flavour all the more.</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
+          <t>The masterful blending and split roasting of different Arabica and Robusta beans is the secret behind this mild and smooth double espresso. Latin American Arabicas deliver that delicious malty toasted cereal note that sings above this beautifully balanced cup.</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Double Espresso Dolce is created by combining Latin American Arabicas and Ugandan Robustas.</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>A batch of Arabicas are roasted light and short, while another combination of Arabica and Robusta get a slightly longer and darker roast.</t>
+        </is>
+      </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>10 capsules of roast and ground coffee for the Nespresso system. Vanilla flavour with other natural flavours.</t>
+          <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>Roast and ground coffee, natural flavour.</t>
+          <t>Roast and ground coffee.</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>125 g - 4.40 oz for 10 capsules</t>
+          <t>95 g - 3.35 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>Sweet Vanilla</t>
+          <t>Double Espresso Dolce</t>
         </is>
       </c>
       <c r="AC79" t="n">
@@ -14422,12 +14440,12 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AH79" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="AI79" t="inlineStr">
@@ -14452,44 +14470,44 @@
       </c>
       <c r="AM79" t="inlineStr">
         <is>
-          <t>Charts/VL35_Sweet Vanilla_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL32_Double Espresso Dolce_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>vertuo current barista creations ml coffee cappucino latte macchiato vanilla flavoured 126 vanilla flavoured flavoured blend delights classic vanilla flavour combined sweet biscuit candied cereal notes coming delicate arabica base 10 10 20 20 made name changes barista creations flavoured range vertuo good reflect various changes made recipe flavouring extracts recommended cup sizetuck barista creations flavoured sweet vanilla dreamy taste vanilla dances delicious coffee add vanilla flavour lightroasted arabicas latin america africa discover much cup takes swirl flavours notes caramel vanilla cake excuse need pause enjoy little metime share loved ones insider tip dash milk highlights vanilla flavour capsules roast ground coffee nespresso system vanilla flavour natural flavours roast ground coffee natural flavour g 440 oz capsules sweet vanilla 50 medium low low low low medium medium medium medium</t>
+          <t>vertuo current espresso ml double espresso cereal malted 50 110 cereal exceptionally smooth double espresso gets sweetness malty toasted cereal notes fine blend arabica robusta pairs perfectly milk 20 20 30 50 masterful blending split roasting different arabica robusta beans secret behind mild smooth double espresso latin american arabicas deliver delicious malty toasted cereal note sings beautifully balanced cup double espresso dolce created combining latin american arabicas ugandan robustas batch arabicas roasted light short another combination arabica robusta get slightly long dark roast capsules roast ground coffee nespresso system roast ground coffee g 335 oz capsules double espresso dolce 50 medium low low medium high medium medium medium medium</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
         <is>
-          <t>Charts/VL35_Sweet Vanilla_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL32_Double Espresso Dolce_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP79" t="inlineStr">
         <is>
-          <t>Charts/VL35_Sweet Vanilla_Vertuo Feature Results.png</t>
+          <t>Charts/VL32_Double Espresso Dolce_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>VL36</t>
+          <t>VL33</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Rich Chocolate</t>
+          <t>Roasted Hazelnut</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Images/VL36_Rich Chocolate_Vertuo_Capsule.png</t>
+          <t>Images/VL33_Roasted Hazelnut_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Images/VL36_Rich Chocolate_Vertuo_Sleeve.png</t>
+          <t>Images/VL33_Roasted Hazelnut_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -14514,7 +14532,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Dark Chocolate Flavoured</t>
+          <t>Hazelnut Flavoured</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -14523,12 +14541,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Chocolate &amp; Flavoured</t>
+          <t>Hazelnut &amp; Flavoured</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>This flavoured blend delights with its elegant dark chocolate flavour, complemented by notes of caramel, almond and cereal.</t>
+          <t>This flavoured blend delights with its classic grilled hazelnut flavour, complemented by notes of biscuits and caramel.</t>
         </is>
       </c>
       <c r="N80" t="n">
@@ -14541,7 +14559,7 @@
         <v>2</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
@@ -14549,19 +14567,27 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Satisfy your chocolate craving with BARISTA CREATIONS FLAVOURED RICH CHOCOLATE. Our velvety-smooth blend of Latin American and African Arabicas meets an authentic chocolate flavour, inviting you to make an occasion of your coffee moment. Like all good dark chocolate—rich and complex—this coffee unfolds layers of flavour. The sweetness elevates it to dessert status. Insider tip: With a dash of milk, a rush of nuts and biscuit notes emerges to accompany the chocolate flavour.</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
+          <t>We have made name changes to our Barista Creations flavoured range for Vertuo to better reflect the various changes made, from the recipe to the flavouring extracts and recommended cup size. Bringing you the rich caramelized flavour of roasted hazelnuts in a coffee called for perfectly roasting some of our smoothest Arabica beans from Latin America and Africa. When this sweet, velvety blend with its delicate biscuit note meets the bittersweet complexity of the hazelnut flavour in Barista Creations Flavoured Roasted Hazelnut it’s all smiles. It makes a milky treat with a rush of grilled hazelnut, praline, and caramel biscuit notes.</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>This 100% Arabica blend is sourced from Brazil and Ethiopia and another Latin American Country.</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Latin American beans are roasted medium dark and quickly to develop sweetness. The other coffees are roasted a bit longer to develop a velvety texture.</t>
+        </is>
+      </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>10 capsules of flavoured roast and ground coffee for the Nespresso system.</t>
+          <t>10 capsules of artificially flavoured hazelnut roast and ground coffee for the Nespresso system.</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>Roast and ground coffee. Cocoa flavour with other natural flavours.</t>
+          <t>Roast and ground coffee.</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -14571,7 +14597,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>Rich Chocolate</t>
+          <t>Roasted Hazelnut</t>
         </is>
       </c>
       <c r="AC80" t="n">
@@ -14624,44 +14650,44 @@
       </c>
       <c r="AM80" t="inlineStr">
         <is>
-          <t>Charts/VL36_Rich Chocolate_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL33_Roasted Hazelnut_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>vertuo current barista creations ml coffee cappucino latte macchiato dark chocolate flavoured 126 chocolate flavoured flavoured blend delights elegant dark chocolate flavour complemented notes caramel almond cereal 10 10 20 20 satisfy chocolate craving barista creations flavoured rich chocolate velvetysmooth blend latin american african arabicas meets authentic chocolate flavour inviting make occasion coffee moment like good dark chocolaterich complexthis coffee unfolds layers flavour sweetness elevates dessert status insider tip dash milk rush nuts biscuit notes emerges accompany chocolate flavour capsules flavoured roast ground coffee nespresso system roast ground coffee cocoa flavour natural flavours g 440 oz capsules rich chocolate 50 medium low low low low medium medium medium medium</t>
+          <t>vertuo current barista creations ml coffee cappucino latte macchiato hazelnut flavoured 126 hazelnut flavoured flavoured blend delights classic grilled hazelnut flavour complemented notes biscuits caramel 10 10 20 00 made name changes barista creations flavoured range vertuo good reflect various changes made recipe flavouring extracts recommended cup size bringing rich caramelized flavour roasted hazelnuts coffee called perfectly roasting smooth arabica beans latin america africa sweet velvety blend delicate biscuit note meets bittersweet complexity hazelnut flavour barista creations flavoured roasted hazelnut smiles makes milky treat rush grilled hazelnut praline caramel biscuit notes arabica blend sourced brazil ethiopia another latin american country latin american beans roasted medium dark quickly develop sweetness coffees roasted bit long develop velvety texture capsules artificially flavoured hazelnut roast ground coffee nespresso system roast ground coffee g 440 oz capsules roasted hazelnut 50 medium low low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
         <is>
-          <t>Charts/VL36_Rich Chocolate_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL33_Roasted Hazelnut_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP80" t="inlineStr">
         <is>
-          <t>Charts/VL36_Rich Chocolate_Vertuo Feature Results.png</t>
+          <t>Charts/VL33_Roasted Hazelnut_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>VL37</t>
+          <t>VL34</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Bianco Piccolo</t>
+          <t>Golden Caramel</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Images/VL37_Bianco Piccolo_Vertuo_Capsule.png</t>
+          <t>Images/VL34_Golden Caramel_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Images/VL37_Bianco Piccolo_Vertuo_Sleeve.png</t>
+          <t>Images/VL34_Golden Caramel_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -14681,39 +14707,39 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>40 ml (Espresso) &amp; Milk Recipes</t>
+          <t>230 ml (Coffee), Cappucino and Latte Macchiato</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Sweet &amp; Smooth</t>
+          <t>Caramel Flavoured</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>9.9</v>
+        <v>12.6</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Smooth &amp; Sweet</t>
+          <t>Caramel &amp; Flavoured</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Soft and smooth, creamy texture, sweet, notes of caramel, nuts and biscuit. Especially crafted for your recipes with milk.</t>
+          <t>This flavoured blend delights with the classic caramel flavour combined with sweet biscuit notes.</t>
         </is>
       </c>
       <c r="N81" t="n">
         <v>1</v>
       </c>
       <c r="O81" t="n">
+        <v>1</v>
+      </c>
+      <c r="P81" t="n">
         <v>2</v>
       </c>
-      <c r="P81" t="n">
-        <v>3</v>
-      </c>
       <c r="Q81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
@@ -14721,41 +14747,33 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Intense yet smooth in taste, this espresso is specially designed for making cappuccinos, latte macchiatos or flat whites. An expertly crafted blend of Arabicas from China, Colombia, Brazil &amp; Ethiopia creates this world of rich roasted notes to land in harmony with the creamy sweetness of milk.</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>For this 100% Arabica blend, we sourced beans from a diversity of origins stretching from China to Colombia, and Brazil to Ethiopia.</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>Roasted in two splits : 1. Medium-dark for the majority of the coffee. 2. Light to very light to balance out the overall roast, aiming for the best combination to work well with milk.</t>
-        </is>
-      </c>
+          <t>We have made name changes to our Barista Creations flavoured range for Vertuo to better reflect the various changes made, from the recipe to the flavouring extracts and recommended cup size. Barista Creations Flavoured Golden Caramel brings the weekend mood any day. Into our sweet and velvety base blend of Latin American and African Arabicas comes the comforting caramel flavour. Its biscuity sweetness is an echo of the coffee blend itself, this one’s got layers of indulgence irresistibly inviting you to cozy up any time the moment calls for it. Insider Tip: With a dash of milk, the caramel and biscuit notes can’t be missed.</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
+          <t>10 capsules of artificially flavoured caramel roast and ground coffee for the Nespresso system.</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roast and ground coffee </t>
+          <t>Roast and ground coffee, artificial flavour</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>62 g - 2.19 oz for 10 capsules</t>
+          <t>125 g - 4.40 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>Bianco Piccolo</t>
+          <t>Golden Caramel</t>
         </is>
       </c>
       <c r="AC81" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD81" t="inlineStr">
         <is>
@@ -14774,12 +14792,12 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AH81" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AI81" t="inlineStr">
@@ -14804,44 +14822,44 @@
       </c>
       <c r="AM81" t="inlineStr">
         <is>
-          <t>Charts/VL37_Bianco Piccolo_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL34_Golden Caramel_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>vertuo current barista creations ml espresso milk recipes sweet smooth 99 smooth sweet soft smooth creamy texture sweet notes caramel nuts biscuit especially crafted recipes milk 10 20 30 30 intense yet smooth taste espresso specially designed making cappuccinos latte macchiatos flat whites expertly crafted blend arabicas china colombia brazil ethiopia creates world rich roasted notes land harmony creamy sweetness milk arabica blend sourced beans diversity origins stretching china colombia brazil ethiopia roasted two splits 1 mediumdark majority coffee 2 light light balance overall roast aiming best combination work well milk capsules roast ground coffee nespresso system roast ground coffee g 219 oz capsules bianco piccolo 70 medium low low medium medium medium medium medium medium</t>
+          <t>vertuo current barista creations ml coffee cappucino latte macchiato caramel flavoured 126 caramel flavoured flavoured blend delights classic caramel flavour combined sweet biscuit notes 10 10 20 20 made name changes barista creations flavoured range vertuo good reflect various changes made recipe flavouring extracts recommended cup size barista creations flavoured golden caramel brings weekend mood day sweet velvety base blend latin american african arabicas comes comforting caramel flavour biscuity sweetness echo coffee blend one got layers indulgence irresistibly inviting cozy time moment calls insider tip dash milk caramel biscuit notes missed capsules artificially flavoured caramel roast ground coffee nespresso system roast ground coffee artificial flavour g 440 oz capsules golden caramel 50 medium low low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
         <is>
-          <t>Charts/VL37_Bianco Piccolo_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL34_Golden Caramel_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP81" t="inlineStr">
         <is>
-          <t>Charts/VL37_Bianco Piccolo_Vertuo Feature Results.png</t>
+          <t>Charts/VL34_Golden Caramel_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>VL38</t>
+          <t>VL35</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Bianco Doppio</t>
+          <t>Sweet Vanilla</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Images/VL38_Bianco Doppio_Vertuo_Capsule.png</t>
+          <t>Images/VL35_Sweet Vanilla_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Images/VL38_Bianco Doppio_Vertuo_Sleeve.png</t>
+          <t>Images/VL35_Sweet Vanilla_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -14861,39 +14879,39 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>80 ml (Double Espresso) &amp; Milk Recipes</t>
+          <t>230 ml (Coffee), Cappucino and Latte Macchiato</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Sweet &amp; Milky</t>
+          <t>Vanilla Flavoured</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>11</v>
+        <v>12.6</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Sweet</t>
+          <t>Vanilla &amp; Flavoured</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>A smooth and caramelly light-roast Arabica blend crafted specifically for your larger milky coffees.</t>
+          <t>This flavoured blend delights with the classic vanilla flavour combined with sweet biscuit, candied and cereal notes coming from its delicate arabica base.</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
         <v>1</v>
       </c>
       <c r="P82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
@@ -14901,41 +14919,33 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr">
         <is>
-          <t>We crafted this coffee as the match for your longer milky treats. An aromatic blend of light roasted Arabicas from Kenya, Colombia and Nicaragua, our signature split roast develops delicious caramelly notes and a smooth texture in BIANCO DOPPIO for milk. It’s the coffee that pairs beautifully with milk in your larger cappuccinos and flat whites.</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>For this 100% Arabica blend, we sourced beans from a diversity of origins stretching from China to Colombia, and Brazil to Ethiopia.</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>The majority of the coffee goes on a very light first split, while the second split is pushed a bit further. A very clear and light roast overall.</t>
-        </is>
-      </c>
+          <t>We have made name changes to our Barista Creations flavoured range for Vertuo to better reflect the various changes made, from the recipe to the flavouring extracts and recommended cup size.Tuck into Barista Creations Flavoured Sweet Vanilla - the dreamy taste of vanilla dances through delicious coffee. When we add vanilla flavour to our light-roasted Arabicas from Latin America and Africa, you’ll discover much more in the cup. It takes on a swirl of flavours. Notes of caramel and vanilla cake are all the excuse you need to pause and enjoy a little me-time. Just for you or to share with loved ones. Insider tip: A dash of milk highlights the vanilla flavour all the more.</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
+          <t>10 capsules of roast and ground coffee for the Nespresso system. Vanilla flavour with other natural flavours.</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roast and ground coffee </t>
+          <t>Roast and ground coffee, natural flavour.</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>102 g - 3.59 oz for 10 capsules</t>
+          <t>125 g - 4.40 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>Bianco Doppio</t>
+          <t>Sweet Vanilla</t>
         </is>
       </c>
       <c r="AC82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD82" t="inlineStr">
         <is>
@@ -14959,7 +14969,7 @@
       </c>
       <c r="AH82" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AI82" t="inlineStr">
@@ -14984,44 +14994,44 @@
       </c>
       <c r="AM82" t="inlineStr">
         <is>
-          <t>Charts/VL38_Bianco Doppio_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL35_Sweet Vanilla_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>vertuo current barista creations ml double espresso milk recipes sweet milky 110 sweet smooth caramelly lightroast arabica blend crafted specifically large milky coffees 00 10 10 30 crafted coffee match long milky treats aromatic blend light roasted arabicas kenya colombia nicaragua signature split roast develops delicious caramelly notes smooth texture bianco doppio milk coffee pairs beautifully milk large cappuccinos flat whites arabica blend sourced beans diversity origins stretching china colombia brazil ethiopia majority coffee goes light first split second split pushed bit clear light roast overall capsules roast ground coffee nespresso system roast ground coffee g 359 oz capsules bianco doppio 60 medium low low low medium medium medium medium medium</t>
+          <t>vertuo current barista creations ml coffee cappucino latte macchiato vanilla flavoured 126 vanilla flavoured flavoured blend delights classic vanilla flavour combined sweet biscuit candied cereal notes coming delicate arabica base 10 10 20 20 made name changes barista creations flavoured range vertuo good reflect various changes made recipe flavouring extracts recommended cup sizetuck barista creations flavoured sweet vanilla dreamy taste vanilla dances delicious coffee add vanilla flavour lightroasted arabicas latin america africa discover much cup takes swirl flavours notes caramel vanilla cake excuse need pause enjoy little metime share loved ones insider tip dash milk highlights vanilla flavour capsules roast ground coffee nespresso system vanilla flavour natural flavours roast ground coffee natural flavour g 440 oz capsules sweet vanilla 50 medium low low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
         <is>
-          <t>Charts/VL38_Bianco Doppio_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL35_Sweet Vanilla_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP82" t="inlineStr">
         <is>
-          <t>Charts/VL38_Bianco Doppio_Vertuo Feature Results.png</t>
+          <t>Charts/VL35_Sweet Vanilla_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>VL39</t>
+          <t>VL36</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Bianco Forte</t>
+          <t>Rich Chocolate</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Images/VL39_Bianco Forte_Vertuo_Capsule.png</t>
+          <t>Images/VL36_Rich Chocolate_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Images/VL39_Bianco Forte_Vertuo_Sleeve.png</t>
+          <t>Images/VL36_Rich Chocolate_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -15046,7 +15056,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Intense &amp; Full-bodied</t>
+          <t>Dark Chocolate Flavoured</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -15055,53 +15065,45 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Balanced &amp; Intense</t>
+          <t>Chocolate &amp; Flavoured</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>A full-bodied, intense and dark-roasted coffee, rich in cereal notes. Especially crafted for your recipes, it remains powerful in combination with milk.</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="n">
+          <t>This flavoured blend delights with its elegant dark chocolate flavour, complemented by notes of caramel, almond and cereal.</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" t="n">
         <v>2</v>
       </c>
-      <c r="S83" t="n">
-        <v>3</v>
-      </c>
-      <c r="T83" t="n">
-        <v>3</v>
-      </c>
-      <c r="U83" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr">
         <is>
-          <t>A long cup coffee, big in powerful roasted notes. Add a generous dash of milk and you’ll find its sweetness sits in a dynamic balance with this carefully crafted blend of fine Colombian and Kenyan Arabicas. We give the beans a dark split roast to highlight the coffees' rich roasted and cereal notes.</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>This 100% Arabica blend combines coffees from Kenya, Colombia and Costa Rica.</t>
-        </is>
-      </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>One part of the blend gets a long and dark roast, while the second part is roasted a little faster and to a slightly lighter degree.</t>
-        </is>
-      </c>
+          <t>Satisfy your chocolate craving with BARISTA CREATIONS FLAVOURED RICH CHOCOLATE. Our velvety-smooth blend of Latin American and African Arabicas meets an authentic chocolate flavour, inviting you to make an occasion of your coffee moment. Like all good dark chocolate—rich and complex—this coffee unfolds layers of flavour. The sweetness elevates it to dessert status. Insider tip: With a dash of milk, a rush of nuts and biscuit notes emerges to accompany the chocolate flavour.</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
+          <t>10 capsules of flavoured roast and ground coffee for the Nespresso system.</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>Roast and ground coffee</t>
+          <t>Roast and ground coffee. Cocoa flavour with other natural flavours.</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -15111,11 +15113,11 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>Bianco Forte</t>
+          <t>Rich Chocolate</t>
         </is>
       </c>
       <c r="AC83" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD83" t="inlineStr">
         <is>
@@ -15124,27 +15126,27 @@
       </c>
       <c r="AE83" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF83" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AG83" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AH83" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AI83" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AJ83" t="inlineStr">
@@ -15164,44 +15166,44 @@
       </c>
       <c r="AM83" t="inlineStr">
         <is>
-          <t>Charts/VL39_Bianco Forte_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL36_Rich Chocolate_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>vertuo current barista creations ml coffee cappucino latte macchiato intense fullbodied 126 balanced intense fullbodied intense darkroasted coffee rich cereal notes especially crafted recipes remains powerful combination milk 20 30 30 30 long cup coffee big powerful roasted notes add generous dash milk find sweetness sits dynamic balance carefully crafted blend fine colombian kenyan arabicas give beans dark split roast highlight coffees rich roasted cereal notes arabica blend combines coffees kenya colombia costa rica one part blend gets long dark roast second part roasted little fast slightly light degree capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules bianco forte 70 medium medium medium medium medium low medium medium medium</t>
+          <t>vertuo current barista creations ml coffee cappucino latte macchiato dark chocolate flavoured 126 chocolate flavoured flavoured blend delights elegant dark chocolate flavour complemented notes caramel almond cereal 10 10 20 20 satisfy chocolate craving barista creations flavoured rich chocolate velvetysmooth blend latin american african arabicas meets authentic chocolate flavour inviting make occasion coffee moment like good dark chocolaterich complexthis coffee unfolds layers flavour sweetness elevates dessert status insider tip dash milk rush nuts biscuit notes emerges accompany chocolate flavour capsules flavoured roast ground coffee nespresso system roast ground coffee cocoa flavour natural flavours g 440 oz capsules rich chocolate 50 medium low low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
         <is>
-          <t>Charts/VL39_Bianco Forte_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL36_Rich Chocolate_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP83" t="inlineStr">
         <is>
-          <t>Charts/VL39_Bianco Forte_Vertuo Feature Results.png</t>
+          <t>Charts/VL36_Rich Chocolate_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>VL40</t>
+          <t>VL37</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ice Forte</t>
+          <t>Bianco Piccolo</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Images/VL40_Ice Forte_Vertuo_Capsule.png</t>
+          <t>Images/VL37_Bianco Piccolo_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Images/VL40_Ice Forte_Vertuo_Sleeve.png</t>
+          <t>Images/VL37_Bianco Piccolo_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -15221,49 +15223,57 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>230 ml (Coffee) &amp; Iced Recipe</t>
+          <t>40 ml (Espresso) &amp; Milk Recipes</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>For intense recipes with ice</t>
+          <t>Sweet &amp; Smooth</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>13.5</v>
+        <v>9.9</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Roasted &amp; Peppery Note</t>
+          <t>Smooth &amp; Sweet</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Barista Creations Ice Forte carries that distinct roasted character that’ll truly awaken your senses. Cereal, woody and peppery notes lace through the cup to deliver a rich iced coffee experience.</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
+          <t>Soft and smooth, creamy texture, sweet, notes of caramel, nuts and biscuit. Especially crafted for your recipes with milk.</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="n">
+        <v>2</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Why we love it: Enjoy the intense taste of Barista Creations ICE FORTE in a refreshing coffee over ice. South American Arabicas mix with the Indonesian and Ethiopian Arabicas to offer an impactful aromatic experience. Dark roasted and ground specifically for a delicious coffee over ice. Best served as: 1 coffee capsule (230 ml) over a cup full of ice cubes (230 g). To prolong the pleasure, top it up with cold water or cold milk (180 ml).</t>
+          <t>Intense yet smooth in taste, this espresso is specially designed for making cappuccinos, latte macchiatos or flat whites. An expertly crafted blend of Arabicas from China, Colombia, Brazil &amp; Ethiopia creates this world of rich roasted notes to land in harmony with the creamy sweetness of milk.</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>This 100% Arabica blend is made mostly with a combination of Colombian, Indonesian and Ethiopian beans.</t>
+          <t>For this 100% Arabica blend, we sourced beans from a diversity of origins stretching from China to Colombia, and Brazil to Ethiopia.</t>
         </is>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>Part of this blend gets a medium roast to keep the flavour complexity intact. The other part gets a longer and darker roast to delivers intensity and a bold body.</t>
+          <t>Roasted in two splits : 1. Medium-dark for the majority of the coffee. 2. Light to very light to balance out the overall roast, aiming for the best combination to work well with milk.</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -15273,17 +15283,17 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>Roast and ground coffee</t>
+          <t xml:space="preserve">Roast and ground coffee </t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>125 g - 4.40 oz for 10 capsules</t>
+          <t>62 g - 2.19 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>Ice Forte</t>
+          <t>Bianco Piccolo</t>
         </is>
       </c>
       <c r="AC84" t="n">
@@ -15296,12 +15306,12 @@
       </c>
       <c r="AE84" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF84" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AG84" t="inlineStr">
@@ -15336,44 +15346,44 @@
       </c>
       <c r="AM84" t="inlineStr">
         <is>
-          <t>Charts/VL40_Ice Forte_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL37_Bianco Piccolo_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>vertuo current barista creations ml coffee iced recipe intense recipes ice 135 roasted peppery note barista creations ice forte carries distinct roasted character truly awaken senses cereal woody peppery notes lace cup deliver rich iced coffee experience love enjoy intense taste barista creations ice forte refreshing coffee ice south american arabicas mix indonesian ethiopian arabicas offer impactful aromatic experience dark roasted ground specifically delicious coffee ice best served coffee capsule ml cup full ice cubes g prolong pleasure top cold water cold milk ml arabica blend made mostly combination colombian indonesian ethiopian beans part blend gets medium roast keep flavour complexity intact part gets long dark roast delivers intensity bold body capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules ice forte 70 medium medium medium medium medium medium medium medium medium</t>
+          <t>vertuo current barista creations ml espresso milk recipes sweet smooth 99 smooth sweet soft smooth creamy texture sweet notes caramel nuts biscuit especially crafted recipes milk 10 20 30 30 intense yet smooth taste espresso specially designed making cappuccinos latte macchiatos flat whites expertly crafted blend arabicas china colombia brazil ethiopia creates world rich roasted notes land harmony creamy sweetness milk arabica blend sourced beans diversity origins stretching china colombia brazil ethiopia roasted two splits 1 mediumdark majority coffee 2 light light balance overall roast aiming best combination work well milk capsules roast ground coffee nespresso system roast ground coffee g 219 oz capsules bianco piccolo 70 medium low low medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
         <is>
-          <t>Charts/VL40_Ice Forte_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL37_Bianco Piccolo_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP84" t="inlineStr">
         <is>
-          <t>Charts/VL40_Ice Forte_Vertuo Feature Results.png</t>
+          <t>Charts/VL37_Bianco Piccolo_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>VL41</t>
+          <t>VL38</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ice Leggero</t>
+          <t>Bianco Doppio</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Images/VL41_Ice Leggero_Vertuo_Capsule.png</t>
+          <t>Images/VL38_Bianco Doppio_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Images/VL41_Ice Leggero_Vertuo_Sleeve.png</t>
+          <t>Images/VL38_Bianco Doppio_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -15393,73 +15403,81 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>80 ml (Double Espresso)</t>
+          <t>80 ml (Double Espresso) &amp; Milk Recipes</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>For mild recipes with ice</t>
+          <t>Sweet &amp; Milky</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Cereal</t>
+          <t>Sweet</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Chill out with the light and thirst-quenching fruitiness of this refreshing iced coffee experience, paired with a rounded cereal note.</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
+          <t>A smooth and caramelly light-roast Arabica blend crafted specifically for your larger milky coffees.</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Why we love it: Enjoy the delicate fruity and cereal notes of Barista Creations Ice Leggero. The elegant flavours of the Ethiopian Arabica in this blend refresh you like the most gentle summer breeze when you pour it over ice. We roast it lightly and grind it specifically to deliver that cool, delicate taste to your palate. Best served as: 1 coffee capsule (80 ml) over a cup full of ice cubes (180 g). To prolong the pleasure, top it up with cold water or cold milk (180 ml).</t>
+          <t>We crafted this coffee as the match for your longer milky treats. An aromatic blend of light roasted Arabicas from Kenya, Colombia and Nicaragua, our signature split roast develops delicious caramelly notes and a smooth texture in BIANCO DOPPIO for milk. It’s the coffee that pairs beautifully with milk in your larger cappuccinos and flat whites.</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>This 100% Arabica blend gets its coffee mostly from Ethiopia and Indonesia.</t>
+          <t>For this 100% Arabica blend, we sourced beans from a diversity of origins stretching from China to Colombia, and Brazil to Ethiopia.</t>
         </is>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>The first part of this blend gets a light and short roast to enhance the floral notes typical of Ethiopian Arabica. The second gets a medium roast to bring balance and roundness to the cup.</t>
+          <t>The majority of the coffee goes on a very light first split, while the second split is pushed a bit further. A very clear and light roast overall.</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>10 capsules of flavoured roast and ground coffee for the Nespresso system.</t>
+          <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>Roast and ground coffee</t>
+          <t xml:space="preserve">Roast and ground coffee </t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>100 g - 3.52 oz for 10 capsules</t>
+          <t>102 g - 3.59 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>Ice Leggero</t>
+          <t>Bianco Doppio</t>
         </is>
       </c>
       <c r="AC85" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD85" t="inlineStr">
         <is>
@@ -15468,17 +15486,17 @@
       </c>
       <c r="AE85" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF85" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AG85" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AH85" t="inlineStr">
@@ -15508,44 +15526,44 @@
       </c>
       <c r="AM85" t="inlineStr">
         <is>
-          <t>Charts/VL41_Ice Leggero_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL38_Bianco Doppio_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>vertuo current barista creations ml double espresso mild recipes ice 115 cereal chill light thirstquenching fruitiness refreshing iced coffee experience paired rounded cereal note love enjoy delicate fruity cereal notes barista creations ice leggero elegant flavours ethiopian arabica blend refresh like gentle summer breeze pour ice roast lightly grind specifically deliver cool delicate taste palate best served coffee capsule ml cup full ice cubes g prolong pleasure top cold water cold milk ml arabica blend gets coffee mostly ethiopia indonesia first part blend gets light short roast enhance floral notes typical ethiopian arabica second gets medium roast bring balance roundness cup capsules flavoured roast ground coffee nespresso system roast ground coffee g 352 oz capsules ice leggero 50 medium medium medium medium medium medium medium medium medium</t>
+          <t>vertuo current barista creations ml double espresso milk recipes sweet milky 110 sweet smooth caramelly lightroast arabica blend crafted specifically large milky coffees 00 10 10 30 crafted coffee match long milky treats aromatic blend light roasted arabicas kenya colombia nicaragua signature split roast develops delicious caramelly notes smooth texture bianco doppio milk coffee pairs beautifully milk large cappuccinos flat whites arabica blend sourced beans diversity origins stretching china colombia brazil ethiopia majority coffee goes light first split second split pushed bit clear light roast overall capsules roast ground coffee nespresso system roast ground coffee g 359 oz capsules bianco doppio 60 medium low low low medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
         <is>
-          <t>Charts/VL41_Ice Leggero_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL38_Bianco Doppio_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP85" t="inlineStr">
         <is>
-          <t>Charts/VL41_Ice Leggero_Vertuo Feature Results.png</t>
+          <t>Charts/VL38_Bianco Doppio_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>VL42</t>
+          <t>VL39</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Vivida</t>
+          <t>Bianco Forte</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Images/VL42_Vivida_Vertuo_Capsule.png</t>
+          <t>Images/VL39_Bianco Forte_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Images/VL42_Vivida_Vertuo_Sleeve.png</t>
+          <t>Images/VL39_Bianco Forte_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -15560,64 +15578,72 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Long Coffee</t>
+          <t>Barista Creations</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>230 ml (Coffee)</t>
+          <t>230 ml (Coffee), Cappucino and Latte Macchiato</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Toasted cereal, biscuity notes, vitamin B12</t>
+          <t>Intense &amp; Full-bodied</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>15</v>
+        <v>12.6</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Cereal &amp; Biscuity</t>
+          <t>Balanced &amp; Intense</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>A smooth, round coffee with a classic cereal note and honeyed sweetness. Find the same notes you love and the same great taste as in Melozio in Vivida coffee. Savour Vivida anytime of day, hot or cold, black or with milk. Customize your coffee experience to match your preferences.</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>1</v>
-      </c>
-      <c r="O86" t="n">
+          <t>A full-bodied, intense and dark-roasted coffee, rich in cereal notes. Especially crafted for your recipes, it remains powerful in combination with milk.</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="n">
         <v>2</v>
       </c>
-      <c r="P86" t="n">
+      <c r="S86" t="n">
         <v>3</v>
       </c>
-      <c r="Q86" t="n">
+      <c r="T86" t="n">
         <v>3</v>
       </c>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Vivida invites you to a coffee ritual for your wellbeing, where the smooth taste of fine Latin American Arabicas meets the benefits of vitamin B12. *Vitamin B12 contributes to the normal functioning of the immune system. Complemented by the blend’s Brazilian Arabica’s luxurious sweet cereal note, Vivida is your treat for a great day. With Vitamin B12 to support your immune health. Each capsule of Vivida gives you 35% of your recommended daily value. Enjoy as part of a varied and balanced diet.</t>
-        </is>
-      </c>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
+          <t>A long cup coffee, big in powerful roasted notes. Add a generous dash of milk and you’ll find its sweetness sits in a dynamic balance with this carefully crafted blend of fine Colombian and Kenyan Arabicas. We give the beans a dark split roast to highlight the coffees' rich roasted and cereal notes.</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>This 100% Arabica blend combines coffees from Kenya, Colombia and Costa Rica.</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>One part of the blend gets a long and dark roast, while the second part is roasted a little faster and to a slightly lighter degree.</t>
+        </is>
+      </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>10 capsules of flavoured roast and ground coffee with vitamin B12 for the Nespresso system.</t>
+          <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>Roast and ground coffee, natural flavours</t>
+          <t>Roast and ground coffee</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -15627,11 +15653,11 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>Vivida</t>
+          <t>Bianco Forte</t>
         </is>
       </c>
       <c r="AC86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD86" t="inlineStr">
         <is>
@@ -15640,29 +15666,29 @@
       </c>
       <c r="AE86" t="inlineStr">
         <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG86" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AH86" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AI86" t="inlineStr">
+        <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="AF86" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="AG86" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="AH86" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="AI86" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
       <c r="AJ86" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -15680,44 +15706,44 @@
       </c>
       <c r="AM86" t="inlineStr">
         <is>
-          <t>Charts/VL42_Vivida_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL39_Bianco Forte_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>vertuo current long coffee ml coffee toasted cereal biscuity notes vitamin b12 150 cereal biscuity smooth round coffee classic cereal note honeyed sweetness find notes love great taste melozio vivida coffee savour vivida anytime day hot cold black milk customize coffee experience match preferences 10 20 30 30 vivida invites coffee ritual wellbeing smooth taste fine latin american arabicas meets benefits vitamin b12 vitamin b12 contributes normal functioning immune system complemented blend brazilian arabica luxurious sweet cereal note vivida treat great day vitamin b12 support immune health capsule vivida gives recommended daily value enjoy part varied balanced diet capsules flavoured roast ground coffee vitamin b12 nespresso system roast ground coffee natural flavours g 440 oz capsules vivida 60 medium low low medium medium medium medium medium medium</t>
+          <t>vertuo current barista creations ml coffee cappucino latte macchiato intense fullbodied 126 balanced intense fullbodied intense darkroasted coffee rich cereal notes especially crafted recipes remains powerful combination milk 20 30 30 30 long cup coffee big powerful roasted notes add generous dash milk find sweetness sits dynamic balance carefully crafted blend fine colombian kenyan arabicas give beans dark split roast highlight coffees rich roasted cereal notes arabica blend combines coffees kenya colombia costa rica one part blend gets long dark roast second part roasted little fast slightly light degree capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules bianco forte 70 medium medium medium medium medium low medium medium medium</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
         <is>
-          <t>Charts/VL42_Vivida_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL39_Bianco Forte_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP86" t="inlineStr">
         <is>
-          <t>Charts/VL42_Vivida_Vertuo Feature Results.png</t>
+          <t>Charts/VL39_Bianco Forte_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>VL43</t>
+          <t>VL40</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ristretto Classico</t>
+          <t>Ice Forte</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Images/VL43_Ristretto Classico_Vertuo_Capsule.png</t>
+          <t>Images/VL40_Ice Forte_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Images/VL43_Ristretto Classico_Vertuo_Sleeve.png</t>
+          <t>Images/VL40_Ice Forte_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -15727,74 +15753,64 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Current (Online Exclusive)</t>
+          <t>Current</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Espresso</t>
+          <t>Barista Creations</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>25 ml (Ristretto)</t>
+          <t>230 ml (Coffee) &amp; Iced Recipe</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Intensely roasted &amp; berry</t>
-        </is>
-      </c>
-      <c r="J87" t="n">
-        <v>9</v>
-      </c>
+          <t>For intense recipes with ice</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>8.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Berry, Cocoa &amp; Intense</t>
+          <t>Roasted &amp; Peppery Note</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>An intense coffee that strikes an elegant balance between roasty and fruity aromas, outlined by a distinctive roasted cocoa note.</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>3</v>
-      </c>
-      <c r="O87" t="n">
-        <v>4</v>
-      </c>
-      <c r="P87" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>3</v>
-      </c>
+          <t>Barista Creations Ice Forte carries that distinct roasted character that’ll truly awaken your senses. Cereal, woody and peppery notes lace through the cup to deliver a rich iced coffee experience.</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Ristretto Classico is an intricate all-Arabica blend of beans from Honduras, El Salvador, and Guatemala that get a dark roast to make this short shot a contender. A classic ristretto experience, the roasted and fruity notes have it punching above its weight as it delivers lingering notes of roasted cocoa.</t>
+          <t>Why we love it: Enjoy the intense taste of Barista Creations ICE FORTE in a refreshing coffee over ice. South American Arabicas mix with the Indonesian and Ethiopian Arabicas to offer an impactful aromatic experience. Dark roasted and ground specifically for a delicious coffee over ice. Best served as: 1 coffee capsule (230 ml) over a cup full of ice cubes (230 g). To prolong the pleasure, top it up with cold water or cold milk (180 ml).</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>Ristretto Classico is crafted using a blend of top-grade, fully washed Arabicas from Honduras, El Salvador, and Guatemala.</t>
+          <t>This 100% Arabica blend is made mostly with a combination of Colombian, Indonesian and Ethiopian beans.</t>
         </is>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>This coffee is roasted in a single batch, inspired by traditional ristretto recipes. A short yet dark roast allows it to develop intensity while preserving some fruitiness.</t>
+          <t>Part of this blend gets a medium roast to keep the flavour complexity intact. The other part gets a longer and darker roast to delivers intensity and a bold body.</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>10 capsules of roast and ground coffee</t>
+          <t>10 capsules of roast and ground coffee for the Nespresso system.</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
@@ -15804,20 +15820,20 @@
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>70 g - 2.46 oz for 10 capsules</t>
+          <t>125 g - 4.40 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>Ristretto Classico</t>
+          <t>Ice Forte</t>
         </is>
       </c>
       <c r="AC87" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD87" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AE87" t="inlineStr">
@@ -15827,12 +15843,12 @@
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AG87" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AH87" t="inlineStr">
@@ -15862,44 +15878,44 @@
       </c>
       <c r="AM87" t="inlineStr">
         <is>
-          <t>Charts/VL43_Ristretto Classico_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL40_Ice Forte_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>vertuo current online exclusive espresso ml ristretto intensely roasted berry 90 88 berry cocoa intense intense coffee strikes elegant balance roasty fruity aromas outlined distinctive roasted cocoa note 30 40 40 30 ristretto classico intricate allarabica blend beans honduras el salvador guatemala get dark roast make short shot contender classic ristretto experience roasted fruity notes punching weight delivers lingering notes roasted cocoa ristretto classico crafted using blend topgrade fully washed arabicas honduras el salvador guatemala coffee roasted single batch inspired traditional ristretto recipes short yet dark roast allows develop intensity preserving fruitiness capsules roast ground coffee roast ground coffee g 246 oz capsules ristretto classico 90 dark medium high high medium medium medium medium medium</t>
+          <t>vertuo current barista creations ml coffee iced recipe intense recipes ice 135 roasted peppery note barista creations ice forte carries distinct roasted character truly awaken senses cereal woody peppery notes lace cup deliver rich iced coffee experience love enjoy intense taste barista creations ice forte refreshing coffee ice south american arabicas mix indonesian ethiopian arabicas offer impactful aromatic experience dark roasted ground specifically delicious coffee ice best served coffee capsule ml cup full ice cubes g prolong pleasure top cold water cold milk ml arabica blend made mostly combination colombian indonesian ethiopian beans part blend gets medium roast keep flavour complexity intact part gets long dark roast delivers intensity bold body capsules roast ground coffee nespresso system roast ground coffee g 440 oz capsules ice forte 70 medium medium medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
         <is>
-          <t>Charts/VL43_Ristretto Classico_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL40_Ice Forte_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP87" t="inlineStr">
         <is>
-          <t>Charts/VL43_Ristretto Classico_Vertuo Feature Results.png</t>
+          <t>Charts/VL40_Ice Forte_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>VL44</t>
+          <t>VL41</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Infinitely Gourmet</t>
+          <t>Ice Leggero</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Images/VL44_Infinitely Gourmet_Vertuo_Capsule.png</t>
+          <t>Images/VL41_Ice Leggero_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Images/VL44_Infinitely Gourmet_Vertuo_Sleeve.png</t>
+          <t>Images/VL41_Ice Leggero_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -15909,7 +15925,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>Current</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -15919,73 +15935,69 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>230 ml (Coffee)</t>
+          <t>80 ml (Double Espresso)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Hazelnut flavoured coffee</t>
+          <t>For mild recipes with ice</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Hazelnut</t>
+          <t>Cereal</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Elegant roasted hazelnut flavour brings the artistry of fine patisserie to this smooth flavoured coffee.</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>2</v>
-      </c>
-      <c r="O88" t="n">
-        <v>3</v>
-      </c>
-      <c r="P88" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>3</v>
-      </c>
+          <t>Chill out with the light and thirst-quenching fruitiness of this refreshing iced coffee experience, paired with a rounded cereal note.</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr">
         <is>
-          <t>The elegance of the roasted hazelnut flavour—with its sweet top notes of praline and delicate vanilla—finds creative expression in Infinitely Gourmet. We bring together cereal-noted Arabicas from Latin America and Africa and give the blend a bespoke roast. It’s into this smooth coffee that the delicious hazelnut flavour comes to craft a combination of tastes and aromas reminiscent of the finest patisserie chef’s creations. Add a dash of milk to make this your creamy coffee treat.</t>
+          <t>Why we love it: Enjoy the delicate fruity and cereal notes of Barista Creations Ice Leggero. The elegant flavours of the Ethiopian Arabica in this blend refresh you like the most gentle summer breeze when you pour it over ice. We roast it lightly and grind it specifically to deliver that cool, delicate taste to your palate. Best served as: 1 coffee capsule (80 ml) over a cup full of ice cubes (180 g). To prolong the pleasure, top it up with cold water or cold milk (180 ml).</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>Co-created with the avant-garde French pastry chef Pierre Hermé for our Festive 2022 collection, this bold and delicious collection combines exceptional patisserie know-how and the art of elevating coffee. Indulge in these delicious flavours once again, available for a limited time!</t>
-        </is>
-      </c>
-      <c r="X88" t="inlineStr"/>
+          <t>This 100% Arabica blend gets its coffee mostly from Ethiopia and Indonesia.</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>The first part of this blend gets a light and short roast to enhance the floral notes typical of Ethiopian Arabica. The second gets a medium roast to bring balance and roundness to the cup.</t>
+        </is>
+      </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>10 capsules of artificially flavoured hazelnut roast and ground coffee</t>
+          <t>10 capsules of flavoured roast and ground coffee for the Nespresso system.</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>Roast and ground coffee, artificial flavours.</t>
+          <t>Roast and ground coffee</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>125 g – 4.40oz for 10 capsules</t>
+          <t>100 g - 3.52 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>Infinitely Gourmet</t>
+          <t>Ice Leggero</t>
         </is>
       </c>
       <c r="AC88" t="n">
@@ -15998,7 +16010,7 @@
       </c>
       <c r="AE88" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AF88" t="inlineStr">
@@ -16038,44 +16050,44 @@
       </c>
       <c r="AM88" t="inlineStr">
         <is>
-          <t>Charts/VL44_Infinitely Gourmet_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL41_Ice Leggero_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN88" t="inlineStr">
         <is>
-          <t>vertuo limited barista creations ml coffee hazelnut flavoured coffee 150 hazelnut elegant roasted hazelnut flavour brings artistry fine patisserie smooth flavoured coffee 20 30 30 30 elegance roasted hazelnut flavourwith sweet top notes praline delicate vanillafinds creative expression infinitely gourmet bring together cerealnoted arabicas latin america africa give blend bespoke roast smooth coffee delicious hazelnut flavour comes craft combination tastes aromas reminiscent fine patisserie chef creations add dash milk make creamy coffee treat cocreated avantgarde french pastry chef pierre hermé festive collection bold delicious collection combines exceptional patisserie knowhow art elevating coffee indulge delicious flavours available limited time capsules artificially flavoured hazelnut roast ground coffee roast ground coffee artificial flavours g 440oz capsules infinitely gourmet 50 medium low medium medium medium medium medium medium medium</t>
+          <t>vertuo current barista creations ml double espresso mild recipes ice 115 cereal chill light thirstquenching fruitiness refreshing iced coffee experience paired rounded cereal note love enjoy delicate fruity cereal notes barista creations ice leggero elegant flavours ethiopian arabica blend refresh like gentle summer breeze pour ice roast lightly grind specifically deliver cool delicate taste palate best served coffee capsule ml cup full ice cubes g prolong pleasure top cold water cold milk ml arabica blend gets coffee mostly ethiopia indonesia first part blend gets light short roast enhance floral notes typical ethiopian arabica second gets medium roast bring balance roundness cup capsules flavoured roast ground coffee nespresso system roast ground coffee g 352 oz capsules ice leggero 50 medium medium medium medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO88" t="inlineStr">
         <is>
-          <t>Charts/VL44_Infinitely Gourmet_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL41_Ice Leggero_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP88" t="inlineStr">
         <is>
-          <t>Charts/VL44_Infinitely Gourmet_Vertuo Feature Results.png</t>
+          <t>Charts/VL41_Ice Leggero_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>VL45</t>
+          <t>VL42</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sunny Almond Vanilla Over Ice</t>
+          <t>Vivida</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Images/VL45_Sunny Almond Vanilla Over Ice_Vertuo_Capsule.png</t>
+          <t>Images/VL42_Vivida_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Images/VL45_Sunny Almond Vanilla Over Ice_Vertuo_Sleeve.png</t>
+          <t>Images/VL42_Vivida_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -16085,83 +16097,83 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>Current</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Summer Coffees</t>
+          <t>Long Coffee</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>80 ml (Double Espresso), Iced Recipe</t>
+          <t>230 ml (Coffee)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Almond and vanilla flavoured</t>
+          <t>Toasted cereal, biscuity notes, vitamin B12</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Almond, Vanilla</t>
+          <t>Cereal &amp; Biscuity</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>A refreshing, thirst-quenching iced coffee with delicious almond and vanilla notes, reminiscent of amaretti and vanilla custard.</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
+          <t>A smooth, round coffee with a classic cereal note and honeyed sweetness. Find the same notes you love and the same great taste as in Melozio in Vivida coffee. Savour Vivida anytime of day, hot or cold, black or with milk. Customize your coffee experience to match your preferences.</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+      <c r="O89" t="n">
+        <v>2</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr">
         <is>
-          <t>The smooth and refreshing taste of Sunny Almond Vanilla Over Ice has us cruising into a Mediterranean summer. Our light-roast blend of Arabicas anchors the season’s sun-kissed flavour in a coffee made for ice. Crafted by Nespresso, this one brings shades of sunny almond and a glow of sweet vanilla to your summer. Best served as : 1 coffee capsule (80 ml) over a cup full of ice cubes (180 gr). To extend the treat, top it up with cold water or cold milk (180 ml).​</t>
-        </is>
-      </c>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>This 100% Arabica blend gets its coffee mostly from Ethiopia and Indonesia.</t>
-        </is>
-      </c>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>The first part of this blend gets a light and short to enhance the delicate notes typical of Ethiopian Arabica. The second gets a medium roast to bring balance and roundness to the cup.</t>
-        </is>
-      </c>
+          <t>Vivida invites you to a coffee ritual for your wellbeing, where the smooth taste of fine Latin American Arabicas meets the benefits of vitamin B12. *Vitamin B12 contributes to the normal functioning of the immune system. Complemented by the blend’s Brazilian Arabica’s luxurious sweet cereal note, Vivida is your treat for a great day. With Vitamin B12 to support your immune health. Each capsule of Vivida gives you 35% of your recommended daily value. Enjoy as part of a varied and balanced diet.</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>10 capsules of roast and ground coffee</t>
+          <t>10 capsules of flavoured roast and ground coffee with vitamin B12 for the Nespresso system.</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>Roast and ground coffee</t>
+          <t>Roast and ground coffee, natural flavours</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>100 g - 3.53 oz for 10 capsules</t>
+          <t>125 g - 4.40 oz for 10 capsules</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>Sunny Almond Vanilla Over Ice</t>
+          <t>Vivida</t>
         </is>
       </c>
       <c r="AC89" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD89" t="inlineStr">
         <is>
@@ -16170,12 +16182,12 @@
       </c>
       <c r="AE89" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AF89" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="AG89" t="inlineStr">
@@ -16210,44 +16222,44 @@
       </c>
       <c r="AM89" t="inlineStr">
         <is>
-          <t>Charts/VL45_Sunny Almond Vanilla Over Ice_Vertuo_Taste Profile.png</t>
+          <t>Charts/VL42_Vivida_Vertuo_Taste Profile.png</t>
         </is>
       </c>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>vertuo limited summer coffees ml double espresso iced recipe almond vanilla flavoured 135 almond vanilla refreshing thirstquenching iced coffee delicious almond vanilla notes reminiscent amaretti vanilla custard smooth refreshing taste sunny almond vanilla ice us cruising mediterranean summer lightroast blend arabicas anchors season sunkissed flavour coffee made ice crafted nespresso one brings shades sunny almond glow sweet vanilla summer best served coffee capsule ml cup full ice cubes gr extend treat top cold water cold milk ml arabica blend gets coffee mostly ethiopia indonesia first part blend gets light short enhance delicate notes typical ethiopian arabica second gets medium roast bring balance roundness cup capsules roast ground coffee roast ground coffee g 353 oz capsules sunny almond vanilla ice 50 medium medium medium medium medium medium medium medium medium</t>
+          <t>vertuo current long coffee ml coffee toasted cereal biscuity notes vitamin b12 150 cereal biscuity smooth round coffee classic cereal note honeyed sweetness find notes love great taste melozio vivida coffee savour vivida anytime day hot cold black milk customize coffee experience match preferences 10 20 30 30 vivida invites coffee ritual wellbeing smooth taste fine latin american arabicas meets benefits vitamin b12 vitamin b12 contributes normal functioning immune system complemented blend brazilian arabica luxurious sweet cereal note vivida treat great day vitamin b12 support immune health capsule vivida gives recommended daily value enjoy part varied balanced diet capsules flavoured roast ground coffee vitamin b12 nespresso system roast ground coffee natural flavours g 440 oz capsules vivida 60 medium low low medium medium medium medium medium medium</t>
         </is>
       </c>
       <c r="AO89" t="inlineStr">
         <is>
-          <t>Charts/VL45_Sunny Almond Vanilla Over Ice_Vertuo_Word Cloud.png</t>
+          <t>Charts/VL42_Vivida_Vertuo_Word Cloud.png</t>
         </is>
       </c>
       <c r="AP89" t="inlineStr">
         <is>
-          <t>Charts/VL45_Sunny Almond Vanilla Over Ice_Vertuo Feature Results.png</t>
+          <t>Charts/VL42_Vivida_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>VL46</t>
+          <t>VL43</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Tropical Coconut Flavour Over Ice</t>
+          <t>Ristretto Classico</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Images/VL46_Tropical Coconut Flavour Over Ice_Vertuo_Capsule.png</t>
+          <t>Images/VL43_Ristretto Classico_Vertuo_Capsule.png</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Images/VL46_Tropical Coconut Flavour Over Ice_Vertuo_Sleeve.png</t>
+          <t>Images/VL43_Ristretto Classico_Vertuo_Sleeve.png</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -16257,147 +16269,1400 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>Current (Online Exclusive)</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Summer Coffees</t>
+          <t>Espresso</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>230 ml (Coffee), Ice Recipe</t>
+          <t>25 ml (Ristretto)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Coconut and Vanilla Flavours</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr"/>
+          <t>Intensely roasted &amp; berry</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>9</v>
+      </c>
       <c r="K90" t="n">
-        <v>15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Coconut, Vanilla</t>
+          <t>Berry, Cocoa &amp; Intense</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>A delicious coconut flavour - with a soft hint of vanilla - harmoniously combined with a smooth and rounded Arabica blend.</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
+          <t>An intense coffee that strikes an elegant balance between roasty and fruity aromas, outlined by a distinctive roasted cocoa note.</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3</v>
+      </c>
+      <c r="O90" t="n">
+        <v>4</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr">
         <is>
+          <t>Ristretto Classico is an intricate all-Arabica blend of beans from Honduras, El Salvador, and Guatemala that get a dark roast to make this short shot a contender. A classic ristretto experience, the roasted and fruity notes have it punching above its weight as it delivers lingering notes of roasted cocoa.</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Ristretto Classico is crafted using a blend of top-grade, fully washed Arabicas from Honduras, El Salvador, and Guatemala.</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>This coffee is roasted in a single batch, inspired by traditional ristretto recipes. A short yet dark roast allows it to develop intensity while preserving some fruitiness.</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>10 capsules of roast and ground coffee</t>
+        </is>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>Roast and ground coffee</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>70 g - 2.46 oz for 10 capsules</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>Ristretto Classico</t>
+        </is>
+      </c>
+      <c r="AC90" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD90" t="inlineStr">
+        <is>
+          <t>Dark</t>
+        </is>
+      </c>
+      <c r="AE90" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AG90" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AH90" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AI90" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ90" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK90" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL90" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AM90" t="inlineStr">
+        <is>
+          <t>Charts/VL43_Ristretto Classico_Vertuo_Taste Profile.png</t>
+        </is>
+      </c>
+      <c r="AN90" t="inlineStr">
+        <is>
+          <t>vertuo current online exclusive espresso ml ristretto intensely roasted berry 90 88 berry cocoa intense intense coffee strikes elegant balance roasty fruity aromas outlined distinctive roasted cocoa note 30 40 40 30 ristretto classico intricate allarabica blend beans honduras el salvador guatemala get dark roast make short shot contender classic ristretto experience roasted fruity notes punching weight delivers lingering notes roasted cocoa ristretto classico crafted using blend topgrade fully washed arabicas honduras el salvador guatemala coffee roasted single batch inspired traditional ristretto recipes short yet dark roast allows develop intensity preserving fruitiness capsules roast ground coffee roast ground coffee g 246 oz capsules ristretto classico 90 dark medium high high medium medium medium medium medium</t>
+        </is>
+      </c>
+      <c r="AO90" t="inlineStr">
+        <is>
+          <t>Charts/VL43_Ristretto Classico_Vertuo_Word Cloud.png</t>
+        </is>
+      </c>
+      <c r="AP90" t="inlineStr">
+        <is>
+          <t>Charts/VL43_Ristretto Classico_Vertuo Feature Results.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>VL44</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Infinitely Gourmet</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Images/VL44_Infinitely Gourmet_Vertuo_Capsule.png</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Images/VL44_Infinitely Gourmet_Vertuo_Sleeve.png</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Vertuo</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Limited</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Barista Creations</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>230 ml (Coffee)</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Hazelnut flavoured coffee</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>15</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Hazelnut</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Elegant roasted hazelnut flavour brings the artistry of fine patisserie to this smooth flavoured coffee.</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>2</v>
+      </c>
+      <c r="O91" t="n">
+        <v>3</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>The elegance of the roasted hazelnut flavour—with its sweet top notes of praline and delicate vanilla—finds creative expression in Infinitely Gourmet. We bring together cereal-noted Arabicas from Latin America and Africa and give the blend a bespoke roast. It’s into this smooth coffee that the delicious hazelnut flavour comes to craft a combination of tastes and aromas reminiscent of the finest patisserie chef’s creations. Add a dash of milk to make this your creamy coffee treat.</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Co-created with the avant-garde French pastry chef Pierre Hermé for our Festive 2022 collection, this bold and delicious collection combines exceptional patisserie know-how and the art of elevating coffee. Indulge in these delicious flavours once again, available for a limited time!</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>10 capsules of artificially flavoured hazelnut roast and ground coffee</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>Roast and ground coffee, artificial flavours.</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>125 g – 4.40oz for 10 capsules</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>Infinitely Gourmet</t>
+        </is>
+      </c>
+      <c r="AC91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD91" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AE91" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG91" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AH91" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AI91" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ91" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK91" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL91" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AM91" t="inlineStr">
+        <is>
+          <t>Charts/VL44_Infinitely Gourmet_Vertuo_Taste Profile.png</t>
+        </is>
+      </c>
+      <c r="AN91" t="inlineStr">
+        <is>
+          <t>vertuo limited barista creations ml coffee hazelnut flavoured coffee 150 hazelnut elegant roasted hazelnut flavour brings artistry fine patisserie smooth flavoured coffee 20 30 30 30 elegance roasted hazelnut flavourwith sweet top notes praline delicate vanillafinds creative expression infinitely gourmet bring together cerealnoted arabicas latin america africa give blend bespoke roast smooth coffee delicious hazelnut flavour comes craft combination tastes aromas reminiscent fine patisserie chef creations add dash milk make creamy coffee treat cocreated avantgarde french pastry chef pierre hermé festive collection bold delicious collection combines exceptional patisserie knowhow art elevating coffee indulge delicious flavours available limited time capsules artificially flavoured hazelnut roast ground coffee roast ground coffee artificial flavours g 440oz capsules infinitely gourmet 50 medium low medium medium medium medium medium medium medium</t>
+        </is>
+      </c>
+      <c r="AO91" t="inlineStr">
+        <is>
+          <t>Charts/VL44_Infinitely Gourmet_Vertuo_Word Cloud.png</t>
+        </is>
+      </c>
+      <c r="AP91" t="inlineStr">
+        <is>
+          <t>Charts/VL44_Infinitely Gourmet_Vertuo Feature Results.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>VL45</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Sunny Almond Vanilla Over Ice</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Images/VL45_Sunny Almond Vanilla Over Ice_Vertuo_Capsule.png</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Images/VL45_Sunny Almond Vanilla Over Ice_Vertuo_Sleeve.png</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Vertuo</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Limited</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Summer Coffees</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>80 ml (Double Espresso), Iced Recipe</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Almond and vanilla flavoured</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Almond, Vanilla</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>A refreshing, thirst-quenching iced coffee with delicious almond and vanilla notes, reminiscent of amaretti and vanilla custard.</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>The smooth and refreshing taste of Sunny Almond Vanilla Over Ice has us cruising into a Mediterranean summer. Our light-roast blend of Arabicas anchors the season’s sun-kissed flavour in a coffee made for ice. Crafted by Nespresso, this one brings shades of sunny almond and a glow of sweet vanilla to your summer. Best served as : 1 coffee capsule (80 ml) over a cup full of ice cubes (180 gr). To extend the treat, top it up with cold water or cold milk (180 ml).​</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>This 100% Arabica blend gets its coffee mostly from Ethiopia and Indonesia.</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>The first part of this blend gets a light and short to enhance the delicate notes typical of Ethiopian Arabica. The second gets a medium roast to bring balance and roundness to the cup.</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>10 capsules of roast and ground coffee</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>Roast and ground coffee</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>100 g - 3.53 oz for 10 capsules</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>Sunny Almond Vanilla Over Ice</t>
+        </is>
+      </c>
+      <c r="AC92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD92" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AE92" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG92" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AH92" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AI92" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ92" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK92" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL92" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AM92" t="inlineStr">
+        <is>
+          <t>Charts/VL45_Sunny Almond Vanilla Over Ice_Vertuo_Taste Profile.png</t>
+        </is>
+      </c>
+      <c r="AN92" t="inlineStr">
+        <is>
+          <t>vertuo limited summer coffees ml double espresso iced recipe almond vanilla flavoured 135 almond vanilla refreshing thirstquenching iced coffee delicious almond vanilla notes reminiscent amaretti vanilla custard smooth refreshing taste sunny almond vanilla ice us cruising mediterranean summer lightroast blend arabicas anchors season sunkissed flavour coffee made ice crafted nespresso one brings shades sunny almond glow sweet vanilla summer best served coffee capsule ml cup full ice cubes gr extend treat top cold water cold milk ml arabica blend gets coffee mostly ethiopia indonesia first part blend gets light short enhance delicate notes typical ethiopian arabica second gets medium roast bring balance roundness cup capsules roast ground coffee roast ground coffee g 353 oz capsules sunny almond vanilla ice 50 medium medium medium medium medium medium medium medium medium</t>
+        </is>
+      </c>
+      <c r="AO92" t="inlineStr">
+        <is>
+          <t>Charts/VL45_Sunny Almond Vanilla Over Ice_Vertuo_Word Cloud.png</t>
+        </is>
+      </c>
+      <c r="AP92" t="inlineStr">
+        <is>
+          <t>Charts/VL45_Sunny Almond Vanilla Over Ice_Vertuo Feature Results.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>VL46</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Tropical Coconut Flavour Over Ice</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Images/VL46_Tropical Coconut Flavour Over Ice_Vertuo_Capsule.png</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Images/VL46_Tropical Coconut Flavour Over Ice_Vertuo_Sleeve.png</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Vertuo</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Limited</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Summer Coffees</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>230 ml (Coffee), Ice Recipe</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Coconut and Vanilla Flavours</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>15</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Coconut, Vanilla</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>A delicious coconut flavour - with a soft hint of vanilla - harmoniously combined with a smooth and rounded Arabica blend.</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr">
+        <is>
           <t>Tropical Coconut Flavour Over Ice brings a taste of the tropics to your home. The refreshing coconut flavor splashes through the caramelly notes of a Latin American and African Arabica blend - it’s our most exotic coffee over ice. A sweet vanilla note makes a true treat of this refreshing iced coffee experience.</t>
         </is>
       </c>
-      <c r="W90" t="inlineStr">
+      <c r="W93" t="inlineStr">
         <is>
           <t>This 100% Arabica blend gets its beans from Latin America and Africa, with most coming from Brazil and Ethiopia.</t>
         </is>
       </c>
-      <c r="X90" t="inlineStr">
+      <c r="X93" t="inlineStr">
         <is>
           <t>Latin American beans are roasted medium dark and quickly to develop sweetness. The other coffees are roasted a bit longer to develop a velvety texture. We add the flavour in after roasting.</t>
         </is>
       </c>
-      <c r="Y90" t="inlineStr">
+      <c r="Y93" t="inlineStr">
         <is>
           <t>10 capsules of artificially flavoured roast and ground coffe</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr">
+      <c r="Z93" t="inlineStr">
         <is>
           <t>Roast and ground coffee, artificial flavours</t>
         </is>
       </c>
-      <c r="AA90" t="inlineStr">
+      <c r="AA93" t="inlineStr">
         <is>
           <t>125 g - 4.40 oz for 10 capsules</t>
         </is>
       </c>
-      <c r="AB90" t="inlineStr">
+      <c r="AB93" t="inlineStr">
         <is>
           <t>Tropical Coconut Flavour Over Ice</t>
         </is>
       </c>
-      <c r="AC90" t="n">
+      <c r="AC93" t="n">
         <v>5</v>
       </c>
-      <c r="AD90" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="AE90" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="AF90" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="AG90" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="AH90" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="AI90" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="AJ90" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="AK90" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="AL90" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="AM90" t="inlineStr">
+      <c r="AD93" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AE93" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG93" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AH93" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AI93" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ93" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK93" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL93" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AM93" t="inlineStr">
         <is>
           <t>Charts/VL46_Tropical Coconut Flavour Over Ice_Vertuo_Taste Profile.png</t>
         </is>
       </c>
-      <c r="AN90" t="inlineStr">
+      <c r="AN93" t="inlineStr">
         <is>
           <t>vertuo limited summer coffees ml coffee ice recipe coconut vanilla flavours 150 coconut vanilla delicious coconut flavour soft hint vanilla harmoniously combined smooth rounded arabica blend tropical coconut flavour ice brings taste tropics home refreshing coconut flavor splashes caramelly notes latin american african arabica blend exotic coffee ice sweet vanilla note makes true treat refreshing iced coffee experience arabica blend gets beans latin america africa coming brazil ethiopia latin american beans roasted medium dark quickly develop sweetness coffees roasted bit long develop velvety texture add flavour roasting capsules artificially flavoured roast ground coffe roast ground coffee artificial flavours g 440 oz capsules tropical coconut flavour ice 50 medium medium medium medium medium medium medium medium medium</t>
         </is>
       </c>
-      <c r="AO90" t="inlineStr">
+      <c r="AO93" t="inlineStr">
         <is>
           <t>Charts/VL46_Tropical Coconut Flavour Over Ice_Vertuo_Word Cloud.png</t>
         </is>
       </c>
-      <c r="AP90" t="inlineStr">
+      <c r="AP93" t="inlineStr">
         <is>
           <t>Charts/VL46_Tropical Coconut Flavour Over Ice_Vertuo Feature Results.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>VL47</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>No.20</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Images/VL47_No.20_Vertuo_Capsule.png</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Images/VL47_No.20_Vertuo_Sleeve.png</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Vertuo</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Limited</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Espresso</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>80 ml (Double Espresso)</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Orange Blossom &amp; Citrus</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Citrus, Floral, Orange Blossom</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Experience the exclusive and rare single-origin specialty coffee, balanced like a fresh garden in the finest terroir elevations of Colombia.</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>4</v>
+      </c>
+      <c r="O94" t="n">
+        <v>2</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>How to discover the most precious coffee in the world? A rich, complex and never-before tasted experience: fruit of 20 years in art of coffee​. The journey through the senses​. Look: The velvety, silky, and delicate crema, with amber hues and golden reflections. ​Smell: A floral and fruity bouquet, evoking the smells of a fragrant garden after a refreshing rain during an end of day.​ Taste: At the first sip, enjoy the unique notes of orange blossom &amp; fresh citrus aromas emerging from this coffee.How to discover the most precious coffee in the world?</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Unique coffee. 20-year of expertise encapsulates in one coffee capsule. 100% Arabica. A new variety of arabica beans created by Nespresso, meticulously selected.</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>From beans to coffee. This unique coffee was achieved by cross planting two of the finest Arabica coffees and grown by 59 select famers.</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>5 capsules of roast and ground coffee.</t>
+        </is>
+      </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>Roast and ground coffee</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>48 g - 1.69 oz for 5 capsules</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>No.20 (Vertuo)</t>
+        </is>
+      </c>
+      <c r="AC94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD94" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AE94" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AF94" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG94" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AH94" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AI94" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ94" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK94" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL94" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AM94" t="inlineStr">
+        <is>
+          <t>Charts/VL47_No.20_Vertuo_Taste Profile.png</t>
+        </is>
+      </c>
+      <c r="AN94" t="inlineStr">
+        <is>
+          <t>vertuo limited espresso ml double espresso orange blossom citrus 1875 citrus floral orange blossom experience exclusive rare singleorigin specialty coffee balanced like fresh garden fine terroir elevations colombia 40 20 20 20 discover precious coffee world rich complex neverbefore tasted experience fruit years art coffee journey senses look velvety silky delicate crema amber hues golden reflections smell floral fruity bouquet evoking smells fragrant garden refreshing rain end day taste first sip enjoy unique notes orange blossom fresh citrus aromas emerging coffeehow discover precious coffee world unique coffee 20year expertise encapsulates one coffee capsule arabica new variety arabica beans created nespresso meticulously selected beans coffee unique coffee achieved cross planting two fine arabica coffees grown select famers capsules roast ground coffee roast ground coffee g 169 oz capsules no20 vertuo 60 medium high low low low medium medium medium medium</t>
+        </is>
+      </c>
+      <c r="AO94" t="inlineStr">
+        <is>
+          <t>Charts/VL47_No.20_Vertuo_Word Cloud.png</t>
+        </is>
+      </c>
+      <c r="AP94" t="inlineStr">
+        <is>
+          <t>Charts/VL47_No.20_Vertuo Feature Results.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>VL48</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Kahawa Ya Congo</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Images/VL48_Kahawa Ya Congo_Vertuo_Capsule.png</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Images/VL48_Kahawa Ya Congo_Vertuo_Sleeve.png</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Vertuo</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Limited</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Long Coffee</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>230 ml (Coffee)</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Fruity &amp; Biscuity</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>6</v>
+      </c>
+      <c r="K95" t="n">
+        <v>17</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Balanced, Fruity, Biscuity, Sweet Cereal</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>A smooth coffee, with mild fruity notes and sweet cereal and nutty aromas.</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>2</v>
+      </c>
+      <c r="O95" t="n">
+        <v>2</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Kahawa ya Congo comes as our only organic coffee under the Reviving Origins umbrella. The rain rich volcanic soils of the Kivu lakeshores are fertile ground for Congo's farmers to bring you this mild coffee's fruity and sweet cereal notes. Years of continued conflict and political instability leave many plantation abandoned and smallholder farmers tapping only a small raction of the Congo's potential for specialty coffee. Nespresso Reviving Origins program joins together with the South Kivu farmers and partners to support coffee communities in raising Congo coffee to its full stature. REVIVING ORIGINS Congo is still a carce treasure to behold. But each year, we'll bring you more of this smooth coffee with its mild fruity note and alluring sweet cereal and nutty aromas.</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>This 100% Arabica coffee is sourced in the rich Lake Kivu shores in eastern Congo.</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>We roast this coffee in 2 batches. Although it is overall a medium roast profile, a small portion of these coffees get a darker roast to bring out the intensity and body.</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>10 capsules of roast and ground coffee.</t>
+        </is>
+      </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>Roast and ground coffee</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>56 g - 1.97 oz for 10 capsules</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>Kahawa Ya Congo (Vertuo)</t>
+        </is>
+      </c>
+      <c r="AC95" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD95" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AE95" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG95" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AH95" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AI95" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ95" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK95" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL95" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AM95" t="inlineStr">
+        <is>
+          <t>Charts/VL48_Kahawa Ya Congo_Vertuo_Taste Profile.png</t>
+        </is>
+      </c>
+      <c r="AN95" t="inlineStr">
+        <is>
+          <t>vertuo limited long coffee ml coffee fruity biscuity 60 170 balanced fruity biscuity sweet cereal smooth coffee mild fruity notes sweet cereal nutty aromas 20 20 20 30 kahawa ya congo comes organic coffee reviving origins umbrella rain rich volcanic soils kivu lakeshores fertile ground congo s farmers bring mild coffee s fruity sweet cereal notes years continued conflict political instability leave many plantation abandoned smallholder farmers tapping small raction congo s potential specialty coffee nespresso reviving origins program joins together south kivu farmers partners support coffee communities raising congo coffee full stature reviving origins congo still carce treasure behold year ll bring smooth coffee mild fruity note alluring sweet cereal nutty aromas arabica coffee sourced rich lake kivu shores eastern congo roast coffee batches although overall medium roast profile small portion coffees get dark roast bring intensity body capsules roast ground coffee roast ground coffee g 197 oz capsules kahawa ya congo vertuo 60 medium low low low medium medium medium medium medium</t>
+        </is>
+      </c>
+      <c r="AO95" t="inlineStr">
+        <is>
+          <t>Charts/VL48_Kahawa Ya Congo_Vertuo_Word Cloud.png</t>
+        </is>
+      </c>
+      <c r="AP95" t="inlineStr">
+        <is>
+          <t>Charts/VL48_Kahawa Ya Congo_Vertuo Feature Results.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>VL49</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Pumpkin Spice Cake</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Images/VL49_Pumpkin Spice Cake_Vertuo_Capsule.png</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Images/VL49_Pumpkin Spice Cake_Vertuo_Sleeve.png</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Vertuo</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Limited</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Barista Creations</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>230 ml (Coffee)</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Pumpkin &amp; Spices flavoured</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>15</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Flavoured, Spicy, Pumpkin, Cardamom</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A delicious sweet pumpkin flavour combined with a wide range of spicy notes such as cloves, cinnamon and cardamom and a cake-like sweetness.
+</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3</v>
+      </c>
+      <c r="O96" t="n">
+        <v>2</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>2</v>
+      </c>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Enjoy warming spice notes with sweet pumpkin flavour</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>A smooth, 100% arabica base blend made of naturally sweet beans from Brazil and lively washed beans from Colombia.</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>The Brazilian coffee is lightly roasted to keep it smooth and with all its malted cereal notes intact, while the majority of the Colombian coffee beans get a short roast to release all their finer aromatics. We add the flavour in after roasting.​</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>10 capsules of flavoured roast and ground coffee. Pumpkin spice flavoured</t>
+        </is>
+      </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>Roast and ground coffee, natural flavours.</t>
+        </is>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>126 g - 4.40 oz for 10 capsules</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>Pumpkin Spice Cake (Vertuo)</t>
+        </is>
+      </c>
+      <c r="AC96" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD96" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AE96" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AG96" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AH96" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AI96" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ96" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK96" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL96" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AM96" t="inlineStr">
+        <is>
+          <t>Charts/VL49_Pumpkin Spice Cake_Vertuo_Taste Profile.png</t>
+        </is>
+      </c>
+      <c r="AN96" t="inlineStr">
+        <is>
+          <t>vertuo limited barista creations ml coffee pumpkin spices flavoured 150 flavoured spicy pumpkin cardamom delicious sweet pumpkin flavour combined wide range spicy notes cloves cinnamon cardamom cakelike sweetness 30 20 20 20 enjoy warming spice notes sweet pumpkin flavour smooth arabica base blend made naturally sweet beans brazil lively washed beans colombia brazilian coffee lightly roasted keep smooth malted cereal notes intact majority colombian coffee beans get short roast release fine aromatics add flavour roasting capsules flavoured roast ground coffee pumpkin spice flavoured roast ground coffee natural flavours g 440 oz capsules pumpkin spice cake vertuo 50 medium medium low low low medium medium medium medium</t>
+        </is>
+      </c>
+      <c r="AO96" t="inlineStr">
+        <is>
+          <t>Charts/VL49_Pumpkin Spice Cake_Vertuo_Word Cloud.png</t>
+        </is>
+      </c>
+      <c r="AP96" t="inlineStr">
+        <is>
+          <t>Charts/VL49_Pumpkin Spice Cake_Vertuo Feature Results.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>VL50</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Maple Pecan</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Images/VL50_Maple Pecan_Vertuo_Capsule.png</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Images/VL50_Maple Pecan_Vertuo_Sleeve.png</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Vertuo</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Limited</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Barista Creations</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>230 ml (Coffee), Iced Recipe, Milk Recipe</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Maple and pecan flavoured</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>14</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Pecan Nut, Maple Syrup</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>See the rich crema, a signature of our Vertuo coffees, ready to be folded and to release its indulgent aromas. Smell the subtle blend of sweet maple, nutty pecan, and quality coffee. Taste the delicious and subtle Maple Pecan flavour in a blend of a balanced, cereal-like coffee base.</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>2</v>
+      </c>
+      <c r="O97" t="n">
+        <v>3</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>Raw ingredients meeting in harmony No artifical flavours or added sugars. No allergens. Subtle nutty flavour for all to enjoy.</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Sourced from Brazil and Ethiopia. This 100% Arabica blend is ethically sourced through the AAA Sustainable Quality™ Program.</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>A medium roast. Latin American beans are roasted medium dark and quickly to develop sweetness. The other coffees are roasted a bit longer to develop a velvety texture.</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>10 capsules of flavoured roast and ground coffee. Maple pecan flavour with other natural flavours.</t>
+        </is>
+      </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>Roast and ground coffee, natural flavours.</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>125 g - 4.40 oz for 10 capsules</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>Maple Pecan</t>
+        </is>
+      </c>
+      <c r="AC97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD97" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AE97" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AF97" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AG97" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AH97" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AI97" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AJ97" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AL97" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AM97" t="inlineStr">
+        <is>
+          <t>Charts/VL50_Maple Pecan_Vertuo_Taste Profile.png</t>
+        </is>
+      </c>
+      <c r="AN97" t="inlineStr">
+        <is>
+          <t>vertuo limited barista creations ml coffee iced recipe milk recipe maple pecan flavoured 140 pecan nut maple syrup see rich crema signature vertuo coffees ready folded release indulgent aromas smell subtle blend sweet maple nutty pecan quality coffee taste delicious subtle maple pecan flavour blend balanced cereallike coffee base 20 30 30 30 raw ingredients meeting harmony artifical flavours added sugars allergens subtle nutty flavour enjoy sourced brazil ethiopia arabica blend ethically sourced aaa sustainable quality program medium roast latin american beans roasted medium dark quickly develop sweetness coffees roasted bit long develop velvety texture capsules flavoured roast ground coffee maple pecan flavour natural flavours roast ground coffee natural flavours g 440 oz capsules maple pecan 50 medium low medium medium medium medium medium medium medium</t>
+        </is>
+      </c>
+      <c r="AO97" t="inlineStr">
+        <is>
+          <t>Charts/VL50_Maple Pecan_Vertuo_Word Cloud.png</t>
+        </is>
+      </c>
+      <c r="AP97" t="inlineStr">
+        <is>
+          <t>Charts/VL50_Maple Pecan_Vertuo Feature Results.png</t>
         </is>
       </c>
     </row>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP105"/>
+  <dimension ref="A1:AQ105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,6 +644,11 @@
           <t>Feature Results</t>
         </is>
       </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Guides</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -826,6 +831,11 @@
           <t>Charts/OL1_Ispirazione Napoli_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Guides/OL1_Ispirazione Napoli_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1000,6 +1010,11 @@
           <t>Charts/OL2_Kazaar_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Guides/OL2_Kazaar_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1182,6 +1197,11 @@
           <t>Charts/OL3_Ristretto_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Guides/OL3_Ristretto_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1356,6 +1376,11 @@
           <t>Charts/OL4_Ristretto Decaffeinato_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>Guides/OL4_Ristretto Decaffeinato_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1538,6 +1563,11 @@
           <t>Charts/OL5_Arpeggio_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>Guides/OL5_Arpeggio_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1720,6 +1750,11 @@
           <t>Charts/OL6_Arpeggio Decaffeinato_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>Guides/OL6_Arpeggio Decaffeinato_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1902,6 +1937,11 @@
           <t>Charts/OL7_Inspirazione Venezia_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>Guides/OL7_Inspirazione Venezia_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2076,6 +2116,11 @@
           <t>Charts/OL8_Inspirazione Roma_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>Guides/OL8_Inspirazione Roma_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2258,6 +2303,11 @@
           <t>Charts/OL9_Livanto_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>Guides/OL9_Livanto_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2432,6 +2482,11 @@
           <t>Charts/OL10_Cape Town Lungo_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>Guides/OL10_Cape Town Lungo_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2606,6 +2661,11 @@
           <t>Charts/OL11_Miami Espresso_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>Guides/OL11_Miami Espresso_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2788,6 +2848,11 @@
           <t>Charts/OL12_Rio De Janeiro Espresso_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>Guides/OL12_Rio De Janeiro Espresso_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2971,6 +3036,11 @@
           <t>Charts/OL13_Istanbul Espresso_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>Guides/OL13_Istanbul Espresso_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3153,6 +3223,11 @@
           <t>Charts/OL14_Stockholm Lungo_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>Guides/OL14_Stockholm Lungo_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3335,6 +3410,11 @@
           <t>Charts/OL15_Paris Espresso_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>Guides/OL15_Paris Espresso_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3505,6 +3585,11 @@
           <t>Charts/OL16_Vienna Lungo_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>Guides/OL16_Vienna Lungo_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3687,6 +3772,11 @@
           <t>Charts/OL17_Tokyo Lungo_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>Guides/OL17_Tokyo Lungo_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3861,6 +3951,11 @@
           <t>Charts/OL18_Shanghai Lungo_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>Guides/OL18_Shanghai Lungo_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4035,6 +4130,11 @@
           <t>Charts/OL19_Buenos Aires Lungo_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>Guides/OL19_Buenos Aires Lungo_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4217,6 +4317,11 @@
           <t>Charts/OL20_India_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>Guides/OL20_India_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4399,6 +4504,11 @@
           <t>Charts/OL21_Indonesia - Fairtrade_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>Guides/OL21_Indonesia - Fairtrade_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4581,6 +4691,11 @@
           <t>Charts/OL22_Colombia_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>Guides/OL22_Colombia_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4755,6 +4870,11 @@
           <t>Charts/OL23_Peru Organic_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>Guides/OL23_Peru Organic_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4933,6 +5053,11 @@
           <t>Charts/OL24_Nicaragua_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>Guides/OL24_Nicaragua_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5107,6 +5232,11 @@
           <t>Charts/OL25_Ethiopia_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>Guides/OL25_Ethiopia_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5279,6 +5409,11 @@
           <t>Charts/OL26_Cioccolatino_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>Guides/OL26_Cioccolatino_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5451,6 +5586,11 @@
           <t>Charts/OL27_Vaniglia_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>Guides/OL27_Vaniglia_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5623,6 +5763,11 @@
           <t>Charts/OL28_Nocciola_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>Guides/OL28_Nocciola_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5793,6 +5938,11 @@
       <c r="AP30" t="inlineStr">
         <is>
           <t>Charts/OL29_Caramello_Original Feature Results.png</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>Guides/OL29_Caramello_Current.pdf</t>
         </is>
       </c>
     </row>
@@ -5967,6 +6117,11 @@
           <t>Charts/OL30_Corto_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>Guides/OL30_Corto_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6147,6 +6302,11 @@
           <t>Charts/OL31_Scuro_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>Guides/OL31_Scuro_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6319,6 +6479,11 @@
           <t>Charts/OL32_Chiaro_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
+          <t>Guides/OL32_Chiaro_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6501,6 +6666,11 @@
           <t>Charts/OL33_Capriccio_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>Guides/OL33_Capriccio_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6683,6 +6853,11 @@
           <t>Charts/OL34_Cosi_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
+          <t>Guides/OL34_Cosi_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6865,6 +7040,11 @@
           <t>Charts/OL35_Volluto_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
+          <t>Guides/OL35_Volluto_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7035,6 +7215,11 @@
           <t>Charts/OL36_Volluto Decaffeinato_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>Guides/OL36_Volluto Decaffeinato_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7211,6 +7396,11 @@
           <t>Charts/OL37_Filter Style Mild_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>Guides/OL37_Filter Style Mild_Not Current (Online Exclusive).pdf</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7386,6 +7576,11 @@
       <c r="AP39" t="inlineStr">
         <is>
           <t>Charts/OL38_Filter Style Intense_Original Feature Results.png</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr">
+        <is>
+          <t>Guides/OL38_Filter Style Intense_Not Current (Online Exclusive).pdf</t>
         </is>
       </c>
     </row>
@@ -7560,6 +7755,11 @@
           <t>Charts/OL39_Freddo Intenso_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>Guides/OL39_Freddo Intenso_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7732,6 +7932,11 @@
           <t>Charts/OL40_Freddo Delicato_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>Guides/OL40_Freddo Delicato_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7904,6 +8109,11 @@
           <t>Charts/OL41_Coconut Flavour Over Ice_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t>Guides/OL41_Coconut Flavour Over Ice_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8086,6 +8296,11 @@
           <t>Charts/OL42_Cadiz Espresso_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>Guides/OL42_Cadiz Espresso_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8268,6 +8483,11 @@
           <t>Charts/OL43_Lisbon Bica_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t>Guides/OL43_Lisbon Bica_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8448,6 +8668,11 @@
           <t>Charts/OL44_No.20_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ45" t="inlineStr">
+        <is>
+          <t>Guides/OL44_No.20_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8630,6 +8855,11 @@
           <t>Charts/OL45_Kahawa Ya Congo_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ46" t="inlineStr">
+        <is>
+          <t>Guides/OL45_Kahawa Ya Congo_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8810,6 +9040,11 @@
           <t>Charts/OL46_Pumpkin Spice Cake_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ47" t="inlineStr">
+        <is>
+          <t>Guides/OL46_Pumpkin Spice Cake_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8990,6 +9225,11 @@
           <t>Charts/OL47_Unforgettable Espresso_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ48" t="inlineStr">
+        <is>
+          <t>Guides/OL47_Unforgettable Espresso_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9170,6 +9410,11 @@
           <t>Charts/OL48_Almond Croissant Flavour_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ49" t="inlineStr">
+        <is>
+          <t>Guides/OL48_Almond Croissant Flavour_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9348,6 +9593,11 @@
           <t>Charts/OL49_Peanut &amp; Roasted Sesame Flavour_Original Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ50" t="inlineStr">
+        <is>
+          <t>Guides/OL49_Peanut &amp; Roasted Sesame Flavour_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9530,6 +9780,11 @@
           <t>Charts/VL1_Intenso_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ51" t="inlineStr">
+        <is>
+          <t>Guides/VL1_Intenso_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9704,6 +9959,11 @@
           <t>Charts/VL2_Stormio_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ52" t="inlineStr">
+        <is>
+          <t>Guides/VL2_Stormio_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9878,6 +10138,11 @@
           <t>Charts/VL3_Odacio_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ53" t="inlineStr">
+        <is>
+          <t>Guides/VL3_Odacio_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10060,6 +10325,11 @@
           <t>Charts/VL4_Mexico_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ54" t="inlineStr">
+        <is>
+          <t>Guides/VL4_Mexico_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10240,6 +10510,11 @@
       <c r="AP55" t="inlineStr">
         <is>
           <t>Charts/VL5_Melozio_Vertuo Feature Results.png</t>
+        </is>
+      </c>
+      <c r="AQ55" t="inlineStr">
+        <is>
+          <t>Guides/VL5_Melozio_Current.pdf</t>
         </is>
       </c>
     </row>
@@ -10412,6 +10687,11 @@
           <t>Charts/VL6_Melozio Decaffeinato_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ56" t="inlineStr">
+        <is>
+          <t>Guides/VL6_Melozio Decaffeinato_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10586,6 +10866,11 @@
           <t>Charts/VL7_Half Caffeinato_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ57" t="inlineStr">
+        <is>
+          <t>Guides/VL7_Half Caffeinato_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10768,6 +11053,11 @@
           <t>Charts/VL8_El Salvador_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ58" t="inlineStr">
+        <is>
+          <t>Guides/VL8_El Salvador_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10950,6 +11240,11 @@
           <t>Charts/VL9_Colombia - Fairtrade_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ59" t="inlineStr">
+        <is>
+          <t>Guides/VL9_Colombia - Fairtrade_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11124,6 +11419,11 @@
           <t>Charts/VL10_Solelio_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ60" t="inlineStr">
+        <is>
+          <t>Guides/VL10_Solelio_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11306,6 +11606,11 @@
           <t>Charts/VL11_Alto Onice_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ61" t="inlineStr">
+        <is>
+          <t>Guides/VL11_Alto Onice_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11482,6 +11787,11 @@
       <c r="AP62" t="inlineStr">
         <is>
           <t>Charts/VL12_Alto Ambrato_Vertuo Feature Results.png</t>
+        </is>
+      </c>
+      <c r="AQ62" t="inlineStr">
+        <is>
+          <t>Guides/VL12_Alto Ambrato_Current.pdf</t>
         </is>
       </c>
     </row>
@@ -11656,6 +11966,11 @@
           <t>Charts/VL13_Cold Brew Style Intense_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ63" t="inlineStr">
+        <is>
+          <t>Guides/VL13_Cold Brew Style Intense_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11828,6 +12143,11 @@
           <t>Charts/VL14_Carafe Pour-Over Style_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ64" t="inlineStr">
+        <is>
+          <t>Guides/VL14_Carafe Pour-Over Style_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12000,6 +12320,11 @@
           <t>Charts/VL15_Carafe Pour-Over Style Mild_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ65" t="inlineStr">
+        <is>
+          <t>Guides/VL15_Carafe Pour-Over Style Mild_Not Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12182,6 +12507,11 @@
           <t>Charts/VL16_Fortado_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ66" t="inlineStr">
+        <is>
+          <t>Guides/VL16_Fortado_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12364,6 +12694,11 @@
           <t>Charts/VL17_Fortado Decaffeinato_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ67" t="inlineStr">
+        <is>
+          <t>Guides/VL17_Fortado Decaffeinato_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12544,6 +12879,11 @@
       <c r="AP68" t="inlineStr">
         <is>
           <t>Charts/VL18_Costa Rica_Vertuo Feature Results.png</t>
+        </is>
+      </c>
+      <c r="AQ68" t="inlineStr">
+        <is>
+          <t>Guides/VL18_Costa Rica_Current.pdf</t>
         </is>
       </c>
     </row>
@@ -12716,6 +13056,11 @@
           <t>Charts/VL19_Arondio_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ69" t="inlineStr">
+        <is>
+          <t>Guides/VL19_Arondio_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12890,6 +13235,11 @@
           <t>Charts/VL20_Inizio_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ70" t="inlineStr">
+        <is>
+          <t>Guides/VL20_Inizio_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13064,6 +13414,11 @@
           <t>Charts/VL21_Ethiopia_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ71" t="inlineStr">
+        <is>
+          <t>Guides/VL21_Ethiopia_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -13238,6 +13593,11 @@
           <t>Charts/VL22_Il Caffe_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ72" t="inlineStr">
+        <is>
+          <t>Guides/VL22_Il Caffe_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13420,6 +13780,11 @@
           <t>Charts/VL23_Diavolitto_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ73" t="inlineStr">
+        <is>
+          <t>Guides/VL23_Diavolitto_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -13594,6 +13959,11 @@
           <t>Charts/VL24_Altissio Decaffeinato_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ74" t="inlineStr">
+        <is>
+          <t>Guides/VL24_Altissio Decaffeinato_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13776,6 +14146,11 @@
           <t>Charts/VL25_Altissio_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ75" t="inlineStr">
+        <is>
+          <t>Guides/VL25_Altissio_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13950,6 +14325,11 @@
           <t>Charts/VL26_Peru Organic_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ76" t="inlineStr">
+        <is>
+          <t>Guides/VL26_Peru Organic_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -14124,6 +14504,11 @@
           <t>Charts/VL27_Orafio_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ77" t="inlineStr">
+        <is>
+          <t>Guides/VL27_Orafio_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -14298,6 +14683,11 @@
           <t>Charts/VL28_Toccanto_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ78" t="inlineStr">
+        <is>
+          <t>Guides/VL28_Toccanto_Not Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -14480,6 +14870,11 @@
           <t>Charts/VL29_Voltesso_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ79" t="inlineStr">
+        <is>
+          <t>Guides/VL29_Voltesso_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -14662,6 +15057,11 @@
           <t>Charts/VL30_Double Espresso Scuro_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ80" t="inlineStr">
+        <is>
+          <t>Guides/VL30_Double Espresso Scuro_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -14844,6 +15244,11 @@
           <t>Charts/VL31_Double Espresso Chiaro_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ81" t="inlineStr">
+        <is>
+          <t>Guides/VL31_Double Espresso Chiaro_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -15026,6 +15431,11 @@
           <t>Charts/VL32_Double Espresso Dolce_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ82" t="inlineStr">
+        <is>
+          <t>Guides/VL32_Double Espresso Dolce_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -15206,6 +15616,11 @@
           <t>Charts/VL33_Roasted Hazelnut_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ83" t="inlineStr">
+        <is>
+          <t>Guides/VL33_Roasted Hazelnut_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -15378,6 +15793,11 @@
           <t>Charts/VL34_Golden Caramel_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ84" t="inlineStr">
+        <is>
+          <t>Guides/VL34_Golden Caramel_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -15550,6 +15970,11 @@
           <t>Charts/VL35_Sweet Vanilla_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ85" t="inlineStr">
+        <is>
+          <t>Guides/VL35_Sweet Vanilla_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -15722,6 +16147,11 @@
           <t>Charts/VL36_Rich Chocolate_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ86" t="inlineStr">
+        <is>
+          <t>Guides/VL36_Rich Chocolate_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -15902,6 +16332,11 @@
           <t>Charts/VL37_Bianco Piccolo_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ87" t="inlineStr">
+        <is>
+          <t>Guides/VL37_Bianco Piccolo_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -16080,6 +16515,11 @@
       <c r="AP88" t="inlineStr">
         <is>
           <t>Charts/VL38_Bianco Doppio_Vertuo Feature Results.png</t>
+        </is>
+      </c>
+      <c r="AQ88" t="inlineStr">
+        <is>
+          <t>Guides/VL38_Bianco Doppio_Current.pdf</t>
         </is>
       </c>
     </row>
@@ -16260,6 +16700,11 @@
       <c r="AP89" t="inlineStr">
         <is>
           <t>Charts/VL39_Bianco Forte_Vertuo Feature Results.png</t>
+        </is>
+      </c>
+      <c r="AQ89" t="inlineStr">
+        <is>
+          <t>Guides/VL39_Bianco Forte_Current.pdf</t>
         </is>
       </c>
     </row>
@@ -16434,6 +16879,11 @@
           <t>Charts/VL40_Ice Forte_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ90" t="inlineStr">
+        <is>
+          <t>Guides/VL40_Ice Forte_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -16606,6 +17056,11 @@
           <t>Charts/VL41_Ice Leggero_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ91" t="inlineStr">
+        <is>
+          <t>Guides/VL41_Ice Leggero_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -16778,6 +17233,11 @@
           <t>Charts/VL42_Vivida_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ92" t="inlineStr">
+        <is>
+          <t>Guides/VL42_Vivida_Current.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -16960,6 +17420,11 @@
           <t>Charts/VL43_Ristretto Classico_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ93" t="inlineStr">
+        <is>
+          <t>Guides/VL43_Ristretto Classico_Current (Online Exclusive).pdf</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -17134,6 +17599,11 @@
       <c r="AP94" t="inlineStr">
         <is>
           <t>Charts/VL44_Infinitely Gourmet_Vertuo Feature Results.png</t>
+        </is>
+      </c>
+      <c r="AQ94" t="inlineStr">
+        <is>
+          <t>Guides/VL44_Infinitely Gourmet_Limited.pdf</t>
         </is>
       </c>
     </row>
@@ -17308,6 +17778,11 @@
           <t>Charts/VL45_Sunny Almond Vanilla Over Ice_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ95" t="inlineStr">
+        <is>
+          <t>Guides/VL45_Sunny Almond Vanilla Over Ice_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -17480,6 +17955,11 @@
           <t>Charts/VL46_Tropical Coconut Flavour Over Ice_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ96" t="inlineStr">
+        <is>
+          <t>Guides/VL46_Tropical Coconut Flavour Over Ice_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -17660,6 +18140,11 @@
           <t>Charts/VL47_No.20_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ97" t="inlineStr">
+        <is>
+          <t>Guides/VL47_No.20_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -17842,6 +18327,11 @@
           <t>Charts/VL48_Kahawa Ya Congo_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ98" t="inlineStr">
+        <is>
+          <t>Guides/VL48_Kahawa Ya Congo_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -18023,6 +18513,11 @@
           <t>Charts/VL49_Pumpkin Spice Cake_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ99" t="inlineStr">
+        <is>
+          <t>Guides/VL49_Pumpkin Spice Cake_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -18203,6 +18698,11 @@
           <t>Charts/VL50_Maple Pecan_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ100" t="inlineStr">
+        <is>
+          <t>Guides/VL50_Maple Pecan_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -18383,6 +18883,11 @@
           <t>Charts/VL51_Peppermint Pinwheel_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ101" t="inlineStr">
+        <is>
+          <t>Guides/VL51_Peppermint Pinwheel_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -18563,6 +19068,11 @@
           <t>Charts/VL52_Gingerbread_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ102" t="inlineStr">
+        <is>
+          <t>Guides/VL52_Gingerbread_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -18745,6 +19255,11 @@
           <t>Charts/VL53_Unforgettable Double Espresso_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ103" t="inlineStr">
+        <is>
+          <t>Guides/VL53_Unforgettable Double Espresso_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -18925,6 +19440,11 @@
           <t>Charts/VL54_Almond Croissant Flavour_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ104" t="inlineStr">
+        <is>
+          <t>Guides/VL54_Almond Croissant Flavour_Limited.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -19105,6 +19625,11 @@
           <t>Charts/VL55_Peanut and Roasted Sesame Flavour_Vertuo Feature Results.png</t>
         </is>
       </c>
+      <c r="AQ105" t="inlineStr">
+        <is>
+          <t>Guides/VL55_Peanut and Roasted Sesame Flavour_Limited.pdf</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9527,10 +9527,12 @@
           <t>Peanut &amp; Roasted Sesame Flavour</t>
         </is>
       </c>
-      <c r="AC50" t="inlineStr"/>
+      <c r="AC50" t="n">
+        <v>5</v>
+      </c>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="AE50" t="inlineStr">
@@ -9580,7 +9582,7 @@
       </c>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>original limited barista creations ml lungo cereal toasted sesame 115 cereal toastedroasted sesame peanut aromatic sweet blend notes toasted sesame caramel mix nuts including peanuts cereallike undertones oat barley add toasty nutty flavor 30 20 20 20 created collaboration chef jean imbert peanut roasted sesame flavour tribute gastronomic voyages latin american african arabicas coffee concocts notes roasted sesame popcorn mix almonds hazelnuts peanuts making unmissable coffee festive season enjoy reverso let journey taste roll blond caramel notes invitation awaken senses board nespresso festive odyssey inspired belmond journeys smooth arabica base blend made naturally sweet beans brazil lively washed beans colombia latin american beans roasted medium dark quickly develop sweetness coffees roasted bit long develop velvety texture add flavour roasting capsules roast ground coffee vanilla naturalartificial flavours roast ground coffee g 172 oz capsules peanut roasted sesame flavour dark medium low low low medium medium medium medium</t>
+          <t>original limited barista creations ml lungo cereal toasted sesame 115 cereal toastedroasted sesame peanut aromatic sweet blend notes toasted sesame caramel mix nuts including peanuts cereallike undertones oat barley add toasty nutty flavor 30 20 20 20 created collaboration chef jean imbert peanut roasted sesame flavour tribute gastronomic voyages latin american african arabicas coffee concocts notes roasted sesame popcorn mix almonds hazelnuts peanuts making unmissable coffee festive season enjoy reverso let journey taste roll blond caramel notes invitation awaken senses board nespresso festive odyssey inspired belmond journeys smooth arabica base blend made naturally sweet beans brazil lively washed beans colombia latin american beans roasted medium dark quickly develop sweetness coffees roasted bit long develop velvety texture add flavour roasting capsules roast ground coffee vanilla naturalartificial flavours roast ground coffee g 172 oz capsules peanut roasted sesame flavour 50 medium medium low low low medium medium medium medium</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Guides</t>
+          <t>Guide</t>
         </is>
       </c>
     </row>
